--- a/data/phenological_monitoring.xlsx
+++ b/data/phenological_monitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{7A905E89-54DF-884F-B141-AE944BBF08B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125B3AD8-A723-2E4C-99E4-6E20E1C46278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3836" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3848" uniqueCount="676">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2059,6 +2059,9 @@
   </si>
   <si>
     <t>Segi_WarmS/WarmF_B3_R15_nitro</t>
+  </si>
+  <si>
+    <t>doy148: apical shoot is dead, lateral branch is fully leafed out</t>
   </si>
 </sst>
 </file>
@@ -2943,11 +2946,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T631"/>
+  <dimension ref="A1:U631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U443" sqref="U443"/>
+    <sheetView tabSelected="1" topLeftCell="A530" zoomScale="150" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U553" sqref="U553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2956,7 +2959,7 @@
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3017,8 +3020,11 @@
       <c r="T1" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3076,8 +3082,11 @@
       <c r="T2" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3135,8 +3144,11 @@
       <c r="T3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3194,8 +3206,11 @@
       <c r="T4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3253,8 +3268,11 @@
       <c r="T5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3312,8 +3330,11 @@
       <c r="T6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3371,8 +3392,11 @@
       <c r="T7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3430,8 +3454,11 @@
       <c r="T8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3489,8 +3516,11 @@
       <c r="T9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3548,8 +3578,11 @@
       <c r="T10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3607,8 +3640,11 @@
       <c r="T11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -3666,8 +3702,11 @@
       <c r="T12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3725,8 +3764,11 @@
       <c r="T13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -3784,8 +3826,11 @@
       <c r="T14" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -3843,8 +3888,11 @@
       <c r="T15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -3902,8 +3950,11 @@
       <c r="T16" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3961,8 +4012,11 @@
       <c r="T17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -4020,8 +4074,11 @@
       <c r="T18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4079,8 +4136,11 @@
       <c r="T19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -4138,8 +4198,11 @@
       <c r="T20" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4197,8 +4260,11 @@
       <c r="T21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -4256,8 +4322,11 @@
       <c r="T22" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -4315,8 +4384,11 @@
       <c r="T23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -4374,8 +4446,11 @@
       <c r="T24" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -4433,8 +4508,11 @@
       <c r="T25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -4492,8 +4570,11 @@
       <c r="T26" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -4551,8 +4632,11 @@
       <c r="T27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -4610,8 +4694,11 @@
       <c r="T28" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -4669,8 +4756,11 @@
       <c r="T29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -4728,8 +4818,11 @@
       <c r="T30" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -4787,8 +4880,11 @@
       <c r="T31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -4846,8 +4942,11 @@
       <c r="T32" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -4905,8 +5004,11 @@
       <c r="T33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -4964,8 +5066,11 @@
       <c r="T34" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -5023,8 +5128,11 @@
       <c r="T35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -5082,8 +5190,11 @@
       <c r="T36" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -5141,8 +5252,11 @@
       <c r="T37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -5200,8 +5314,11 @@
       <c r="T38" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -5259,8 +5376,11 @@
       <c r="T39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -5318,8 +5438,11 @@
       <c r="T40" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -5377,8 +5500,11 @@
       <c r="T41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -5436,8 +5562,11 @@
       <c r="T42" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -5495,8 +5624,11 @@
       <c r="T43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -5554,8 +5686,11 @@
       <c r="T44" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -5613,8 +5748,11 @@
       <c r="T45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -5672,8 +5810,11 @@
       <c r="T46" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -5731,8 +5872,11 @@
       <c r="T47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -5790,8 +5934,11 @@
       <c r="T48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -5849,8 +5996,11 @@
       <c r="T49" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -5908,8 +6058,11 @@
       <c r="T50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -5967,8 +6120,11 @@
       <c r="T51" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -6026,8 +6182,11 @@
       <c r="T52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -6085,8 +6244,11 @@
       <c r="T53" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -6144,8 +6306,11 @@
       <c r="T54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -6203,8 +6368,11 @@
       <c r="T55" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U55" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -6262,8 +6430,11 @@
       <c r="T56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -6321,8 +6492,11 @@
       <c r="T57" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -6380,8 +6554,11 @@
       <c r="T58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -6439,8 +6616,11 @@
       <c r="T59" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U59" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -6498,8 +6678,11 @@
       <c r="T60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -6557,8 +6740,11 @@
       <c r="T61" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U61" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -6616,8 +6802,11 @@
       <c r="T62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -6675,8 +6864,11 @@
       <c r="T63" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -6734,8 +6926,11 @@
       <c r="T64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -6793,8 +6988,11 @@
       <c r="T65" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U65" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -6852,8 +7050,11 @@
       <c r="T66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -6911,8 +7112,11 @@
       <c r="T67" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U67" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -6970,8 +7174,11 @@
       <c r="T68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -7029,8 +7236,11 @@
       <c r="T69" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U69" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -7088,8 +7298,11 @@
       <c r="T70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -7147,8 +7360,11 @@
       <c r="T71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -7206,8 +7422,11 @@
       <c r="T72" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U72" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -7265,8 +7484,11 @@
       <c r="T73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
@@ -7324,8 +7546,11 @@
       <c r="T74" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -7383,8 +7608,11 @@
       <c r="T75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -7442,8 +7670,11 @@
       <c r="T76" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -7501,8 +7732,11 @@
       <c r="T77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
@@ -7560,8 +7794,11 @@
       <c r="T78" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U78" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -7619,8 +7856,11 @@
       <c r="T79">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>93</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="T80" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U80" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -7737,8 +7980,11 @@
       <c r="T81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>95</v>
       </c>
@@ -7796,8 +8042,11 @@
       <c r="T82" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U82" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -7855,8 +8104,11 @@
       <c r="T83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>97</v>
       </c>
@@ -7914,8 +8166,11 @@
       <c r="T84" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U84" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -7973,8 +8228,11 @@
       <c r="T85">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
@@ -8032,8 +8290,11 @@
       <c r="T86" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U86" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -8091,8 +8352,11 @@
       <c r="T87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>101</v>
       </c>
@@ -8150,8 +8414,11 @@
       <c r="T88" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U88" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -8209,8 +8476,11 @@
       <c r="T89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>103</v>
       </c>
@@ -8268,8 +8538,11 @@
       <c r="T90" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U90" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -8327,8 +8600,11 @@
       <c r="T91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>105</v>
       </c>
@@ -8386,8 +8662,11 @@
       <c r="T92" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U92" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -8445,8 +8724,11 @@
       <c r="T93">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>109</v>
       </c>
@@ -8504,8 +8786,11 @@
       <c r="T94" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U94" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -8566,8 +8851,11 @@
       <c r="T95">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>112</v>
       </c>
@@ -8625,8 +8913,11 @@
       <c r="T96" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U96" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -8684,8 +8975,11 @@
       <c r="T97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>114</v>
       </c>
@@ -8743,8 +9037,11 @@
       <c r="T98" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U98" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -8802,8 +9099,11 @@
       <c r="T99">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>116</v>
       </c>
@@ -8861,8 +9161,11 @@
       <c r="T100" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U100" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -8920,8 +9223,11 @@
       <c r="T101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>118</v>
       </c>
@@ -8979,8 +9285,11 @@
       <c r="T102" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U102" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -9038,8 +9347,11 @@
       <c r="T103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>120</v>
       </c>
@@ -9097,8 +9409,11 @@
       <c r="T104" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U104" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -9156,8 +9471,11 @@
       <c r="T105">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -9215,8 +9533,11 @@
       <c r="T106" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U106" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -9274,8 +9595,11 @@
       <c r="T107">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -9333,8 +9657,11 @@
       <c r="T108" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U108" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -9395,8 +9722,11 @@
       <c r="T109">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -9454,8 +9784,11 @@
       <c r="T110" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U110" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -9513,8 +9846,11 @@
       <c r="T111">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -9572,8 +9908,11 @@
       <c r="T112" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U112" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -9631,8 +9970,11 @@
       <c r="T113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>130</v>
       </c>
@@ -9690,8 +10032,11 @@
       <c r="T114" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U114" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -9749,8 +10094,11 @@
       <c r="T115">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>132</v>
       </c>
@@ -9808,8 +10156,11 @@
       <c r="T116" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U116" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -9867,8 +10218,11 @@
       <c r="T117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -9926,8 +10280,11 @@
       <c r="T118">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>135</v>
       </c>
@@ -9985,8 +10342,11 @@
       <c r="T119" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U119" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -10044,8 +10404,11 @@
       <c r="T120">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>137</v>
       </c>
@@ -10106,8 +10469,11 @@
       <c r="T121" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U121" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -10165,8 +10531,11 @@
       <c r="T122">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>139</v>
       </c>
@@ -10224,8 +10593,11 @@
       <c r="T123" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U123" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -10283,8 +10655,11 @@
       <c r="T124">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>141</v>
       </c>
@@ -10342,8 +10717,11 @@
       <c r="T125" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U125" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -10401,8 +10779,11 @@
       <c r="T126">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>143</v>
       </c>
@@ -10460,8 +10841,11 @@
       <c r="T127" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U127" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -10519,8 +10903,11 @@
       <c r="T128">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>145</v>
       </c>
@@ -10578,8 +10965,11 @@
       <c r="T129" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U129" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -10637,8 +11027,11 @@
       <c r="T130">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>147</v>
       </c>
@@ -10696,8 +11089,11 @@
       <c r="T131" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U131" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -10755,8 +11151,11 @@
       <c r="T132">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>149</v>
       </c>
@@ -10814,8 +11213,11 @@
       <c r="T133" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U133" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -10873,8 +11275,11 @@
       <c r="T134">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>151</v>
       </c>
@@ -10932,8 +11337,11 @@
       <c r="T135" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U135" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -10991,8 +11399,11 @@
       <c r="T136">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>153</v>
       </c>
@@ -11050,8 +11461,11 @@
       <c r="T137" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U137" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -11109,8 +11523,11 @@
       <c r="T138">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>155</v>
       </c>
@@ -11168,8 +11585,11 @@
       <c r="T139" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U139" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>156</v>
       </c>
@@ -11227,8 +11647,11 @@
       <c r="T140">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -11286,8 +11709,11 @@
       <c r="T141">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>158</v>
       </c>
@@ -11345,8 +11771,11 @@
       <c r="T142" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U142" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -11404,8 +11833,11 @@
       <c r="T143">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>160</v>
       </c>
@@ -11463,8 +11895,11 @@
       <c r="T144" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U144" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -11522,8 +11957,11 @@
       <c r="T145">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>162</v>
       </c>
@@ -11581,8 +12019,11 @@
       <c r="T146" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U146" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -11640,8 +12081,11 @@
       <c r="T147">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>164</v>
       </c>
@@ -11699,8 +12143,11 @@
       <c r="T148" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U148" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -11758,8 +12205,11 @@
       <c r="T149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>166</v>
       </c>
@@ -11817,8 +12267,11 @@
       <c r="T150" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U150" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -11876,8 +12329,11 @@
       <c r="T151">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>168</v>
       </c>
@@ -11935,8 +12391,11 @@
       <c r="T152" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U152" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>169</v>
       </c>
@@ -11994,8 +12453,11 @@
       <c r="T153">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>170</v>
       </c>
@@ -12053,8 +12515,11 @@
       <c r="T154" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U154" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>171</v>
       </c>
@@ -12112,8 +12577,11 @@
       <c r="T155">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>172</v>
       </c>
@@ -12171,8 +12639,11 @@
       <c r="T156" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U156" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -12230,8 +12701,11 @@
       <c r="T157">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>174</v>
       </c>
@@ -12289,8 +12763,11 @@
       <c r="T158" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U158" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>175</v>
       </c>
@@ -12348,8 +12825,11 @@
       <c r="T159">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>176</v>
       </c>
@@ -12407,8 +12887,11 @@
       <c r="T160" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U160" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -12466,8 +12949,11 @@
       <c r="T161">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>178</v>
       </c>
@@ -12525,8 +13011,11 @@
       <c r="T162" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U162" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>179</v>
       </c>
@@ -12584,8 +13073,11 @@
       <c r="T163">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>180</v>
       </c>
@@ -12643,8 +13135,11 @@
       <c r="T164" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U164" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -12702,8 +13197,11 @@
       <c r="T165">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>182</v>
       </c>
@@ -12761,8 +13259,11 @@
       <c r="T166" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U166" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -12820,8 +13321,11 @@
       <c r="T167">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>184</v>
       </c>
@@ -12879,8 +13383,11 @@
       <c r="T168" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U168" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -12938,8 +13445,11 @@
       <c r="T169">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>186</v>
       </c>
@@ -12997,8 +13507,11 @@
       <c r="T170" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U170" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -13056,8 +13569,11 @@
       <c r="T171">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>188</v>
       </c>
@@ -13115,8 +13631,11 @@
       <c r="T172" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U172" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>189</v>
       </c>
@@ -13174,8 +13693,11 @@
       <c r="T173">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>190</v>
       </c>
@@ -13233,8 +13755,11 @@
       <c r="T174" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="175" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U174" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -13292,8 +13817,11 @@
       <c r="T175">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>192</v>
       </c>
@@ -13351,8 +13879,11 @@
       <c r="T176" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="177" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U176" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>193</v>
       </c>
@@ -13410,8 +13941,11 @@
       <c r="T177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>194</v>
       </c>
@@ -13469,8 +14003,11 @@
       <c r="T178" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U178" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>195</v>
       </c>
@@ -13528,8 +14065,11 @@
       <c r="T179">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>196</v>
       </c>
@@ -13587,8 +14127,11 @@
       <c r="T180" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U180" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>197</v>
       </c>
@@ -13646,8 +14189,11 @@
       <c r="T181">
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>198</v>
       </c>
@@ -13705,8 +14251,11 @@
       <c r="T182" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U182" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -13764,8 +14313,11 @@
       <c r="T183">
         <v>3</v>
       </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>202</v>
       </c>
@@ -13823,8 +14375,11 @@
       <c r="T184" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U184" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -13882,8 +14437,11 @@
       <c r="T185">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>204</v>
       </c>
@@ -13944,8 +14502,11 @@
       <c r="T186" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="187" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U186" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -14003,8 +14564,11 @@
       <c r="T187">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -14062,8 +14626,11 @@
       <c r="T188" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U188" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>208</v>
       </c>
@@ -14121,8 +14688,11 @@
       <c r="T189" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U189" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -14183,8 +14753,11 @@
       <c r="T190" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U190" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>210</v>
       </c>
@@ -14242,8 +14815,11 @@
       <c r="T191" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U191" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -14301,8 +14877,11 @@
       <c r="T192" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U192" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>212</v>
       </c>
@@ -14360,8 +14939,11 @@
       <c r="T193" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U193" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -14422,8 +15004,11 @@
       <c r="T194" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U194" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>215</v>
       </c>
@@ -14481,8 +15066,11 @@
       <c r="T195" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U195" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -14540,8 +15128,11 @@
       <c r="T196" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U196" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>217</v>
       </c>
@@ -14599,8 +15190,11 @@
       <c r="T197" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U197" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -14661,8 +15255,11 @@
       <c r="T198">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>220</v>
       </c>
@@ -14720,8 +15317,11 @@
       <c r="T199" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="200" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U199" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -14782,8 +15382,11 @@
       <c r="T200">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>222</v>
       </c>
@@ -14841,8 +15444,11 @@
       <c r="T201" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="202" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U201" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -14900,8 +15506,11 @@
       <c r="T202">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>224</v>
       </c>
@@ -14959,8 +15568,11 @@
       <c r="T203" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="204" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U203" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -15018,8 +15630,11 @@
       <c r="T204">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>226</v>
       </c>
@@ -15080,8 +15695,11 @@
       <c r="T205" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U205" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -15139,8 +15757,11 @@
       <c r="T206">
         <v>3</v>
       </c>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>228</v>
       </c>
@@ -15196,10 +15817,13 @@
         <v>2</v>
       </c>
       <c r="T207" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="U207" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -15260,8 +15884,11 @@
       <c r="T208">
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>230</v>
       </c>
@@ -15319,8 +15946,11 @@
       <c r="T209" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U209" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -15378,8 +16008,11 @@
       <c r="T210">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -15440,8 +16073,11 @@
       <c r="T211" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U211" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>233</v>
       </c>
@@ -15499,8 +16135,11 @@
       <c r="T212" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="213" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U212" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -15558,8 +16197,11 @@
       <c r="T213">
         <v>3</v>
       </c>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>235</v>
       </c>
@@ -15617,8 +16259,11 @@
       <c r="T214" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="215" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U214" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>236</v>
       </c>
@@ -15676,8 +16321,11 @@
       <c r="T215">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>237</v>
       </c>
@@ -15738,8 +16386,11 @@
       <c r="T216" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="217" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U216" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>238</v>
       </c>
@@ -15797,8 +16448,11 @@
       <c r="T217">
         <v>3</v>
       </c>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>239</v>
       </c>
@@ -15856,8 +16510,11 @@
       <c r="T218" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="219" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U218" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -15915,8 +16572,11 @@
       <c r="T219">
         <v>3</v>
       </c>
-    </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>241</v>
       </c>
@@ -15974,8 +16634,11 @@
       <c r="T220" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U220" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -16033,8 +16696,11 @@
       <c r="T221">
         <v>3</v>
       </c>
-    </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>243</v>
       </c>
@@ -16092,8 +16758,11 @@
       <c r="T222" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="223" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U222" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -16154,8 +16823,11 @@
       <c r="T223">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>245</v>
       </c>
@@ -16213,8 +16885,11 @@
       <c r="T224" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U224" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -16275,8 +16950,11 @@
       <c r="T225">
         <v>3</v>
       </c>
-    </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>247</v>
       </c>
@@ -16334,8 +17012,11 @@
       <c r="T226" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="227" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U226" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -16393,8 +17074,11 @@
       <c r="T227">
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>249</v>
       </c>
@@ -16452,8 +17136,11 @@
       <c r="T228" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="229" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U228" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -16511,8 +17198,11 @@
       <c r="T229">
         <v>4</v>
       </c>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U229" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>251</v>
       </c>
@@ -16570,8 +17260,11 @@
       <c r="T230" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U230" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -16629,8 +17322,11 @@
       <c r="T231">
         <v>4</v>
       </c>
-    </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U231" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>253</v>
       </c>
@@ -16688,8 +17384,11 @@
       <c r="T232" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="233" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U232" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -16747,8 +17446,11 @@
       <c r="T233">
         <v>4</v>
       </c>
-    </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U233" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>255</v>
       </c>
@@ -16806,8 +17508,11 @@
       <c r="T234" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U234" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -16865,8 +17570,11 @@
       <c r="T235">
         <v>3</v>
       </c>
-    </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U235" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>257</v>
       </c>
@@ -16924,8 +17632,11 @@
       <c r="T236" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="237" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U236" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -16983,8 +17694,11 @@
       <c r="T237">
         <v>4</v>
       </c>
-    </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>259</v>
       </c>
@@ -17042,8 +17756,11 @@
       <c r="T238" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="239" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U238" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -17101,8 +17818,11 @@
       <c r="T239">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U239" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>261</v>
       </c>
@@ -17160,8 +17880,11 @@
       <c r="T240" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U240" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -17219,8 +17942,11 @@
       <c r="T241">
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U241" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>263</v>
       </c>
@@ -17278,8 +18004,11 @@
       <c r="T242" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="243" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U242" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -17337,8 +18066,11 @@
       <c r="T243">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>265</v>
       </c>
@@ -17396,8 +18128,11 @@
       <c r="T244" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="245" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U244" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -17455,8 +18190,11 @@
       <c r="T245">
         <v>4</v>
       </c>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>267</v>
       </c>
@@ -17514,8 +18252,11 @@
       <c r="T246" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="247" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U246" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -17573,8 +18314,11 @@
       <c r="T247">
         <v>4</v>
       </c>
-    </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>269</v>
       </c>
@@ -17632,8 +18376,11 @@
       <c r="T248" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="249" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U248" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -17691,8 +18438,11 @@
       <c r="T249">
         <v>4</v>
       </c>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U249" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>271</v>
       </c>
@@ -17750,8 +18500,11 @@
       <c r="T250" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="251" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U250" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>272</v>
       </c>
@@ -17809,8 +18562,11 @@
       <c r="T251">
         <v>4</v>
       </c>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U251" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>273</v>
       </c>
@@ -17868,8 +18624,11 @@
       <c r="T252" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="253" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U252" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -17927,8 +18686,11 @@
       <c r="T253">
         <v>3</v>
       </c>
-    </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U253" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>275</v>
       </c>
@@ -17986,8 +18748,11 @@
       <c r="T254" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="255" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U254" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -18045,8 +18810,11 @@
       <c r="T255">
         <v>4</v>
       </c>
-    </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U255" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>277</v>
       </c>
@@ -18104,8 +18872,11 @@
       <c r="T256" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="257" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U256" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -18163,8 +18934,11 @@
       <c r="T257">
         <v>4</v>
       </c>
-    </row>
-    <row r="258" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>279</v>
       </c>
@@ -18222,8 +18996,11 @@
       <c r="T258">
         <v>4</v>
       </c>
-    </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U258">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>280</v>
       </c>
@@ -18281,8 +19058,11 @@
       <c r="T259" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="260" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U259" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>281</v>
       </c>
@@ -18340,8 +19120,11 @@
       <c r="T260">
         <v>4</v>
       </c>
-    </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>282</v>
       </c>
@@ -18399,8 +19182,11 @@
       <c r="T261" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="262" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U261" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>283</v>
       </c>
@@ -18458,8 +19244,11 @@
       <c r="T262">
         <v>4</v>
       </c>
-    </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>284</v>
       </c>
@@ -18517,8 +19306,11 @@
       <c r="T263" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="264" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U263" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>285</v>
       </c>
@@ -18576,8 +19368,11 @@
       <c r="T264">
         <v>4</v>
       </c>
-    </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U264" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>286</v>
       </c>
@@ -18635,8 +19430,11 @@
       <c r="T265" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="266" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U265" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -18694,8 +19492,11 @@
       <c r="T266">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U266" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>288</v>
       </c>
@@ -18753,8 +19554,11 @@
       <c r="T267" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="268" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U267" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -18812,8 +19616,11 @@
       <c r="T268">
         <v>4</v>
       </c>
-    </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U268" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>290</v>
       </c>
@@ -18871,8 +19678,11 @@
       <c r="T269" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="270" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U269" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -18930,8 +19740,11 @@
       <c r="T270">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U270" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>292</v>
       </c>
@@ -18989,8 +19802,11 @@
       <c r="T271" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="272" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U271" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -19048,8 +19864,11 @@
       <c r="T272">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>296</v>
       </c>
@@ -19107,8 +19926,11 @@
       <c r="T273" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="274" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U273" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -19166,8 +19988,11 @@
       <c r="T274">
         <v>4</v>
       </c>
-    </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U274" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>298</v>
       </c>
@@ -19225,8 +20050,11 @@
       <c r="T275" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U275" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -19284,8 +20112,11 @@
       <c r="T276">
         <v>4</v>
       </c>
-    </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U276" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>300</v>
       </c>
@@ -19343,8 +20174,11 @@
       <c r="T277" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="278" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U277" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -19402,8 +20236,11 @@
       <c r="T278">
         <v>4</v>
       </c>
-    </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U278" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>302</v>
       </c>
@@ -19419,6 +20256,9 @@
       <c r="E279" s="1" t="s">
         <v>295</v>
       </c>
+      <c r="F279" s="1" t="s">
+        <v>675</v>
+      </c>
       <c r="G279" s="1">
         <v>2</v>
       </c>
@@ -19461,8 +20301,11 @@
       <c r="T279" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U279" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -19520,8 +20363,11 @@
       <c r="T280">
         <v>4</v>
       </c>
-    </row>
-    <row r="281" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U280" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -19579,8 +20425,11 @@
       <c r="T281" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U281" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>305</v>
       </c>
@@ -19638,8 +20487,11 @@
       <c r="T282" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="283" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U282" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -19700,8 +20552,11 @@
       <c r="T283" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U283" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>309</v>
       </c>
@@ -19759,8 +20614,11 @@
       <c r="T284" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="285" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U284" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -19818,8 +20676,11 @@
       <c r="T285" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U285" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>311</v>
       </c>
@@ -19877,8 +20738,11 @@
       <c r="T286" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="287" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U286" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -19936,8 +20800,11 @@
       <c r="T287" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>313</v>
       </c>
@@ -19995,8 +20862,11 @@
       <c r="T288" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="289" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U288" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -20054,8 +20924,11 @@
       <c r="T289">
         <v>4</v>
       </c>
-    </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U289" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>315</v>
       </c>
@@ -20113,8 +20986,11 @@
       <c r="T290" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="291" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U290" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -20172,8 +21048,11 @@
       <c r="T291">
         <v>4</v>
       </c>
-    </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U291" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>317</v>
       </c>
@@ -20231,8 +21110,11 @@
       <c r="T292" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="293" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U292" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -20290,8 +21172,11 @@
       <c r="T293">
         <v>4</v>
       </c>
-    </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U293" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>319</v>
       </c>
@@ -20352,8 +21237,11 @@
       <c r="T294" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="295" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U294" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -20411,8 +21299,11 @@
       <c r="T295">
         <v>4</v>
       </c>
-    </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U295" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>322</v>
       </c>
@@ -20470,8 +21361,11 @@
       <c r="T296" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="297" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U296" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>323</v>
       </c>
@@ -20529,8 +21423,11 @@
       <c r="T297">
         <v>4</v>
       </c>
-    </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>324</v>
       </c>
@@ -20588,8 +21485,11 @@
       <c r="T298" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="299" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U298" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>325</v>
       </c>
@@ -20647,8 +21547,11 @@
       <c r="T299" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U299" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>326</v>
       </c>
@@ -20706,8 +21609,11 @@
       <c r="T300" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="301" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U300" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>327</v>
       </c>
@@ -20765,8 +21671,11 @@
       <c r="T301" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U301" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>328</v>
       </c>
@@ -20824,8 +21733,11 @@
       <c r="T302" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="303" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U302" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>329</v>
       </c>
@@ -20883,8 +21795,11 @@
       <c r="T303">
         <v>4</v>
       </c>
-    </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U303" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>330</v>
       </c>
@@ -20942,8 +21857,11 @@
       <c r="T304" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="305" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U304" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>331</v>
       </c>
@@ -21001,8 +21919,11 @@
       <c r="T305">
         <v>4</v>
       </c>
-    </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U305" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>332</v>
       </c>
@@ -21060,8 +21981,11 @@
       <c r="T306" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="307" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U306" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>333</v>
       </c>
@@ -21119,8 +22043,11 @@
       <c r="T307">
         <v>4</v>
       </c>
-    </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>334</v>
       </c>
@@ -21178,8 +22105,11 @@
       <c r="T308" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="309" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U308" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>335</v>
       </c>
@@ -21237,8 +22167,11 @@
       <c r="T309">
         <v>4</v>
       </c>
-    </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U309" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>336</v>
       </c>
@@ -21296,8 +22229,11 @@
       <c r="T310" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="311" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U310" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -21355,8 +22291,11 @@
       <c r="T311">
         <v>4</v>
       </c>
-    </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U311" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>338</v>
       </c>
@@ -21414,8 +22353,11 @@
       <c r="T312" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="313" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U312" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -21473,8 +22415,11 @@
       <c r="T313" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U313" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>340</v>
       </c>
@@ -21532,8 +22477,11 @@
       <c r="T314" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="315" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U314" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -21591,8 +22539,11 @@
       <c r="T315" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U315" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>342</v>
       </c>
@@ -21650,8 +22601,11 @@
       <c r="T316" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="317" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U316" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -21709,8 +22663,11 @@
       <c r="T317">
         <v>4</v>
       </c>
-    </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>344</v>
       </c>
@@ -21768,8 +22725,11 @@
       <c r="T318" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="319" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U318" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -21827,8 +22787,11 @@
       <c r="T319">
         <v>4</v>
       </c>
-    </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U319" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>346</v>
       </c>
@@ -21886,8 +22849,11 @@
       <c r="T320" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="321" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U320" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -21945,8 +22911,11 @@
       <c r="T321">
         <v>4</v>
       </c>
-    </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U321" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>348</v>
       </c>
@@ -22007,8 +22976,11 @@
       <c r="T322" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="323" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U322" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="323" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>350</v>
       </c>
@@ -22066,8 +23038,11 @@
       <c r="T323">
         <v>4</v>
       </c>
-    </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U323" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>351</v>
       </c>
@@ -22128,8 +23103,11 @@
       <c r="T324" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="325" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U324" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="325" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>353</v>
       </c>
@@ -22187,8 +23165,11 @@
       <c r="T325">
         <v>4</v>
       </c>
-    </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U325" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>354</v>
       </c>
@@ -22246,8 +23227,11 @@
       <c r="T326" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="327" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U326" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>355</v>
       </c>
@@ -22305,8 +23289,11 @@
       <c r="T327">
         <v>4</v>
       </c>
-    </row>
-    <row r="328" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U327">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>356</v>
       </c>
@@ -22364,8 +23351,11 @@
       <c r="T328" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U328">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>357</v>
       </c>
@@ -22423,8 +23413,11 @@
       <c r="T329" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="330" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U329" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>358</v>
       </c>
@@ -22482,8 +23475,11 @@
       <c r="T330" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U330" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>359</v>
       </c>
@@ -22541,8 +23537,11 @@
       <c r="T331" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="332" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U331" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>360</v>
       </c>
@@ -22600,8 +23599,11 @@
       <c r="T332" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U332" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>361</v>
       </c>
@@ -22659,8 +23661,11 @@
       <c r="T333" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="334" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U333" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>362</v>
       </c>
@@ -22718,8 +23723,11 @@
       <c r="T334">
         <v>4</v>
       </c>
-    </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U334" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>363</v>
       </c>
@@ -22777,8 +23785,11 @@
       <c r="T335" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="336" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U335" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>364</v>
       </c>
@@ -22836,8 +23847,11 @@
       <c r="T336">
         <v>4</v>
       </c>
-    </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U336" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>365</v>
       </c>
@@ -22895,8 +23909,11 @@
       <c r="T337" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="338" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U337" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>366</v>
       </c>
@@ -22954,8 +23971,11 @@
       <c r="T338">
         <v>4</v>
       </c>
-    </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U338" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>367</v>
       </c>
@@ -23013,8 +24033,11 @@
       <c r="T339" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="340" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U339" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>368</v>
       </c>
@@ -23072,8 +24095,11 @@
       <c r="T340">
         <v>4</v>
       </c>
-    </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U340" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>369</v>
       </c>
@@ -23131,8 +24157,11 @@
       <c r="T341" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="342" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U341" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>370</v>
       </c>
@@ -23190,8 +24219,11 @@
       <c r="T342">
         <v>4</v>
       </c>
-    </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U342">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>371</v>
       </c>
@@ -23249,8 +24281,11 @@
       <c r="T343" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="344" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U343" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>372</v>
       </c>
@@ -23308,8 +24343,11 @@
       <c r="T344" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U344" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>373</v>
       </c>
@@ -23367,8 +24405,11 @@
       <c r="T345" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="346" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U345" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>374</v>
       </c>
@@ -23426,8 +24467,11 @@
       <c r="T346" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U346" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>375</v>
       </c>
@@ -23485,8 +24529,11 @@
       <c r="T347" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U347" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>376</v>
       </c>
@@ -23544,8 +24591,11 @@
       <c r="T348">
         <v>2</v>
       </c>
-    </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>377</v>
       </c>
@@ -23603,8 +24653,11 @@
       <c r="T349" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="350" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U349" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>378</v>
       </c>
@@ -23662,8 +24715,11 @@
       <c r="T350">
         <v>4</v>
       </c>
-    </row>
-    <row r="351" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U350">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>379</v>
       </c>
@@ -23721,8 +24777,11 @@
       <c r="T351" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U351">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>380</v>
       </c>
@@ -23780,8 +24839,11 @@
       <c r="T352" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="353" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U352" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>381</v>
       </c>
@@ -23839,8 +24901,11 @@
       <c r="T353" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U353" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>382</v>
       </c>
@@ -23898,8 +24963,11 @@
       <c r="T354" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="355" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U354" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>383</v>
       </c>
@@ -23960,8 +25028,11 @@
       <c r="T355" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U355" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>384</v>
       </c>
@@ -24019,8 +25090,11 @@
       <c r="T356" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="357" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U356" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>385</v>
       </c>
@@ -24078,8 +25152,11 @@
       <c r="T357" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>386</v>
       </c>
@@ -24137,8 +25214,11 @@
       <c r="T358" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="359" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U358" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>387</v>
       </c>
@@ -24196,8 +25276,11 @@
       <c r="T359" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U359" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>388</v>
       </c>
@@ -24255,8 +25338,11 @@
       <c r="T360" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="361" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U360" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>389</v>
       </c>
@@ -24314,8 +25400,11 @@
       <c r="T361" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U361" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>390</v>
       </c>
@@ -24373,8 +25462,11 @@
       <c r="T362" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="363" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U362" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -24432,8 +25524,11 @@
       <c r="T363">
         <v>4</v>
       </c>
-    </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U363" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>394</v>
       </c>
@@ -24491,8 +25586,11 @@
       <c r="T364" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U364" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -24550,8 +25648,11 @@
       <c r="T365">
         <v>4</v>
       </c>
-    </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U365" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>396</v>
       </c>
@@ -24609,8 +25710,11 @@
       <c r="T366" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="367" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U366" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -24668,8 +25772,11 @@
       <c r="T367">
         <v>4</v>
       </c>
-    </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>398</v>
       </c>
@@ -24727,8 +25834,11 @@
       <c r="T368" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="369" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U368" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -24789,8 +25899,11 @@
       <c r="T369">
         <v>4</v>
       </c>
-    </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U369" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>400</v>
       </c>
@@ -24848,8 +25961,11 @@
       <c r="T370" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="371" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U370" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -24907,8 +26023,11 @@
       <c r="T371">
         <v>4</v>
       </c>
-    </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U371" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>402</v>
       </c>
@@ -24966,8 +26085,11 @@
       <c r="T372" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="373" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U372" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -25025,8 +26147,11 @@
       <c r="T373">
         <v>4</v>
       </c>
-    </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U373" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>404</v>
       </c>
@@ -25084,8 +26209,11 @@
       <c r="T374" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="375" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U374" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -25143,8 +26271,11 @@
       <c r="T375">
         <v>4</v>
       </c>
-    </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U375" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>406</v>
       </c>
@@ -25202,8 +26333,11 @@
       <c r="T376" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="377" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U376" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -25261,8 +26395,11 @@
       <c r="T377">
         <v>4</v>
       </c>
-    </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U377">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>408</v>
       </c>
@@ -25320,8 +26457,11 @@
       <c r="T378" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="379" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U378" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -25379,8 +26519,11 @@
       <c r="T379">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U379" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>410</v>
       </c>
@@ -25441,8 +26584,11 @@
       <c r="T380" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U380" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -25500,8 +26646,11 @@
       <c r="T381">
         <v>4</v>
       </c>
-    </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U381" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>413</v>
       </c>
@@ -25559,8 +26708,11 @@
       <c r="T382" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="383" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U382" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -25618,8 +26770,11 @@
       <c r="T383">
         <v>4</v>
       </c>
-    </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U383" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>415</v>
       </c>
@@ -25677,8 +26832,11 @@
       <c r="T384" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="385" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U384" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -25736,8 +26894,11 @@
       <c r="T385">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U385" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>417</v>
       </c>
@@ -25798,8 +26959,11 @@
       <c r="T386" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="387" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U386" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -25857,8 +27021,11 @@
       <c r="T387">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U387">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>419</v>
       </c>
@@ -25916,8 +27083,11 @@
       <c r="T388" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U388" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -25975,8 +27145,11 @@
       <c r="T389">
         <v>4</v>
       </c>
-    </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U389" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>421</v>
       </c>
@@ -26034,8 +27207,11 @@
       <c r="T390" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="391" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U390" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -26096,8 +27272,11 @@
       <c r="T391">
         <v>4</v>
       </c>
-    </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U391" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>424</v>
       </c>
@@ -26158,8 +27337,11 @@
       <c r="T392" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="393" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U392" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="393" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -26217,8 +27399,11 @@
       <c r="T393">
         <v>4</v>
       </c>
-    </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U393">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>427</v>
       </c>
@@ -26276,8 +27461,11 @@
       <c r="T394" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="395" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U394" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -26335,8 +27523,11 @@
       <c r="T395">
         <v>4</v>
       </c>
-    </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U395" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>429</v>
       </c>
@@ -26394,8 +27585,11 @@
       <c r="T396" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="397" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U396" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -26453,8 +27647,11 @@
       <c r="T397">
         <v>4</v>
       </c>
-    </row>
-    <row r="398" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U397" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -26512,8 +27709,11 @@
       <c r="T398">
         <v>4</v>
       </c>
-    </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U398">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>432</v>
       </c>
@@ -26574,8 +27774,11 @@
       <c r="T399" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="400" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U399" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>433</v>
       </c>
@@ -26633,8 +27836,11 @@
       <c r="T400">
         <v>4</v>
       </c>
-    </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U400" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>434</v>
       </c>
@@ -26692,8 +27898,11 @@
       <c r="T401" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="402" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U401" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>435</v>
       </c>
@@ -26751,8 +27960,11 @@
       <c r="T402">
         <v>3</v>
       </c>
-    </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U402" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>436</v>
       </c>
@@ -26810,8 +28022,11 @@
       <c r="T403" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="404" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U403" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>437</v>
       </c>
@@ -26872,8 +28087,11 @@
       <c r="T404">
         <v>4</v>
       </c>
-    </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U404" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>439</v>
       </c>
@@ -26931,8 +28149,11 @@
       <c r="T405" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="406" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U405" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -26990,8 +28211,11 @@
       <c r="T406">
         <v>4</v>
       </c>
-    </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U406" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>441</v>
       </c>
@@ -27049,8 +28273,11 @@
       <c r="T407" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="408" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U407" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>442</v>
       </c>
@@ -27108,8 +28335,11 @@
       <c r="T408">
         <v>4</v>
       </c>
-    </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U408" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>443</v>
       </c>
@@ -27167,8 +28397,11 @@
       <c r="T409" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="410" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U409" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>444</v>
       </c>
@@ -27226,8 +28459,11 @@
       <c r="T410">
         <v>4</v>
       </c>
-    </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U410" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>445</v>
       </c>
@@ -27285,8 +28521,11 @@
       <c r="T411" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="412" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U411" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>446</v>
       </c>
@@ -27344,8 +28583,11 @@
       <c r="T412">
         <v>4</v>
       </c>
-    </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U412">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>447</v>
       </c>
@@ -27403,8 +28645,11 @@
       <c r="T413" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="414" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U413" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>448</v>
       </c>
@@ -27462,8 +28707,11 @@
       <c r="T414">
         <v>4</v>
       </c>
-    </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U414" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>449</v>
       </c>
@@ -27521,8 +28769,11 @@
       <c r="T415" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="416" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U415" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>450</v>
       </c>
@@ -27580,8 +28831,11 @@
       <c r="T416" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U416" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="417" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>451</v>
       </c>
@@ -27642,8 +28896,11 @@
       <c r="T417" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="418" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U417" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>452</v>
       </c>
@@ -27701,8 +28958,11 @@
       <c r="T418">
         <v>4</v>
       </c>
-    </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U418" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>453</v>
       </c>
@@ -27760,8 +29020,11 @@
       <c r="T419" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="420" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U419" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>454</v>
       </c>
@@ -27819,8 +29082,11 @@
       <c r="T420">
         <v>4</v>
       </c>
-    </row>
-    <row r="421" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U420" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>455</v>
       </c>
@@ -27881,8 +29147,11 @@
       <c r="T421">
         <v>4</v>
       </c>
-    </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U421" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>456</v>
       </c>
@@ -27940,8 +29209,11 @@
       <c r="T422" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="423" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U422" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>457</v>
       </c>
@@ -28002,8 +29274,11 @@
       <c r="T423" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U423" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="424" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>459</v>
       </c>
@@ -28061,8 +29336,11 @@
       <c r="T424" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="425" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U424" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>460</v>
       </c>
@@ -28120,8 +29398,11 @@
       <c r="T425">
         <v>4</v>
       </c>
-    </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U425" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>461</v>
       </c>
@@ -28179,8 +29460,11 @@
       <c r="T426" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="427" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U426" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>462</v>
       </c>
@@ -28238,8 +29522,11 @@
       <c r="T427">
         <v>4</v>
       </c>
-    </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U427">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>463</v>
       </c>
@@ -28297,8 +29584,11 @@
       <c r="T428" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="429" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U428" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>464</v>
       </c>
@@ -28359,8 +29649,11 @@
       <c r="T429">
         <v>4</v>
       </c>
-    </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U429" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>466</v>
       </c>
@@ -28418,8 +29711,11 @@
       <c r="T430" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="431" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U430" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>467</v>
       </c>
@@ -28477,8 +29773,11 @@
       <c r="T431">
         <v>4</v>
       </c>
-    </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U431" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>468</v>
       </c>
@@ -28536,8 +29835,11 @@
       <c r="T432" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="433" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U432" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>469</v>
       </c>
@@ -28595,8 +29897,11 @@
       <c r="T433">
         <v>4</v>
       </c>
-    </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U433" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>470</v>
       </c>
@@ -28654,8 +29959,11 @@
       <c r="T434" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="435" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U434" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>471</v>
       </c>
@@ -28713,8 +30021,11 @@
       <c r="T435">
         <v>4</v>
       </c>
-    </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U435" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>472</v>
       </c>
@@ -28772,8 +30083,11 @@
       <c r="T436" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="437" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U436" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>473</v>
       </c>
@@ -28831,8 +30145,11 @@
       <c r="T437">
         <v>4</v>
       </c>
-    </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>474</v>
       </c>
@@ -28887,8 +30204,11 @@
       <c r="T438" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="439" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U438" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>475</v>
       </c>
@@ -28946,8 +30266,11 @@
       <c r="T439">
         <v>4</v>
       </c>
-    </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U439" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>476</v>
       </c>
@@ -29005,8 +30328,11 @@
       <c r="T440" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="441" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U440" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>477</v>
       </c>
@@ -29064,8 +30390,11 @@
       <c r="T441">
         <v>4</v>
       </c>
-    </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U441" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>478</v>
       </c>
@@ -29126,8 +30455,11 @@
       <c r="T442" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="443" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U442" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="443" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>480</v>
       </c>
@@ -29185,8 +30517,11 @@
       <c r="T443">
         <v>4</v>
       </c>
-    </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U443" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>481</v>
       </c>
@@ -29247,8 +30582,11 @@
       <c r="T444" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="445" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U444" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>482</v>
       </c>
@@ -29306,8 +30644,11 @@
       <c r="T445" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U445" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>483</v>
       </c>
@@ -29365,8 +30706,11 @@
       <c r="T446" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="447" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U446" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>484</v>
       </c>
@@ -29424,8 +30768,11 @@
       <c r="T447">
         <v>4</v>
       </c>
-    </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U447">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>485</v>
       </c>
@@ -29483,8 +30830,11 @@
       <c r="T448" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="449" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U448" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>486</v>
       </c>
@@ -29542,8 +30892,11 @@
       <c r="T449">
         <v>4</v>
       </c>
-    </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U449" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>487</v>
       </c>
@@ -29601,8 +30954,11 @@
       <c r="T450" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="451" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U450" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>488</v>
       </c>
@@ -29660,8 +31016,11 @@
       <c r="T451">
         <v>4</v>
       </c>
-    </row>
-    <row r="452" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U451" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>489</v>
       </c>
@@ -29719,8 +31078,11 @@
       <c r="T452" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="453" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U452" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>492</v>
       </c>
@@ -29778,8 +31140,11 @@
       <c r="T453">
         <v>3</v>
       </c>
-    </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U453">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>493</v>
       </c>
@@ -29837,8 +31202,11 @@
       <c r="T454" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="455" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U454" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>494</v>
       </c>
@@ -29896,8 +31264,11 @@
       <c r="T455">
         <v>2</v>
       </c>
-    </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U455">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>495</v>
       </c>
@@ -29955,8 +31326,11 @@
       <c r="T456" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="457" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U456" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>496</v>
       </c>
@@ -30014,8 +31388,11 @@
       <c r="T457">
         <v>3</v>
       </c>
-    </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U457">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>497</v>
       </c>
@@ -30073,8 +31450,11 @@
       <c r="T458" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="459" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U458" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>498</v>
       </c>
@@ -30132,8 +31512,11 @@
       <c r="T459">
         <v>3</v>
       </c>
-    </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U459">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>499</v>
       </c>
@@ -30191,8 +31574,11 @@
       <c r="T460" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="461" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U460" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>500</v>
       </c>
@@ -30250,8 +31636,11 @@
       <c r="T461">
         <v>2</v>
       </c>
-    </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U461">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>501</v>
       </c>
@@ -30309,8 +31698,11 @@
       <c r="T462" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="463" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U462" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>502</v>
       </c>
@@ -30368,8 +31760,11 @@
       <c r="T463">
         <v>4</v>
       </c>
-    </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U463">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>503</v>
       </c>
@@ -30427,8 +31822,11 @@
       <c r="T464" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="465" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U464" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>504</v>
       </c>
@@ -30486,8 +31884,11 @@
       <c r="T465">
         <v>2</v>
       </c>
-    </row>
-    <row r="466" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U465">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>505</v>
       </c>
@@ -30545,8 +31946,11 @@
       <c r="T466" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U466" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>506</v>
       </c>
@@ -30604,8 +32008,11 @@
       <c r="T467" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="468" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U467" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>507</v>
       </c>
@@ -30663,8 +32070,11 @@
       <c r="T468">
         <v>3</v>
       </c>
-    </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U468">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>508</v>
       </c>
@@ -30722,8 +32132,11 @@
       <c r="T469" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="470" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U469" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>509</v>
       </c>
@@ -30781,8 +32194,11 @@
       <c r="T470">
         <v>3</v>
       </c>
-    </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U470">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>510</v>
       </c>
@@ -30840,8 +32256,11 @@
       <c r="T471" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="472" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U471" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>511</v>
       </c>
@@ -30899,8 +32318,11 @@
       <c r="T472">
         <v>4</v>
       </c>
-    </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U472">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>512</v>
       </c>
@@ -30958,8 +32380,11 @@
       <c r="T473" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="474" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U473" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>513</v>
       </c>
@@ -31017,8 +32442,11 @@
       <c r="T474">
         <v>2</v>
       </c>
-    </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>514</v>
       </c>
@@ -31076,8 +32504,11 @@
       <c r="T475" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="476" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U475" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>515</v>
       </c>
@@ -31135,8 +32566,11 @@
       <c r="T476">
         <v>3</v>
       </c>
-    </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U476">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>516</v>
       </c>
@@ -31194,8 +32628,11 @@
       <c r="T477" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="478" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U477" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>517</v>
       </c>
@@ -31253,8 +32690,11 @@
       <c r="T478">
         <v>3</v>
       </c>
-    </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U478">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>518</v>
       </c>
@@ -31312,8 +32752,11 @@
       <c r="T479" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="480" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U479" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>519</v>
       </c>
@@ -31371,8 +32814,11 @@
       <c r="T480">
         <v>3</v>
       </c>
-    </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U480">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>520</v>
       </c>
@@ -31430,8 +32876,11 @@
       <c r="T481" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="482" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U481" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>521</v>
       </c>
@@ -31489,8 +32938,11 @@
       <c r="T482">
         <v>3</v>
       </c>
-    </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U482">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>522</v>
       </c>
@@ -31548,8 +33000,11 @@
       <c r="T483" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="484" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U483" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>523</v>
       </c>
@@ -31607,8 +33062,11 @@
       <c r="T484">
         <v>3</v>
       </c>
-    </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U484">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>524</v>
       </c>
@@ -31666,8 +33124,11 @@
       <c r="T485" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="486" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U485" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>525</v>
       </c>
@@ -31725,8 +33186,11 @@
       <c r="T486">
         <v>3</v>
       </c>
-    </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U486">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>526</v>
       </c>
@@ -31784,8 +33248,11 @@
       <c r="T487" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="488" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U487" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>527</v>
       </c>
@@ -31843,8 +33310,11 @@
       <c r="T488">
         <v>3</v>
       </c>
-    </row>
-    <row r="489" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U488">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>528</v>
       </c>
@@ -31902,8 +33372,11 @@
       <c r="T489" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U489" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>529</v>
       </c>
@@ -31961,8 +33434,11 @@
       <c r="T490" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="491" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U490" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>530</v>
       </c>
@@ -32020,8 +33496,11 @@
       <c r="T491" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U491" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>531</v>
       </c>
@@ -32079,8 +33558,11 @@
       <c r="T492" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="493" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U492" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>532</v>
       </c>
@@ -32138,8 +33620,11 @@
       <c r="T493" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U493" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>533</v>
       </c>
@@ -32197,8 +33682,11 @@
       <c r="T494" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="495" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U494" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>534</v>
       </c>
@@ -32259,8 +33747,11 @@
       <c r="T495" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U495" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="496" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>536</v>
       </c>
@@ -32318,8 +33809,11 @@
       <c r="T496" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="497" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U496" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>537</v>
       </c>
@@ -32377,8 +33871,11 @@
       <c r="T497">
         <v>4</v>
       </c>
-    </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U497">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>538</v>
       </c>
@@ -32436,8 +33933,11 @@
       <c r="T498" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="499" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U498" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>539</v>
       </c>
@@ -32495,8 +33995,11 @@
       <c r="T499" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U499" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>540</v>
       </c>
@@ -32554,8 +34057,11 @@
       <c r="T500" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="501" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U500" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>541</v>
       </c>
@@ -32613,8 +34119,11 @@
       <c r="T501" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="502" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U501" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>542</v>
       </c>
@@ -32672,8 +34181,11 @@
       <c r="T502" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="503" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U502" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>543</v>
       </c>
@@ -32731,8 +34243,11 @@
       <c r="T503" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="504" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U503" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>544</v>
       </c>
@@ -32790,8 +34305,11 @@
       <c r="T504" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="505" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U504" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>545</v>
       </c>
@@ -32849,8 +34367,11 @@
       <c r="T505" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="506" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U505" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>546</v>
       </c>
@@ -32908,8 +34429,11 @@
       <c r="T506" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="507" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U506" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>547</v>
       </c>
@@ -32967,8 +34491,11 @@
       <c r="T507">
         <v>4</v>
       </c>
-    </row>
-    <row r="508" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U507">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>548</v>
       </c>
@@ -33026,8 +34553,11 @@
       <c r="T508" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="509" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U508" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>549</v>
       </c>
@@ -33085,8 +34615,11 @@
       <c r="T509" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U509" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>550</v>
       </c>
@@ -33144,8 +34677,11 @@
       <c r="T510" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="511" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U510" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>551</v>
       </c>
@@ -33203,8 +34739,11 @@
       <c r="T511" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="512" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U511" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>552</v>
       </c>
@@ -33262,8 +34801,11 @@
       <c r="T512" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="513" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U512" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>553</v>
       </c>
@@ -33321,8 +34863,11 @@
       <c r="T513">
         <v>4</v>
       </c>
-    </row>
-    <row r="514" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U513" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>554</v>
       </c>
@@ -33380,8 +34925,11 @@
       <c r="T514" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="515" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U514" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>555</v>
       </c>
@@ -33439,8 +34987,11 @@
       <c r="T515">
         <v>4</v>
       </c>
-    </row>
-    <row r="516" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U515" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>556</v>
       </c>
@@ -33498,8 +35049,11 @@
       <c r="T516" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="517" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U516" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>557</v>
       </c>
@@ -33560,8 +35114,11 @@
       <c r="T517">
         <v>1</v>
       </c>
-    </row>
-    <row r="518" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>558</v>
       </c>
@@ -33622,8 +35179,11 @@
       <c r="T518" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="519" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U518" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>560</v>
       </c>
@@ -33681,8 +35241,11 @@
       <c r="T519">
         <v>4</v>
       </c>
-    </row>
-    <row r="520" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U519">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>561</v>
       </c>
@@ -33740,8 +35303,11 @@
       <c r="T520" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="521" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U520" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>562</v>
       </c>
@@ -33799,8 +35365,11 @@
       <c r="T521">
         <v>4</v>
       </c>
-    </row>
-    <row r="522" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U521">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>563</v>
       </c>
@@ -33858,8 +35427,11 @@
       <c r="T522" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="523" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U522" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>564</v>
       </c>
@@ -33917,8 +35489,11 @@
       <c r="T523">
         <v>4</v>
       </c>
-    </row>
-    <row r="524" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U523" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>565</v>
       </c>
@@ -33976,8 +35551,11 @@
       <c r="T524" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="525" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U524" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>566</v>
       </c>
@@ -34035,8 +35613,11 @@
       <c r="T525">
         <v>4</v>
       </c>
-    </row>
-    <row r="526" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U525" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>567</v>
       </c>
@@ -34094,8 +35675,11 @@
       <c r="T526" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="527" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U526" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>568</v>
       </c>
@@ -34153,8 +35737,11 @@
       <c r="T527">
         <v>4</v>
       </c>
-    </row>
-    <row r="528" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U527">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>569</v>
       </c>
@@ -34215,8 +35802,11 @@
       <c r="T528" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="529" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U528" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>570</v>
       </c>
@@ -34274,8 +35864,11 @@
       <c r="T529" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="530" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U529" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>571</v>
       </c>
@@ -34333,8 +35926,11 @@
       <c r="T530" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="531" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U530" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>572</v>
       </c>
@@ -34392,8 +35988,11 @@
       <c r="T531" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="532" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U531" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>573</v>
       </c>
@@ -34454,8 +36053,11 @@
       <c r="T532" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="533" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U532" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>574</v>
       </c>
@@ -34513,8 +36115,11 @@
       <c r="T533" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="534" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U533" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>575</v>
       </c>
@@ -34572,8 +36177,11 @@
       <c r="T534" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="535" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U534" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>576</v>
       </c>
@@ -34631,8 +36239,11 @@
       <c r="T535" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="536" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U535" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>577</v>
       </c>
@@ -34690,8 +36301,11 @@
       <c r="T536" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="537" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U536" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>578</v>
       </c>
@@ -34749,8 +36363,11 @@
       <c r="T537" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="538" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U537" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>579</v>
       </c>
@@ -34808,8 +36425,11 @@
       <c r="T538" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="539" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U538" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>580</v>
       </c>
@@ -34867,8 +36487,11 @@
       <c r="T539" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="540" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U539" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>581</v>
       </c>
@@ -34926,8 +36549,11 @@
       <c r="T540" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="541" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U540" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>582</v>
       </c>
@@ -34985,8 +36611,11 @@
       <c r="T541" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="542" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U541" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>583</v>
       </c>
@@ -35044,8 +36673,11 @@
       <c r="T542">
         <v>1</v>
       </c>
-    </row>
-    <row r="543" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>586</v>
       </c>
@@ -35103,8 +36735,11 @@
       <c r="T543" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="544" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U543" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>587</v>
       </c>
@@ -35162,8 +36797,11 @@
       <c r="T544">
         <v>0</v>
       </c>
-    </row>
-    <row r="545" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>588</v>
       </c>
@@ -35221,8 +36859,11 @@
       <c r="T545" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="546" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U545" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>589</v>
       </c>
@@ -35280,8 +36921,11 @@
       <c r="T546">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>590</v>
       </c>
@@ -35339,8 +36983,11 @@
       <c r="T547" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="548" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U547" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>591</v>
       </c>
@@ -35398,8 +37045,11 @@
       <c r="T548">
         <v>1</v>
       </c>
-    </row>
-    <row r="549" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>592</v>
       </c>
@@ -35457,8 +37107,11 @@
       <c r="T549" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="550" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U549" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>593</v>
       </c>
@@ -35516,8 +37169,11 @@
       <c r="T550">
         <v>0</v>
       </c>
-    </row>
-    <row r="551" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>594</v>
       </c>
@@ -35575,8 +37231,11 @@
       <c r="T551" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="552" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U551" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>595</v>
       </c>
@@ -35634,8 +37293,11 @@
       <c r="T552">
         <v>1</v>
       </c>
-    </row>
-    <row r="553" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>596</v>
       </c>
@@ -35693,8 +37355,11 @@
       <c r="T553" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="554" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U553" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>597</v>
       </c>
@@ -35752,8 +37417,11 @@
       <c r="T554">
         <v>1</v>
       </c>
-    </row>
-    <row r="555" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>598</v>
       </c>
@@ -35811,8 +37479,11 @@
       <c r="T555" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="556" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U555" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>599</v>
       </c>
@@ -35870,8 +37541,11 @@
       <c r="T556">
         <v>0</v>
       </c>
-    </row>
-    <row r="557" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>600</v>
       </c>
@@ -35929,8 +37603,11 @@
       <c r="T557" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="558" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U557" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>601</v>
       </c>
@@ -35988,8 +37665,11 @@
       <c r="T558">
         <v>0</v>
       </c>
-    </row>
-    <row r="559" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>602</v>
       </c>
@@ -36047,8 +37727,11 @@
       <c r="T559" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="560" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U559" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>603</v>
       </c>
@@ -36106,8 +37789,11 @@
       <c r="T560" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="561" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U560" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>604</v>
       </c>
@@ -36165,8 +37851,11 @@
       <c r="T561" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="562" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U561" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>605</v>
       </c>
@@ -36224,8 +37913,11 @@
       <c r="T562" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="563" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U562" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>606</v>
       </c>
@@ -36283,8 +37975,11 @@
       <c r="T563" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="564" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U563" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>607</v>
       </c>
@@ -36342,8 +38037,11 @@
       <c r="T564" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="565" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U564" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>608</v>
       </c>
@@ -36401,8 +38099,11 @@
       <c r="T565" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="566" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U565" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>609</v>
       </c>
@@ -36460,8 +38161,11 @@
       <c r="T566" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="567" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U566" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>610</v>
       </c>
@@ -36519,8 +38223,11 @@
       <c r="T567" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="568" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>611</v>
       </c>
@@ -36578,8 +38285,11 @@
       <c r="T568" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="569" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U568" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>612</v>
       </c>
@@ -36637,8 +38347,11 @@
       <c r="T569" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="570" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>613</v>
       </c>
@@ -36696,8 +38409,11 @@
       <c r="T570" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="571" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U570" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>614</v>
       </c>
@@ -36755,8 +38471,11 @@
       <c r="T571" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="572" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>615</v>
       </c>
@@ -36814,8 +38533,11 @@
       <c r="T572" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="573" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U572" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>616</v>
       </c>
@@ -36873,8 +38595,11 @@
       <c r="T573" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="574" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>617</v>
       </c>
@@ -36932,8 +38657,11 @@
       <c r="T574" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="575" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U574" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>618</v>
       </c>
@@ -36991,8 +38719,11 @@
       <c r="T575" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="576" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>619</v>
       </c>
@@ -37050,8 +38781,11 @@
       <c r="T576" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="577" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U576" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>620</v>
       </c>
@@ -37109,8 +38843,11 @@
       <c r="T577" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="578" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>621</v>
       </c>
@@ -37168,8 +38905,11 @@
       <c r="T578" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="579" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U578" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>622</v>
       </c>
@@ -37227,8 +38967,11 @@
       <c r="T579" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="580" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>623</v>
       </c>
@@ -37286,8 +39029,11 @@
       <c r="T580" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="581" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U580" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>624</v>
       </c>
@@ -37345,8 +39091,11 @@
       <c r="T581" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="582" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>625</v>
       </c>
@@ -37404,8 +39153,11 @@
       <c r="T582" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="583" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U582" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>626</v>
       </c>
@@ -37463,8 +39215,11 @@
       <c r="T583" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="584" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>627</v>
       </c>
@@ -37522,8 +39277,11 @@
       <c r="T584" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="585" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U584" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>628</v>
       </c>
@@ -37581,8 +39339,11 @@
       <c r="T585" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="586" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>629</v>
       </c>
@@ -37640,8 +39401,11 @@
       <c r="T586" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="587" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U586" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>630</v>
       </c>
@@ -37699,8 +39463,11 @@
       <c r="T587" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="588" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>631</v>
       </c>
@@ -37758,8 +39525,11 @@
       <c r="T588" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="589" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U588" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>632</v>
       </c>
@@ -37817,8 +39587,11 @@
       <c r="T589" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="590" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>633</v>
       </c>
@@ -37876,8 +39649,11 @@
       <c r="T590" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="591" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U590" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>634</v>
       </c>
@@ -37935,8 +39711,11 @@
       <c r="T591" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="592" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>635</v>
       </c>
@@ -37994,8 +39773,11 @@
       <c r="T592" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="593" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U592" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>636</v>
       </c>
@@ -38053,8 +39835,11 @@
       <c r="T593" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="594" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U593">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>637</v>
       </c>
@@ -38112,8 +39897,11 @@
       <c r="T594" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="595" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U594" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>638</v>
       </c>
@@ -38171,8 +39959,11 @@
       <c r="T595" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="596" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U595">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>639</v>
       </c>
@@ -38230,8 +40021,11 @@
       <c r="T596" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="597" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U596" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>640</v>
       </c>
@@ -38289,8 +40083,11 @@
       <c r="T597" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="598" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>641</v>
       </c>
@@ -38348,8 +40145,11 @@
       <c r="T598" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="599" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U598" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>642</v>
       </c>
@@ -38407,8 +40207,11 @@
       <c r="T599" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="600" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>643</v>
       </c>
@@ -38466,8 +40269,11 @@
       <c r="T600" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="601" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U600" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>644</v>
       </c>
@@ -38525,8 +40331,11 @@
       <c r="T601" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="602" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>645</v>
       </c>
@@ -38584,8 +40393,11 @@
       <c r="T602" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="603" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U602" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>646</v>
       </c>
@@ -38643,8 +40455,11 @@
       <c r="T603">
         <v>0</v>
       </c>
-    </row>
-    <row r="604" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>647</v>
       </c>
@@ -38702,8 +40517,11 @@
       <c r="T604" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="605" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U604" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>648</v>
       </c>
@@ -38761,8 +40579,11 @@
       <c r="T605">
         <v>0</v>
       </c>
-    </row>
-    <row r="606" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>649</v>
       </c>
@@ -38820,8 +40641,11 @@
       <c r="T606" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="607" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U606" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>650</v>
       </c>
@@ -38879,8 +40703,11 @@
       <c r="T607" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="608" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U607" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>651</v>
       </c>
@@ -38938,8 +40765,11 @@
       <c r="T608" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="609" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U608" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="609" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>652</v>
       </c>
@@ -38997,8 +40827,11 @@
       <c r="T609" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="610" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U609" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>653</v>
       </c>
@@ -39056,8 +40889,11 @@
       <c r="T610" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="611" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U610" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>654</v>
       </c>
@@ -39115,8 +40951,11 @@
       <c r="T611" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="612" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U611" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>655</v>
       </c>
@@ -39174,8 +41013,11 @@
       <c r="T612" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="613" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>656</v>
       </c>
@@ -39233,8 +41075,11 @@
       <c r="T613" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="614" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U613" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>657</v>
       </c>
@@ -39292,8 +41137,11 @@
       <c r="T614" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="615" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U614">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>658</v>
       </c>
@@ -39351,8 +41199,11 @@
       <c r="T615" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="616" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U615" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>659</v>
       </c>
@@ -39410,8 +41261,11 @@
       <c r="T616" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="617" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U616">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>660</v>
       </c>
@@ -39469,8 +41323,11 @@
       <c r="T617" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="618" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U617" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>661</v>
       </c>
@@ -39528,8 +41385,11 @@
       <c r="T618">
         <v>2</v>
       </c>
-    </row>
-    <row r="619" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U618">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>662</v>
       </c>
@@ -39587,8 +41447,11 @@
       <c r="T619" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="620" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U619" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>663</v>
       </c>
@@ -39646,8 +41509,11 @@
       <c r="T620">
         <v>1</v>
       </c>
-    </row>
-    <row r="621" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>664</v>
       </c>
@@ -39705,8 +41571,11 @@
       <c r="T621" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="622" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U621" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>665</v>
       </c>
@@ -39764,8 +41633,11 @@
       <c r="T622">
         <v>1</v>
       </c>
-    </row>
-    <row r="623" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U622">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>666</v>
       </c>
@@ -39823,8 +41695,11 @@
       <c r="T623" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="624" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U623" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>667</v>
       </c>
@@ -39882,8 +41757,11 @@
       <c r="T624">
         <v>2</v>
       </c>
-    </row>
-    <row r="625" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U624">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>668</v>
       </c>
@@ -39941,8 +41819,11 @@
       <c r="T625" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="626" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U625" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>669</v>
       </c>
@@ -40000,8 +41881,11 @@
       <c r="T626">
         <v>2</v>
       </c>
-    </row>
-    <row r="627" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U626">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>670</v>
       </c>
@@ -40059,8 +41943,11 @@
       <c r="T627" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="628" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U627" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>671</v>
       </c>
@@ -40118,8 +42005,11 @@
       <c r="T628">
         <v>2</v>
       </c>
-    </row>
-    <row r="629" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U628">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
         <v>672</v>
       </c>
@@ -40177,8 +42067,11 @@
       <c r="T629" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="630" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U629" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>673</v>
       </c>
@@ -40236,8 +42129,11 @@
       <c r="T630">
         <v>3</v>
       </c>
-    </row>
-    <row r="631" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U630">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>674</v>
       </c>
@@ -40293,6 +42189,9 @@
         <v>1</v>
       </c>
       <c r="T631" s="1">
+        <v>2</v>
+      </c>
+      <c r="U631" s="1">
         <v>2</v>
       </c>
     </row>

--- a/data/phenological_monitoring.xlsx
+++ b/data/phenological_monitoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125B3AD8-A723-2E4C-99E4-6E20E1C46278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1723FD23-D6DB-9B43-883D-B45AB0961A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-14200" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -2948,9 +2948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A530" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A586" zoomScale="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U553" sqref="U553"/>
+      <selection pane="topRight" activeCell="T615" sqref="T615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/phenological_monitoring.xlsx
+++ b/data/phenological_monitoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1723FD23-D6DB-9B43-883D-B45AB0961A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB2E100-AD58-DE4D-88F6-FA10CBEE926C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-14200" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3848" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="678">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2062,6 +2062,12 @@
   </si>
   <si>
     <t>doy148: apical shoot is dead, lateral branch is fully leafed out</t>
+  </si>
+  <si>
+    <t>doy151: initial flush died, starts second flush</t>
+  </si>
+  <si>
+    <t>doy151: gave up hope on the apical shoot. It looks like its not going to flush normally. Leaves coming out from the bottom.</t>
   </si>
 </sst>
 </file>
@@ -2946,11 +2952,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U631"/>
+  <dimension ref="A1:V631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A586" zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T615" sqref="T615"/>
+    <sheetView tabSelected="1" topLeftCell="A403" zoomScale="132" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H416" sqref="H416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2959,7 +2965,7 @@
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3023,8 +3029,11 @@
       <c r="U1" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3085,8 +3094,11 @@
       <c r="U2" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3147,8 +3159,11 @@
       <c r="U3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3209,8 +3224,11 @@
       <c r="U4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3271,8 +3289,11 @@
       <c r="U5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3333,8 +3354,11 @@
       <c r="U6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3395,8 +3419,11 @@
       <c r="U7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3457,8 +3484,11 @@
       <c r="U8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3519,8 +3549,11 @@
       <c r="U9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3581,8 +3614,11 @@
       <c r="U10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3643,8 +3679,11 @@
       <c r="U11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -3705,8 +3744,11 @@
       <c r="U12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3767,8 +3809,11 @@
       <c r="U13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -3829,8 +3874,11 @@
       <c r="U14" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -3891,8 +3939,11 @@
       <c r="U15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -3953,8 +4004,11 @@
       <c r="U16" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4015,8 +4069,11 @@
       <c r="U17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -4077,8 +4134,11 @@
       <c r="U18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4139,8 +4199,11 @@
       <c r="U19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -4201,8 +4264,11 @@
       <c r="U20" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4263,8 +4329,11 @@
       <c r="U21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -4325,8 +4394,11 @@
       <c r="U22" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -4387,8 +4459,11 @@
       <c r="U23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -4449,8 +4524,11 @@
       <c r="U24" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -4511,8 +4589,11 @@
       <c r="U25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -4573,8 +4654,11 @@
       <c r="U26" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -4635,8 +4719,11 @@
       <c r="U27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -4697,8 +4784,11 @@
       <c r="U28" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -4759,8 +4849,11 @@
       <c r="U29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -4821,8 +4914,11 @@
       <c r="U30" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -4883,8 +4979,11 @@
       <c r="U31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -4945,8 +5044,11 @@
       <c r="U32" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -5007,8 +5109,11 @@
       <c r="U33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -5069,8 +5174,11 @@
       <c r="U34" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -5131,8 +5239,11 @@
       <c r="U35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -5193,8 +5304,11 @@
       <c r="U36" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -5255,8 +5369,11 @@
       <c r="U37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -5317,8 +5434,11 @@
       <c r="U38" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -5379,8 +5499,11 @@
       <c r="U39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -5441,8 +5564,11 @@
       <c r="U40" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -5503,8 +5629,11 @@
       <c r="U41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -5565,8 +5694,11 @@
       <c r="U42" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -5627,8 +5759,11 @@
       <c r="U43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -5689,8 +5824,11 @@
       <c r="U44" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -5751,8 +5889,11 @@
       <c r="U45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -5813,8 +5954,11 @@
       <c r="U46" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -5875,8 +6019,11 @@
       <c r="U47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -5937,8 +6084,11 @@
       <c r="U48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -5999,8 +6149,11 @@
       <c r="U49" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -6061,8 +6214,11 @@
       <c r="U50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -6123,8 +6279,11 @@
       <c r="U51" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -6185,8 +6344,11 @@
       <c r="U52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -6247,8 +6409,11 @@
       <c r="U53" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -6309,8 +6474,11 @@
       <c r="U54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -6371,8 +6539,11 @@
       <c r="U55" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V55" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -6433,8 +6604,11 @@
       <c r="U56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -6495,8 +6669,11 @@
       <c r="U57" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -6557,8 +6734,11 @@
       <c r="U58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -6619,8 +6799,11 @@
       <c r="U59" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V59" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -6681,8 +6864,11 @@
       <c r="U60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -6743,8 +6929,11 @@
       <c r="U61" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V61" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -6805,8 +6994,11 @@
       <c r="U62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -6867,8 +7059,11 @@
       <c r="U63" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -6929,8 +7124,11 @@
       <c r="U64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -6991,8 +7189,11 @@
       <c r="U65" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V65" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -7053,8 +7254,11 @@
       <c r="U66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -7115,8 +7319,11 @@
       <c r="U67" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V67" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -7177,8 +7384,11 @@
       <c r="U68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -7239,8 +7449,11 @@
       <c r="U69" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V69" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -7301,8 +7514,11 @@
       <c r="U70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -7363,8 +7579,11 @@
       <c r="U71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -7425,8 +7644,11 @@
       <c r="U72" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V72" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -7487,8 +7709,11 @@
       <c r="U73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
@@ -7549,8 +7774,11 @@
       <c r="U74" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -7611,8 +7839,11 @@
       <c r="U75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -7673,8 +7904,11 @@
       <c r="U76" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -7735,8 +7969,11 @@
       <c r="U77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
@@ -7797,8 +8034,11 @@
       <c r="U78" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V78" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -7859,8 +8099,11 @@
       <c r="U79">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>93</v>
       </c>
@@ -7921,8 +8164,11 @@
       <c r="U80" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V80" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -7983,8 +8229,11 @@
       <c r="U81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>95</v>
       </c>
@@ -8045,8 +8294,11 @@
       <c r="U82" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V82" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -8107,8 +8359,11 @@
       <c r="U83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>97</v>
       </c>
@@ -8169,8 +8424,11 @@
       <c r="U84" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V84" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -8231,8 +8489,11 @@
       <c r="U85">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
@@ -8293,8 +8554,11 @@
       <c r="U86" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V86" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -8355,8 +8619,11 @@
       <c r="U87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>101</v>
       </c>
@@ -8417,8 +8684,11 @@
       <c r="U88" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V88" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -8479,8 +8749,11 @@
       <c r="U89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>103</v>
       </c>
@@ -8541,8 +8814,11 @@
       <c r="U90" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V90" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -8603,8 +8879,11 @@
       <c r="U91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>105</v>
       </c>
@@ -8665,8 +8944,11 @@
       <c r="U92" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V92" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -8727,8 +9009,11 @@
       <c r="U93">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>109</v>
       </c>
@@ -8789,8 +9074,11 @@
       <c r="U94" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V94" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -8854,8 +9142,11 @@
       <c r="U95">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>112</v>
       </c>
@@ -8916,8 +9207,11 @@
       <c r="U96" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V96" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -8978,8 +9272,11 @@
       <c r="U97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>114</v>
       </c>
@@ -9040,8 +9337,11 @@
       <c r="U98" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V98" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -9102,8 +9402,11 @@
       <c r="U99">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>116</v>
       </c>
@@ -9164,8 +9467,11 @@
       <c r="U100" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V100" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -9226,8 +9532,11 @@
       <c r="U101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>118</v>
       </c>
@@ -9288,8 +9597,11 @@
       <c r="U102" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V102" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -9350,8 +9662,11 @@
       <c r="U103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>120</v>
       </c>
@@ -9412,8 +9727,11 @@
       <c r="U104" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V104" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -9474,8 +9792,11 @@
       <c r="U105">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -9536,8 +9857,11 @@
       <c r="U106" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V106" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -9598,8 +9922,11 @@
       <c r="U107">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -9660,8 +9987,11 @@
       <c r="U108" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V108" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -9725,8 +10055,11 @@
       <c r="U109">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -9787,8 +10120,11 @@
       <c r="U110" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V110" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -9849,8 +10185,11 @@
       <c r="U111">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -9911,8 +10250,11 @@
       <c r="U112" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V112" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -9973,8 +10315,11 @@
       <c r="U113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>130</v>
       </c>
@@ -10035,8 +10380,11 @@
       <c r="U114" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V114" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -10097,8 +10445,11 @@
       <c r="U115">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>132</v>
       </c>
@@ -10159,8 +10510,11 @@
       <c r="U116" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V116" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -10221,8 +10575,11 @@
       <c r="U117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -10283,8 +10640,11 @@
       <c r="U118">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>135</v>
       </c>
@@ -10345,8 +10705,11 @@
       <c r="U119" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V119" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -10407,8 +10770,11 @@
       <c r="U120">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>137</v>
       </c>
@@ -10472,8 +10838,11 @@
       <c r="U121" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V121" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -10534,8 +10903,11 @@
       <c r="U122">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>139</v>
       </c>
@@ -10596,8 +10968,11 @@
       <c r="U123" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V123" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -10658,8 +11033,11 @@
       <c r="U124">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>141</v>
       </c>
@@ -10720,8 +11098,11 @@
       <c r="U125" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V125" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -10782,8 +11163,11 @@
       <c r="U126">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>143</v>
       </c>
@@ -10844,8 +11228,11 @@
       <c r="U127" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V127" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -10906,8 +11293,11 @@
       <c r="U128">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>145</v>
       </c>
@@ -10968,8 +11358,11 @@
       <c r="U129" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V129" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -11030,8 +11423,11 @@
       <c r="U130">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>147</v>
       </c>
@@ -11092,8 +11488,11 @@
       <c r="U131" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V131" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -11154,8 +11553,11 @@
       <c r="U132">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>149</v>
       </c>
@@ -11216,8 +11618,11 @@
       <c r="U133" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V133" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -11278,8 +11683,11 @@
       <c r="U134">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>151</v>
       </c>
@@ -11340,8 +11748,11 @@
       <c r="U135" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V135" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -11402,8 +11813,11 @@
       <c r="U136">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>153</v>
       </c>
@@ -11464,8 +11878,11 @@
       <c r="U137" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V137" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -11526,8 +11943,11 @@
       <c r="U138">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>155</v>
       </c>
@@ -11588,8 +12008,11 @@
       <c r="U139" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V139" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>156</v>
       </c>
@@ -11650,8 +12073,11 @@
       <c r="U140">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -11712,8 +12138,11 @@
       <c r="U141">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>158</v>
       </c>
@@ -11774,8 +12203,11 @@
       <c r="U142" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V142" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -11836,8 +12268,11 @@
       <c r="U143">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>160</v>
       </c>
@@ -11898,8 +12333,11 @@
       <c r="U144" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V144" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -11960,8 +12398,11 @@
       <c r="U145">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>162</v>
       </c>
@@ -12022,8 +12463,11 @@
       <c r="U146" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V146" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -12084,8 +12528,11 @@
       <c r="U147">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>164</v>
       </c>
@@ -12146,8 +12593,11 @@
       <c r="U148" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V148" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -12208,8 +12658,11 @@
       <c r="U149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>166</v>
       </c>
@@ -12270,8 +12723,11 @@
       <c r="U150" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V150" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -12332,8 +12788,11 @@
       <c r="U151">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>168</v>
       </c>
@@ -12394,8 +12853,11 @@
       <c r="U152" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V152" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>169</v>
       </c>
@@ -12456,8 +12918,11 @@
       <c r="U153">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>170</v>
       </c>
@@ -12518,8 +12983,11 @@
       <c r="U154" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V154" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>171</v>
       </c>
@@ -12580,8 +13048,11 @@
       <c r="U155">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>172</v>
       </c>
@@ -12642,8 +13113,11 @@
       <c r="U156" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V156" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -12704,8 +13178,11 @@
       <c r="U157">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>174</v>
       </c>
@@ -12766,8 +13243,11 @@
       <c r="U158" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V158" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>175</v>
       </c>
@@ -12828,8 +13308,11 @@
       <c r="U159">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>176</v>
       </c>
@@ -12890,8 +13373,11 @@
       <c r="U160" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V160" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -12952,8 +13438,11 @@
       <c r="U161">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>178</v>
       </c>
@@ -13014,8 +13503,11 @@
       <c r="U162" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V162" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>179</v>
       </c>
@@ -13076,8 +13568,11 @@
       <c r="U163">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>180</v>
       </c>
@@ -13138,8 +13633,11 @@
       <c r="U164" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V164" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -13200,8 +13698,11 @@
       <c r="U165">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>182</v>
       </c>
@@ -13262,8 +13763,11 @@
       <c r="U166" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V166" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -13324,8 +13828,11 @@
       <c r="U167">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>184</v>
       </c>
@@ -13386,8 +13893,11 @@
       <c r="U168" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V168" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -13448,8 +13958,11 @@
       <c r="U169">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>186</v>
       </c>
@@ -13510,8 +14023,11 @@
       <c r="U170" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V170" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -13572,8 +14088,11 @@
       <c r="U171">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>188</v>
       </c>
@@ -13634,8 +14153,11 @@
       <c r="U172" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V172" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>189</v>
       </c>
@@ -13696,8 +14218,11 @@
       <c r="U173">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>190</v>
       </c>
@@ -13758,8 +14283,11 @@
       <c r="U174" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="175" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V174" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -13820,8 +14348,11 @@
       <c r="U175">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>192</v>
       </c>
@@ -13882,8 +14413,11 @@
       <c r="U176" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="177" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V176" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>193</v>
       </c>
@@ -13944,8 +14478,11 @@
       <c r="U177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>194</v>
       </c>
@@ -14006,8 +14543,11 @@
       <c r="U178" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V178" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>195</v>
       </c>
@@ -14068,8 +14608,11 @@
       <c r="U179">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>196</v>
       </c>
@@ -14130,8 +14673,11 @@
       <c r="U180" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V180" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>197</v>
       </c>
@@ -14192,8 +14738,11 @@
       <c r="U181">
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>198</v>
       </c>
@@ -14254,8 +14803,11 @@
       <c r="U182" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V182" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -14316,8 +14868,11 @@
       <c r="U183">
         <v>3</v>
       </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>202</v>
       </c>
@@ -14378,8 +14933,11 @@
       <c r="U184" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V184" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -14440,8 +14998,11 @@
       <c r="U185">
         <v>3</v>
       </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>204</v>
       </c>
@@ -14505,8 +15066,11 @@
       <c r="U186" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="187" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V186" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -14567,8 +15131,11 @@
       <c r="U187">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -14629,8 +15196,11 @@
       <c r="U188" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V188" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>208</v>
       </c>
@@ -14691,8 +15261,11 @@
       <c r="U189" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V189" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -14756,8 +15329,11 @@
       <c r="U190" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V190" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>210</v>
       </c>
@@ -14818,8 +15394,11 @@
       <c r="U191" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V191" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -14880,8 +15459,11 @@
       <c r="U192" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V192" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>212</v>
       </c>
@@ -14942,8 +15524,11 @@
       <c r="U193" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V193" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -15007,8 +15592,11 @@
       <c r="U194" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>215</v>
       </c>
@@ -15069,8 +15657,11 @@
       <c r="U195" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V195" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -15131,8 +15722,11 @@
       <c r="U196" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>217</v>
       </c>
@@ -15193,8 +15787,11 @@
       <c r="U197" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V197" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -15258,8 +15855,11 @@
       <c r="U198">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>220</v>
       </c>
@@ -15320,8 +15920,11 @@
       <c r="U199" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V199" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -15385,8 +15988,11 @@
       <c r="U200">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>222</v>
       </c>
@@ -15447,8 +16053,11 @@
       <c r="U201" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="202" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V201" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -15509,8 +16118,11 @@
       <c r="U202">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>224</v>
       </c>
@@ -15571,8 +16183,11 @@
       <c r="U203" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V203" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -15633,8 +16248,11 @@
       <c r="U204">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>226</v>
       </c>
@@ -15698,8 +16316,11 @@
       <c r="U205" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V205" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -15760,8 +16381,11 @@
       <c r="U206">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>228</v>
       </c>
@@ -15822,8 +16446,11 @@
       <c r="U207" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V207" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -15887,8 +16514,11 @@
       <c r="U208">
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>230</v>
       </c>
@@ -15949,8 +16579,11 @@
       <c r="U209" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="210" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V209" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -16011,8 +16644,11 @@
       <c r="U210">
         <v>3</v>
       </c>
-    </row>
-    <row r="211" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -16076,8 +16712,11 @@
       <c r="U211" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V211" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>233</v>
       </c>
@@ -16138,8 +16777,11 @@
       <c r="U212" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="213" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V212" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -16200,8 +16842,11 @@
       <c r="U213">
         <v>3</v>
       </c>
-    </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>235</v>
       </c>
@@ -16262,8 +16907,11 @@
       <c r="U214" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="215" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V214" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>236</v>
       </c>
@@ -16324,8 +16972,11 @@
       <c r="U215">
         <v>3</v>
       </c>
-    </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>237</v>
       </c>
@@ -16389,8 +17040,11 @@
       <c r="U216" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V216" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>238</v>
       </c>
@@ -16451,8 +17105,11 @@
       <c r="U217">
         <v>3</v>
       </c>
-    </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>239</v>
       </c>
@@ -16513,8 +17170,11 @@
       <c r="U218" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="219" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V218" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -16575,8 +17235,11 @@
       <c r="U219">
         <v>4</v>
       </c>
-    </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>241</v>
       </c>
@@ -16637,8 +17300,11 @@
       <c r="U220" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="221" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V220" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -16699,8 +17365,11 @@
       <c r="U221">
         <v>4</v>
       </c>
-    </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>243</v>
       </c>
@@ -16761,8 +17430,11 @@
       <c r="U222" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="223" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V222" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -16826,8 +17498,11 @@
       <c r="U223">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>245</v>
       </c>
@@ -16888,8 +17563,11 @@
       <c r="U224" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="225" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V224" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -16953,8 +17631,11 @@
       <c r="U225">
         <v>4</v>
       </c>
-    </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>247</v>
       </c>
@@ -17015,8 +17696,11 @@
       <c r="U226" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V226" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -17077,8 +17761,11 @@
       <c r="U227">
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>249</v>
       </c>
@@ -17139,8 +17826,11 @@
       <c r="U228" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="229" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V228" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -17201,8 +17891,11 @@
       <c r="U229" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V229" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>251</v>
       </c>
@@ -17263,8 +17956,11 @@
       <c r="U230" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V230" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -17325,8 +18021,11 @@
       <c r="U231" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V231" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>253</v>
       </c>
@@ -17387,8 +18086,11 @@
       <c r="U232" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="233" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V232" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -17449,8 +18151,11 @@
       <c r="U233" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V233" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>255</v>
       </c>
@@ -17511,8 +18216,11 @@
       <c r="U234" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V234" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -17573,8 +18281,11 @@
       <c r="U235" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V235" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>257</v>
       </c>
@@ -17635,8 +18346,11 @@
       <c r="U236" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="237" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V236" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -17697,8 +18411,11 @@
       <c r="U237">
         <v>4</v>
       </c>
-    </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>259</v>
       </c>
@@ -17759,8 +18476,11 @@
       <c r="U238" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="239" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V238" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -17821,8 +18541,11 @@
       <c r="U239" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V239" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>261</v>
       </c>
@@ -17883,8 +18606,11 @@
       <c r="U240" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V240" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -17945,8 +18671,11 @@
       <c r="U241" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V241" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>263</v>
       </c>
@@ -18007,8 +18736,11 @@
       <c r="U242" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="243" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V242" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -18069,8 +18801,11 @@
       <c r="U243">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>265</v>
       </c>
@@ -18131,8 +18866,11 @@
       <c r="U244" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="245" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V244" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -18193,8 +18931,11 @@
       <c r="U245">
         <v>4</v>
       </c>
-    </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>267</v>
       </c>
@@ -18255,8 +18996,11 @@
       <c r="U246" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="247" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V246" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -18317,8 +19061,11 @@
       <c r="U247">
         <v>4</v>
       </c>
-    </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V247" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>269</v>
       </c>
@@ -18379,8 +19126,11 @@
       <c r="U248" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="249" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V248" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -18441,8 +19191,11 @@
       <c r="U249" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V249" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>271</v>
       </c>
@@ -18503,8 +19256,11 @@
       <c r="U250" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="251" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V250" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>272</v>
       </c>
@@ -18565,8 +19321,11 @@
       <c r="U251" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>273</v>
       </c>
@@ -18627,8 +19386,11 @@
       <c r="U252" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="253" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V252" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -18689,8 +19451,11 @@
       <c r="U253" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V253" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>275</v>
       </c>
@@ -18751,8 +19516,11 @@
       <c r="U254" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="255" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V254" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -18813,8 +19581,11 @@
       <c r="U255" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V255" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>277</v>
       </c>
@@ -18875,8 +19646,11 @@
       <c r="U256" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="257" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V256" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -18937,8 +19711,11 @@
       <c r="U257">
         <v>4</v>
       </c>
-    </row>
-    <row r="258" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>279</v>
       </c>
@@ -18999,8 +19776,11 @@
       <c r="U258">
         <v>4</v>
       </c>
-    </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V258">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>280</v>
       </c>
@@ -19061,8 +19841,11 @@
       <c r="U259" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="260" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V259" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>281</v>
       </c>
@@ -19123,8 +19906,11 @@
       <c r="U260">
         <v>4</v>
       </c>
-    </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V260" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>282</v>
       </c>
@@ -19185,8 +19971,11 @@
       <c r="U261" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="262" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V261" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>283</v>
       </c>
@@ -19247,8 +20036,11 @@
       <c r="U262">
         <v>4</v>
       </c>
-    </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V262" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>284</v>
       </c>
@@ -19309,8 +20101,11 @@
       <c r="U263" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="264" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V263" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>285</v>
       </c>
@@ -19371,8 +20166,11 @@
       <c r="U264" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V264" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>286</v>
       </c>
@@ -19433,8 +20231,11 @@
       <c r="U265" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="266" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V265" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -19495,8 +20296,11 @@
       <c r="U266" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V266" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>288</v>
       </c>
@@ -19557,8 +20361,11 @@
       <c r="U267" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="268" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V267" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -19619,8 +20426,11 @@
       <c r="U268" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V268" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>290</v>
       </c>
@@ -19681,8 +20491,11 @@
       <c r="U269" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="270" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V269" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -19743,8 +20556,11 @@
       <c r="U270" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V270" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>292</v>
       </c>
@@ -19805,8 +20621,11 @@
       <c r="U271" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="272" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V271" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -19867,8 +20686,11 @@
       <c r="U272">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>296</v>
       </c>
@@ -19929,8 +20751,11 @@
       <c r="U273" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="274" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V273" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -19991,8 +20816,11 @@
       <c r="U274" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V274" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>298</v>
       </c>
@@ -20053,8 +20881,11 @@
       <c r="U275" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V275" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -20115,8 +20946,11 @@
       <c r="U276" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V276" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>300</v>
       </c>
@@ -20177,8 +21011,11 @@
       <c r="U277" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="278" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V277" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -20239,8 +21076,11 @@
       <c r="U278" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V278" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>302</v>
       </c>
@@ -20304,8 +21144,11 @@
       <c r="U279" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="280" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V279" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -20366,8 +21209,11 @@
       <c r="U280" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="281" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V280" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -20428,8 +21274,11 @@
       <c r="U281" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V281" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>305</v>
       </c>
@@ -20490,8 +21339,11 @@
       <c r="U282" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="283" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V282" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -20555,8 +21407,11 @@
       <c r="U283" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V283" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>309</v>
       </c>
@@ -20617,8 +21472,11 @@
       <c r="U284" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="285" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V284" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -20679,8 +21537,11 @@
       <c r="U285" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V285" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>311</v>
       </c>
@@ -20741,8 +21602,11 @@
       <c r="U286" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="287" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V286" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -20803,8 +21667,11 @@
       <c r="U287">
         <v>4</v>
       </c>
-    </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>313</v>
       </c>
@@ -20865,8 +21732,11 @@
       <c r="U288" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="289" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V288" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -20927,8 +21797,11 @@
       <c r="U289" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V289" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>315</v>
       </c>
@@ -20989,8 +21862,11 @@
       <c r="U290" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="291" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V290" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -21051,8 +21927,11 @@
       <c r="U291" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V291" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>317</v>
       </c>
@@ -21113,8 +21992,11 @@
       <c r="U292" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="293" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V292" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -21175,8 +22057,11 @@
       <c r="U293" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V293" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>319</v>
       </c>
@@ -21240,8 +22125,11 @@
       <c r="U294" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="295" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V294" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -21302,8 +22190,11 @@
       <c r="U295" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V295" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>322</v>
       </c>
@@ -21364,8 +22255,11 @@
       <c r="U296" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="297" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V296" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>323</v>
       </c>
@@ -21426,8 +22320,11 @@
       <c r="U297">
         <v>4</v>
       </c>
-    </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>324</v>
       </c>
@@ -21488,8 +22385,11 @@
       <c r="U298" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="299" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V298" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>325</v>
       </c>
@@ -21550,8 +22450,11 @@
       <c r="U299" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V299" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>326</v>
       </c>
@@ -21612,8 +22515,11 @@
       <c r="U300" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="301" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V300" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>327</v>
       </c>
@@ -21674,8 +22580,11 @@
       <c r="U301" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V301" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>328</v>
       </c>
@@ -21736,8 +22645,11 @@
       <c r="U302" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="303" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V302" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>329</v>
       </c>
@@ -21798,8 +22710,11 @@
       <c r="U303" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V303" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>330</v>
       </c>
@@ -21860,8 +22775,11 @@
       <c r="U304" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="305" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V304" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>331</v>
       </c>
@@ -21922,8 +22840,11 @@
       <c r="U305" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V305" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>332</v>
       </c>
@@ -21984,8 +22905,11 @@
       <c r="U306" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="307" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V306" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>333</v>
       </c>
@@ -22046,8 +22970,11 @@
       <c r="U307">
         <v>4</v>
       </c>
-    </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>334</v>
       </c>
@@ -22108,8 +23035,11 @@
       <c r="U308" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="309" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V308" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>335</v>
       </c>
@@ -22170,8 +23100,11 @@
       <c r="U309" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V309" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>336</v>
       </c>
@@ -22232,8 +23165,11 @@
       <c r="U310" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="311" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V310" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -22294,8 +23230,11 @@
       <c r="U311" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V311" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>338</v>
       </c>
@@ -22356,8 +23295,11 @@
       <c r="U312" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="313" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V312" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -22418,8 +23360,11 @@
       <c r="U313" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V313" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>340</v>
       </c>
@@ -22480,8 +23425,11 @@
       <c r="U314" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="315" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V314" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -22542,8 +23490,11 @@
       <c r="U315" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V315" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>342</v>
       </c>
@@ -22604,8 +23555,11 @@
       <c r="U316" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="317" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V316" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -22666,8 +23620,11 @@
       <c r="U317">
         <v>4</v>
       </c>
-    </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>344</v>
       </c>
@@ -22728,8 +23685,11 @@
       <c r="U318" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="319" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V318" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -22790,8 +23750,11 @@
       <c r="U319" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V319" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>346</v>
       </c>
@@ -22852,8 +23815,11 @@
       <c r="U320" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="321" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V320" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -22914,8 +23880,11 @@
       <c r="U321" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V321" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>348</v>
       </c>
@@ -22979,8 +23948,11 @@
       <c r="U322" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="323" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V322" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="323" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>350</v>
       </c>
@@ -23041,8 +24013,11 @@
       <c r="U323" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>351</v>
       </c>
@@ -23106,8 +24081,11 @@
       <c r="U324" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="325" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V324" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="325" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>353</v>
       </c>
@@ -23168,8 +24146,11 @@
       <c r="U325" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>354</v>
       </c>
@@ -23230,8 +24211,11 @@
       <c r="U326" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="327" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V326" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>355</v>
       </c>
@@ -23292,8 +24276,11 @@
       <c r="U327">
         <v>4</v>
       </c>
-    </row>
-    <row r="328" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V327">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>356</v>
       </c>
@@ -23354,8 +24341,11 @@
       <c r="U328">
         <v>4</v>
       </c>
-    </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V328" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>357</v>
       </c>
@@ -23416,8 +24406,11 @@
       <c r="U329" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="330" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V329" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>358</v>
       </c>
@@ -23478,8 +24471,11 @@
       <c r="U330" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V330" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>359</v>
       </c>
@@ -23540,8 +24536,11 @@
       <c r="U331" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="332" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V331" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>360</v>
       </c>
@@ -23602,8 +24601,11 @@
       <c r="U332" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V332" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>361</v>
       </c>
@@ -23664,8 +24666,11 @@
       <c r="U333" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="334" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V333" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>362</v>
       </c>
@@ -23726,8 +24731,11 @@
       <c r="U334" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V334" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>363</v>
       </c>
@@ -23788,8 +24796,11 @@
       <c r="U335" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="336" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V335" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>364</v>
       </c>
@@ -23850,8 +24861,11 @@
       <c r="U336" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V336" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>365</v>
       </c>
@@ -23912,8 +24926,11 @@
       <c r="U337" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="338" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V337" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>366</v>
       </c>
@@ -23974,8 +24991,11 @@
       <c r="U338" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V338" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>367</v>
       </c>
@@ -24036,8 +25056,11 @@
       <c r="U339" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="340" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V339" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>368</v>
       </c>
@@ -24098,8 +25121,11 @@
       <c r="U340" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V340" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>369</v>
       </c>
@@ -24160,8 +25186,11 @@
       <c r="U341" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="342" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V341" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>370</v>
       </c>
@@ -24222,8 +25251,11 @@
       <c r="U342">
         <v>4</v>
       </c>
-    </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V342">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>371</v>
       </c>
@@ -24284,8 +25316,11 @@
       <c r="U343" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="344" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V343" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>372</v>
       </c>
@@ -24346,8 +25381,11 @@
       <c r="U344" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V344" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>373</v>
       </c>
@@ -24408,8 +25446,11 @@
       <c r="U345" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="346" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V345" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>374</v>
       </c>
@@ -24470,8 +25511,11 @@
       <c r="U346" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V346" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>375</v>
       </c>
@@ -24532,8 +25576,11 @@
       <c r="U347" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V347" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>376</v>
       </c>
@@ -24594,8 +25641,11 @@
       <c r="U348">
         <v>3</v>
       </c>
-    </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>377</v>
       </c>
@@ -24656,8 +25706,11 @@
       <c r="U349" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="350" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V349" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>378</v>
       </c>
@@ -24718,8 +25771,11 @@
       <c r="U350">
         <v>4</v>
       </c>
-    </row>
-    <row r="351" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V350">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>379</v>
       </c>
@@ -24780,8 +25836,11 @@
       <c r="U351">
         <v>4</v>
       </c>
-    </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V351" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>380</v>
       </c>
@@ -24842,8 +25901,11 @@
       <c r="U352" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="353" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V352" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>381</v>
       </c>
@@ -24904,8 +25966,11 @@
       <c r="U353" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V353" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>382</v>
       </c>
@@ -24966,8 +26031,11 @@
       <c r="U354" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="355" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V354" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>383</v>
       </c>
@@ -25031,8 +26099,11 @@
       <c r="U355" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V355" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="356" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>384</v>
       </c>
@@ -25093,8 +26164,11 @@
       <c r="U356" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="357" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V356" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>385</v>
       </c>
@@ -25155,8 +26229,11 @@
       <c r="U357">
         <v>4</v>
       </c>
-    </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>386</v>
       </c>
@@ -25217,8 +26294,11 @@
       <c r="U358" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="359" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V358" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>387</v>
       </c>
@@ -25279,8 +26359,11 @@
       <c r="U359" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V359" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>388</v>
       </c>
@@ -25341,8 +26424,11 @@
       <c r="U360" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="361" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V360" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>389</v>
       </c>
@@ -25403,8 +26489,11 @@
       <c r="U361" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V361" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>390</v>
       </c>
@@ -25465,8 +26554,11 @@
       <c r="U362" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="363" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V362" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -25527,8 +26619,11 @@
       <c r="U363" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V363" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>394</v>
       </c>
@@ -25589,8 +26684,11 @@
       <c r="U364" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V364" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -25651,8 +26749,11 @@
       <c r="U365" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V365" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>396</v>
       </c>
@@ -25713,8 +26814,11 @@
       <c r="U366" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="367" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V366" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -25775,8 +26879,11 @@
       <c r="U367">
         <v>4</v>
       </c>
-    </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>398</v>
       </c>
@@ -25837,8 +26944,11 @@
       <c r="U368" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="369" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V368" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -25902,8 +27012,11 @@
       <c r="U369" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V369" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>400</v>
       </c>
@@ -25964,8 +27077,11 @@
       <c r="U370" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="371" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V370" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -26026,8 +27142,11 @@
       <c r="U371" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V371" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>402</v>
       </c>
@@ -26088,8 +27207,11 @@
       <c r="U372" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="373" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V372" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -26150,8 +27272,11 @@
       <c r="U373" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V373" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>404</v>
       </c>
@@ -26212,8 +27337,11 @@
       <c r="U374" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="375" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V374" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -26274,8 +27402,11 @@
       <c r="U375" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V375" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>406</v>
       </c>
@@ -26336,8 +27467,11 @@
       <c r="U376" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="377" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V376" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -26398,8 +27532,11 @@
       <c r="U377">
         <v>4</v>
       </c>
-    </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V377">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>408</v>
       </c>
@@ -26460,8 +27597,11 @@
       <c r="U378" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="379" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V378" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -26522,8 +27662,11 @@
       <c r="U379" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V379" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>410</v>
       </c>
@@ -26587,8 +27730,11 @@
       <c r="U380" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V380" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -26649,8 +27795,11 @@
       <c r="U381" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V381" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>413</v>
       </c>
@@ -26711,8 +27860,11 @@
       <c r="U382" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="383" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V382" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -26773,8 +27925,11 @@
       <c r="U383" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V383" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>415</v>
       </c>
@@ -26835,8 +27990,11 @@
       <c r="U384" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="385" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V384" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -26897,8 +28055,11 @@
       <c r="U385" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V385" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>417</v>
       </c>
@@ -26962,8 +28123,11 @@
       <c r="U386" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="387" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V386" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -27024,8 +28188,11 @@
       <c r="U387">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V387">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>419</v>
       </c>
@@ -27086,8 +28253,11 @@
       <c r="U388" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V388" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -27148,8 +28318,11 @@
       <c r="U389" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V389" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>421</v>
       </c>
@@ -27210,8 +28383,11 @@
       <c r="U390" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="391" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V390" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -27275,8 +28451,11 @@
       <c r="U391" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V391" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>424</v>
       </c>
@@ -27340,8 +28519,11 @@
       <c r="U392" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="393" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V392" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="393" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -27402,8 +28584,11 @@
       <c r="U393">
         <v>4</v>
       </c>
-    </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V393">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>427</v>
       </c>
@@ -27464,8 +28649,11 @@
       <c r="U394" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="395" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V394" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -27526,8 +28714,11 @@
       <c r="U395" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V395" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>429</v>
       </c>
@@ -27588,8 +28779,11 @@
       <c r="U396" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="397" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V396" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -27650,8 +28844,11 @@
       <c r="U397" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="398" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V397" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -27712,8 +28909,11 @@
       <c r="U398">
         <v>4</v>
       </c>
-    </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V398">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>432</v>
       </c>
@@ -27777,8 +28977,11 @@
       <c r="U399" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="400" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V399" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>433</v>
       </c>
@@ -27839,8 +29042,11 @@
       <c r="U400" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V400" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>434</v>
       </c>
@@ -27901,8 +29107,11 @@
       <c r="U401" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="402" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V401" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>435</v>
       </c>
@@ -27918,6 +29127,9 @@
       <c r="E402" t="s">
         <v>392</v>
       </c>
+      <c r="F402" t="s">
+        <v>677</v>
+      </c>
       <c r="G402">
         <v>2</v>
       </c>
@@ -27963,8 +29175,11 @@
       <c r="U402" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V402" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="403" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>436</v>
       </c>
@@ -28025,8 +29240,11 @@
       <c r="U403" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="404" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V403" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>437</v>
       </c>
@@ -28090,8 +29308,11 @@
       <c r="U404" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V404" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>439</v>
       </c>
@@ -28152,8 +29373,11 @@
       <c r="U405" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="406" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V405" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -28214,8 +29438,11 @@
       <c r="U406" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V406" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>441</v>
       </c>
@@ -28276,8 +29503,11 @@
       <c r="U407" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="408" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V407" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>442</v>
       </c>
@@ -28338,8 +29568,11 @@
       <c r="U408" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V408" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>443</v>
       </c>
@@ -28400,8 +29633,11 @@
       <c r="U409" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="410" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V409" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>444</v>
       </c>
@@ -28462,8 +29698,11 @@
       <c r="U410" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V410" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>445</v>
       </c>
@@ -28524,8 +29763,11 @@
       <c r="U411" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="412" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V411" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>446</v>
       </c>
@@ -28586,8 +29828,11 @@
       <c r="U412">
         <v>4</v>
       </c>
-    </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V412">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>447</v>
       </c>
@@ -28648,8 +29893,11 @@
       <c r="U413" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="414" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V413" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>448</v>
       </c>
@@ -28710,8 +29958,11 @@
       <c r="U414" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V414" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>449</v>
       </c>
@@ -28772,8 +30023,11 @@
       <c r="U415" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="416" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V415" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>450</v>
       </c>
@@ -28834,8 +30088,11 @@
       <c r="U416" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V416" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="417" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>451</v>
       </c>
@@ -28899,8 +30156,11 @@
       <c r="U417" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="418" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V417" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>452</v>
       </c>
@@ -28961,8 +30221,11 @@
       <c r="U418" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V418" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>453</v>
       </c>
@@ -29023,8 +30286,11 @@
       <c r="U419" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="420" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V419" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>454</v>
       </c>
@@ -29085,8 +30351,11 @@
       <c r="U420" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="421" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V420" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>455</v>
       </c>
@@ -29150,8 +30419,11 @@
       <c r="U421" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V421" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>456</v>
       </c>
@@ -29212,8 +30484,11 @@
       <c r="U422" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="423" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V422" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>457</v>
       </c>
@@ -29277,8 +30552,11 @@
       <c r="U423" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V423" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="424" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>459</v>
       </c>
@@ -29339,8 +30617,11 @@
       <c r="U424" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="425" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V424" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>460</v>
       </c>
@@ -29401,8 +30682,11 @@
       <c r="U425" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V425" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>461</v>
       </c>
@@ -29463,8 +30747,11 @@
       <c r="U426" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="427" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V426" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>462</v>
       </c>
@@ -29525,8 +30812,11 @@
       <c r="U427">
         <v>4</v>
       </c>
-    </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V427">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>463</v>
       </c>
@@ -29587,8 +30877,11 @@
       <c r="U428" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="429" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V428" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>464</v>
       </c>
@@ -29652,8 +30945,11 @@
       <c r="U429" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V429" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>466</v>
       </c>
@@ -29714,8 +31010,11 @@
       <c r="U430" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="431" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V430" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>467</v>
       </c>
@@ -29776,8 +31075,11 @@
       <c r="U431" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V431" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>468</v>
       </c>
@@ -29838,8 +31140,11 @@
       <c r="U432" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="433" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V432" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>469</v>
       </c>
@@ -29900,8 +31205,11 @@
       <c r="U433" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V433" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>470</v>
       </c>
@@ -29962,8 +31270,11 @@
       <c r="U434" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="435" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V434" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>471</v>
       </c>
@@ -30024,8 +31335,11 @@
       <c r="U435" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V435" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>472</v>
       </c>
@@ -30086,8 +31400,11 @@
       <c r="U436" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="437" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V436" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>473</v>
       </c>
@@ -30148,8 +31465,11 @@
       <c r="U437">
         <v>4</v>
       </c>
-    </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>474</v>
       </c>
@@ -30207,8 +31527,11 @@
       <c r="U438" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="439" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V438" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>475</v>
       </c>
@@ -30269,8 +31592,11 @@
       <c r="U439" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V439" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>476</v>
       </c>
@@ -30331,8 +31657,11 @@
       <c r="U440" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="441" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V440" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>477</v>
       </c>
@@ -30393,8 +31722,11 @@
       <c r="U441" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V441" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>478</v>
       </c>
@@ -30458,8 +31790,11 @@
       <c r="U442" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="443" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V442" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="443" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>480</v>
       </c>
@@ -30520,8 +31855,11 @@
       <c r="U443" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V443" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>481</v>
       </c>
@@ -30585,8 +31923,11 @@
       <c r="U444" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="445" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V444" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>482</v>
       </c>
@@ -30647,8 +31988,11 @@
       <c r="U445" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V445" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="446" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>483</v>
       </c>
@@ -30709,8 +32053,11 @@
       <c r="U446" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="447" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V446" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>484</v>
       </c>
@@ -30771,8 +32118,11 @@
       <c r="U447">
         <v>4</v>
       </c>
-    </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V447">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>485</v>
       </c>
@@ -30833,8 +32183,11 @@
       <c r="U448" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="449" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V448" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>486</v>
       </c>
@@ -30895,8 +32248,11 @@
       <c r="U449" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V449" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>487</v>
       </c>
@@ -30957,8 +32313,11 @@
       <c r="U450" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="451" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V450" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>488</v>
       </c>
@@ -31019,8 +32378,11 @@
       <c r="U451" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V451" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>489</v>
       </c>
@@ -31081,8 +32443,11 @@
       <c r="U452" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="453" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V452" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>492</v>
       </c>
@@ -31143,8 +32508,11 @@
       <c r="U453">
         <v>3</v>
       </c>
-    </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V453" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>493</v>
       </c>
@@ -31205,8 +32573,11 @@
       <c r="U454" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="455" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V454" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>494</v>
       </c>
@@ -31267,8 +32638,11 @@
       <c r="U455">
         <v>3</v>
       </c>
-    </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V455" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>495</v>
       </c>
@@ -31329,8 +32703,11 @@
       <c r="U456" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="457" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V456" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>496</v>
       </c>
@@ -31346,6 +32723,9 @@
       <c r="E457" t="s">
         <v>491</v>
       </c>
+      <c r="F457" t="s">
+        <v>676</v>
+      </c>
       <c r="G457">
         <v>2</v>
       </c>
@@ -31391,8 +32771,11 @@
       <c r="U457">
         <v>3</v>
       </c>
-    </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V457">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>497</v>
       </c>
@@ -31453,8 +32836,11 @@
       <c r="U458" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="459" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V458" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>498</v>
       </c>
@@ -31515,8 +32901,11 @@
       <c r="U459">
         <v>4</v>
       </c>
-    </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V459">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>499</v>
       </c>
@@ -31577,8 +32966,11 @@
       <c r="U460" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="461" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V460" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>500</v>
       </c>
@@ -31639,8 +33031,11 @@
       <c r="U461">
         <v>3</v>
       </c>
-    </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V461">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>501</v>
       </c>
@@ -31701,8 +33096,11 @@
       <c r="U462" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="463" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V462" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>502</v>
       </c>
@@ -31763,8 +33161,11 @@
       <c r="U463">
         <v>4</v>
       </c>
-    </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V463">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>503</v>
       </c>
@@ -31825,8 +33226,11 @@
       <c r="U464" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="465" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V464" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>504</v>
       </c>
@@ -31887,8 +33291,11 @@
       <c r="U465">
         <v>2</v>
       </c>
-    </row>
-    <row r="466" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V465">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>505</v>
       </c>
@@ -31949,8 +33356,11 @@
       <c r="U466" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V466" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>506</v>
       </c>
@@ -32011,8 +33421,11 @@
       <c r="U467" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="468" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V467" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>507</v>
       </c>
@@ -32028,6 +33441,9 @@
       <c r="E468" t="s">
         <v>491</v>
       </c>
+      <c r="F468" t="s">
+        <v>676</v>
+      </c>
       <c r="G468">
         <v>1</v>
       </c>
@@ -32073,8 +33489,11 @@
       <c r="U468">
         <v>3</v>
       </c>
-    </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V468">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>508</v>
       </c>
@@ -32090,6 +33509,9 @@
       <c r="E469" s="1" t="s">
         <v>491</v>
       </c>
+      <c r="F469" s="1" t="s">
+        <v>676</v>
+      </c>
       <c r="G469" s="1">
         <v>1</v>
       </c>
@@ -32135,8 +33557,11 @@
       <c r="U469" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="470" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V469" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>509</v>
       </c>
@@ -32197,8 +33622,11 @@
       <c r="U470">
         <v>3</v>
       </c>
-    </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V470">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>510</v>
       </c>
@@ -32259,8 +33687,11 @@
       <c r="U471" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="472" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V471" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>511</v>
       </c>
@@ -32321,8 +33752,11 @@
       <c r="U472">
         <v>4</v>
       </c>
-    </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V472">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>512</v>
       </c>
@@ -32383,8 +33817,11 @@
       <c r="U473" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="474" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V473" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>513</v>
       </c>
@@ -32445,8 +33882,11 @@
       <c r="U474">
         <v>3</v>
       </c>
-    </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>514</v>
       </c>
@@ -32462,6 +33902,9 @@
       <c r="E475" s="1" t="s">
         <v>491</v>
       </c>
+      <c r="F475" s="1" t="s">
+        <v>676</v>
+      </c>
       <c r="G475" s="1">
         <v>2</v>
       </c>
@@ -32507,8 +33950,11 @@
       <c r="U475" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="476" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V475" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>515</v>
       </c>
@@ -32569,8 +34015,11 @@
       <c r="U476">
         <v>3</v>
       </c>
-    </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V476">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>516</v>
       </c>
@@ -32631,8 +34080,11 @@
       <c r="U477" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="478" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V477" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>517</v>
       </c>
@@ -32693,8 +34145,11 @@
       <c r="U478">
         <v>4</v>
       </c>
-    </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V478">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>518</v>
       </c>
@@ -32755,8 +34210,11 @@
       <c r="U479" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="480" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V479" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>519</v>
       </c>
@@ -32817,8 +34275,11 @@
       <c r="U480">
         <v>4</v>
       </c>
-    </row>
-    <row r="481" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V480">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>520</v>
       </c>
@@ -32879,8 +34340,11 @@
       <c r="U481" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="482" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V481" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>521</v>
       </c>
@@ -32941,8 +34405,11 @@
       <c r="U482">
         <v>4</v>
       </c>
-    </row>
-    <row r="483" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V482">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>522</v>
       </c>
@@ -33003,8 +34470,11 @@
       <c r="U483" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="484" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V483" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>523</v>
       </c>
@@ -33065,8 +34535,11 @@
       <c r="U484">
         <v>4</v>
       </c>
-    </row>
-    <row r="485" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V484" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>524</v>
       </c>
@@ -33127,8 +34600,11 @@
       <c r="U485" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="486" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V485" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>525</v>
       </c>
@@ -33189,8 +34665,11 @@
       <c r="U486">
         <v>3</v>
       </c>
-    </row>
-    <row r="487" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V486" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>526</v>
       </c>
@@ -33251,8 +34730,11 @@
       <c r="U487" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="488" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V487" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>527</v>
       </c>
@@ -33268,6 +34750,9 @@
       <c r="E488" t="s">
         <v>491</v>
       </c>
+      <c r="F488" t="s">
+        <v>676</v>
+      </c>
       <c r="G488">
         <v>0</v>
       </c>
@@ -33313,8 +34798,11 @@
       <c r="U488">
         <v>3</v>
       </c>
-    </row>
-    <row r="489" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V488">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>528</v>
       </c>
@@ -33375,8 +34863,11 @@
       <c r="U489" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="490" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V489">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>529</v>
       </c>
@@ -33437,8 +34928,11 @@
       <c r="U490" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="491" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V490" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>530</v>
       </c>
@@ -33499,8 +34993,11 @@
       <c r="U491" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="492" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V491">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>531</v>
       </c>
@@ -33561,8 +35058,11 @@
       <c r="U492" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="493" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V492" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>532</v>
       </c>
@@ -33623,8 +35123,11 @@
       <c r="U493" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="494" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V493">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>533</v>
       </c>
@@ -33685,8 +35188,11 @@
       <c r="U494" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="495" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V494" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>534</v>
       </c>
@@ -33750,8 +35256,11 @@
       <c r="U495" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="496" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V495" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="496" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>536</v>
       </c>
@@ -33812,8 +35321,11 @@
       <c r="U496" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="497" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V496" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>537</v>
       </c>
@@ -33874,8 +35386,11 @@
       <c r="U497">
         <v>4</v>
       </c>
-    </row>
-    <row r="498" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V497">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>538</v>
       </c>
@@ -33936,8 +35451,11 @@
       <c r="U498" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="499" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V498" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>539</v>
       </c>
@@ -33998,8 +35516,11 @@
       <c r="U499" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="500" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V499" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>540</v>
       </c>
@@ -34060,8 +35581,11 @@
       <c r="U500" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="501" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V500" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>541</v>
       </c>
@@ -34122,8 +35646,11 @@
       <c r="U501" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="502" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V501" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>542</v>
       </c>
@@ -34184,8 +35711,11 @@
       <c r="U502" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="503" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V502" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>543</v>
       </c>
@@ -34246,8 +35776,11 @@
       <c r="U503" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="504" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V503">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>544</v>
       </c>
@@ -34308,8 +35841,11 @@
       <c r="U504" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="505" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V504" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>545</v>
       </c>
@@ -34370,8 +35906,11 @@
       <c r="U505" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="506" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V505">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>546</v>
       </c>
@@ -34432,8 +35971,11 @@
       <c r="U506" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="507" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V506" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>547</v>
       </c>
@@ -34494,8 +36036,11 @@
       <c r="U507">
         <v>4</v>
       </c>
-    </row>
-    <row r="508" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V507">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>548</v>
       </c>
@@ -34556,8 +36101,11 @@
       <c r="U508" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="509" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V508" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>549</v>
       </c>
@@ -34618,8 +36166,11 @@
       <c r="U509" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="510" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V509">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>550</v>
       </c>
@@ -34680,8 +36231,11 @@
       <c r="U510" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="511" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V510" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>551</v>
       </c>
@@ -34742,8 +36296,11 @@
       <c r="U511" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="512" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V511">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>552</v>
       </c>
@@ -34804,8 +36361,11 @@
       <c r="U512" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="513" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V512" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>553</v>
       </c>
@@ -34866,8 +36426,11 @@
       <c r="U513" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="514" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V513" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>554</v>
       </c>
@@ -34928,8 +36491,11 @@
       <c r="U514" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="515" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V514" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>555</v>
       </c>
@@ -34990,8 +36556,11 @@
       <c r="U515" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="516" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V515" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>556</v>
       </c>
@@ -35052,8 +36621,11 @@
       <c r="U516" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="517" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V516" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>557</v>
       </c>
@@ -35117,8 +36689,11 @@
       <c r="U517">
         <v>1</v>
       </c>
-    </row>
-    <row r="518" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>558</v>
       </c>
@@ -35182,8 +36757,11 @@
       <c r="U518" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="519" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V518" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>560</v>
       </c>
@@ -35244,8 +36822,11 @@
       <c r="U519">
         <v>4</v>
       </c>
-    </row>
-    <row r="520" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V519">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>561</v>
       </c>
@@ -35306,8 +36887,11 @@
       <c r="U520" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="521" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V520" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>562</v>
       </c>
@@ -35368,8 +36952,11 @@
       <c r="U521">
         <v>4</v>
       </c>
-    </row>
-    <row r="522" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V521">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>563</v>
       </c>
@@ -35430,8 +37017,11 @@
       <c r="U522" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="523" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V522" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>564</v>
       </c>
@@ -35492,8 +37082,11 @@
       <c r="U523" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="524" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V523">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>565</v>
       </c>
@@ -35554,8 +37147,11 @@
       <c r="U524" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="525" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V524" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>566</v>
       </c>
@@ -35616,8 +37212,11 @@
       <c r="U525" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="526" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V525">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>567</v>
       </c>
@@ -35678,8 +37277,11 @@
       <c r="U526" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="527" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V526" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>568</v>
       </c>
@@ -35740,8 +37342,11 @@
       <c r="U527">
         <v>4</v>
       </c>
-    </row>
-    <row r="528" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V527">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>569</v>
       </c>
@@ -35805,8 +37410,11 @@
       <c r="U528" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="529" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V528" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>570</v>
       </c>
@@ -35867,8 +37475,11 @@
       <c r="U529" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="530" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V529">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>571</v>
       </c>
@@ -35929,8 +37540,11 @@
       <c r="U530" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="531" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V530" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>572</v>
       </c>
@@ -35991,8 +37605,11 @@
       <c r="U531" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="532" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V531">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>573</v>
       </c>
@@ -36056,8 +37673,11 @@
       <c r="U532" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="533" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V532" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>574</v>
       </c>
@@ -36118,8 +37738,11 @@
       <c r="U533" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="534" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V533">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>575</v>
       </c>
@@ -36180,8 +37803,11 @@
       <c r="U534" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="535" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V534" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>576</v>
       </c>
@@ -36242,8 +37868,11 @@
       <c r="U535" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="536" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V535">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>577</v>
       </c>
@@ -36304,8 +37933,11 @@
       <c r="U536" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="537" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V536" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>578</v>
       </c>
@@ -36366,8 +37998,11 @@
       <c r="U537" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="538" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V537" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>579</v>
       </c>
@@ -36428,8 +38063,11 @@
       <c r="U538" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="539" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V538" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>580</v>
       </c>
@@ -36490,8 +38128,11 @@
       <c r="U539" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="540" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V539" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>581</v>
       </c>
@@ -36552,8 +38193,11 @@
       <c r="U540" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="541" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V540" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>582</v>
       </c>
@@ -36614,8 +38258,11 @@
       <c r="U541" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="542" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V541" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>583</v>
       </c>
@@ -36676,8 +38323,11 @@
       <c r="U542">
         <v>1</v>
       </c>
-    </row>
-    <row r="543" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V542" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>586</v>
       </c>
@@ -36738,8 +38388,11 @@
       <c r="U543" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="544" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V543" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>587</v>
       </c>
@@ -36800,8 +38453,11 @@
       <c r="U544">
         <v>1</v>
       </c>
-    </row>
-    <row r="545" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V544" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>588</v>
       </c>
@@ -36862,8 +38518,11 @@
       <c r="U545" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="546" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V545" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>589</v>
       </c>
@@ -36924,8 +38583,11 @@
       <c r="U546">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V546" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>590</v>
       </c>
@@ -36986,8 +38648,11 @@
       <c r="U547" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="548" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V547" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>591</v>
       </c>
@@ -37048,8 +38713,11 @@
       <c r="U548">
         <v>1</v>
       </c>
-    </row>
-    <row r="549" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V548" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>592</v>
       </c>
@@ -37110,8 +38778,11 @@
       <c r="U549" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="550" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V549" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>593</v>
       </c>
@@ -37172,8 +38843,11 @@
       <c r="U550">
         <v>1</v>
       </c>
-    </row>
-    <row r="551" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V550" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>594</v>
       </c>
@@ -37234,8 +38908,11 @@
       <c r="U551" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="552" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V551" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>595</v>
       </c>
@@ -37296,8 +38973,11 @@
       <c r="U552">
         <v>1</v>
       </c>
-    </row>
-    <row r="553" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>596</v>
       </c>
@@ -37358,8 +39038,11 @@
       <c r="U553" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="554" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V553" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>597</v>
       </c>
@@ -37420,8 +39103,11 @@
       <c r="U554">
         <v>1</v>
       </c>
-    </row>
-    <row r="555" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V554" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>598</v>
       </c>
@@ -37482,8 +39168,11 @@
       <c r="U555" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="556" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V555" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>599</v>
       </c>
@@ -37544,8 +39233,11 @@
       <c r="U556">
         <v>1</v>
       </c>
-    </row>
-    <row r="557" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V556" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>600</v>
       </c>
@@ -37606,8 +39298,11 @@
       <c r="U557" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="558" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V557" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>601</v>
       </c>
@@ -37668,8 +39363,11 @@
       <c r="U558">
         <v>1</v>
       </c>
-    </row>
-    <row r="559" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>602</v>
       </c>
@@ -37730,8 +39428,11 @@
       <c r="U559" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="560" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>603</v>
       </c>
@@ -37792,8 +39493,11 @@
       <c r="U560" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="561" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V560" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>604</v>
       </c>
@@ -37854,8 +39558,11 @@
       <c r="U561" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="562" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>605</v>
       </c>
@@ -37916,8 +39623,11 @@
       <c r="U562" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="563" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V562" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>606</v>
       </c>
@@ -37978,8 +39688,11 @@
       <c r="U563" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="564" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>607</v>
       </c>
@@ -38040,8 +39753,11 @@
       <c r="U564" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="565" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V564" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>608</v>
       </c>
@@ -38102,8 +39818,11 @@
       <c r="U565" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="566" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>609</v>
       </c>
@@ -38164,8 +39883,11 @@
       <c r="U566" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="567" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V566" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>610</v>
       </c>
@@ -38226,8 +39948,11 @@
       <c r="U567">
         <v>1</v>
       </c>
-    </row>
-    <row r="568" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>611</v>
       </c>
@@ -38288,8 +40013,11 @@
       <c r="U568" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="569" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V568" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>612</v>
       </c>
@@ -38350,8 +40078,11 @@
       <c r="U569">
         <v>1</v>
       </c>
-    </row>
-    <row r="570" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V569" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>613</v>
       </c>
@@ -38412,8 +40143,11 @@
       <c r="U570" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="571" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V570" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>614</v>
       </c>
@@ -38474,8 +40208,11 @@
       <c r="U571">
         <v>1</v>
       </c>
-    </row>
-    <row r="572" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V571" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>615</v>
       </c>
@@ -38536,8 +40273,11 @@
       <c r="U572" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="573" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V572" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>616</v>
       </c>
@@ -38598,8 +40338,11 @@
       <c r="U573">
         <v>0</v>
       </c>
-    </row>
-    <row r="574" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>617</v>
       </c>
@@ -38660,8 +40403,11 @@
       <c r="U574" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="575" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V574" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>618</v>
       </c>
@@ -38722,8 +40468,11 @@
       <c r="U575">
         <v>1</v>
       </c>
-    </row>
-    <row r="576" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>619</v>
       </c>
@@ -38784,8 +40533,11 @@
       <c r="U576" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="577" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V576" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>620</v>
       </c>
@@ -38846,8 +40598,11 @@
       <c r="U577">
         <v>1</v>
       </c>
-    </row>
-    <row r="578" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>621</v>
       </c>
@@ -38908,8 +40663,11 @@
       <c r="U578" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="579" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V578" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>622</v>
       </c>
@@ -38970,8 +40728,11 @@
       <c r="U579">
         <v>1</v>
       </c>
-    </row>
-    <row r="580" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>623</v>
       </c>
@@ -39032,8 +40793,11 @@
       <c r="U580" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="581" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V580" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>624</v>
       </c>
@@ -39094,8 +40858,11 @@
       <c r="U581">
         <v>1</v>
       </c>
-    </row>
-    <row r="582" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>625</v>
       </c>
@@ -39156,8 +40923,11 @@
       <c r="U582" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="583" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V582" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>626</v>
       </c>
@@ -39218,8 +40988,11 @@
       <c r="U583">
         <v>1</v>
       </c>
-    </row>
-    <row r="584" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V583" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>627</v>
       </c>
@@ -39280,8 +41053,11 @@
       <c r="U584" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="585" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V584" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>628</v>
       </c>
@@ -39342,8 +41118,11 @@
       <c r="U585">
         <v>1</v>
       </c>
-    </row>
-    <row r="586" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V585" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>629</v>
       </c>
@@ -39404,8 +41183,11 @@
       <c r="U586" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="587" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V586" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>630</v>
       </c>
@@ -39466,8 +41248,11 @@
       <c r="U587">
         <v>1</v>
       </c>
-    </row>
-    <row r="588" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>631</v>
       </c>
@@ -39528,8 +41313,11 @@
       <c r="U588" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="589" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V588" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>632</v>
       </c>
@@ -39590,8 +41378,11 @@
       <c r="U589">
         <v>0</v>
       </c>
-    </row>
-    <row r="590" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>633</v>
       </c>
@@ -39652,8 +41443,11 @@
       <c r="U590" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="591" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V590" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>634</v>
       </c>
@@ -39714,8 +41508,11 @@
       <c r="U591">
         <v>1</v>
       </c>
-    </row>
-    <row r="592" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>635</v>
       </c>
@@ -39776,8 +41573,11 @@
       <c r="U592" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="593" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V592" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>636</v>
       </c>
@@ -39838,8 +41638,11 @@
       <c r="U593">
         <v>3</v>
       </c>
-    </row>
-    <row r="594" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V593">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>637</v>
       </c>
@@ -39900,8 +41703,11 @@
       <c r="U594" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="595" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V594" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>638</v>
       </c>
@@ -39962,8 +41768,11 @@
       <c r="U595">
         <v>2</v>
       </c>
-    </row>
-    <row r="596" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V595">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>639</v>
       </c>
@@ -40024,8 +41833,11 @@
       <c r="U596" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="597" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V596" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>640</v>
       </c>
@@ -40086,8 +41898,11 @@
       <c r="U597">
         <v>1</v>
       </c>
-    </row>
-    <row r="598" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>641</v>
       </c>
@@ -40148,8 +41963,11 @@
       <c r="U598" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="599" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V598" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>642</v>
       </c>
@@ -40210,8 +42028,11 @@
       <c r="U599">
         <v>1</v>
       </c>
-    </row>
-    <row r="600" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V599">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>643</v>
       </c>
@@ -40272,8 +42093,11 @@
       <c r="U600" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="601" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V600" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>644</v>
       </c>
@@ -40334,8 +42158,11 @@
       <c r="U601">
         <v>0</v>
       </c>
-    </row>
-    <row r="602" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>645</v>
       </c>
@@ -40396,8 +42223,11 @@
       <c r="U602" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="603" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V602" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>646</v>
       </c>
@@ -40458,8 +42288,11 @@
       <c r="U603">
         <v>0</v>
       </c>
-    </row>
-    <row r="604" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>647</v>
       </c>
@@ -40520,8 +42353,11 @@
       <c r="U604" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="605" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V604" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>648</v>
       </c>
@@ -40582,8 +42418,11 @@
       <c r="U605">
         <v>0</v>
       </c>
-    </row>
-    <row r="606" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>649</v>
       </c>
@@ -40644,8 +42483,11 @@
       <c r="U606" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="607" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V606" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>650</v>
       </c>
@@ -40706,8 +42548,11 @@
       <c r="U607" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="608" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V607" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>651</v>
       </c>
@@ -40768,8 +42613,11 @@
       <c r="U608" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="609" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V608" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="609" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>652</v>
       </c>
@@ -40830,8 +42678,11 @@
       <c r="U609" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="610" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V609" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>653</v>
       </c>
@@ -40892,8 +42743,11 @@
       <c r="U610" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="611" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V610" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>654</v>
       </c>
@@ -40954,8 +42808,11 @@
       <c r="U611" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="612" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V611" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>655</v>
       </c>
@@ -41016,8 +42873,11 @@
       <c r="U612">
         <v>0</v>
       </c>
-    </row>
-    <row r="613" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V612" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>656</v>
       </c>
@@ -41078,8 +42938,11 @@
       <c r="U613" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="614" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V613" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>657</v>
       </c>
@@ -41140,8 +43003,11 @@
       <c r="U614">
         <v>2</v>
       </c>
-    </row>
-    <row r="615" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V614" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>658</v>
       </c>
@@ -41194,16 +43060,19 @@
         <v>308</v>
       </c>
       <c r="S615" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T615" s="1">
         <v>2</v>
       </c>
       <c r="U615" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="616" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="V615" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>659</v>
       </c>
@@ -41256,16 +43125,19 @@
         <v>308</v>
       </c>
       <c r="S616">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T616" s="1">
         <v>2</v>
       </c>
       <c r="U616">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="617" spans="1:21" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="V616" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>660</v>
       </c>
@@ -41326,8 +43198,11 @@
       <c r="U617" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="618" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V617" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>661</v>
       </c>
@@ -41388,8 +43263,11 @@
       <c r="U618">
         <v>2</v>
       </c>
-    </row>
-    <row r="619" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V618">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>662</v>
       </c>
@@ -41450,8 +43328,11 @@
       <c r="U619" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="620" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V619" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>663</v>
       </c>
@@ -41512,8 +43393,11 @@
       <c r="U620">
         <v>1</v>
       </c>
-    </row>
-    <row r="621" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>664</v>
       </c>
@@ -41574,8 +43458,11 @@
       <c r="U621" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="622" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V621" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>665</v>
       </c>
@@ -41636,8 +43523,11 @@
       <c r="U622">
         <v>2</v>
       </c>
-    </row>
-    <row r="623" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V622">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>666</v>
       </c>
@@ -41698,8 +43588,11 @@
       <c r="U623" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="624" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V623" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>667</v>
       </c>
@@ -41760,8 +43653,11 @@
       <c r="U624">
         <v>2</v>
       </c>
-    </row>
-    <row r="625" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V624">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>668</v>
       </c>
@@ -41822,8 +43718,11 @@
       <c r="U625" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="626" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V625" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>669</v>
       </c>
@@ -41884,8 +43783,11 @@
       <c r="U626">
         <v>2</v>
       </c>
-    </row>
-    <row r="627" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V626">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>670</v>
       </c>
@@ -41946,8 +43848,11 @@
       <c r="U627" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="628" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V627" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>671</v>
       </c>
@@ -42008,8 +43913,11 @@
       <c r="U628">
         <v>2</v>
       </c>
-    </row>
-    <row r="629" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V628">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
         <v>672</v>
       </c>
@@ -42070,8 +43978,11 @@
       <c r="U629" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="630" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V629" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>673</v>
       </c>
@@ -42132,8 +44043,11 @@
       <c r="U630">
         <v>3</v>
       </c>
-    </row>
-    <row r="631" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V630">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>674</v>
       </c>
@@ -42192,6 +44106,9 @@
         <v>2</v>
       </c>
       <c r="U631" s="1">
+        <v>2</v>
+      </c>
+      <c r="V631" s="1">
         <v>2</v>
       </c>
     </row>

--- a/data/phenological_monitoring.xlsx
+++ b/data/phenological_monitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB2E100-AD58-DE4D-88F6-FA10CBEE926C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58B2D24-A37C-C64F-B3DF-CC8B839919F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="678">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2952,11 +2952,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V631"/>
+  <dimension ref="A1:W631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" zoomScale="132" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H416" sqref="H416"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2965,7 +2965,7 @@
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3032,8 +3032,11 @@
       <c r="V1" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W1" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3097,8 +3100,11 @@
       <c r="V2" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3162,8 +3168,11 @@
       <c r="V3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3227,8 +3236,11 @@
       <c r="V4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3292,8 +3304,11 @@
       <c r="V5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3357,8 +3372,11 @@
       <c r="V6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3422,8 +3440,11 @@
       <c r="V7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3487,8 +3508,11 @@
       <c r="V8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3552,8 +3576,11 @@
       <c r="V9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3617,8 +3644,11 @@
       <c r="V10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3682,8 +3712,11 @@
       <c r="V11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -3747,8 +3780,11 @@
       <c r="V12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3812,8 +3848,11 @@
       <c r="V13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -3877,8 +3916,11 @@
       <c r="V14" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -3942,8 +3984,11 @@
       <c r="V15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -4007,8 +4052,11 @@
       <c r="V16" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4072,8 +4120,11 @@
       <c r="V17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -4137,8 +4188,11 @@
       <c r="V18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4202,8 +4256,11 @@
       <c r="V19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -4267,8 +4324,11 @@
       <c r="V20" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4332,8 +4392,11 @@
       <c r="V21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -4397,8 +4460,11 @@
       <c r="V22" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -4462,8 +4528,11 @@
       <c r="V23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -4527,8 +4596,11 @@
       <c r="V24" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -4592,8 +4664,11 @@
       <c r="V25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -4657,8 +4732,11 @@
       <c r="V26" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -4722,8 +4800,11 @@
       <c r="V27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -4787,8 +4868,11 @@
       <c r="V28" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -4852,8 +4936,11 @@
       <c r="V29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -4917,8 +5004,11 @@
       <c r="V30" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -4982,8 +5072,11 @@
       <c r="V31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -5047,8 +5140,11 @@
       <c r="V32" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -5112,8 +5208,11 @@
       <c r="V33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -5177,8 +5276,11 @@
       <c r="V34" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -5242,8 +5344,11 @@
       <c r="V35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -5307,8 +5412,11 @@
       <c r="V36" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -5372,8 +5480,11 @@
       <c r="V37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -5437,8 +5548,11 @@
       <c r="V38" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -5502,8 +5616,11 @@
       <c r="V39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -5567,8 +5684,11 @@
       <c r="V40" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -5632,8 +5752,11 @@
       <c r="V41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -5697,8 +5820,11 @@
       <c r="V42" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -5762,8 +5888,11 @@
       <c r="V43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -5827,8 +5956,11 @@
       <c r="V44" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -5892,8 +6024,11 @@
       <c r="V45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -5957,8 +6092,11 @@
       <c r="V46" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -6022,8 +6160,11 @@
       <c r="V47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -6087,8 +6228,11 @@
       <c r="V48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -6152,8 +6296,11 @@
       <c r="V49" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -6217,8 +6364,11 @@
       <c r="V50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -6282,8 +6432,11 @@
       <c r="V51" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -6347,8 +6500,11 @@
       <c r="V52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -6412,8 +6568,11 @@
       <c r="V53" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -6477,8 +6636,11 @@
       <c r="V54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -6542,8 +6704,11 @@
       <c r="V55" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W55" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -6607,8 +6772,11 @@
       <c r="V56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -6672,8 +6840,11 @@
       <c r="V57" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -6737,8 +6908,11 @@
       <c r="V58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -6802,8 +6976,11 @@
       <c r="V59" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W59" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -6867,8 +7044,11 @@
       <c r="V60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -6932,8 +7112,11 @@
       <c r="V61" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W61" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -6997,8 +7180,11 @@
       <c r="V62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -7062,8 +7248,11 @@
       <c r="V63" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -7127,8 +7316,11 @@
       <c r="V64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -7192,8 +7384,11 @@
       <c r="V65" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W65" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -7257,8 +7452,11 @@
       <c r="V66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -7322,8 +7520,11 @@
       <c r="V67" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W67" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -7387,8 +7588,11 @@
       <c r="V68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -7452,8 +7656,11 @@
       <c r="V69" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W69" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -7517,8 +7724,11 @@
       <c r="V70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -7582,8 +7792,11 @@
       <c r="V71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -7647,8 +7860,11 @@
       <c r="V72" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W72" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -7712,8 +7928,11 @@
       <c r="V73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
@@ -7777,8 +7996,11 @@
       <c r="V74" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -7842,8 +8064,11 @@
       <c r="V75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -7907,8 +8132,11 @@
       <c r="V76" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -7972,8 +8200,11 @@
       <c r="V77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
@@ -8037,8 +8268,11 @@
       <c r="V78" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W78" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -8102,8 +8336,11 @@
       <c r="V79">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>93</v>
       </c>
@@ -8167,8 +8404,11 @@
       <c r="V80" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W80" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -8232,8 +8472,11 @@
       <c r="V81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>95</v>
       </c>
@@ -8297,8 +8540,11 @@
       <c r="V82" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W82" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -8362,8 +8608,11 @@
       <c r="V83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>97</v>
       </c>
@@ -8427,8 +8676,11 @@
       <c r="V84" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W84" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -8492,8 +8744,11 @@
       <c r="V85">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
@@ -8557,8 +8812,11 @@
       <c r="V86" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W86" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -8622,8 +8880,11 @@
       <c r="V87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>101</v>
       </c>
@@ -8687,8 +8948,11 @@
       <c r="V88" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W88" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -8752,8 +9016,11 @@
       <c r="V89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>103</v>
       </c>
@@ -8817,8 +9084,11 @@
       <c r="V90" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W90" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -8882,8 +9152,11 @@
       <c r="V91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>105</v>
       </c>
@@ -8947,8 +9220,11 @@
       <c r="V92" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W92" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -9012,8 +9288,11 @@
       <c r="V93">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>109</v>
       </c>
@@ -9077,8 +9356,11 @@
       <c r="V94" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W94" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -9145,8 +9427,11 @@
       <c r="V95">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>112</v>
       </c>
@@ -9210,8 +9495,11 @@
       <c r="V96" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W96" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -9275,8 +9563,11 @@
       <c r="V97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>114</v>
       </c>
@@ -9340,8 +9631,11 @@
       <c r="V98" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W98" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -9405,8 +9699,11 @@
       <c r="V99">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>116</v>
       </c>
@@ -9470,8 +9767,11 @@
       <c r="V100" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W100" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -9535,8 +9835,11 @@
       <c r="V101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>118</v>
       </c>
@@ -9600,8 +9903,11 @@
       <c r="V102" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W102" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -9665,8 +9971,11 @@
       <c r="V103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>120</v>
       </c>
@@ -9730,8 +10039,11 @@
       <c r="V104" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W104" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -9795,8 +10107,11 @@
       <c r="V105">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -9860,8 +10175,11 @@
       <c r="V106" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W106" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -9925,8 +10243,11 @@
       <c r="V107">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -9990,8 +10311,11 @@
       <c r="V108" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W108" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -10058,8 +10382,11 @@
       <c r="V109">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -10123,8 +10450,11 @@
       <c r="V110" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W110" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -10188,8 +10518,11 @@
       <c r="V111">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -10253,8 +10586,11 @@
       <c r="V112" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W112" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -10318,8 +10654,11 @@
       <c r="V113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>130</v>
       </c>
@@ -10383,8 +10722,11 @@
       <c r="V114" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W114" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -10448,8 +10790,11 @@
       <c r="V115">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>132</v>
       </c>
@@ -10513,8 +10858,11 @@
       <c r="V116" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W116" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -10578,8 +10926,11 @@
       <c r="V117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -10643,8 +10994,11 @@
       <c r="V118">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>135</v>
       </c>
@@ -10708,8 +11062,11 @@
       <c r="V119" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W119" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -10773,8 +11130,11 @@
       <c r="V120">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>137</v>
       </c>
@@ -10841,8 +11201,11 @@
       <c r="V121" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W121" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -10906,8 +11269,11 @@
       <c r="V122">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>139</v>
       </c>
@@ -10971,8 +11337,11 @@
       <c r="V123" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W123" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -11036,8 +11405,11 @@
       <c r="V124">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>141</v>
       </c>
@@ -11101,8 +11473,11 @@
       <c r="V125" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W125" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -11166,8 +11541,11 @@
       <c r="V126">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>143</v>
       </c>
@@ -11231,8 +11609,11 @@
       <c r="V127" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W127" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -11296,8 +11677,11 @@
       <c r="V128">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>145</v>
       </c>
@@ -11361,8 +11745,11 @@
       <c r="V129" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W129" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -11426,8 +11813,11 @@
       <c r="V130">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>147</v>
       </c>
@@ -11491,8 +11881,11 @@
       <c r="V131" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W131" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -11556,8 +11949,11 @@
       <c r="V132">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>149</v>
       </c>
@@ -11621,8 +12017,11 @@
       <c r="V133" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W133" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -11686,8 +12085,11 @@
       <c r="V134">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>151</v>
       </c>
@@ -11751,8 +12153,11 @@
       <c r="V135" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W135" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -11816,8 +12221,11 @@
       <c r="V136">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>153</v>
       </c>
@@ -11881,8 +12289,11 @@
       <c r="V137" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W137" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -11946,8 +12357,11 @@
       <c r="V138">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>155</v>
       </c>
@@ -12011,8 +12425,11 @@
       <c r="V139" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W139" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>156</v>
       </c>
@@ -12076,8 +12493,11 @@
       <c r="V140">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -12141,8 +12561,11 @@
       <c r="V141">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>158</v>
       </c>
@@ -12206,8 +12629,11 @@
       <c r="V142" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W142" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -12271,8 +12697,11 @@
       <c r="V143">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>160</v>
       </c>
@@ -12336,8 +12765,11 @@
       <c r="V144" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W144" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -12401,8 +12833,11 @@
       <c r="V145">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>162</v>
       </c>
@@ -12466,8 +12901,11 @@
       <c r="V146" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W146" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -12531,8 +12969,11 @@
       <c r="V147">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>164</v>
       </c>
@@ -12596,8 +13037,11 @@
       <c r="V148" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W148" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -12661,8 +13105,11 @@
       <c r="V149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>166</v>
       </c>
@@ -12726,8 +13173,11 @@
       <c r="V150" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W150" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -12791,8 +13241,11 @@
       <c r="V151">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>168</v>
       </c>
@@ -12856,8 +13309,11 @@
       <c r="V152" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W152" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>169</v>
       </c>
@@ -12921,8 +13377,11 @@
       <c r="V153">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>170</v>
       </c>
@@ -12986,8 +13445,11 @@
       <c r="V154" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W154" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>171</v>
       </c>
@@ -13051,8 +13513,11 @@
       <c r="V155">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>172</v>
       </c>
@@ -13116,8 +13581,11 @@
       <c r="V156" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W156" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -13181,8 +13649,11 @@
       <c r="V157">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>174</v>
       </c>
@@ -13246,8 +13717,11 @@
       <c r="V158" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W158" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>175</v>
       </c>
@@ -13311,8 +13785,11 @@
       <c r="V159">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>176</v>
       </c>
@@ -13376,8 +13853,11 @@
       <c r="V160" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W160" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -13441,8 +13921,11 @@
       <c r="V161">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>178</v>
       </c>
@@ -13506,8 +13989,11 @@
       <c r="V162" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W162" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>179</v>
       </c>
@@ -13571,8 +14057,11 @@
       <c r="V163">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>180</v>
       </c>
@@ -13636,8 +14125,11 @@
       <c r="V164" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W164" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -13701,8 +14193,11 @@
       <c r="V165">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>182</v>
       </c>
@@ -13766,8 +14261,11 @@
       <c r="V166" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W166" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -13831,8 +14329,11 @@
       <c r="V167">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>184</v>
       </c>
@@ -13896,8 +14397,11 @@
       <c r="V168" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W168" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -13961,8 +14465,11 @@
       <c r="V169">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>186</v>
       </c>
@@ -14026,8 +14533,11 @@
       <c r="V170" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W170" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -14091,8 +14601,11 @@
       <c r="V171">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>188</v>
       </c>
@@ -14156,8 +14669,11 @@
       <c r="V172" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W172" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>189</v>
       </c>
@@ -14221,8 +14737,11 @@
       <c r="V173">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>190</v>
       </c>
@@ -14286,8 +14805,11 @@
       <c r="V174" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="175" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W174" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -14351,8 +14873,11 @@
       <c r="V175">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>192</v>
       </c>
@@ -14416,8 +14941,11 @@
       <c r="V176" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="177" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W176" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>193</v>
       </c>
@@ -14481,8 +15009,11 @@
       <c r="V177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>194</v>
       </c>
@@ -14546,8 +15077,11 @@
       <c r="V178" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W178" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>195</v>
       </c>
@@ -14611,8 +15145,11 @@
       <c r="V179">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>196</v>
       </c>
@@ -14676,8 +15213,11 @@
       <c r="V180" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W180" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>197</v>
       </c>
@@ -14741,8 +15281,11 @@
       <c r="V181">
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>198</v>
       </c>
@@ -14806,8 +15349,11 @@
       <c r="V182" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W182" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -14871,8 +15417,11 @@
       <c r="V183">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>202</v>
       </c>
@@ -14936,8 +15485,11 @@
       <c r="V184" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W184" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -15001,8 +15553,11 @@
       <c r="V185">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>204</v>
       </c>
@@ -15069,8 +15624,11 @@
       <c r="V186" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="187" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W186" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -15134,8 +15692,11 @@
       <c r="V187">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -15199,8 +15760,11 @@
       <c r="V188" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W188" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>208</v>
       </c>
@@ -15264,8 +15828,11 @@
       <c r="V189" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W189" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -15332,8 +15899,11 @@
       <c r="V190" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W190" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>210</v>
       </c>
@@ -15397,8 +15967,11 @@
       <c r="V191" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W191" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -15462,8 +16035,11 @@
       <c r="V192" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W192" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>212</v>
       </c>
@@ -15527,8 +16103,11 @@
       <c r="V193" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W193" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -15595,8 +16174,11 @@
       <c r="V194">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>215</v>
       </c>
@@ -15660,8 +16242,11 @@
       <c r="V195" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W195" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -15725,8 +16310,11 @@
       <c r="V196">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>217</v>
       </c>
@@ -15790,8 +16378,11 @@
       <c r="V197" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W197" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -15858,8 +16449,11 @@
       <c r="V198">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>220</v>
       </c>
@@ -15923,8 +16517,11 @@
       <c r="V199" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W199" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -15991,8 +16588,11 @@
       <c r="V200">
         <v>4</v>
       </c>
-    </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>222</v>
       </c>
@@ -16056,8 +16656,11 @@
       <c r="V201" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W201" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -16121,8 +16724,11 @@
       <c r="V202">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>224</v>
       </c>
@@ -16186,8 +16792,11 @@
       <c r="V203" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W203" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -16251,8 +16860,11 @@
       <c r="V204">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>226</v>
       </c>
@@ -16319,8 +16931,11 @@
       <c r="V205" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W205" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -16384,8 +16999,11 @@
       <c r="V206">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>228</v>
       </c>
@@ -16449,8 +17067,11 @@
       <c r="V207" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W207" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -16517,8 +17138,11 @@
       <c r="V208">
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>230</v>
       </c>
@@ -16582,8 +17206,11 @@
       <c r="V209" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="210" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W209" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -16647,8 +17274,11 @@
       <c r="V210">
         <v>3</v>
       </c>
-    </row>
-    <row r="211" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -16715,8 +17345,11 @@
       <c r="V211" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W211" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>233</v>
       </c>
@@ -16780,8 +17413,11 @@
       <c r="V212" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="213" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W212" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -16845,8 +17481,11 @@
       <c r="V213">
         <v>3</v>
       </c>
-    </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>235</v>
       </c>
@@ -16910,8 +17549,11 @@
       <c r="V214" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="215" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W214" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>236</v>
       </c>
@@ -16975,8 +17617,11 @@
       <c r="V215">
         <v>3</v>
       </c>
-    </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>237</v>
       </c>
@@ -17043,8 +17688,11 @@
       <c r="V216" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W216" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>238</v>
       </c>
@@ -17108,8 +17756,11 @@
       <c r="V217">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>239</v>
       </c>
@@ -17173,8 +17824,11 @@
       <c r="V218" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W218" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -17238,8 +17892,11 @@
       <c r="V219">
         <v>4</v>
       </c>
-    </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>241</v>
       </c>
@@ -17303,8 +17960,11 @@
       <c r="V220" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="221" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W220" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -17368,8 +18028,11 @@
       <c r="V221">
         <v>4</v>
       </c>
-    </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>243</v>
       </c>
@@ -17433,8 +18096,11 @@
       <c r="V222" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="223" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W222" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -17501,8 +18167,11 @@
       <c r="V223">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>245</v>
       </c>
@@ -17566,8 +18235,11 @@
       <c r="V224" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="225" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W224" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -17634,8 +18306,11 @@
       <c r="V225">
         <v>4</v>
       </c>
-    </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>247</v>
       </c>
@@ -17699,8 +18374,11 @@
       <c r="V226" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W226" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -17764,8 +18442,11 @@
       <c r="V227">
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>249</v>
       </c>
@@ -17829,8 +18510,11 @@
       <c r="V228" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="229" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W228" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -17894,8 +18578,11 @@
       <c r="V229" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W229" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>251</v>
       </c>
@@ -17959,8 +18646,11 @@
       <c r="V230" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W230" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -18024,8 +18714,11 @@
       <c r="V231" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W231" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>253</v>
       </c>
@@ -18089,8 +18782,11 @@
       <c r="V232" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="233" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W232" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -18154,8 +18850,11 @@
       <c r="V233" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W233" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>255</v>
       </c>
@@ -18219,8 +18918,11 @@
       <c r="V234" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W234" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -18284,8 +18986,11 @@
       <c r="V235" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W235" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>257</v>
       </c>
@@ -18349,8 +19054,11 @@
       <c r="V236" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="237" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W236" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -18414,8 +19122,11 @@
       <c r="V237">
         <v>4</v>
       </c>
-    </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>259</v>
       </c>
@@ -18479,8 +19190,11 @@
       <c r="V238" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="239" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W238" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -18544,8 +19258,11 @@
       <c r="V239" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W239" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>261</v>
       </c>
@@ -18609,8 +19326,11 @@
       <c r="V240" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W240" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -18674,8 +19394,11 @@
       <c r="V241" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W241" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>263</v>
       </c>
@@ -18739,8 +19462,11 @@
       <c r="V242" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="243" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W242" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -18804,8 +19530,11 @@
       <c r="V243">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>265</v>
       </c>
@@ -18869,8 +19598,11 @@
       <c r="V244" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="245" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W244" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -18934,8 +19666,11 @@
       <c r="V245">
         <v>4</v>
       </c>
-    </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>267</v>
       </c>
@@ -18999,8 +19734,11 @@
       <c r="V246" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="247" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W246" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -19064,8 +19802,11 @@
       <c r="V247" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W247" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>269</v>
       </c>
@@ -19129,8 +19870,11 @@
       <c r="V248" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="249" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W248" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -19194,8 +19938,11 @@
       <c r="V249" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W249" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>271</v>
       </c>
@@ -19259,8 +20006,11 @@
       <c r="V250" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="251" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W250" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>272</v>
       </c>
@@ -19324,8 +20074,11 @@
       <c r="V251">
         <v>4</v>
       </c>
-    </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>273</v>
       </c>
@@ -19389,8 +20142,11 @@
       <c r="V252" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="253" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W252" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -19454,8 +20210,11 @@
       <c r="V253" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W253" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>275</v>
       </c>
@@ -19519,8 +20278,11 @@
       <c r="V254" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="255" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W254" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -19584,8 +20346,11 @@
       <c r="V255" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W255" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>277</v>
       </c>
@@ -19649,8 +20414,11 @@
       <c r="V256" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="257" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W256" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -19714,8 +20482,11 @@
       <c r="V257">
         <v>4</v>
       </c>
-    </row>
-    <row r="258" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>279</v>
       </c>
@@ -19779,8 +20550,11 @@
       <c r="V258">
         <v>4</v>
       </c>
-    </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W258">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>280</v>
       </c>
@@ -19844,8 +20618,11 @@
       <c r="V259" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="260" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W259" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>281</v>
       </c>
@@ -19909,8 +20686,11 @@
       <c r="V260" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W260" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>282</v>
       </c>
@@ -19974,8 +20754,11 @@
       <c r="V261" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="262" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W261" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>283</v>
       </c>
@@ -20039,8 +20822,11 @@
       <c r="V262" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W262" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>284</v>
       </c>
@@ -20104,8 +20890,11 @@
       <c r="V263" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="264" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W263" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>285</v>
       </c>
@@ -20169,8 +20958,11 @@
       <c r="V264" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W264" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>286</v>
       </c>
@@ -20234,8 +21026,11 @@
       <c r="V265" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="266" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W265" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -20299,8 +21094,11 @@
       <c r="V266" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W266" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>288</v>
       </c>
@@ -20364,8 +21162,11 @@
       <c r="V267" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="268" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W267" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -20429,8 +21230,11 @@
       <c r="V268" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W268" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>290</v>
       </c>
@@ -20494,8 +21298,11 @@
       <c r="V269" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="270" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W269" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -20559,8 +21366,11 @@
       <c r="V270" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W270" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>292</v>
       </c>
@@ -20624,8 +21434,11 @@
       <c r="V271" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="272" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W271" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -20689,8 +21502,11 @@
       <c r="V272">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>296</v>
       </c>
@@ -20754,8 +21570,11 @@
       <c r="V273" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="274" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W273" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -20819,8 +21638,11 @@
       <c r="V274" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W274" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>298</v>
       </c>
@@ -20884,8 +21706,11 @@
       <c r="V275" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W275" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -20949,8 +21774,11 @@
       <c r="V276" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W276" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>300</v>
       </c>
@@ -21014,8 +21842,11 @@
       <c r="V277" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="278" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W277" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -21079,8 +21910,11 @@
       <c r="V278" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W278" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>302</v>
       </c>
@@ -21147,8 +21981,11 @@
       <c r="V279" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="280" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W279" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -21212,8 +22049,11 @@
       <c r="V280" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="281" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W280" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -21277,8 +22117,11 @@
       <c r="V281" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="282" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W281" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>305</v>
       </c>
@@ -21342,8 +22185,11 @@
       <c r="V282" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="283" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W282" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -21410,8 +22256,11 @@
       <c r="V283" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="284" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W283" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>309</v>
       </c>
@@ -21475,8 +22324,11 @@
       <c r="V284" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="285" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W284" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -21540,8 +22392,11 @@
       <c r="V285" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="286" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W285" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>311</v>
       </c>
@@ -21605,8 +22460,11 @@
       <c r="V286" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="287" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W286" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -21670,8 +22528,11 @@
       <c r="V287">
         <v>4</v>
       </c>
-    </row>
-    <row r="288" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>313</v>
       </c>
@@ -21735,8 +22596,11 @@
       <c r="V288" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="289" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W288" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -21800,8 +22664,11 @@
       <c r="V289" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="290" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W289" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>315</v>
       </c>
@@ -21865,8 +22732,11 @@
       <c r="V290" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="291" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W290" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -21930,8 +22800,11 @@
       <c r="V291" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W291" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>317</v>
       </c>
@@ -21995,8 +22868,11 @@
       <c r="V292" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="293" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W292" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -22060,8 +22936,11 @@
       <c r="V293" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W293" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>319</v>
       </c>
@@ -22128,8 +23007,11 @@
       <c r="V294" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="295" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W294" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -22193,8 +23075,11 @@
       <c r="V295" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W295" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>322</v>
       </c>
@@ -22258,8 +23143,11 @@
       <c r="V296" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="297" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W296" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>323</v>
       </c>
@@ -22323,8 +23211,11 @@
       <c r="V297">
         <v>4</v>
       </c>
-    </row>
-    <row r="298" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>324</v>
       </c>
@@ -22388,8 +23279,11 @@
       <c r="V298" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="299" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W298" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>325</v>
       </c>
@@ -22453,8 +23347,11 @@
       <c r="V299" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="300" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W299" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>326</v>
       </c>
@@ -22518,8 +23415,11 @@
       <c r="V300" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="301" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W300" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>327</v>
       </c>
@@ -22583,8 +23483,11 @@
       <c r="V301" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W301" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>328</v>
       </c>
@@ -22648,8 +23551,11 @@
       <c r="V302" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="303" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W302" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>329</v>
       </c>
@@ -22713,8 +23619,11 @@
       <c r="V303" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W303" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>330</v>
       </c>
@@ -22778,8 +23687,11 @@
       <c r="V304" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="305" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W304" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>331</v>
       </c>
@@ -22843,8 +23755,11 @@
       <c r="V305" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="306" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W305" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>332</v>
       </c>
@@ -22908,8 +23823,11 @@
       <c r="V306" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="307" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W306" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>333</v>
       </c>
@@ -22973,8 +23891,11 @@
       <c r="V307">
         <v>4</v>
       </c>
-    </row>
-    <row r="308" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>334</v>
       </c>
@@ -23038,8 +23959,11 @@
       <c r="V308" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="309" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W308" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>335</v>
       </c>
@@ -23103,8 +24027,11 @@
       <c r="V309" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="310" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W309" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>336</v>
       </c>
@@ -23168,8 +24095,11 @@
       <c r="V310" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="311" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W310" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -23233,8 +24163,11 @@
       <c r="V311" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="312" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W311" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>338</v>
       </c>
@@ -23298,8 +24231,11 @@
       <c r="V312" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="313" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W312" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -23363,8 +24299,11 @@
       <c r="V313" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="314" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W313" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>340</v>
       </c>
@@ -23428,8 +24367,11 @@
       <c r="V314" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="315" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W314" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -23493,8 +24435,11 @@
       <c r="V315" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="316" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W315" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>342</v>
       </c>
@@ -23558,8 +24503,11 @@
       <c r="V316" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="317" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W316" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -23623,8 +24571,11 @@
       <c r="V317">
         <v>4</v>
       </c>
-    </row>
-    <row r="318" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>344</v>
       </c>
@@ -23688,8 +24639,11 @@
       <c r="V318" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="319" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W318" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -23753,8 +24707,11 @@
       <c r="V319" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="320" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W319" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>346</v>
       </c>
@@ -23818,8 +24775,11 @@
       <c r="V320" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="321" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W320" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -23883,8 +24843,11 @@
       <c r="V321" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="322" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W321" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>348</v>
       </c>
@@ -23951,8 +24914,11 @@
       <c r="V322" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="323" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W322" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="323" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>350</v>
       </c>
@@ -24016,8 +24982,11 @@
       <c r="V323">
         <v>4</v>
       </c>
-    </row>
-    <row r="324" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>351</v>
       </c>
@@ -24084,8 +25053,11 @@
       <c r="V324" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="325" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W324" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="325" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>353</v>
       </c>
@@ -24149,8 +25121,11 @@
       <c r="V325">
         <v>4</v>
       </c>
-    </row>
-    <row r="326" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>354</v>
       </c>
@@ -24214,8 +25189,11 @@
       <c r="V326" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="327" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W326" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>355</v>
       </c>
@@ -24279,8 +25257,11 @@
       <c r="V327">
         <v>4</v>
       </c>
-    </row>
-    <row r="328" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W327">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>356</v>
       </c>
@@ -24344,8 +25325,11 @@
       <c r="V328" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="329" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W328" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>357</v>
       </c>
@@ -24409,8 +25393,11 @@
       <c r="V329" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="330" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W329" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>358</v>
       </c>
@@ -24474,8 +25461,11 @@
       <c r="V330" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="331" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W330" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>359</v>
       </c>
@@ -24539,8 +25529,11 @@
       <c r="V331" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="332" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W331" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>360</v>
       </c>
@@ -24604,8 +25597,11 @@
       <c r="V332" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="333" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W332" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>361</v>
       </c>
@@ -24669,8 +25665,11 @@
       <c r="V333" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="334" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W333" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>362</v>
       </c>
@@ -24734,8 +25733,11 @@
       <c r="V334" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="335" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W334" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>363</v>
       </c>
@@ -24799,8 +25801,11 @@
       <c r="V335" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="336" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W335" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>364</v>
       </c>
@@ -24864,8 +25869,11 @@
       <c r="V336" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="337" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W336" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>365</v>
       </c>
@@ -24929,8 +25937,11 @@
       <c r="V337" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="338" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W337" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>366</v>
       </c>
@@ -24994,8 +26005,11 @@
       <c r="V338" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="339" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W338" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>367</v>
       </c>
@@ -25059,8 +26073,11 @@
       <c r="V339" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="340" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W339" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>368</v>
       </c>
@@ -25124,8 +26141,11 @@
       <c r="V340" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="341" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W340" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>369</v>
       </c>
@@ -25189,8 +26209,11 @@
       <c r="V341" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="342" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W341" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>370</v>
       </c>
@@ -25254,8 +26277,11 @@
       <c r="V342">
         <v>4</v>
       </c>
-    </row>
-    <row r="343" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W342">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>371</v>
       </c>
@@ -25319,8 +26345,11 @@
       <c r="V343" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="344" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W343" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>372</v>
       </c>
@@ -25384,8 +26413,11 @@
       <c r="V344" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="345" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W344" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>373</v>
       </c>
@@ -25449,8 +26481,11 @@
       <c r="V345" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="346" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W345" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>374</v>
       </c>
@@ -25514,8 +26549,11 @@
       <c r="V346" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="347" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W346" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>375</v>
       </c>
@@ -25579,8 +26617,11 @@
       <c r="V347" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W347" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>376</v>
       </c>
@@ -25644,8 +26685,11 @@
       <c r="V348">
         <v>3</v>
       </c>
-    </row>
-    <row r="349" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>377</v>
       </c>
@@ -25709,8 +26753,11 @@
       <c r="V349" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="350" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W349" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>378</v>
       </c>
@@ -25774,8 +26821,11 @@
       <c r="V350">
         <v>4</v>
       </c>
-    </row>
-    <row r="351" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W350">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>379</v>
       </c>
@@ -25839,8 +26889,11 @@
       <c r="V351" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="352" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W351" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>380</v>
       </c>
@@ -25904,8 +26957,11 @@
       <c r="V352" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="353" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W352" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>381</v>
       </c>
@@ -25969,8 +27025,11 @@
       <c r="V353" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W353" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>382</v>
       </c>
@@ -26034,8 +27093,11 @@
       <c r="V354" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="355" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W354" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>383</v>
       </c>
@@ -26102,8 +27164,11 @@
       <c r="V355" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W355" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="356" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>384</v>
       </c>
@@ -26167,8 +27232,11 @@
       <c r="V356" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="357" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W356" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>385</v>
       </c>
@@ -26232,8 +27300,11 @@
       <c r="V357">
         <v>4</v>
       </c>
-    </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>386</v>
       </c>
@@ -26297,8 +27368,11 @@
       <c r="V358" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="359" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W358" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>387</v>
       </c>
@@ -26362,8 +27436,11 @@
       <c r="V359" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="360" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W359" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>388</v>
       </c>
@@ -26427,8 +27504,11 @@
       <c r="V360" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="361" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W360" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>389</v>
       </c>
@@ -26492,8 +27572,11 @@
       <c r="V361" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="362" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W361" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>390</v>
       </c>
@@ -26557,8 +27640,11 @@
       <c r="V362" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="363" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W362" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -26622,8 +27708,11 @@
       <c r="V363" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="364" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W363" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>394</v>
       </c>
@@ -26687,8 +27776,11 @@
       <c r="V364" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W364" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -26752,8 +27844,11 @@
       <c r="V365" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="366" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W365" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>396</v>
       </c>
@@ -26817,8 +27912,11 @@
       <c r="V366" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="367" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W366" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -26882,8 +27980,11 @@
       <c r="V367">
         <v>4</v>
       </c>
-    </row>
-    <row r="368" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>398</v>
       </c>
@@ -26947,8 +28048,11 @@
       <c r="V368" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="369" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W368" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -27015,8 +28119,11 @@
       <c r="V369" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W369" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>400</v>
       </c>
@@ -27080,8 +28187,11 @@
       <c r="V370" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="371" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W370" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -27145,8 +28255,11 @@
       <c r="V371" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W371" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>402</v>
       </c>
@@ -27210,8 +28323,11 @@
       <c r="V372" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="373" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W372" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -27275,8 +28391,11 @@
       <c r="V373" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W373" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>404</v>
       </c>
@@ -27340,8 +28459,11 @@
       <c r="V374" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="375" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W374" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -27405,8 +28527,11 @@
       <c r="V375" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W375" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>406</v>
       </c>
@@ -27470,8 +28595,11 @@
       <c r="V376" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="377" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W376" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -27535,8 +28663,11 @@
       <c r="V377">
         <v>4</v>
       </c>
-    </row>
-    <row r="378" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W377">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>408</v>
       </c>
@@ -27600,8 +28731,11 @@
       <c r="V378" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="379" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W378" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -27665,8 +28799,11 @@
       <c r="V379" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W379" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>410</v>
       </c>
@@ -27733,8 +28870,11 @@
       <c r="V380" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W380" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -27798,8 +28938,11 @@
       <c r="V381" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="382" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W381" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>413</v>
       </c>
@@ -27863,8 +29006,11 @@
       <c r="V382" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="383" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W382" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -27928,8 +29074,11 @@
       <c r="V383" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="384" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W383" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>415</v>
       </c>
@@ -27993,8 +29142,11 @@
       <c r="V384" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="385" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W384" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -28058,8 +29210,11 @@
       <c r="V385" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W385" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>417</v>
       </c>
@@ -28126,8 +29281,11 @@
       <c r="V386" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="387" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W386" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -28191,8 +29349,11 @@
       <c r="V387">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W387">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>419</v>
       </c>
@@ -28256,8 +29417,11 @@
       <c r="V388" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W388" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -28321,8 +29485,11 @@
       <c r="V389" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="390" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W389" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>421</v>
       </c>
@@ -28386,8 +29553,11 @@
       <c r="V390" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="391" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W390" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -28454,8 +29624,11 @@
       <c r="V391" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="392" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W391" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>424</v>
       </c>
@@ -28522,8 +29695,11 @@
       <c r="V392" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="393" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W392" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="393" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -28587,8 +29763,11 @@
       <c r="V393">
         <v>4</v>
       </c>
-    </row>
-    <row r="394" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W393">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>427</v>
       </c>
@@ -28652,8 +29831,11 @@
       <c r="V394" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="395" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W394" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -28717,8 +29899,11 @@
       <c r="V395" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="396" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W395" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>429</v>
       </c>
@@ -28782,8 +29967,11 @@
       <c r="V396" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="397" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W396" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -28847,8 +30035,11 @@
       <c r="V397" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="398" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W397" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -28912,8 +30103,11 @@
       <c r="V398">
         <v>4</v>
       </c>
-    </row>
-    <row r="399" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W398">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>432</v>
       </c>
@@ -28980,8 +30174,11 @@
       <c r="V399" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="400" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W399" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>433</v>
       </c>
@@ -29045,8 +30242,11 @@
       <c r="V400" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="401" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W400" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>434</v>
       </c>
@@ -29110,8 +30310,11 @@
       <c r="V401" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="402" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W401" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>435</v>
       </c>
@@ -29178,8 +30381,11 @@
       <c r="V402" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W402" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="403" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>436</v>
       </c>
@@ -29243,8 +30449,11 @@
       <c r="V403" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="404" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W403" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>437</v>
       </c>
@@ -29311,8 +30520,11 @@
       <c r="V404" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W404" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>439</v>
       </c>
@@ -29376,8 +30588,11 @@
       <c r="V405" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="406" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W405" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -29441,8 +30656,11 @@
       <c r="V406" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W406" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>441</v>
       </c>
@@ -29506,8 +30724,11 @@
       <c r="V407" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="408" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W407" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>442</v>
       </c>
@@ -29571,8 +30792,11 @@
       <c r="V408" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="409" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W408" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>443</v>
       </c>
@@ -29636,8 +30860,11 @@
       <c r="V409" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="410" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W409" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>444</v>
       </c>
@@ -29701,8 +30928,11 @@
       <c r="V410" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="411" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W410" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>445</v>
       </c>
@@ -29766,8 +30996,11 @@
       <c r="V411" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="412" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W411" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>446</v>
       </c>
@@ -29831,8 +31064,11 @@
       <c r="V412">
         <v>4</v>
       </c>
-    </row>
-    <row r="413" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W412">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>447</v>
       </c>
@@ -29896,8 +31132,11 @@
       <c r="V413" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="414" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W413" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>448</v>
       </c>
@@ -29961,8 +31200,11 @@
       <c r="V414" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="415" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W414" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>449</v>
       </c>
@@ -30026,8 +31268,11 @@
       <c r="V415" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="416" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W415" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>450</v>
       </c>
@@ -30091,8 +31336,11 @@
       <c r="V416" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W416" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="417" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>451</v>
       </c>
@@ -30159,8 +31407,11 @@
       <c r="V417" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="418" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W417" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>452</v>
       </c>
@@ -30224,8 +31475,11 @@
       <c r="V418" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W418" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>453</v>
       </c>
@@ -30289,8 +31543,11 @@
       <c r="V419" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="420" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W419" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>454</v>
       </c>
@@ -30354,8 +31611,11 @@
       <c r="V420" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="421" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W420" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>455</v>
       </c>
@@ -30422,8 +31682,11 @@
       <c r="V421" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="422" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W421" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>456</v>
       </c>
@@ -30487,8 +31750,11 @@
       <c r="V422" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="423" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W422" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>457</v>
       </c>
@@ -30555,8 +31821,11 @@
       <c r="V423" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W423" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="424" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>459</v>
       </c>
@@ -30620,8 +31889,11 @@
       <c r="V424" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="425" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W424" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>460</v>
       </c>
@@ -30685,8 +31957,11 @@
       <c r="V425" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W425" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>461</v>
       </c>
@@ -30750,8 +32025,11 @@
       <c r="V426" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="427" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W426" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>462</v>
       </c>
@@ -30815,8 +32093,11 @@
       <c r="V427">
         <v>4</v>
       </c>
-    </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W427">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>463</v>
       </c>
@@ -30880,8 +32161,11 @@
       <c r="V428" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="429" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W428" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>464</v>
       </c>
@@ -30948,8 +32232,11 @@
       <c r="V429" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W429" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>466</v>
       </c>
@@ -31013,8 +32300,11 @@
       <c r="V430" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="431" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W430" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>467</v>
       </c>
@@ -31078,8 +32368,11 @@
       <c r="V431" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W431" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>468</v>
       </c>
@@ -31143,8 +32436,11 @@
       <c r="V432" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="433" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W432" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>469</v>
       </c>
@@ -31208,8 +32504,11 @@
       <c r="V433" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="434" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W433" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>470</v>
       </c>
@@ -31273,8 +32572,11 @@
       <c r="V434" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="435" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W434" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>471</v>
       </c>
@@ -31338,8 +32640,11 @@
       <c r="V435" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="436" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W435" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>472</v>
       </c>
@@ -31403,8 +32708,11 @@
       <c r="V436" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="437" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W436" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>473</v>
       </c>
@@ -31468,8 +32776,11 @@
       <c r="V437">
         <v>4</v>
       </c>
-    </row>
-    <row r="438" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>474</v>
       </c>
@@ -31530,8 +32841,11 @@
       <c r="V438" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="439" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W438" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>475</v>
       </c>
@@ -31595,8 +32909,11 @@
       <c r="V439" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="440" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W439" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>476</v>
       </c>
@@ -31660,8 +32977,11 @@
       <c r="V440" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="441" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W440" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>477</v>
       </c>
@@ -31725,8 +33045,11 @@
       <c r="V441" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="442" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W441" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>478</v>
       </c>
@@ -31793,8 +33116,11 @@
       <c r="V442" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="443" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W442" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="443" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>480</v>
       </c>
@@ -31858,8 +33184,11 @@
       <c r="V443" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="444" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W443" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>481</v>
       </c>
@@ -31926,8 +33255,11 @@
       <c r="V444" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="445" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W444" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>482</v>
       </c>
@@ -31991,8 +33323,11 @@
       <c r="V445" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="446" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W445" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="446" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>483</v>
       </c>
@@ -32056,8 +33391,11 @@
       <c r="V446" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="447" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W446" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>484</v>
       </c>
@@ -32121,8 +33459,11 @@
       <c r="V447">
         <v>4</v>
       </c>
-    </row>
-    <row r="448" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W447">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>485</v>
       </c>
@@ -32186,8 +33527,11 @@
       <c r="V448" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="449" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W448" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>486</v>
       </c>
@@ -32251,8 +33595,11 @@
       <c r="V449" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="450" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W449" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>487</v>
       </c>
@@ -32316,8 +33663,11 @@
       <c r="V450" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="451" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W450" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>488</v>
       </c>
@@ -32381,8 +33731,11 @@
       <c r="V451" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="452" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W451" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>489</v>
       </c>
@@ -32446,8 +33799,11 @@
       <c r="V452" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="453" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W452" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>492</v>
       </c>
@@ -32511,8 +33867,11 @@
       <c r="V453" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="454" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W453" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>493</v>
       </c>
@@ -32576,8 +33935,11 @@
       <c r="V454" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="455" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W454" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>494</v>
       </c>
@@ -32641,8 +34003,11 @@
       <c r="V455" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="456" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W455" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>495</v>
       </c>
@@ -32706,8 +34071,11 @@
       <c r="V456" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="457" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W456" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>496</v>
       </c>
@@ -32774,8 +34142,11 @@
       <c r="V457">
         <v>3</v>
       </c>
-    </row>
-    <row r="458" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W457">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>497</v>
       </c>
@@ -32839,8 +34210,11 @@
       <c r="V458" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="459" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W458" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>498</v>
       </c>
@@ -32904,8 +34278,11 @@
       <c r="V459">
         <v>4</v>
       </c>
-    </row>
-    <row r="460" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W459" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>499</v>
       </c>
@@ -32969,8 +34346,11 @@
       <c r="V460" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="461" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W460" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>500</v>
       </c>
@@ -33034,8 +34414,11 @@
       <c r="V461">
         <v>3</v>
       </c>
-    </row>
-    <row r="462" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W461" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>501</v>
       </c>
@@ -33099,8 +34482,11 @@
       <c r="V462" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="463" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W462" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>502</v>
       </c>
@@ -33164,8 +34550,11 @@
       <c r="V463">
         <v>4</v>
       </c>
-    </row>
-    <row r="464" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W463" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>503</v>
       </c>
@@ -33229,8 +34618,11 @@
       <c r="V464" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="465" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W464" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>504</v>
       </c>
@@ -33294,8 +34686,11 @@
       <c r="V465">
         <v>2</v>
       </c>
-    </row>
-    <row r="466" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W465" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>505</v>
       </c>
@@ -33359,8 +34754,11 @@
       <c r="V466" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="467" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W466" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>506</v>
       </c>
@@ -33424,8 +34822,11 @@
       <c r="V467" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="468" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W467" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>507</v>
       </c>
@@ -33492,8 +34893,11 @@
       <c r="V468">
         <v>3</v>
       </c>
-    </row>
-    <row r="469" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W468">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>508</v>
       </c>
@@ -33560,8 +34964,11 @@
       <c r="V469" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="470" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W469" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>509</v>
       </c>
@@ -33625,8 +35032,11 @@
       <c r="V470">
         <v>4</v>
       </c>
-    </row>
-    <row r="471" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W470">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>510</v>
       </c>
@@ -33690,8 +35100,11 @@
       <c r="V471" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="472" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W471" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>511</v>
       </c>
@@ -33755,8 +35168,11 @@
       <c r="V472">
         <v>4</v>
       </c>
-    </row>
-    <row r="473" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W472">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>512</v>
       </c>
@@ -33820,8 +35236,11 @@
       <c r="V473" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="474" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W473" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>513</v>
       </c>
@@ -33885,8 +35304,11 @@
       <c r="V474">
         <v>3</v>
       </c>
-    </row>
-    <row r="475" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W474" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>514</v>
       </c>
@@ -33953,8 +35375,11 @@
       <c r="V475" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="476" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W475" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>515</v>
       </c>
@@ -34018,8 +35443,11 @@
       <c r="V476">
         <v>4</v>
       </c>
-    </row>
-    <row r="477" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W476" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>516</v>
       </c>
@@ -34083,8 +35511,11 @@
       <c r="V477" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="478" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W477" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>517</v>
       </c>
@@ -34148,8 +35579,11 @@
       <c r="V478">
         <v>4</v>
       </c>
-    </row>
-    <row r="479" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W478">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>518</v>
       </c>
@@ -34213,8 +35647,11 @@
       <c r="V479" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="480" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W479" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>519</v>
       </c>
@@ -34278,8 +35715,11 @@
       <c r="V480">
         <v>4</v>
       </c>
-    </row>
-    <row r="481" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W480" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>520</v>
       </c>
@@ -34343,8 +35783,11 @@
       <c r="V481" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="482" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W481" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>521</v>
       </c>
@@ -34408,8 +35851,11 @@
       <c r="V482">
         <v>4</v>
       </c>
-    </row>
-    <row r="483" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W482" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>522</v>
       </c>
@@ -34473,8 +35919,11 @@
       <c r="V483" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="484" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W483" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>523</v>
       </c>
@@ -34538,8 +35987,11 @@
       <c r="V484" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="485" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W484" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>524</v>
       </c>
@@ -34603,8 +36055,11 @@
       <c r="V485" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="486" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W485" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>525</v>
       </c>
@@ -34668,8 +36123,11 @@
       <c r="V486" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="487" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W486" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>526</v>
       </c>
@@ -34733,8 +36191,11 @@
       <c r="V487" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="488" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W487" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>527</v>
       </c>
@@ -34801,8 +36262,11 @@
       <c r="V488">
         <v>3</v>
       </c>
-    </row>
-    <row r="489" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W488" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>528</v>
       </c>
@@ -34866,8 +36330,11 @@
       <c r="V489">
         <v>4</v>
       </c>
-    </row>
-    <row r="490" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W489" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>529</v>
       </c>
@@ -34931,8 +36398,11 @@
       <c r="V490" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="491" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W490" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>530</v>
       </c>
@@ -34996,8 +36466,11 @@
       <c r="V491">
         <v>4</v>
       </c>
-    </row>
-    <row r="492" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W491" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>531</v>
       </c>
@@ -35061,8 +36534,11 @@
       <c r="V492" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="493" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W492" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>532</v>
       </c>
@@ -35126,8 +36602,11 @@
       <c r="V493">
         <v>4</v>
       </c>
-    </row>
-    <row r="494" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W493" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>533</v>
       </c>
@@ -35191,8 +36670,11 @@
       <c r="V494" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="495" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W494" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>534</v>
       </c>
@@ -35259,8 +36741,11 @@
       <c r="V495" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="496" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W495" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="496" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>536</v>
       </c>
@@ -35324,8 +36809,11 @@
       <c r="V496" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="497" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W496" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>537</v>
       </c>
@@ -35389,8 +36877,11 @@
       <c r="V497">
         <v>4</v>
       </c>
-    </row>
-    <row r="498" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W497">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>538</v>
       </c>
@@ -35454,8 +36945,11 @@
       <c r="V498" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="499" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W498" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>539</v>
       </c>
@@ -35519,8 +37013,11 @@
       <c r="V499" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="500" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W499" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>540</v>
       </c>
@@ -35584,8 +37081,11 @@
       <c r="V500" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="501" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W500" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>541</v>
       </c>
@@ -35649,8 +37149,11 @@
       <c r="V501" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="502" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W501" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>542</v>
       </c>
@@ -35714,8 +37217,11 @@
       <c r="V502" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="503" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W502" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>543</v>
       </c>
@@ -35779,8 +37285,11 @@
       <c r="V503">
         <v>4</v>
       </c>
-    </row>
-    <row r="504" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W503" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>544</v>
       </c>
@@ -35844,8 +37353,11 @@
       <c r="V504" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="505" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W504" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>545</v>
       </c>
@@ -35909,8 +37421,11 @@
       <c r="V505">
         <v>4</v>
       </c>
-    </row>
-    <row r="506" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W505" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>546</v>
       </c>
@@ -35974,8 +37489,11 @@
       <c r="V506" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="507" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W506" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>547</v>
       </c>
@@ -36039,8 +37557,11 @@
       <c r="V507">
         <v>4</v>
       </c>
-    </row>
-    <row r="508" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W507">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>548</v>
       </c>
@@ -36104,8 +37625,11 @@
       <c r="V508" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="509" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W508" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>549</v>
       </c>
@@ -36169,8 +37693,11 @@
       <c r="V509">
         <v>4</v>
       </c>
-    </row>
-    <row r="510" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W509" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>550</v>
       </c>
@@ -36234,8 +37761,11 @@
       <c r="V510" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="511" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W510" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>551</v>
       </c>
@@ -36299,8 +37829,11 @@
       <c r="V511">
         <v>4</v>
       </c>
-    </row>
-    <row r="512" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W511" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>552</v>
       </c>
@@ -36364,8 +37897,11 @@
       <c r="V512" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="513" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W512" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>553</v>
       </c>
@@ -36429,8 +37965,11 @@
       <c r="V513" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="514" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W513" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>554</v>
       </c>
@@ -36494,8 +38033,11 @@
       <c r="V514" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="515" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W514" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>555</v>
       </c>
@@ -36559,8 +38101,11 @@
       <c r="V515" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="516" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W515" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>556</v>
       </c>
@@ -36624,8 +38169,11 @@
       <c r="V516" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="517" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W516" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>557</v>
       </c>
@@ -36692,8 +38240,11 @@
       <c r="V517">
         <v>1</v>
       </c>
-    </row>
-    <row r="518" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>558</v>
       </c>
@@ -36760,8 +38311,11 @@
       <c r="V518" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="519" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W518" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>560</v>
       </c>
@@ -36825,8 +38379,11 @@
       <c r="V519">
         <v>4</v>
       </c>
-    </row>
-    <row r="520" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W519">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>561</v>
       </c>
@@ -36890,8 +38447,11 @@
       <c r="V520" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="521" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W520" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>562</v>
       </c>
@@ -36955,8 +38515,11 @@
       <c r="V521">
         <v>4</v>
       </c>
-    </row>
-    <row r="522" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W521">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>563</v>
       </c>
@@ -37020,8 +38583,11 @@
       <c r="V522" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="523" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W522" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>564</v>
       </c>
@@ -37085,8 +38651,11 @@
       <c r="V523">
         <v>4</v>
       </c>
-    </row>
-    <row r="524" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W523" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>565</v>
       </c>
@@ -37150,8 +38719,11 @@
       <c r="V524" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="525" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W524" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>566</v>
       </c>
@@ -37215,8 +38787,11 @@
       <c r="V525">
         <v>4</v>
       </c>
-    </row>
-    <row r="526" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W525" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>567</v>
       </c>
@@ -37280,8 +38855,11 @@
       <c r="V526" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="527" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W526" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>568</v>
       </c>
@@ -37345,8 +38923,11 @@
       <c r="V527">
         <v>4</v>
       </c>
-    </row>
-    <row r="528" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W527">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>569</v>
       </c>
@@ -37413,8 +38994,11 @@
       <c r="V528" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="529" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W528" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>570</v>
       </c>
@@ -37478,8 +39062,11 @@
       <c r="V529">
         <v>4</v>
       </c>
-    </row>
-    <row r="530" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W529" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>571</v>
       </c>
@@ -37543,8 +39130,11 @@
       <c r="V530" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="531" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W530" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>572</v>
       </c>
@@ -37608,8 +39198,11 @@
       <c r="V531">
         <v>4</v>
       </c>
-    </row>
-    <row r="532" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W531" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>573</v>
       </c>
@@ -37676,8 +39269,11 @@
       <c r="V532" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="533" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W532" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>574</v>
       </c>
@@ -37741,8 +39337,11 @@
       <c r="V533">
         <v>4</v>
       </c>
-    </row>
-    <row r="534" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W533" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>575</v>
       </c>
@@ -37806,8 +39405,11 @@
       <c r="V534" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="535" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W534" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>576</v>
       </c>
@@ -37871,8 +39473,11 @@
       <c r="V535">
         <v>4</v>
       </c>
-    </row>
-    <row r="536" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W535" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>577</v>
       </c>
@@ -37936,8 +39541,11 @@
       <c r="V536" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="537" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W536" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>578</v>
       </c>
@@ -38001,8 +39609,11 @@
       <c r="V537" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="538" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W537" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>579</v>
       </c>
@@ -38066,8 +39677,11 @@
       <c r="V538" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="539" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W538" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>580</v>
       </c>
@@ -38131,8 +39745,11 @@
       <c r="V539" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="540" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W539" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>581</v>
       </c>
@@ -38196,8 +39813,11 @@
       <c r="V540" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="541" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W540" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>582</v>
       </c>
@@ -38261,8 +39881,11 @@
       <c r="V541" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="542" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W541" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>583</v>
       </c>
@@ -38326,8 +39949,11 @@
       <c r="V542" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="543" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>586</v>
       </c>
@@ -38391,8 +40017,11 @@
       <c r="V543" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="544" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W543" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>587</v>
       </c>
@@ -38456,8 +40085,11 @@
       <c r="V544" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="545" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>588</v>
       </c>
@@ -38521,8 +40153,11 @@
       <c r="V545" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="546" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W545" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>589</v>
       </c>
@@ -38586,8 +40221,11 @@
       <c r="V546" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="547" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>590</v>
       </c>
@@ -38651,8 +40289,11 @@
       <c r="V547" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="548" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W547" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>591</v>
       </c>
@@ -38716,8 +40357,11 @@
       <c r="V548" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="549" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W548" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>592</v>
       </c>
@@ -38781,8 +40425,11 @@
       <c r="V549" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="550" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W549" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>593</v>
       </c>
@@ -38846,8 +40493,11 @@
       <c r="V550" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="551" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W550" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>594</v>
       </c>
@@ -38911,8 +40561,11 @@
       <c r="V551" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="552" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W551" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>595</v>
       </c>
@@ -38976,8 +40629,11 @@
       <c r="V552">
         <v>1</v>
       </c>
-    </row>
-    <row r="553" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W552" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="553" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>596</v>
       </c>
@@ -39041,8 +40697,11 @@
       <c r="V553" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="554" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W553" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>597</v>
       </c>
@@ -39106,8 +40765,11 @@
       <c r="V554" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="555" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>598</v>
       </c>
@@ -39171,8 +40833,11 @@
       <c r="V555" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="556" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W555" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>599</v>
       </c>
@@ -39236,8 +40901,11 @@
       <c r="V556" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="557" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>600</v>
       </c>
@@ -39301,8 +40969,11 @@
       <c r="V557" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="558" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W557" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>601</v>
       </c>
@@ -39366,8 +41037,11 @@
       <c r="V558">
         <v>1</v>
       </c>
-    </row>
-    <row r="559" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>602</v>
       </c>
@@ -39431,8 +41105,11 @@
       <c r="V559">
         <v>1</v>
       </c>
-    </row>
-    <row r="560" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>603</v>
       </c>
@@ -39496,8 +41173,11 @@
       <c r="V560" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="561" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W560" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>604</v>
       </c>
@@ -39561,8 +41241,11 @@
       <c r="V561">
         <v>1</v>
       </c>
-    </row>
-    <row r="562" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>605</v>
       </c>
@@ -39626,8 +41309,11 @@
       <c r="V562" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="563" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W562" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>606</v>
       </c>
@@ -39691,8 +41377,11 @@
       <c r="V563">
         <v>1</v>
       </c>
-    </row>
-    <row r="564" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W563" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>607</v>
       </c>
@@ -39756,8 +41445,11 @@
       <c r="V564" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="565" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W564" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>608</v>
       </c>
@@ -39821,8 +41513,11 @@
       <c r="V565">
         <v>1</v>
       </c>
-    </row>
-    <row r="566" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W565" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>609</v>
       </c>
@@ -39886,8 +41581,11 @@
       <c r="V566" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="567" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W566" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>610</v>
       </c>
@@ -39951,8 +41649,11 @@
       <c r="V567">
         <v>1</v>
       </c>
-    </row>
-    <row r="568" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>611</v>
       </c>
@@ -40016,8 +41717,11 @@
       <c r="V568" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="569" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W568" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>612</v>
       </c>
@@ -40081,8 +41785,11 @@
       <c r="V569" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="570" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>613</v>
       </c>
@@ -40146,8 +41853,11 @@
       <c r="V570" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="571" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W570" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>614</v>
       </c>
@@ -40211,8 +41921,11 @@
       <c r="V571" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="572" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>615</v>
       </c>
@@ -40276,8 +41989,11 @@
       <c r="V572" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="573" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W572" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>616</v>
       </c>
@@ -40341,8 +42057,11 @@
       <c r="V573">
         <v>0</v>
       </c>
-    </row>
-    <row r="574" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>617</v>
       </c>
@@ -40406,8 +42125,11 @@
       <c r="V574" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="575" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W574" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="575" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>618</v>
       </c>
@@ -40471,8 +42193,11 @@
       <c r="V575">
         <v>1</v>
       </c>
-    </row>
-    <row r="576" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>619</v>
       </c>
@@ -40536,8 +42261,11 @@
       <c r="V576" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="577" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W576" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>620</v>
       </c>
@@ -40601,8 +42329,11 @@
       <c r="V577">
         <v>1</v>
       </c>
-    </row>
-    <row r="578" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>621</v>
       </c>
@@ -40666,8 +42397,11 @@
       <c r="V578" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="579" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W578" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>622</v>
       </c>
@@ -40731,8 +42465,11 @@
       <c r="V579">
         <v>1</v>
       </c>
-    </row>
-    <row r="580" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W579" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>623</v>
       </c>
@@ -40796,8 +42533,11 @@
       <c r="V580" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="581" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W580" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>624</v>
       </c>
@@ -40861,8 +42601,11 @@
       <c r="V581">
         <v>1</v>
       </c>
-    </row>
-    <row r="582" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W581" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>625</v>
       </c>
@@ -40926,8 +42669,11 @@
       <c r="V582" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="583" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W582" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>626</v>
       </c>
@@ -40991,8 +42737,11 @@
       <c r="V583" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="584" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W583" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>627</v>
       </c>
@@ -41056,8 +42805,11 @@
       <c r="V584" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="585" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W584" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>628</v>
       </c>
@@ -41121,8 +42873,11 @@
       <c r="V585" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="586" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W585" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>629</v>
       </c>
@@ -41186,8 +42941,11 @@
       <c r="V586" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="587" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W586" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>630</v>
       </c>
@@ -41251,8 +43009,11 @@
       <c r="V587">
         <v>1</v>
       </c>
-    </row>
-    <row r="588" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>631</v>
       </c>
@@ -41316,8 +43077,11 @@
       <c r="V588" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="589" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W588" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="589" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>632</v>
       </c>
@@ -41381,8 +43145,11 @@
       <c r="V589">
         <v>0</v>
       </c>
-    </row>
-    <row r="590" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W589" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="590" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>633</v>
       </c>
@@ -41446,8 +43213,11 @@
       <c r="V590" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="591" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W590" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>634</v>
       </c>
@@ -41511,8 +43281,11 @@
       <c r="V591">
         <v>1</v>
       </c>
-    </row>
-    <row r="592" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>635</v>
       </c>
@@ -41576,8 +43349,11 @@
       <c r="V592" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="593" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W592" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>636</v>
       </c>
@@ -41641,8 +43417,11 @@
       <c r="V593">
         <v>3</v>
       </c>
-    </row>
-    <row r="594" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W593">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>637</v>
       </c>
@@ -41706,8 +43485,11 @@
       <c r="V594" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="595" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W594" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>638</v>
       </c>
@@ -41771,8 +43553,11 @@
       <c r="V595">
         <v>2</v>
       </c>
-    </row>
-    <row r="596" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W595">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>639</v>
       </c>
@@ -41836,8 +43621,11 @@
       <c r="V596" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="597" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W596" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>640</v>
       </c>
@@ -41901,8 +43689,11 @@
       <c r="V597">
         <v>2</v>
       </c>
-    </row>
-    <row r="598" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>641</v>
       </c>
@@ -41966,8 +43757,11 @@
       <c r="V598" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="599" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W598" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>642</v>
       </c>
@@ -42031,8 +43825,11 @@
       <c r="V599">
         <v>2</v>
       </c>
-    </row>
-    <row r="600" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W599">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>643</v>
       </c>
@@ -42096,8 +43893,11 @@
       <c r="V600" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="601" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W600" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>644</v>
       </c>
@@ -42161,8 +43961,11 @@
       <c r="V601">
         <v>0</v>
       </c>
-    </row>
-    <row r="602" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>645</v>
       </c>
@@ -42226,8 +44029,11 @@
       <c r="V602" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="603" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W602" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>646</v>
       </c>
@@ -42291,8 +44097,11 @@
       <c r="V603">
         <v>0</v>
       </c>
-    </row>
-    <row r="604" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W603" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="604" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>647</v>
       </c>
@@ -42356,8 +44165,11 @@
       <c r="V604" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="605" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W604" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="605" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>648</v>
       </c>
@@ -42421,8 +44233,11 @@
       <c r="V605">
         <v>0</v>
       </c>
-    </row>
-    <row r="606" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W605" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="606" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>649</v>
       </c>
@@ -42486,8 +44301,11 @@
       <c r="V606" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="607" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W606" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>650</v>
       </c>
@@ -42551,8 +44369,11 @@
       <c r="V607" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="608" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W607" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>651</v>
       </c>
@@ -42616,8 +44437,11 @@
       <c r="V608" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="609" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W608" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>652</v>
       </c>
@@ -42681,8 +44505,11 @@
       <c r="V609" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="610" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W609" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>653</v>
       </c>
@@ -42746,8 +44573,11 @@
       <c r="V610" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="611" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W610" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>654</v>
       </c>
@@ -42811,8 +44641,11 @@
       <c r="V611" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="612" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W611" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>655</v>
       </c>
@@ -42876,8 +44709,11 @@
       <c r="V612" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="613" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W612" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="613" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>656</v>
       </c>
@@ -42941,8 +44777,11 @@
       <c r="V613" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="614" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W613" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>657</v>
       </c>
@@ -43006,8 +44845,11 @@
       <c r="V614" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="615" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W614" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>658</v>
       </c>
@@ -43071,8 +44913,11 @@
       <c r="V615" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="616" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W615" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>659</v>
       </c>
@@ -43136,8 +44981,11 @@
       <c r="V616" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="617" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W616" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>660</v>
       </c>
@@ -43201,8 +45049,11 @@
       <c r="V617" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="618" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W617" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>661</v>
       </c>
@@ -43266,8 +45117,11 @@
       <c r="V618">
         <v>2</v>
       </c>
-    </row>
-    <row r="619" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W618">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>662</v>
       </c>
@@ -43331,8 +45185,11 @@
       <c r="V619" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="620" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W619" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>663</v>
       </c>
@@ -43396,8 +45253,11 @@
       <c r="V620">
         <v>1</v>
       </c>
-    </row>
-    <row r="621" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>664</v>
       </c>
@@ -43461,8 +45321,11 @@
       <c r="V621" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="622" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W621" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>665</v>
       </c>
@@ -43526,8 +45389,11 @@
       <c r="V622">
         <v>2</v>
       </c>
-    </row>
-    <row r="623" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W622">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>666</v>
       </c>
@@ -43591,8 +45457,11 @@
       <c r="V623" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="624" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W623" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>667</v>
       </c>
@@ -43656,8 +45525,11 @@
       <c r="V624">
         <v>2</v>
       </c>
-    </row>
-    <row r="625" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W624">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>668</v>
       </c>
@@ -43721,8 +45593,11 @@
       <c r="V625" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="626" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W625" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>669</v>
       </c>
@@ -43786,8 +45661,11 @@
       <c r="V626">
         <v>2</v>
       </c>
-    </row>
-    <row r="627" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W626">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>670</v>
       </c>
@@ -43851,8 +45729,11 @@
       <c r="V627" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="628" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W627" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>671</v>
       </c>
@@ -43916,8 +45797,11 @@
       <c r="V628">
         <v>2</v>
       </c>
-    </row>
-    <row r="629" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W628">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
         <v>672</v>
       </c>
@@ -43981,8 +45865,11 @@
       <c r="V629" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="630" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W629" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>673</v>
       </c>
@@ -44046,8 +45933,11 @@
       <c r="V630">
         <v>3</v>
       </c>
-    </row>
-    <row r="631" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W630">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>674</v>
       </c>
@@ -44109,6 +45999,9 @@
         <v>2</v>
       </c>
       <c r="V631" s="1">
+        <v>2</v>
+      </c>
+      <c r="W631" s="1">
         <v>2</v>
       </c>
     </row>

--- a/data/phenological_monitoring.xlsx
+++ b/data/phenological_monitoring.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58B2D24-A37C-C64F-B3DF-CC8B839919F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70077468-CF7E-9144-9280-669BA2FDD24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="678">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2952,11 +2952,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W631"/>
+  <dimension ref="A1:X631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="A593" zoomScale="132" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X606" sqref="X606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2965,7 +2965,7 @@
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3035,8 +3035,11 @@
       <c r="W1" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X1" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3104,7 +3107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3308,7 +3311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3376,7 +3379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3444,7 +3447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3512,7 +3515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3580,7 +3583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3648,7 +3651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3716,7 +3719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -3784,7 +3787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3852,7 +3855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -3920,7 +3923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -3988,7 +3991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -14945,7 +14948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>193</v>
       </c>
@@ -15013,7 +15016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>194</v>
       </c>
@@ -15081,7 +15084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>195</v>
       </c>
@@ -15149,7 +15152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>196</v>
       </c>
@@ -15217,7 +15220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>197</v>
       </c>
@@ -15285,7 +15288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>198</v>
       </c>
@@ -15352,8 +15355,11 @@
       <c r="W182" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X182" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -15420,8 +15426,11 @@
       <c r="W183">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>202</v>
       </c>
@@ -15488,8 +15497,11 @@
       <c r="W184" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X184" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -15556,8 +15568,11 @@
       <c r="W185">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>204</v>
       </c>
@@ -15627,8 +15642,11 @@
       <c r="W186" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="187" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X186" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -15695,8 +15713,11 @@
       <c r="W187">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -15763,8 +15784,11 @@
       <c r="W188" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X188" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>208</v>
       </c>
@@ -15831,8 +15855,11 @@
       <c r="W189" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X189" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -15902,8 +15929,11 @@
       <c r="W190" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X190" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>210</v>
       </c>
@@ -15970,8 +16000,11 @@
       <c r="W191" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X191" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -16039,7 +16072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>212</v>
       </c>
@@ -16107,7 +16140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -16178,7 +16211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>215</v>
       </c>
@@ -16246,7 +16279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -16314,7 +16347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>217</v>
       </c>
@@ -16381,8 +16414,11 @@
       <c r="W197" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X197" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -16452,8 +16488,11 @@
       <c r="W198">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>220</v>
       </c>
@@ -16520,8 +16559,11 @@
       <c r="W199" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X199" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -16591,8 +16633,11 @@
       <c r="W200">
         <v>4</v>
       </c>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>222</v>
       </c>
@@ -16659,8 +16704,11 @@
       <c r="W201" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X201" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -16727,8 +16775,11 @@
       <c r="W202">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X202" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>224</v>
       </c>
@@ -16795,8 +16846,11 @@
       <c r="W203" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X203" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -16863,8 +16917,11 @@
       <c r="W204">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X204" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>226</v>
       </c>
@@ -16934,8 +16991,11 @@
       <c r="W205" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X205" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -17002,8 +17062,11 @@
       <c r="W206">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>228</v>
       </c>
@@ -17070,8 +17133,11 @@
       <c r="W207" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X207" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -17141,8 +17207,11 @@
       <c r="W208">
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X208" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>230</v>
       </c>
@@ -17209,8 +17278,11 @@
       <c r="W209" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="210" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X209" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -17277,8 +17349,11 @@
       <c r="W210">
         <v>3</v>
       </c>
-    </row>
-    <row r="211" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X210" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -17348,8 +17423,11 @@
       <c r="W211" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X211" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>233</v>
       </c>
@@ -17416,8 +17494,11 @@
       <c r="W212" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="213" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X212" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -17484,8 +17565,11 @@
       <c r="W213">
         <v>3</v>
       </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>235</v>
       </c>
@@ -17552,8 +17636,11 @@
       <c r="W214" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="215" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X214" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>236</v>
       </c>
@@ -17620,8 +17707,11 @@
       <c r="W215">
         <v>3</v>
       </c>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>237</v>
       </c>
@@ -17691,8 +17781,11 @@
       <c r="W216" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X216" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>238</v>
       </c>
@@ -17759,8 +17852,11 @@
       <c r="W217">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X217" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>239</v>
       </c>
@@ -17827,8 +17923,11 @@
       <c r="W218" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X218" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -17895,8 +17994,11 @@
       <c r="W219">
         <v>4</v>
       </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X219" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>241</v>
       </c>
@@ -17963,8 +18065,11 @@
       <c r="W220" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="221" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X220" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -18031,8 +18136,11 @@
       <c r="W221">
         <v>4</v>
       </c>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>243</v>
       </c>
@@ -18099,8 +18207,11 @@
       <c r="W222" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="223" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X222" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -18170,8 +18281,11 @@
       <c r="W223">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X223" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>245</v>
       </c>
@@ -18238,8 +18352,11 @@
       <c r="W224" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="225" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X224" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -18309,8 +18426,11 @@
       <c r="W225">
         <v>4</v>
       </c>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X225" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>247</v>
       </c>
@@ -18377,8 +18497,11 @@
       <c r="W226" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X226" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -18445,8 +18568,11 @@
       <c r="W227">
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>249</v>
       </c>
@@ -18513,8 +18639,11 @@
       <c r="W228" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="229" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X228" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -18581,8 +18710,11 @@
       <c r="W229" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X229" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>251</v>
       </c>
@@ -18649,8 +18781,11 @@
       <c r="W230" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X230" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -18717,8 +18852,11 @@
       <c r="W231" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X231" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>253</v>
       </c>
@@ -18785,8 +18923,11 @@
       <c r="W232" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="233" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X232" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -18853,8 +18994,11 @@
       <c r="W233" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X233" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>255</v>
       </c>
@@ -18921,8 +19065,11 @@
       <c r="W234" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X234" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -18989,8 +19136,11 @@
       <c r="W235" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X235" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>257</v>
       </c>
@@ -19057,8 +19207,11 @@
       <c r="W236" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="237" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X236" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -19125,8 +19278,11 @@
       <c r="W237">
         <v>4</v>
       </c>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X237" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>259</v>
       </c>
@@ -19193,8 +19349,11 @@
       <c r="W238" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="239" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X238" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -19261,8 +19420,11 @@
       <c r="W239" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X239" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>261</v>
       </c>
@@ -19329,8 +19491,11 @@
       <c r="W240" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X240" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -19397,8 +19562,11 @@
       <c r="W241" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X241" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>263</v>
       </c>
@@ -19465,8 +19633,11 @@
       <c r="W242" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="243" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X242" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -19533,8 +19704,11 @@
       <c r="W243">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X243" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>265</v>
       </c>
@@ -19601,8 +19775,11 @@
       <c r="W244" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="245" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X244" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -19669,8 +19846,11 @@
       <c r="W245">
         <v>4</v>
       </c>
-    </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X245" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>267</v>
       </c>
@@ -19737,8 +19917,11 @@
       <c r="W246" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="247" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X246" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -19805,8 +19988,11 @@
       <c r="W247" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X247" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>269</v>
       </c>
@@ -19873,8 +20059,11 @@
       <c r="W248" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="249" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X248" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -19941,8 +20130,11 @@
       <c r="W249" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X249" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>271</v>
       </c>
@@ -20009,8 +20201,11 @@
       <c r="W250" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="251" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X250" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>272</v>
       </c>
@@ -20077,8 +20272,11 @@
       <c r="W251">
         <v>4</v>
       </c>
-    </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X251" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>273</v>
       </c>
@@ -20145,8 +20343,11 @@
       <c r="W252" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="253" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X252" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -20213,8 +20414,11 @@
       <c r="W253" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X253" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>275</v>
       </c>
@@ -20281,8 +20485,11 @@
       <c r="W254" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="255" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X254" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -20349,8 +20556,11 @@
       <c r="W255" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X255" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>277</v>
       </c>
@@ -20417,8 +20627,11 @@
       <c r="W256" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="257" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X256" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -20485,8 +20698,11 @@
       <c r="W257">
         <v>4</v>
       </c>
-    </row>
-    <row r="258" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>279</v>
       </c>
@@ -20553,8 +20769,11 @@
       <c r="W258">
         <v>4</v>
       </c>
-    </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X258" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>280</v>
       </c>
@@ -20621,8 +20840,11 @@
       <c r="W259" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="260" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X259" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>281</v>
       </c>
@@ -20689,8 +20911,11 @@
       <c r="W260" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X260" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>282</v>
       </c>
@@ -20757,8 +20982,11 @@
       <c r="W261" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="262" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X261" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>283</v>
       </c>
@@ -20825,8 +21053,11 @@
       <c r="W262" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X262" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>284</v>
       </c>
@@ -20893,8 +21124,11 @@
       <c r="W263" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="264" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X263" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>285</v>
       </c>
@@ -20961,8 +21195,11 @@
       <c r="W264" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X264" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>286</v>
       </c>
@@ -21029,8 +21266,11 @@
       <c r="W265" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="266" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X265" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -21097,8 +21337,11 @@
       <c r="W266" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X266" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>288</v>
       </c>
@@ -21165,8 +21408,11 @@
       <c r="W267" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="268" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X267" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -21233,8 +21479,11 @@
       <c r="W268" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X268" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>290</v>
       </c>
@@ -21301,8 +21550,11 @@
       <c r="W269" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="270" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X269" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -21369,8 +21621,11 @@
       <c r="W270" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X270" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>292</v>
       </c>
@@ -21437,8 +21692,11 @@
       <c r="W271" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="272" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X271" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -33531,7 +33789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>486</v>
       </c>
@@ -33599,7 +33857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>487</v>
       </c>
@@ -33667,7 +33925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>488</v>
       </c>
@@ -33735,7 +33993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>489</v>
       </c>
@@ -33802,8 +34060,11 @@
       <c r="W452" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="453" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X452" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>492</v>
       </c>
@@ -33870,8 +34131,11 @@
       <c r="W453" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X453" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>493</v>
       </c>
@@ -33938,8 +34202,11 @@
       <c r="W454" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="455" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X454" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>494</v>
       </c>
@@ -34006,8 +34273,11 @@
       <c r="W455" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X455" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>495</v>
       </c>
@@ -34074,8 +34344,11 @@
       <c r="W456" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="457" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X456" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>496</v>
       </c>
@@ -34145,8 +34418,11 @@
       <c r="W457">
         <v>4</v>
       </c>
-    </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X457" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>497</v>
       </c>
@@ -34213,8 +34489,11 @@
       <c r="W458" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="459" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X458" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>498</v>
       </c>
@@ -34281,8 +34560,11 @@
       <c r="W459" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X459" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>499</v>
       </c>
@@ -34349,8 +34631,11 @@
       <c r="W460" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="461" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X460" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>500</v>
       </c>
@@ -34417,8 +34702,11 @@
       <c r="W461" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X461" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>501</v>
       </c>
@@ -34485,8 +34773,11 @@
       <c r="W462" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="463" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X462" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>502</v>
       </c>
@@ -34553,8 +34844,11 @@
       <c r="W463" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X463" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>503</v>
       </c>
@@ -34621,8 +34915,11 @@
       <c r="W464" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="465" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X464" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>504</v>
       </c>
@@ -34689,8 +34986,11 @@
       <c r="W465" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="466" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X465" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>505</v>
       </c>
@@ -34757,8 +35057,11 @@
       <c r="W466" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X466" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>506</v>
       </c>
@@ -34825,8 +35128,11 @@
       <c r="W467" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="468" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X467" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>507</v>
       </c>
@@ -34896,8 +35202,11 @@
       <c r="W468">
         <v>3</v>
       </c>
-    </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X468">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>508</v>
       </c>
@@ -34967,8 +35276,11 @@
       <c r="W469" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="470" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X469" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>509</v>
       </c>
@@ -35035,8 +35347,11 @@
       <c r="W470">
         <v>4</v>
       </c>
-    </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X470">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>510</v>
       </c>
@@ -35103,8 +35418,11 @@
       <c r="W471" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="472" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X471" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>511</v>
       </c>
@@ -35171,8 +35489,11 @@
       <c r="W472">
         <v>4</v>
       </c>
-    </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X472">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>512</v>
       </c>
@@ -35239,8 +35560,11 @@
       <c r="W473" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="474" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X473" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>513</v>
       </c>
@@ -35307,8 +35631,11 @@
       <c r="W474" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>514</v>
       </c>
@@ -35378,8 +35705,11 @@
       <c r="W475" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="476" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X475" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>515</v>
       </c>
@@ -35446,8 +35776,11 @@
       <c r="W476" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X476">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>516</v>
       </c>
@@ -35514,8 +35847,11 @@
       <c r="W477" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="478" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X477" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>517</v>
       </c>
@@ -35582,8 +35918,11 @@
       <c r="W478">
         <v>4</v>
       </c>
-    </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X478" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>518</v>
       </c>
@@ -35650,8 +35989,11 @@
       <c r="W479" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="480" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X479" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>519</v>
       </c>
@@ -35718,8 +36060,11 @@
       <c r="W480" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X480" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>520</v>
       </c>
@@ -35786,8 +36131,11 @@
       <c r="W481" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="482" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X481" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>521</v>
       </c>
@@ -35854,8 +36202,11 @@
       <c r="W482" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X482" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>522</v>
       </c>
@@ -35922,8 +36273,11 @@
       <c r="W483" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="484" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X483" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>523</v>
       </c>
@@ -35990,8 +36344,11 @@
       <c r="W484" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X484" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>524</v>
       </c>
@@ -36058,8 +36415,11 @@
       <c r="W485" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="486" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X485" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>525</v>
       </c>
@@ -36126,8 +36486,11 @@
       <c r="W486" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X486">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>526</v>
       </c>
@@ -36194,8 +36557,11 @@
       <c r="W487" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="488" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X487" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>527</v>
       </c>
@@ -36265,8 +36631,11 @@
       <c r="W488" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="489" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X488">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>528</v>
       </c>
@@ -36333,8 +36702,11 @@
       <c r="W489" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X489">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>529</v>
       </c>
@@ -36401,8 +36773,11 @@
       <c r="W490" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="491" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X490" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="491" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>530</v>
       </c>
@@ -36469,8 +36844,11 @@
       <c r="W491" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X491">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>531</v>
       </c>
@@ -36537,8 +36915,11 @@
       <c r="W492" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="493" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X492" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>532</v>
       </c>
@@ -36605,8 +36986,11 @@
       <c r="W493" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X493" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>533</v>
       </c>
@@ -36673,8 +37057,11 @@
       <c r="W494" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="495" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X494" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>534</v>
       </c>
@@ -36744,8 +37131,11 @@
       <c r="W495" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X495" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>536</v>
       </c>
@@ -36812,8 +37202,11 @@
       <c r="W496" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="497" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X496" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>537</v>
       </c>
@@ -36880,8 +37273,11 @@
       <c r="W497">
         <v>4</v>
       </c>
-    </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X497" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>538</v>
       </c>
@@ -36948,8 +37344,11 @@
       <c r="W498" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="499" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X498" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>539</v>
       </c>
@@ -37016,8 +37415,11 @@
       <c r="W499" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X499" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>540</v>
       </c>
@@ -37084,8 +37486,11 @@
       <c r="W500" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="501" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X500" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>541</v>
       </c>
@@ -37152,8 +37557,11 @@
       <c r="W501" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X501" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>542</v>
       </c>
@@ -37220,8 +37628,11 @@
       <c r="W502" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="503" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X502" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>543</v>
       </c>
@@ -37288,8 +37699,11 @@
       <c r="W503" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X503" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>544</v>
       </c>
@@ -37356,8 +37770,11 @@
       <c r="W504" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="505" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X504" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>545</v>
       </c>
@@ -37424,8 +37841,11 @@
       <c r="W505" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X505" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>546</v>
       </c>
@@ -37492,8 +37912,11 @@
       <c r="W506" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="507" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X506" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>547</v>
       </c>
@@ -37560,8 +37983,11 @@
       <c r="W507">
         <v>4</v>
       </c>
-    </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X507" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>548</v>
       </c>
@@ -37628,8 +38054,11 @@
       <c r="W508" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="509" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X508" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>549</v>
       </c>
@@ -37696,8 +38125,11 @@
       <c r="W509" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X509" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>550</v>
       </c>
@@ -37764,8 +38196,11 @@
       <c r="W510" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="511" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X510" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>551</v>
       </c>
@@ -37832,8 +38267,11 @@
       <c r="W511" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X511" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>552</v>
       </c>
@@ -37900,8 +38338,11 @@
       <c r="W512" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="513" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X512" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>553</v>
       </c>
@@ -37968,8 +38409,11 @@
       <c r="W513" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X513" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>554</v>
       </c>
@@ -38036,8 +38480,11 @@
       <c r="W514" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="515" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X514" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>555</v>
       </c>
@@ -38104,8 +38551,11 @@
       <c r="W515" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="516" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X515" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>556</v>
       </c>
@@ -38172,8 +38622,11 @@
       <c r="W516" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="517" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X516" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>557</v>
       </c>
@@ -38243,8 +38696,11 @@
       <c r="W517">
         <v>1</v>
       </c>
-    </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>558</v>
       </c>
@@ -38314,8 +38770,11 @@
       <c r="W518" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="519" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X518" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>560</v>
       </c>
@@ -38382,8 +38841,11 @@
       <c r="W519">
         <v>4</v>
       </c>
-    </row>
-    <row r="520" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X519">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>561</v>
       </c>
@@ -38450,8 +38912,11 @@
       <c r="W520" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="521" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X520" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>562</v>
       </c>
@@ -38518,8 +38983,11 @@
       <c r="W521">
         <v>4</v>
       </c>
-    </row>
-    <row r="522" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X521">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>563</v>
       </c>
@@ -38586,8 +39054,11 @@
       <c r="W522" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="523" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X522" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>564</v>
       </c>
@@ -38654,8 +39125,11 @@
       <c r="W523" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="524" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X523" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>565</v>
       </c>
@@ -38722,8 +39196,11 @@
       <c r="W524" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="525" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X524" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>566</v>
       </c>
@@ -38790,8 +39267,11 @@
       <c r="W525" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="526" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X525" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>567</v>
       </c>
@@ -38858,8 +39338,11 @@
       <c r="W526" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="527" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X526" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>568</v>
       </c>
@@ -38926,8 +39409,11 @@
       <c r="W527">
         <v>4</v>
       </c>
-    </row>
-    <row r="528" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X527" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>569</v>
       </c>
@@ -38997,8 +39483,11 @@
       <c r="W528" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="529" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X528" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>570</v>
       </c>
@@ -39065,8 +39554,11 @@
       <c r="W529" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X529" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>571</v>
       </c>
@@ -39133,8 +39625,11 @@
       <c r="W530" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="531" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X530" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>572</v>
       </c>
@@ -39201,8 +39696,11 @@
       <c r="W531" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="532" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X531" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>573</v>
       </c>
@@ -39272,8 +39770,11 @@
       <c r="W532" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="533" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X532" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>574</v>
       </c>
@@ -39340,8 +39841,11 @@
       <c r="W533" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X533" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>575</v>
       </c>
@@ -39408,8 +39912,11 @@
       <c r="W534" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="535" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X534" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>576</v>
       </c>
@@ -39476,8 +39983,11 @@
       <c r="W535" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="536" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X535" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>577</v>
       </c>
@@ -39544,8 +40054,11 @@
       <c r="W536" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X536" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>578</v>
       </c>
@@ -39612,8 +40125,11 @@
       <c r="W537" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="538" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X537" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>579</v>
       </c>
@@ -39680,8 +40196,11 @@
       <c r="W538" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="539" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X538" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>580</v>
       </c>
@@ -39748,8 +40267,11 @@
       <c r="W539" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="540" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X539" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>581</v>
       </c>
@@ -39816,8 +40338,11 @@
       <c r="W540" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="541" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X540" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>582</v>
       </c>
@@ -39884,8 +40409,11 @@
       <c r="W541" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="542" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X541" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>583</v>
       </c>
@@ -39952,8 +40480,11 @@
       <c r="W542">
         <v>1</v>
       </c>
-    </row>
-    <row r="543" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>586</v>
       </c>
@@ -40020,8 +40551,11 @@
       <c r="W543" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="544" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X543" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>587</v>
       </c>
@@ -40088,8 +40622,11 @@
       <c r="W544">
         <v>1</v>
       </c>
-    </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>588</v>
       </c>
@@ -40156,8 +40693,11 @@
       <c r="W545" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="546" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X545" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>589</v>
       </c>
@@ -40224,8 +40764,11 @@
       <c r="W546">
         <v>1</v>
       </c>
-    </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>590</v>
       </c>
@@ -40293,7 +40836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>591</v>
       </c>
@@ -40361,7 +40904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>592</v>
       </c>
@@ -40429,7 +40972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>593</v>
       </c>
@@ -40497,7 +41040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>594</v>
       </c>
@@ -40565,7 +41108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>595</v>
       </c>
@@ -40633,7 +41176,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="553" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>596</v>
       </c>
@@ -40701,7 +41244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>597</v>
       </c>
@@ -40769,7 +41312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>598</v>
       </c>
@@ -40837,7 +41380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>599</v>
       </c>
@@ -40905,7 +41448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>600</v>
       </c>
@@ -40973,7 +41516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>601</v>
       </c>
@@ -41041,7 +41584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>602</v>
       </c>
@@ -41109,7 +41652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>603</v>
       </c>
@@ -43353,7 +43896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>636</v>
       </c>
@@ -43421,7 +43964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>637</v>
       </c>
@@ -43489,7 +44032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="595" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>638</v>
       </c>
@@ -43557,7 +44100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="596" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>639</v>
       </c>
@@ -43625,7 +44168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="597" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>640</v>
       </c>
@@ -43693,7 +44236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>641</v>
       </c>
@@ -43761,7 +44304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>642</v>
       </c>
@@ -43829,7 +44372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>643</v>
       </c>
@@ -43897,7 +44440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="601" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>644</v>
       </c>
@@ -43965,7 +44508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>645</v>
       </c>
@@ -44030,10 +44573,13 @@
         <v>2</v>
       </c>
       <c r="W602" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="603" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="X602" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>646</v>
       </c>
@@ -44100,8 +44646,11 @@
       <c r="W603" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="604" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X603" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="604" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>647</v>
       </c>
@@ -44168,8 +44717,11 @@
       <c r="W604" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="605" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X604" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="605" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>648</v>
       </c>
@@ -44236,8 +44788,11 @@
       <c r="W605" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="606" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X605" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="606" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>649</v>
       </c>
@@ -44305,7 +44860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>650</v>
       </c>
@@ -44373,7 +44928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>651</v>
       </c>

--- a/data/phenological_monitoring.xlsx
+++ b/data/phenological_monitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70077468-CF7E-9144-9280-669BA2FDD24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D208E7-752E-C941-9A9F-EEDFE1899EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="678">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2954,9 +2956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A593" zoomScale="132" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X606" sqref="X606"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3106,6 +3108,9 @@
       <c r="W2" s="1">
         <v>4</v>
       </c>
+      <c r="X2" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -3174,6 +3179,9 @@
       <c r="W3">
         <v>4</v>
       </c>
+      <c r="X3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3242,6 +3250,9 @@
       <c r="W4" s="1">
         <v>4</v>
       </c>
+      <c r="X4" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3310,6 +3321,9 @@
       <c r="W5">
         <v>4</v>
       </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -3378,6 +3392,9 @@
       <c r="W6" s="1">
         <v>4</v>
       </c>
+      <c r="X6" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3446,6 +3463,9 @@
       <c r="W7">
         <v>4</v>
       </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -3514,6 +3534,9 @@
       <c r="W8" s="1">
         <v>4</v>
       </c>
+      <c r="X8" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3582,6 +3605,9 @@
       <c r="W9">
         <v>4</v>
       </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -3650,6 +3676,9 @@
       <c r="W10" s="1">
         <v>4</v>
       </c>
+      <c r="X10" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -3718,6 +3747,9 @@
       <c r="W11">
         <v>4</v>
       </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -3786,6 +3818,9 @@
       <c r="W12" s="1">
         <v>4</v>
       </c>
+      <c r="X12" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -3854,6 +3889,9 @@
       <c r="W13">
         <v>4</v>
       </c>
+      <c r="X13">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -3922,6 +3960,9 @@
       <c r="W14" s="1">
         <v>4</v>
       </c>
+      <c r="X14" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -3990,6 +4031,9 @@
       <c r="W15">
         <v>4</v>
       </c>
+      <c r="X15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -4058,8 +4102,11 @@
       <c r="W16" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4126,8 +4173,11 @@
       <c r="W17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -4194,8 +4244,11 @@
       <c r="W18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4262,8 +4315,11 @@
       <c r="W19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -4330,8 +4386,11 @@
       <c r="W20" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4398,8 +4457,11 @@
       <c r="W21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -4466,8 +4528,11 @@
       <c r="W22" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -4534,8 +4599,11 @@
       <c r="W23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -4602,8 +4670,11 @@
       <c r="W24" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -4670,8 +4741,11 @@
       <c r="W25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -4738,8 +4812,11 @@
       <c r="W26" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -4806,8 +4883,11 @@
       <c r="W27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -4874,8 +4954,11 @@
       <c r="W28" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -4942,8 +5025,11 @@
       <c r="W29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -5010,8 +5096,11 @@
       <c r="W30" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -5078,8 +5167,11 @@
       <c r="W31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -5146,8 +5238,11 @@
       <c r="W32" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -5214,8 +5309,11 @@
       <c r="W33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -5282,8 +5380,11 @@
       <c r="W34" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -5350,8 +5451,11 @@
       <c r="W35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -5418,8 +5522,11 @@
       <c r="W36" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -5486,8 +5593,11 @@
       <c r="W37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -5554,8 +5664,11 @@
       <c r="W38" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -5622,8 +5735,11 @@
       <c r="W39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -5690,8 +5806,11 @@
       <c r="W40" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -5758,8 +5877,11 @@
       <c r="W41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -5826,8 +5948,11 @@
       <c r="W42" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -5894,8 +6019,11 @@
       <c r="W43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -5962,8 +6090,11 @@
       <c r="W44" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -6030,8 +6161,11 @@
       <c r="W45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -6098,8 +6232,11 @@
       <c r="W46" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -6166,8 +6303,11 @@
       <c r="W47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -6234,8 +6374,11 @@
       <c r="W48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -6302,8 +6445,11 @@
       <c r="W49" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -6370,8 +6516,11 @@
       <c r="W50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -6438,8 +6587,11 @@
       <c r="W51" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -6506,8 +6658,11 @@
       <c r="W52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -6574,8 +6729,11 @@
       <c r="W53" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -6642,8 +6800,11 @@
       <c r="W54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -6710,8 +6871,11 @@
       <c r="W55" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X55" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -6778,8 +6942,11 @@
       <c r="W56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -6846,8 +7013,11 @@
       <c r="W57" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -6914,8 +7084,11 @@
       <c r="W58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -6982,8 +7155,11 @@
       <c r="W59" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X59" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -7050,8 +7226,11 @@
       <c r="W60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -7118,8 +7297,11 @@
       <c r="W61" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X61" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -7186,8 +7368,11 @@
       <c r="W62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -7254,8 +7439,11 @@
       <c r="W63" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -7322,8 +7510,11 @@
       <c r="W64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -7390,8 +7581,11 @@
       <c r="W65" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X65" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -7458,8 +7652,11 @@
       <c r="W66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -7526,8 +7723,11 @@
       <c r="W67" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X67" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -7594,8 +7794,11 @@
       <c r="W68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -7662,8 +7865,11 @@
       <c r="W69" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X69" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -7730,8 +7936,11 @@
       <c r="W70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -7798,8 +8007,11 @@
       <c r="W71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -7866,8 +8078,11 @@
       <c r="W72" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X72" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -7934,8 +8149,11 @@
       <c r="W73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
@@ -8002,8 +8220,11 @@
       <c r="W74" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -8070,8 +8291,11 @@
       <c r="W75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -8138,8 +8362,11 @@
       <c r="W76" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -8206,8 +8433,11 @@
       <c r="W77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
@@ -8274,8 +8504,11 @@
       <c r="W78" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X78" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -8342,8 +8575,11 @@
       <c r="W79">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>93</v>
       </c>
@@ -8410,8 +8646,11 @@
       <c r="W80" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X80" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -8478,8 +8717,11 @@
       <c r="W81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>95</v>
       </c>
@@ -8546,8 +8788,11 @@
       <c r="W82" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X82" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -8614,8 +8859,11 @@
       <c r="W83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>97</v>
       </c>
@@ -8682,8 +8930,11 @@
       <c r="W84" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X84" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -8750,8 +9001,11 @@
       <c r="W85">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
@@ -8818,8 +9072,11 @@
       <c r="W86" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X86" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -8886,8 +9143,11 @@
       <c r="W87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>101</v>
       </c>
@@ -8954,8 +9214,11 @@
       <c r="W88" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X88" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -9022,8 +9285,11 @@
       <c r="W89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>103</v>
       </c>
@@ -9090,8 +9356,11 @@
       <c r="W90" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X90" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -9158,8 +9427,11 @@
       <c r="W91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>105</v>
       </c>
@@ -9226,8 +9498,11 @@
       <c r="W92" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X92" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -9294,8 +9569,11 @@
       <c r="W93">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>109</v>
       </c>
@@ -9362,8 +9640,11 @@
       <c r="W94" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X94" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -9433,8 +9714,11 @@
       <c r="W95">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>112</v>
       </c>
@@ -9501,8 +9785,11 @@
       <c r="W96" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X96" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -9569,8 +9856,11 @@
       <c r="W97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>114</v>
       </c>
@@ -9637,8 +9927,11 @@
       <c r="W98" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X98" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -9705,8 +9998,11 @@
       <c r="W99">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>116</v>
       </c>
@@ -9773,8 +10069,11 @@
       <c r="W100" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X100" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -9841,8 +10140,11 @@
       <c r="W101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>118</v>
       </c>
@@ -9909,8 +10211,11 @@
       <c r="W102" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X102" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -9977,8 +10282,11 @@
       <c r="W103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>120</v>
       </c>
@@ -10045,8 +10353,11 @@
       <c r="W104" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X104" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -10113,8 +10424,11 @@
       <c r="W105">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -10181,8 +10495,11 @@
       <c r="W106" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X106" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -10249,8 +10566,11 @@
       <c r="W107">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -10317,8 +10637,11 @@
       <c r="W108" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X108" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -10388,8 +10711,11 @@
       <c r="W109">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -10456,8 +10782,11 @@
       <c r="W110" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X110" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -10524,8 +10853,11 @@
       <c r="W111">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -10592,8 +10924,11 @@
       <c r="W112" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X112" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -10660,8 +10995,11 @@
       <c r="W113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>130</v>
       </c>
@@ -10728,8 +11066,11 @@
       <c r="W114" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X114" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -10796,8 +11137,11 @@
       <c r="W115">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>132</v>
       </c>
@@ -10864,8 +11208,11 @@
       <c r="W116" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X116" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -10932,8 +11279,11 @@
       <c r="W117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -11000,8 +11350,11 @@
       <c r="W118">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>135</v>
       </c>
@@ -11068,8 +11421,11 @@
       <c r="W119" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X119" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -11136,8 +11492,11 @@
       <c r="W120">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>137</v>
       </c>
@@ -11207,8 +11566,11 @@
       <c r="W121" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X121" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -11275,8 +11637,11 @@
       <c r="W122">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>139</v>
       </c>
@@ -11343,8 +11708,11 @@
       <c r="W123" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X123" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -11411,8 +11779,11 @@
       <c r="W124">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>141</v>
       </c>
@@ -11479,8 +11850,11 @@
       <c r="W125" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X125" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -11547,8 +11921,11 @@
       <c r="W126">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>143</v>
       </c>
@@ -11615,8 +11992,11 @@
       <c r="W127" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X127" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -11683,8 +12063,11 @@
       <c r="W128">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>145</v>
       </c>
@@ -11751,8 +12134,11 @@
       <c r="W129" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X129" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -11819,8 +12205,11 @@
       <c r="W130">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>147</v>
       </c>
@@ -11887,8 +12276,11 @@
       <c r="W131" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X131" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -11955,8 +12347,11 @@
       <c r="W132">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>149</v>
       </c>
@@ -12023,8 +12418,11 @@
       <c r="W133" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X133" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -12091,8 +12489,11 @@
       <c r="W134">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>151</v>
       </c>
@@ -12159,8 +12560,11 @@
       <c r="W135" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X135" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -12227,8 +12631,11 @@
       <c r="W136">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>153</v>
       </c>
@@ -12295,8 +12702,11 @@
       <c r="W137" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X137" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -12363,8 +12773,11 @@
       <c r="W138">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>155</v>
       </c>
@@ -12431,8 +12844,11 @@
       <c r="W139" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X139" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>156</v>
       </c>
@@ -12499,8 +12915,11 @@
       <c r="W140">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -12567,8 +12986,11 @@
       <c r="W141">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>158</v>
       </c>
@@ -12635,8 +13057,11 @@
       <c r="W142" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X142" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -12703,8 +13128,11 @@
       <c r="W143">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>160</v>
       </c>
@@ -12771,8 +13199,11 @@
       <c r="W144" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X144" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -12839,8 +13270,11 @@
       <c r="W145">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>162</v>
       </c>
@@ -12907,8 +13341,11 @@
       <c r="W146" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X146" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -12975,8 +13412,11 @@
       <c r="W147">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>164</v>
       </c>
@@ -13043,8 +13483,11 @@
       <c r="W148" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X148" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -13111,8 +13554,11 @@
       <c r="W149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>166</v>
       </c>
@@ -13179,8 +13625,11 @@
       <c r="W150" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X150" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -13247,8 +13696,11 @@
       <c r="W151">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>168</v>
       </c>
@@ -13315,8 +13767,11 @@
       <c r="W152" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X152" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>169</v>
       </c>
@@ -13383,8 +13838,11 @@
       <c r="W153">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>170</v>
       </c>
@@ -13451,8 +13909,11 @@
       <c r="W154" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X154" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>171</v>
       </c>
@@ -13519,8 +13980,11 @@
       <c r="W155">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>172</v>
       </c>
@@ -13587,8 +14051,11 @@
       <c r="W156" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X156" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -13655,8 +14122,11 @@
       <c r="W157">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>174</v>
       </c>
@@ -13723,8 +14193,11 @@
       <c r="W158" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X158" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>175</v>
       </c>
@@ -13791,8 +14264,11 @@
       <c r="W159">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>176</v>
       </c>
@@ -13859,8 +14335,11 @@
       <c r="W160" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X160" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -13927,8 +14406,11 @@
       <c r="W161">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>178</v>
       </c>
@@ -13995,8 +14477,11 @@
       <c r="W162" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X162" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>179</v>
       </c>
@@ -14063,8 +14548,11 @@
       <c r="W163">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>180</v>
       </c>
@@ -14131,8 +14619,11 @@
       <c r="W164" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X164" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -14199,8 +14690,11 @@
       <c r="W165">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>182</v>
       </c>
@@ -14267,8 +14761,11 @@
       <c r="W166" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X166" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -14335,8 +14832,11 @@
       <c r="W167">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>184</v>
       </c>
@@ -14403,8 +14903,11 @@
       <c r="W168" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X168" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -14471,8 +14974,11 @@
       <c r="W169">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>186</v>
       </c>
@@ -14539,8 +15045,11 @@
       <c r="W170" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X170" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -14607,8 +15116,11 @@
       <c r="W171">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>188</v>
       </c>
@@ -14675,8 +15187,11 @@
       <c r="W172" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X172" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>189</v>
       </c>
@@ -14743,8 +15258,11 @@
       <c r="W173">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>190</v>
       </c>
@@ -14811,8 +15329,11 @@
       <c r="W174" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="175" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X174" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -14879,8 +15400,11 @@
       <c r="W175">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>192</v>
       </c>
@@ -14945,6 +15469,9 @@
         <v>4</v>
       </c>
       <c r="W176" s="1">
+        <v>4</v>
+      </c>
+      <c r="X176" s="1">
         <v>4</v>
       </c>
     </row>
@@ -15015,6 +15542,9 @@
       <c r="W177">
         <v>4</v>
       </c>
+      <c r="X177">
+        <v>4</v>
+      </c>
     </row>
     <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
@@ -15083,6 +15613,9 @@
       <c r="W178" s="1">
         <v>4</v>
       </c>
+      <c r="X178" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="179" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
@@ -15151,6 +15684,9 @@
       <c r="W179">
         <v>4</v>
       </c>
+      <c r="X179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
@@ -15219,6 +15755,9 @@
       <c r="W180" s="1">
         <v>4</v>
       </c>
+      <c r="X180" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="181" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
@@ -15287,6 +15826,9 @@
       <c r="W181">
         <v>4</v>
       </c>
+      <c r="X181">
+        <v>4</v>
+      </c>
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
@@ -15498,7 +16040,7 @@
         <v>3</v>
       </c>
       <c r="X184" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -15784,7 +16326,7 @@
       <c r="W188" s="1">
         <v>4</v>
       </c>
-      <c r="X188" s="3">
+      <c r="X188" s="1">
         <v>4</v>
       </c>
     </row>
@@ -16071,6 +16613,9 @@
       <c r="W192" s="3">
         <v>4</v>
       </c>
+      <c r="X192" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
@@ -16139,6 +16684,9 @@
       <c r="W193" s="1">
         <v>4</v>
       </c>
+      <c r="X193" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="194" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
@@ -16210,6 +16758,9 @@
       <c r="W194">
         <v>3</v>
       </c>
+      <c r="X194">
+        <v>3</v>
+      </c>
     </row>
     <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
@@ -16278,6 +16829,9 @@
       <c r="W195" s="1">
         <v>3</v>
       </c>
+      <c r="X195" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="196" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
@@ -16346,6 +16900,9 @@
       <c r="W196">
         <v>4</v>
       </c>
+      <c r="X196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
@@ -16489,7 +17046,7 @@
         <v>3</v>
       </c>
       <c r="X198">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:24" x14ac:dyDescent="0.2">
@@ -16775,8 +17332,8 @@
       <c r="W202">
         <v>3</v>
       </c>
-      <c r="X202" s="3">
-        <v>4</v>
+      <c r="X202">
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.2">
@@ -16846,7 +17403,7 @@
       <c r="W203" s="1">
         <v>4</v>
       </c>
-      <c r="X203" s="4">
+      <c r="X203" s="1">
         <v>4</v>
       </c>
     </row>
@@ -16917,7 +17474,7 @@
       <c r="W204">
         <v>4</v>
       </c>
-      <c r="X204" s="3">
+      <c r="X204">
         <v>4</v>
       </c>
     </row>
@@ -16991,8 +17548,8 @@
       <c r="W205" s="1">
         <v>3</v>
       </c>
-      <c r="X205" s="4">
-        <v>4</v>
+      <c r="X205" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -17207,7 +17764,7 @@
       <c r="W208">
         <v>4</v>
       </c>
-      <c r="X208" s="3">
+      <c r="X208">
         <v>4</v>
       </c>
     </row>
@@ -17278,8 +17835,8 @@
       <c r="W209" s="1">
         <v>3</v>
       </c>
-      <c r="X209" s="4">
-        <v>4</v>
+      <c r="X209" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -17349,8 +17906,8 @@
       <c r="W210">
         <v>3</v>
       </c>
-      <c r="X210" s="3">
-        <v>4</v>
+      <c r="X210">
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -17423,7 +17980,7 @@
       <c r="W211" s="1">
         <v>4</v>
       </c>
-      <c r="X211" s="4">
+      <c r="X211" s="1">
         <v>4</v>
       </c>
     </row>
@@ -17566,7 +18123,7 @@
         <v>3</v>
       </c>
       <c r="X213">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.2">
@@ -17708,7 +18265,7 @@
         <v>3</v>
       </c>
       <c r="X215">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:24" x14ac:dyDescent="0.2">
@@ -17852,7 +18409,7 @@
       <c r="W217">
         <v>4</v>
       </c>
-      <c r="X217" s="3">
+      <c r="X217">
         <v>4</v>
       </c>
     </row>
@@ -17923,7 +18480,7 @@
       <c r="W218" s="1">
         <v>4</v>
       </c>
-      <c r="X218" s="4">
+      <c r="X218" s="1">
         <v>4</v>
       </c>
     </row>
@@ -17994,7 +18551,7 @@
       <c r="W219">
         <v>4</v>
       </c>
-      <c r="X219" s="3">
+      <c r="X219">
         <v>4</v>
       </c>
     </row>
@@ -18065,8 +18622,8 @@
       <c r="W220" s="1">
         <v>3</v>
       </c>
-      <c r="X220" s="4">
-        <v>4</v>
+      <c r="X220" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -18281,8 +18838,8 @@
       <c r="W223">
         <v>3</v>
       </c>
-      <c r="X223" s="3">
-        <v>4</v>
+      <c r="X223">
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:24" x14ac:dyDescent="0.2">
@@ -18352,8 +18909,8 @@
       <c r="W224" s="1">
         <v>3</v>
       </c>
-      <c r="X224" s="4">
-        <v>4</v>
+      <c r="X224" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -18426,7 +18983,7 @@
       <c r="W225">
         <v>4</v>
       </c>
-      <c r="X225" s="3">
+      <c r="X225">
         <v>4</v>
       </c>
     </row>
@@ -18497,8 +19054,8 @@
       <c r="W226" s="1">
         <v>3</v>
       </c>
-      <c r="X226" s="4">
-        <v>4</v>
+      <c r="X226" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -18923,7 +19480,7 @@
       <c r="W232" s="4">
         <v>4</v>
       </c>
-      <c r="X232" s="1">
+      <c r="X232" s="4">
         <v>4</v>
       </c>
     </row>
@@ -19207,7 +19764,7 @@
       <c r="W236" s="1">
         <v>4</v>
       </c>
-      <c r="X236" s="4">
+      <c r="X236" s="1">
         <v>4</v>
       </c>
     </row>
@@ -19278,7 +19835,7 @@
       <c r="W237">
         <v>4</v>
       </c>
-      <c r="X237" s="3">
+      <c r="X237">
         <v>4</v>
       </c>
     </row>
@@ -19704,7 +20261,7 @@
       <c r="W243">
         <v>4</v>
       </c>
-      <c r="X243" s="3">
+      <c r="X243">
         <v>4</v>
       </c>
     </row>
@@ -19775,7 +20332,7 @@
       <c r="W244" s="1">
         <v>4</v>
       </c>
-      <c r="X244" s="4">
+      <c r="X244" s="1">
         <v>4</v>
       </c>
     </row>
@@ -19846,7 +20403,7 @@
       <c r="W245">
         <v>4</v>
       </c>
-      <c r="X245" s="3">
+      <c r="X245">
         <v>4</v>
       </c>
     </row>
@@ -20201,7 +20758,7 @@
       <c r="W250" s="1">
         <v>4</v>
       </c>
-      <c r="X250" s="4">
+      <c r="X250" s="1">
         <v>4</v>
       </c>
     </row>
@@ -20272,7 +20829,7 @@
       <c r="W251">
         <v>4</v>
       </c>
-      <c r="X251" s="3">
+      <c r="X251">
         <v>4</v>
       </c>
     </row>
@@ -20343,7 +20900,7 @@
       <c r="W252" s="4">
         <v>4</v>
       </c>
-      <c r="X252" s="1">
+      <c r="X252" s="4">
         <v>4</v>
       </c>
     </row>
@@ -20627,7 +21184,7 @@
       <c r="W256" s="1">
         <v>4</v>
       </c>
-      <c r="X256" s="4">
+      <c r="X256" s="1">
         <v>4</v>
       </c>
     </row>
@@ -20769,7 +21326,7 @@
       <c r="W258">
         <v>4</v>
       </c>
-      <c r="X258" s="3">
+      <c r="X258">
         <v>4</v>
       </c>
     </row>
@@ -21408,7 +21965,7 @@
       <c r="W267" s="4">
         <v>4</v>
       </c>
-      <c r="X267" s="1">
+      <c r="X267" s="4">
         <v>4</v>
       </c>
     </row>
@@ -21692,7 +22249,7 @@
       <c r="W271" s="1">
         <v>4</v>
       </c>
-      <c r="X271" s="4">
+      <c r="X271" s="1">
         <v>4</v>
       </c>
     </row>
@@ -21763,8 +22320,11 @@
       <c r="W272">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>296</v>
       </c>
@@ -21831,8 +22391,11 @@
       <c r="W273" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="274" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X273" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -21899,8 +22462,11 @@
       <c r="W274" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X274" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>298</v>
       </c>
@@ -21967,8 +22533,11 @@
       <c r="W275" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X275" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -22035,8 +22604,11 @@
       <c r="W276" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X276" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>300</v>
       </c>
@@ -22103,8 +22675,11 @@
       <c r="W277" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="278" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X277" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -22171,8 +22746,11 @@
       <c r="W278" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X278" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>302</v>
       </c>
@@ -22242,8 +22820,11 @@
       <c r="W279" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="280" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X279" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="280" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -22310,8 +22891,11 @@
       <c r="W280" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="281" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X280" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -22378,8 +22962,11 @@
       <c r="W281" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X281" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>305</v>
       </c>
@@ -22446,8 +23033,11 @@
       <c r="W282" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="283" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X282" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -22517,8 +23107,11 @@
       <c r="W283" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X283" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>309</v>
       </c>
@@ -22585,8 +23178,11 @@
       <c r="W284" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="285" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X284" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -22653,8 +23249,11 @@
       <c r="W285" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X285" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>311</v>
       </c>
@@ -22721,8 +23320,11 @@
       <c r="W286" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="287" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X286" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -22789,8 +23391,11 @@
       <c r="W287">
         <v>4</v>
       </c>
-    </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>313</v>
       </c>
@@ -22857,8 +23462,11 @@
       <c r="W288" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="289" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X288" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -22925,8 +23533,11 @@
       <c r="W289" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X289" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>315</v>
       </c>
@@ -22993,8 +23604,11 @@
       <c r="W290" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="291" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X290" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -23061,8 +23675,11 @@
       <c r="W291" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X291" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>317</v>
       </c>
@@ -23129,8 +23746,11 @@
       <c r="W292" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="293" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X292" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -23197,8 +23817,11 @@
       <c r="W293" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X293" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>319</v>
       </c>
@@ -23268,8 +23891,11 @@
       <c r="W294" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="295" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X294" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -23336,8 +23962,11 @@
       <c r="W295" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X295" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>322</v>
       </c>
@@ -23404,8 +24033,11 @@
       <c r="W296" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="297" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X296" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>323</v>
       </c>
@@ -23472,8 +24104,11 @@
       <c r="W297">
         <v>4</v>
       </c>
-    </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>324</v>
       </c>
@@ -23540,8 +24175,11 @@
       <c r="W298" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="299" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X298" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>325</v>
       </c>
@@ -23608,8 +24246,11 @@
       <c r="W299" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X299" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>326</v>
       </c>
@@ -23676,8 +24317,11 @@
       <c r="W300" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="301" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X300" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>327</v>
       </c>
@@ -23744,8 +24388,11 @@
       <c r="W301" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X301" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>328</v>
       </c>
@@ -23812,8 +24459,11 @@
       <c r="W302" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="303" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X302" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>329</v>
       </c>
@@ -23880,8 +24530,11 @@
       <c r="W303" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X303" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>330</v>
       </c>
@@ -23948,8 +24601,11 @@
       <c r="W304" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="305" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X304" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>331</v>
       </c>
@@ -24016,8 +24672,11 @@
       <c r="W305" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X305" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>332</v>
       </c>
@@ -24084,8 +24743,11 @@
       <c r="W306" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="307" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X306" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>333</v>
       </c>
@@ -24152,8 +24814,11 @@
       <c r="W307">
         <v>4</v>
       </c>
-    </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>334</v>
       </c>
@@ -24220,8 +24885,11 @@
       <c r="W308" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="309" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X308" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>335</v>
       </c>
@@ -24288,8 +24956,11 @@
       <c r="W309" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X309" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>336</v>
       </c>
@@ -24356,8 +25027,11 @@
       <c r="W310" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="311" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X310" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -24424,8 +25098,11 @@
       <c r="W311" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X311" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>338</v>
       </c>
@@ -24492,8 +25169,11 @@
       <c r="W312" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="313" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X312" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -24560,8 +25240,11 @@
       <c r="W313" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X313" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>340</v>
       </c>
@@ -24628,8 +25311,11 @@
       <c r="W314" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="315" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X314" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -24696,8 +25382,11 @@
       <c r="W315" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X315" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>342</v>
       </c>
@@ -24764,8 +25453,11 @@
       <c r="W316" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="317" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X316" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -24832,8 +25524,11 @@
       <c r="W317">
         <v>4</v>
       </c>
-    </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>344</v>
       </c>
@@ -24900,8 +25595,11 @@
       <c r="W318" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="319" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X318" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -24968,8 +25666,11 @@
       <c r="W319" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X319" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>346</v>
       </c>
@@ -25036,8 +25737,11 @@
       <c r="W320" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="321" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X320" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -25104,8 +25808,11 @@
       <c r="W321" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X321" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>348</v>
       </c>
@@ -25175,8 +25882,11 @@
       <c r="W322" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="323" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X322" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="323" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>350</v>
       </c>
@@ -25243,8 +25953,11 @@
       <c r="W323">
         <v>4</v>
       </c>
-    </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>351</v>
       </c>
@@ -25314,8 +26027,11 @@
       <c r="W324" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="325" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X324" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="325" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>353</v>
       </c>
@@ -25382,8 +26098,11 @@
       <c r="W325">
         <v>4</v>
       </c>
-    </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>354</v>
       </c>
@@ -25450,8 +26169,11 @@
       <c r="W326" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="327" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X326" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>355</v>
       </c>
@@ -25518,8 +26240,11 @@
       <c r="W327">
         <v>4</v>
       </c>
-    </row>
-    <row r="328" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X327">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>356</v>
       </c>
@@ -25586,8 +26311,11 @@
       <c r="W328" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X328" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>357</v>
       </c>
@@ -25654,8 +26382,11 @@
       <c r="W329" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="330" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X329" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>358</v>
       </c>
@@ -25722,8 +26453,11 @@
       <c r="W330" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X330" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>359</v>
       </c>
@@ -25790,8 +26524,11 @@
       <c r="W331" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="332" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X331" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>360</v>
       </c>
@@ -25858,8 +26595,11 @@
       <c r="W332" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X332" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>361</v>
       </c>
@@ -25926,8 +26666,11 @@
       <c r="W333" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="334" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X333" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>362</v>
       </c>
@@ -25994,8 +26737,11 @@
       <c r="W334" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X334" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>363</v>
       </c>
@@ -26062,8 +26808,11 @@
       <c r="W335" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="336" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X335" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>364</v>
       </c>
@@ -26130,8 +26879,11 @@
       <c r="W336" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X336" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>365</v>
       </c>
@@ -26198,8 +26950,11 @@
       <c r="W337" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="338" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X337" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>366</v>
       </c>
@@ -26266,8 +27021,11 @@
       <c r="W338" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X338" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>367</v>
       </c>
@@ -26334,8 +27092,11 @@
       <c r="W339" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="340" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X339" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>368</v>
       </c>
@@ -26402,8 +27163,11 @@
       <c r="W340" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X340" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>369</v>
       </c>
@@ -26470,8 +27234,11 @@
       <c r="W341" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="342" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X341" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>370</v>
       </c>
@@ -26538,8 +27305,11 @@
       <c r="W342">
         <v>4</v>
       </c>
-    </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X342">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>371</v>
       </c>
@@ -26606,8 +27376,11 @@
       <c r="W343" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="344" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X343" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>372</v>
       </c>
@@ -26674,8 +27447,11 @@
       <c r="W344" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X344" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>373</v>
       </c>
@@ -26742,8 +27518,11 @@
       <c r="W345" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="346" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X345" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>374</v>
       </c>
@@ -26810,8 +27589,11 @@
       <c r="W346" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X346" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>375</v>
       </c>
@@ -26878,8 +27660,11 @@
       <c r="W347" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X347" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>376</v>
       </c>
@@ -26946,8 +27731,11 @@
       <c r="W348">
         <v>3</v>
       </c>
-    </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>377</v>
       </c>
@@ -27014,8 +27802,11 @@
       <c r="W349" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="350" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X349" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>378</v>
       </c>
@@ -27082,8 +27873,11 @@
       <c r="W350">
         <v>4</v>
       </c>
-    </row>
-    <row r="351" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X350">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>379</v>
       </c>
@@ -27150,8 +27944,11 @@
       <c r="W351" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X351" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>380</v>
       </c>
@@ -27218,8 +28015,11 @@
       <c r="W352" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="353" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X352" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>381</v>
       </c>
@@ -27286,8 +28086,11 @@
       <c r="W353" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X353" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>382</v>
       </c>
@@ -27354,8 +28157,11 @@
       <c r="W354" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="355" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X354" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>383</v>
       </c>
@@ -27425,8 +28231,11 @@
       <c r="W355" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X355" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>384</v>
       </c>
@@ -27493,8 +28302,11 @@
       <c r="W356" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="357" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X356" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>385</v>
       </c>
@@ -27561,8 +28373,11 @@
       <c r="W357">
         <v>4</v>
       </c>
-    </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>386</v>
       </c>
@@ -27629,8 +28444,11 @@
       <c r="W358" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="359" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X358" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>387</v>
       </c>
@@ -27697,8 +28515,11 @@
       <c r="W359" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X359" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>388</v>
       </c>
@@ -27765,8 +28586,11 @@
       <c r="W360" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="361" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X360" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>389</v>
       </c>
@@ -27833,8 +28657,11 @@
       <c r="W361" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X361" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>390</v>
       </c>
@@ -27901,8 +28728,11 @@
       <c r="W362" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="363" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X362" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -27969,8 +28799,11 @@
       <c r="W363" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X363" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>394</v>
       </c>
@@ -28037,8 +28870,11 @@
       <c r="W364" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X364" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -28105,8 +28941,11 @@
       <c r="W365" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X365" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>396</v>
       </c>
@@ -28173,8 +29012,11 @@
       <c r="W366" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="367" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X366" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -28241,8 +29083,11 @@
       <c r="W367">
         <v>4</v>
       </c>
-    </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>398</v>
       </c>
@@ -28309,8 +29154,11 @@
       <c r="W368" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="369" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X368" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -28380,8 +29228,11 @@
       <c r="W369" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X369" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>400</v>
       </c>
@@ -28448,8 +29299,11 @@
       <c r="W370" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="371" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X370" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -28516,8 +29370,11 @@
       <c r="W371" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X371" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>402</v>
       </c>
@@ -28584,8 +29441,11 @@
       <c r="W372" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="373" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X372" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -28652,8 +29512,11 @@
       <c r="W373" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X373" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>404</v>
       </c>
@@ -28720,8 +29583,11 @@
       <c r="W374" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="375" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X374" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -28788,8 +29654,11 @@
       <c r="W375" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X375" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>406</v>
       </c>
@@ -28856,8 +29725,11 @@
       <c r="W376" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="377" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X376" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -28924,8 +29796,11 @@
       <c r="W377">
         <v>4</v>
       </c>
-    </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X377">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>408</v>
       </c>
@@ -28992,8 +29867,11 @@
       <c r="W378" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="379" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X378" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -29060,8 +29938,11 @@
       <c r="W379" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X379" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>410</v>
       </c>
@@ -29131,8 +30012,11 @@
       <c r="W380" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X380" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -29199,8 +30083,11 @@
       <c r="W381" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X381" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>413</v>
       </c>
@@ -29267,8 +30154,11 @@
       <c r="W382" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="383" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X382" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -29335,8 +30225,11 @@
       <c r="W383" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X383" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>415</v>
       </c>
@@ -29403,8 +30296,11 @@
       <c r="W384" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="385" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X384" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -29471,8 +30367,11 @@
       <c r="W385" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X385" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>417</v>
       </c>
@@ -29542,8 +30441,11 @@
       <c r="W386" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="387" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X386" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -29610,8 +30512,11 @@
       <c r="W387">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X387">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>419</v>
       </c>
@@ -29678,8 +30583,11 @@
       <c r="W388" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X388" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -29746,8 +30654,11 @@
       <c r="W389" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X389" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>421</v>
       </c>
@@ -29814,8 +30725,11 @@
       <c r="W390" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="391" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X390" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -29885,8 +30799,11 @@
       <c r="W391" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X391" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>424</v>
       </c>
@@ -29956,8 +30873,11 @@
       <c r="W392" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="393" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X392" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="393" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -30024,8 +30944,11 @@
       <c r="W393">
         <v>4</v>
       </c>
-    </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X393">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>427</v>
       </c>
@@ -30092,8 +31015,11 @@
       <c r="W394" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="395" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X394" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -30160,8 +31086,11 @@
       <c r="W395" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X395" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>429</v>
       </c>
@@ -30228,8 +31157,11 @@
       <c r="W396" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="397" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X396" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -30296,8 +31228,11 @@
       <c r="W397" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="398" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X397" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -30364,8 +31299,11 @@
       <c r="W398">
         <v>4</v>
       </c>
-    </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X398">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>432</v>
       </c>
@@ -30435,8 +31373,11 @@
       <c r="W399" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="400" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X399" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>433</v>
       </c>
@@ -30503,8 +31444,11 @@
       <c r="W400" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X400" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>434</v>
       </c>
@@ -30571,8 +31515,11 @@
       <c r="W401" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="402" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X401" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>435</v>
       </c>
@@ -30642,8 +31589,11 @@
       <c r="W402" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X402" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>436</v>
       </c>
@@ -30710,8 +31660,11 @@
       <c r="W403" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="404" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X403" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>437</v>
       </c>
@@ -30781,8 +31734,11 @@
       <c r="W404" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X404" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>439</v>
       </c>
@@ -30849,8 +31805,11 @@
       <c r="W405" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="406" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X405" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -30917,8 +31876,11 @@
       <c r="W406" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X406" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>441</v>
       </c>
@@ -30985,8 +31947,11 @@
       <c r="W407" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="408" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X407" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>442</v>
       </c>
@@ -31053,8 +32018,11 @@
       <c r="W408" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X408" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>443</v>
       </c>
@@ -31121,8 +32089,11 @@
       <c r="W409" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="410" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X409" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>444</v>
       </c>
@@ -31189,8 +32160,11 @@
       <c r="W410" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X410" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>445</v>
       </c>
@@ -31257,8 +32231,11 @@
       <c r="W411" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="412" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X411" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>446</v>
       </c>
@@ -31325,8 +32302,11 @@
       <c r="W412">
         <v>4</v>
       </c>
-    </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X412">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>447</v>
       </c>
@@ -31393,8 +32373,11 @@
       <c r="W413" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="414" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X413" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>448</v>
       </c>
@@ -31461,8 +32444,11 @@
       <c r="W414" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X414" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>449</v>
       </c>
@@ -31529,8 +32515,11 @@
       <c r="W415" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="416" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X415" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>450</v>
       </c>
@@ -31597,8 +32586,11 @@
       <c r="W416" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X416" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>451</v>
       </c>
@@ -31668,8 +32660,11 @@
       <c r="W417" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="418" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X417" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>452</v>
       </c>
@@ -31736,8 +32731,11 @@
       <c r="W418" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X418" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>453</v>
       </c>
@@ -31804,8 +32802,11 @@
       <c r="W419" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="420" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X419" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>454</v>
       </c>
@@ -31872,8 +32873,11 @@
       <c r="W420" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="421" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X420" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>455</v>
       </c>
@@ -31943,8 +32947,11 @@
       <c r="W421" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X421" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>456</v>
       </c>
@@ -32011,8 +33018,11 @@
       <c r="W422" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="423" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X422" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>457</v>
       </c>
@@ -32082,8 +33092,11 @@
       <c r="W423" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X423" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>459</v>
       </c>
@@ -32150,8 +33163,11 @@
       <c r="W424" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="425" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X424" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>460</v>
       </c>
@@ -32218,8 +33234,11 @@
       <c r="W425" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X425" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>461</v>
       </c>
@@ -32286,8 +33305,11 @@
       <c r="W426" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="427" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X426" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>462</v>
       </c>
@@ -32354,8 +33376,11 @@
       <c r="W427">
         <v>4</v>
       </c>
-    </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X427">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>463</v>
       </c>
@@ -32422,8 +33447,11 @@
       <c r="W428" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="429" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X428" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>464</v>
       </c>
@@ -32493,8 +33521,11 @@
       <c r="W429" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X429" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>466</v>
       </c>
@@ -32561,8 +33592,11 @@
       <c r="W430" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="431" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X430" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>467</v>
       </c>
@@ -32629,8 +33663,11 @@
       <c r="W431" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X431" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>468</v>
       </c>
@@ -32697,8 +33734,11 @@
       <c r="W432" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="433" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X432" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>469</v>
       </c>
@@ -32765,8 +33805,11 @@
       <c r="W433" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X433" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>470</v>
       </c>
@@ -32833,8 +33876,11 @@
       <c r="W434" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="435" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X434" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>471</v>
       </c>
@@ -32901,8 +33947,11 @@
       <c r="W435" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X435" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>472</v>
       </c>
@@ -32969,8 +34018,11 @@
       <c r="W436" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="437" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X436" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>473</v>
       </c>
@@ -33037,8 +34089,11 @@
       <c r="W437">
         <v>4</v>
       </c>
-    </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>474</v>
       </c>
@@ -33102,8 +34157,11 @@
       <c r="W438" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="439" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X438" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>475</v>
       </c>
@@ -33170,8 +34228,11 @@
       <c r="W439" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X439" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>476</v>
       </c>
@@ -33238,8 +34299,11 @@
       <c r="W440" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="441" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X440" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>477</v>
       </c>
@@ -33306,8 +34370,11 @@
       <c r="W441" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X441" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>478</v>
       </c>
@@ -33377,8 +34444,11 @@
       <c r="W442" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="443" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X442" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="443" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>480</v>
       </c>
@@ -33445,8 +34515,11 @@
       <c r="W443" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X443" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>481</v>
       </c>
@@ -33516,8 +34589,11 @@
       <c r="W444" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="445" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X444" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>482</v>
       </c>
@@ -33584,8 +34660,11 @@
       <c r="W445" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X445" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>483</v>
       </c>
@@ -33652,8 +34731,11 @@
       <c r="W446" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="447" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X446" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>484</v>
       </c>
@@ -33720,8 +34802,11 @@
       <c r="W447">
         <v>4</v>
       </c>
-    </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X447">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>485</v>
       </c>
@@ -33786,6 +34871,9 @@
         <v>4</v>
       </c>
       <c r="W448" s="4">
+        <v>4</v>
+      </c>
+      <c r="X448" s="4">
         <v>4</v>
       </c>
     </row>
@@ -33856,6 +34944,9 @@
       <c r="W449" s="3">
         <v>4</v>
       </c>
+      <c r="X449" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="450" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
@@ -33924,6 +35015,9 @@
       <c r="W450" s="4">
         <v>4</v>
       </c>
+      <c r="X450" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="451" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
@@ -33992,6 +35086,9 @@
       <c r="W451" s="3">
         <v>4</v>
       </c>
+      <c r="X451" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="452" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
@@ -40835,6 +41932,9 @@
       <c r="W547" s="4">
         <v>1</v>
       </c>
+      <c r="X547" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="548" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
@@ -40903,6 +42003,9 @@
       <c r="W548" s="3">
         <v>1</v>
       </c>
+      <c r="X548" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="549" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
@@ -40971,6 +42074,9 @@
       <c r="W549" s="4">
         <v>1</v>
       </c>
+      <c r="X549" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="550" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
@@ -41039,6 +42145,9 @@
       <c r="W550" s="3">
         <v>1</v>
       </c>
+      <c r="X550" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="551" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
@@ -41107,6 +42216,9 @@
       <c r="W551" s="1">
         <v>1</v>
       </c>
+      <c r="X551" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="552" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
@@ -41175,6 +42287,9 @@
       <c r="W552" t="s">
         <v>308</v>
       </c>
+      <c r="X552" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="553" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
@@ -41243,6 +42358,9 @@
       <c r="W553" s="1">
         <v>1</v>
       </c>
+      <c r="X553" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="554" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
@@ -41311,6 +42429,9 @@
       <c r="W554">
         <v>1</v>
       </c>
+      <c r="X554" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="555" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
@@ -41379,6 +42500,9 @@
       <c r="W555" s="1">
         <v>1</v>
       </c>
+      <c r="X555" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="556" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
@@ -41447,6 +42571,9 @@
       <c r="W556">
         <v>1</v>
       </c>
+      <c r="X556" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="557" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
@@ -41515,6 +42642,9 @@
       <c r="W557" s="1">
         <v>1</v>
       </c>
+      <c r="X557" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="558" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
@@ -41583,6 +42713,9 @@
       <c r="W558">
         <v>1</v>
       </c>
+      <c r="X558">
+        <v>1</v>
+      </c>
     </row>
     <row r="559" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
@@ -41651,6 +42784,9 @@
       <c r="W559">
         <v>1</v>
       </c>
+      <c r="X559">
+        <v>1</v>
+      </c>
     </row>
     <row r="560" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
@@ -41719,8 +42855,11 @@
       <c r="W560" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="561" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X560" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>604</v>
       </c>
@@ -41787,8 +42926,11 @@
       <c r="W561">
         <v>1</v>
       </c>
-    </row>
-    <row r="562" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>605</v>
       </c>
@@ -41855,8 +42997,11 @@
       <c r="W562" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="563" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X562" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>606</v>
       </c>
@@ -41923,8 +43068,11 @@
       <c r="W563" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="564" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>607</v>
       </c>
@@ -41991,8 +43139,11 @@
       <c r="W564" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="565" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X564" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>608</v>
       </c>
@@ -42059,8 +43210,11 @@
       <c r="W565" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="566" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>609</v>
       </c>
@@ -42127,8 +43281,11 @@
       <c r="W566" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="567" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X566" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>610</v>
       </c>
@@ -42195,8 +43352,11 @@
       <c r="W567">
         <v>1</v>
       </c>
-    </row>
-    <row r="568" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>611</v>
       </c>
@@ -42263,8 +43423,11 @@
       <c r="W568" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="569" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X568" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>612</v>
       </c>
@@ -42331,8 +43494,11 @@
       <c r="W569">
         <v>1</v>
       </c>
-    </row>
-    <row r="570" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>613</v>
       </c>
@@ -42399,8 +43565,11 @@
       <c r="W570" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="571" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X570" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>614</v>
       </c>
@@ -42467,8 +43636,11 @@
       <c r="W571">
         <v>1</v>
       </c>
-    </row>
-    <row r="572" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>615</v>
       </c>
@@ -42535,8 +43707,11 @@
       <c r="W572" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="573" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X572" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>616</v>
       </c>
@@ -42603,8 +43778,11 @@
       <c r="W573">
         <v>1</v>
       </c>
-    </row>
-    <row r="574" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>617</v>
       </c>
@@ -42671,8 +43849,11 @@
       <c r="W574" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="575" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X574" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="575" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>618</v>
       </c>
@@ -42739,8 +43920,11 @@
       <c r="W575">
         <v>1</v>
       </c>
-    </row>
-    <row r="576" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>619</v>
       </c>
@@ -42807,8 +43991,11 @@
       <c r="W576" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="577" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X576" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>620</v>
       </c>
@@ -42875,8 +44062,11 @@
       <c r="W577">
         <v>1</v>
       </c>
-    </row>
-    <row r="578" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>621</v>
       </c>
@@ -42943,8 +44133,11 @@
       <c r="W578" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="579" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X578" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>622</v>
       </c>
@@ -43011,8 +44204,11 @@
       <c r="W579" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="580" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X579" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>623</v>
       </c>
@@ -43079,8 +44275,11 @@
       <c r="W580" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="581" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X580" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>624</v>
       </c>
@@ -43147,8 +44346,11 @@
       <c r="W581" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="582" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>625</v>
       </c>
@@ -43215,8 +44417,11 @@
       <c r="W582" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="583" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X582" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>626</v>
       </c>
@@ -43283,8 +44488,11 @@
       <c r="W583" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="584" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>627</v>
       </c>
@@ -43351,8 +44559,11 @@
       <c r="W584" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="585" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X584" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>628</v>
       </c>
@@ -43419,8 +44630,11 @@
       <c r="W585" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="586" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X585">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>629</v>
       </c>
@@ -43487,8 +44701,11 @@
       <c r="W586" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="587" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X586" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>630</v>
       </c>
@@ -43555,8 +44772,11 @@
       <c r="W587">
         <v>1</v>
       </c>
-    </row>
-    <row r="588" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X587">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>631</v>
       </c>
@@ -43623,8 +44843,11 @@
       <c r="W588" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="589" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X588" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="589" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>632</v>
       </c>
@@ -43691,8 +44914,11 @@
       <c r="W589" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="590" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X589" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="590" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>633</v>
       </c>
@@ -43759,8 +44985,11 @@
       <c r="W590" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="591" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X590" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>634</v>
       </c>
@@ -43827,8 +45056,11 @@
       <c r="W591">
         <v>1</v>
       </c>
-    </row>
-    <row r="592" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>635</v>
       </c>
@@ -43893,6 +45125,9 @@
         <v>3</v>
       </c>
       <c r="W592" s="1">
+        <v>3</v>
+      </c>
+      <c r="X592" s="1">
         <v>3</v>
       </c>
     </row>
@@ -43963,6 +45198,9 @@
       <c r="W593">
         <v>3</v>
       </c>
+      <c r="X593">
+        <v>3</v>
+      </c>
     </row>
     <row r="594" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
@@ -44031,6 +45269,9 @@
       <c r="W594" s="1">
         <v>3</v>
       </c>
+      <c r="X594" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="595" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
@@ -44099,6 +45340,9 @@
       <c r="W595">
         <v>2</v>
       </c>
+      <c r="X595">
+        <v>2</v>
+      </c>
     </row>
     <row r="596" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
@@ -44167,6 +45411,9 @@
       <c r="W596" s="1">
         <v>2</v>
       </c>
+      <c r="X596" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="597" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
@@ -44235,6 +45482,9 @@
       <c r="W597">
         <v>2</v>
       </c>
+      <c r="X597">
+        <v>2</v>
+      </c>
     </row>
     <row r="598" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
@@ -44303,6 +45553,9 @@
       <c r="W598" s="1">
         <v>2</v>
       </c>
+      <c r="X598" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="599" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
@@ -44371,6 +45624,9 @@
       <c r="W599">
         <v>2</v>
       </c>
+      <c r="X599">
+        <v>2</v>
+      </c>
     </row>
     <row r="600" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
@@ -44439,6 +45695,9 @@
       <c r="W600" s="1">
         <v>2</v>
       </c>
+      <c r="X600" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="601" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
@@ -44507,6 +45766,9 @@
       <c r="W601">
         <v>0</v>
       </c>
+      <c r="X601">
+        <v>0</v>
+      </c>
     </row>
     <row r="602" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
@@ -44859,6 +46121,9 @@
       <c r="W606" s="1">
         <v>1</v>
       </c>
+      <c r="X606" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="607" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
@@ -44927,6 +46192,9 @@
       <c r="W607" s="1">
         <v>3</v>
       </c>
+      <c r="X607" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="608" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
@@ -44995,8 +46263,11 @@
       <c r="W608" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="609" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X608" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>652</v>
       </c>
@@ -45063,8 +46334,11 @@
       <c r="W609" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="610" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X609" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>653</v>
       </c>
@@ -45131,8 +46405,11 @@
       <c r="W610" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="611" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X610" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>654</v>
       </c>
@@ -45199,8 +46476,11 @@
       <c r="W611" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="612" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X611" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>655</v>
       </c>
@@ -45267,8 +46547,11 @@
       <c r="W612" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="613" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X612" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="613" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>656</v>
       </c>
@@ -45335,8 +46618,11 @@
       <c r="W613" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="614" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X613" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>657</v>
       </c>
@@ -45403,8 +46689,11 @@
       <c r="W614" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="615" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X614" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>658</v>
       </c>
@@ -45471,8 +46760,11 @@
       <c r="W615" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="616" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X615" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>659</v>
       </c>
@@ -45539,8 +46831,11 @@
       <c r="W616" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="617" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X616" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>660</v>
       </c>
@@ -45607,8 +46902,11 @@
       <c r="W617" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="618" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X617" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>661</v>
       </c>
@@ -45675,8 +46973,11 @@
       <c r="W618">
         <v>2</v>
       </c>
-    </row>
-    <row r="619" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X618">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>662</v>
       </c>
@@ -45743,8 +47044,11 @@
       <c r="W619" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="620" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X619" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>663</v>
       </c>
@@ -45811,8 +47115,11 @@
       <c r="W620">
         <v>1</v>
       </c>
-    </row>
-    <row r="621" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>664</v>
       </c>
@@ -45879,8 +47186,11 @@
       <c r="W621" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="622" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X621" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>665</v>
       </c>
@@ -45947,8 +47257,11 @@
       <c r="W622">
         <v>2</v>
       </c>
-    </row>
-    <row r="623" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X622">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>666</v>
       </c>
@@ -46015,8 +47328,11 @@
       <c r="W623" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="624" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X623" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>667</v>
       </c>
@@ -46083,8 +47399,11 @@
       <c r="W624">
         <v>2</v>
       </c>
-    </row>
-    <row r="625" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X624">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>668</v>
       </c>
@@ -46151,8 +47470,11 @@
       <c r="W625" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="626" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X625" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>669</v>
       </c>
@@ -46219,8 +47541,11 @@
       <c r="W626">
         <v>2</v>
       </c>
-    </row>
-    <row r="627" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X626">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>670</v>
       </c>
@@ -46287,8 +47612,11 @@
       <c r="W627" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="628" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X627" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>671</v>
       </c>
@@ -46355,8 +47683,11 @@
       <c r="W628">
         <v>2</v>
       </c>
-    </row>
-    <row r="629" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X628">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
         <v>672</v>
       </c>
@@ -46423,8 +47754,11 @@
       <c r="W629" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="630" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X629" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>673</v>
       </c>
@@ -46491,8 +47825,11 @@
       <c r="W630">
         <v>3</v>
       </c>
-    </row>
-    <row r="631" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X630">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>674</v>
       </c>
@@ -46557,6 +47894,9 @@
         <v>2</v>
       </c>
       <c r="W631" s="1">
+        <v>2</v>
+      </c>
+      <c r="X631" s="1">
         <v>2</v>
       </c>
     </row>

--- a/data/phenological_monitoring.xlsx
+++ b/data/phenological_monitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D208E7-752E-C941-9A9F-EEDFE1899EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EACEC21-F37F-624F-A57D-3CF3C726DCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3928" uniqueCount="679">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2070,6 +2070,9 @@
   </si>
   <si>
     <t>doy151: gave up hope on the apical shoot. It looks like its not going to flush normally. Leaves coming out from the bottom.</t>
+  </si>
+  <si>
+    <t>doy162:dead</t>
   </si>
 </sst>
 </file>
@@ -2954,11 +2957,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X631"/>
+  <dimension ref="A1:Y631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" topLeftCell="A561" zoomScale="132" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z574" sqref="Z574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2967,7 +2970,7 @@
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3040,8 +3043,11 @@
       <c r="X1" s="1">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y1" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3111,8 +3117,11 @@
       <c r="X2" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3182,8 +3191,11 @@
       <c r="X3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3253,8 +3265,11 @@
       <c r="X4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3324,8 +3339,11 @@
       <c r="X5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3395,8 +3413,11 @@
       <c r="X6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3466,8 +3487,11 @@
       <c r="X7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3537,8 +3561,11 @@
       <c r="X8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3608,8 +3635,11 @@
       <c r="X9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3679,8 +3709,11 @@
       <c r="X10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3750,8 +3783,11 @@
       <c r="X11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -3821,8 +3857,11 @@
       <c r="X12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3892,8 +3931,11 @@
       <c r="X13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -3963,8 +4005,11 @@
       <c r="X14" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4034,8 +4079,11 @@
       <c r="X15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -4105,8 +4153,11 @@
       <c r="X16" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4176,8 +4227,11 @@
       <c r="X17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -4247,8 +4301,11 @@
       <c r="X18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4318,8 +4375,11 @@
       <c r="X19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -4389,8 +4449,11 @@
       <c r="X20" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4460,8 +4523,11 @@
       <c r="X21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -4531,8 +4597,11 @@
       <c r="X22" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -4602,8 +4671,11 @@
       <c r="X23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -4673,8 +4745,11 @@
       <c r="X24" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -4744,8 +4819,11 @@
       <c r="X25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -4815,8 +4893,11 @@
       <c r="X26" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -4886,8 +4967,11 @@
       <c r="X27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -4957,8 +5041,11 @@
       <c r="X28" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -5028,8 +5115,11 @@
       <c r="X29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -5099,8 +5189,11 @@
       <c r="X30" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -5170,8 +5263,11 @@
       <c r="X31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -5241,8 +5337,11 @@
       <c r="X32" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -5312,8 +5411,11 @@
       <c r="X33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -5383,8 +5485,11 @@
       <c r="X34" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -5454,8 +5559,11 @@
       <c r="X35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -5525,8 +5633,11 @@
       <c r="X36" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -5596,8 +5707,11 @@
       <c r="X37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -5667,8 +5781,11 @@
       <c r="X38" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -5738,8 +5855,11 @@
       <c r="X39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -5809,8 +5929,11 @@
       <c r="X40" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -5880,8 +6003,11 @@
       <c r="X41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -5951,8 +6077,11 @@
       <c r="X42" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -6022,8 +6151,11 @@
       <c r="X43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -6093,8 +6225,11 @@
       <c r="X44" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -6164,8 +6299,11 @@
       <c r="X45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -6235,8 +6373,11 @@
       <c r="X46" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -6306,8 +6447,11 @@
       <c r="X47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -6377,8 +6521,11 @@
       <c r="X48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -6448,8 +6595,11 @@
       <c r="X49" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -6519,8 +6669,11 @@
       <c r="X50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -6590,8 +6743,11 @@
       <c r="X51" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -6661,8 +6817,11 @@
       <c r="X52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -6732,8 +6891,11 @@
       <c r="X53" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -6803,8 +6965,11 @@
       <c r="X54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -6874,8 +7039,11 @@
       <c r="X55" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y55" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -6945,8 +7113,11 @@
       <c r="X56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -7016,8 +7187,11 @@
       <c r="X57" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -7087,8 +7261,11 @@
       <c r="X58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -7158,8 +7335,11 @@
       <c r="X59" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y59" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -7229,8 +7409,11 @@
       <c r="X60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -7300,8 +7483,11 @@
       <c r="X61" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y61" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -7371,8 +7557,11 @@
       <c r="X62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -7442,8 +7631,11 @@
       <c r="X63" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -7513,8 +7705,11 @@
       <c r="X64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -7584,8 +7779,11 @@
       <c r="X65" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y65" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -7655,8 +7853,11 @@
       <c r="X66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -7726,8 +7927,11 @@
       <c r="X67" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y67" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -7797,8 +8001,11 @@
       <c r="X68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -7868,8 +8075,11 @@
       <c r="X69" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y69" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -7939,8 +8149,11 @@
       <c r="X70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -8010,8 +8223,11 @@
       <c r="X71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -8081,8 +8297,11 @@
       <c r="X72" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y72" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -8152,8 +8371,11 @@
       <c r="X73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
@@ -8223,8 +8445,11 @@
       <c r="X74" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -8294,8 +8519,11 @@
       <c r="X75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -8365,8 +8593,11 @@
       <c r="X76" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -8436,8 +8667,11 @@
       <c r="X77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
@@ -8507,8 +8741,11 @@
       <c r="X78" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y78" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -8578,8 +8815,11 @@
       <c r="X79">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>93</v>
       </c>
@@ -8649,8 +8889,11 @@
       <c r="X80" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y80" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -8720,8 +8963,11 @@
       <c r="X81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>95</v>
       </c>
@@ -8791,8 +9037,11 @@
       <c r="X82" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y82" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -8862,8 +9111,11 @@
       <c r="X83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>97</v>
       </c>
@@ -8933,8 +9185,11 @@
       <c r="X84" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y84" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -9004,8 +9259,11 @@
       <c r="X85">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
@@ -9075,8 +9333,11 @@
       <c r="X86" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y86" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -9146,8 +9407,11 @@
       <c r="X87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>101</v>
       </c>
@@ -9217,8 +9481,11 @@
       <c r="X88" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y88" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -9288,8 +9555,11 @@
       <c r="X89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>103</v>
       </c>
@@ -9359,8 +9629,11 @@
       <c r="X90" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y90" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -9430,8 +9703,11 @@
       <c r="X91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>105</v>
       </c>
@@ -9501,8 +9777,11 @@
       <c r="X92" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y92" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -9572,8 +9851,11 @@
       <c r="X93">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>109</v>
       </c>
@@ -9643,8 +9925,11 @@
       <c r="X94" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y94" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -9717,8 +10002,11 @@
       <c r="X95">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>112</v>
       </c>
@@ -9788,8 +10076,11 @@
       <c r="X96" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y96" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -9859,8 +10150,11 @@
       <c r="X97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>114</v>
       </c>
@@ -9930,8 +10224,11 @@
       <c r="X98" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y98" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -10001,8 +10298,11 @@
       <c r="X99">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>116</v>
       </c>
@@ -10072,8 +10372,11 @@
       <c r="X100" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y100" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -10143,8 +10446,11 @@
       <c r="X101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>118</v>
       </c>
@@ -10214,8 +10520,11 @@
       <c r="X102" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y102" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -10285,8 +10594,11 @@
       <c r="X103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>120</v>
       </c>
@@ -10356,8 +10668,11 @@
       <c r="X104" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y104" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -10427,8 +10742,11 @@
       <c r="X105">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -10498,8 +10816,11 @@
       <c r="X106" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y106" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -10569,8 +10890,11 @@
       <c r="X107">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -10640,8 +10964,11 @@
       <c r="X108" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y108" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -10714,8 +11041,11 @@
       <c r="X109">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -10785,8 +11115,11 @@
       <c r="X110" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y110" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -10856,8 +11189,11 @@
       <c r="X111">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -10927,8 +11263,11 @@
       <c r="X112" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y112" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -10998,8 +11337,11 @@
       <c r="X113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>130</v>
       </c>
@@ -11069,8 +11411,11 @@
       <c r="X114" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y114" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -11140,8 +11485,11 @@
       <c r="X115">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>132</v>
       </c>
@@ -11211,8 +11559,11 @@
       <c r="X116" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y116" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -11282,8 +11633,11 @@
       <c r="X117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -11353,8 +11707,11 @@
       <c r="X118">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>135</v>
       </c>
@@ -11424,8 +11781,11 @@
       <c r="X119" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y119" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -11495,8 +11855,11 @@
       <c r="X120">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>137</v>
       </c>
@@ -11569,8 +11932,11 @@
       <c r="X121" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y121" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -11640,8 +12006,11 @@
       <c r="X122">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>139</v>
       </c>
@@ -11711,8 +12080,11 @@
       <c r="X123" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y123" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -11782,8 +12154,11 @@
       <c r="X124">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>141</v>
       </c>
@@ -11853,8 +12228,11 @@
       <c r="X125" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y125" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -11924,8 +12302,11 @@
       <c r="X126">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>143</v>
       </c>
@@ -11995,8 +12376,11 @@
       <c r="X127" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y127" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -12066,8 +12450,11 @@
       <c r="X128">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>145</v>
       </c>
@@ -12137,8 +12524,11 @@
       <c r="X129" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y129" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -12208,8 +12598,11 @@
       <c r="X130">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>147</v>
       </c>
@@ -12279,8 +12672,11 @@
       <c r="X131" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y131" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -12350,8 +12746,11 @@
       <c r="X132">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>149</v>
       </c>
@@ -12421,8 +12820,11 @@
       <c r="X133" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y133" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -12492,8 +12894,11 @@
       <c r="X134">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>151</v>
       </c>
@@ -12563,8 +12968,11 @@
       <c r="X135" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y135" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -12634,8 +13042,11 @@
       <c r="X136">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>153</v>
       </c>
@@ -12705,8 +13116,11 @@
       <c r="X137" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y137" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -12776,8 +13190,11 @@
       <c r="X138">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>155</v>
       </c>
@@ -12847,8 +13264,11 @@
       <c r="X139" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y139" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>156</v>
       </c>
@@ -12918,8 +13338,11 @@
       <c r="X140">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -12989,8 +13412,11 @@
       <c r="X141">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>158</v>
       </c>
@@ -13060,8 +13486,11 @@
       <c r="X142" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y142" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -13131,8 +13560,11 @@
       <c r="X143">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>160</v>
       </c>
@@ -13202,8 +13634,11 @@
       <c r="X144" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y144" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -13273,8 +13708,11 @@
       <c r="X145">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>162</v>
       </c>
@@ -13344,8 +13782,11 @@
       <c r="X146" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y146" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -13415,8 +13856,11 @@
       <c r="X147">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>164</v>
       </c>
@@ -13486,8 +13930,11 @@
       <c r="X148" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y148" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -13557,8 +14004,11 @@
       <c r="X149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>166</v>
       </c>
@@ -13628,8 +14078,11 @@
       <c r="X150" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y150" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -13699,8 +14152,11 @@
       <c r="X151">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>168</v>
       </c>
@@ -13770,8 +14226,11 @@
       <c r="X152" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y152" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>169</v>
       </c>
@@ -13841,8 +14300,11 @@
       <c r="X153">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>170</v>
       </c>
@@ -13912,8 +14374,11 @@
       <c r="X154" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y154" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>171</v>
       </c>
@@ -13983,8 +14448,11 @@
       <c r="X155">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>172</v>
       </c>
@@ -14054,8 +14522,11 @@
       <c r="X156" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y156" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -14125,8 +14596,11 @@
       <c r="X157">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>174</v>
       </c>
@@ -14196,8 +14670,11 @@
       <c r="X158" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y158" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>175</v>
       </c>
@@ -14267,8 +14744,11 @@
       <c r="X159">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>176</v>
       </c>
@@ -14338,8 +14818,11 @@
       <c r="X160" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y160" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -14409,8 +14892,11 @@
       <c r="X161">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>178</v>
       </c>
@@ -14480,8 +14966,11 @@
       <c r="X162" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y162" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>179</v>
       </c>
@@ -14551,8 +15040,11 @@
       <c r="X163">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>180</v>
       </c>
@@ -14622,8 +15114,11 @@
       <c r="X164" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y164" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -14693,8 +15188,11 @@
       <c r="X165">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>182</v>
       </c>
@@ -14764,8 +15262,11 @@
       <c r="X166" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y166" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -14835,8 +15336,11 @@
       <c r="X167">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>184</v>
       </c>
@@ -14906,8 +15410,11 @@
       <c r="X168" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y168" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -14977,8 +15484,11 @@
       <c r="X169">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>186</v>
       </c>
@@ -15048,8 +15558,11 @@
       <c r="X170" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y170" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -15119,8 +15632,11 @@
       <c r="X171">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>188</v>
       </c>
@@ -15190,8 +15706,11 @@
       <c r="X172" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y172" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>189</v>
       </c>
@@ -15261,8 +15780,11 @@
       <c r="X173">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>190</v>
       </c>
@@ -15332,8 +15854,11 @@
       <c r="X174" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="175" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y174" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -15403,8 +15928,11 @@
       <c r="X175">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>192</v>
       </c>
@@ -15474,8 +16002,11 @@
       <c r="X176" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="177" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y176" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>193</v>
       </c>
@@ -15545,8 +16076,11 @@
       <c r="X177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>194</v>
       </c>
@@ -15616,8 +16150,11 @@
       <c r="X178" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y178" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>195</v>
       </c>
@@ -15687,8 +16224,11 @@
       <c r="X179">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>196</v>
       </c>
@@ -15758,8 +16298,11 @@
       <c r="X180" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y180" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>197</v>
       </c>
@@ -15829,8 +16372,11 @@
       <c r="X181">
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>198</v>
       </c>
@@ -15900,8 +16446,11 @@
       <c r="X182" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y182" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -15971,8 +16520,11 @@
       <c r="X183">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>202</v>
       </c>
@@ -16042,8 +16594,11 @@
       <c r="X184" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y184" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -16113,8 +16668,11 @@
       <c r="X185">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>204</v>
       </c>
@@ -16187,8 +16745,11 @@
       <c r="X186" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="187" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y186" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -16258,8 +16819,11 @@
       <c r="X187">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -16329,8 +16893,11 @@
       <c r="X188" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y188" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>208</v>
       </c>
@@ -16400,8 +16967,11 @@
       <c r="X189" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y189" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -16474,8 +17044,11 @@
       <c r="X190" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y190" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>210</v>
       </c>
@@ -16545,8 +17118,11 @@
       <c r="X191" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y191" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -16616,8 +17192,11 @@
       <c r="X192" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y192" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>212</v>
       </c>
@@ -16687,8 +17266,11 @@
       <c r="X193" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y193" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -16761,8 +17343,11 @@
       <c r="X194">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y194" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>215</v>
       </c>
@@ -16832,8 +17417,11 @@
       <c r="X195" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y195" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -16903,8 +17491,11 @@
       <c r="X196">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y196" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>217</v>
       </c>
@@ -16974,8 +17565,11 @@
       <c r="X197" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y197" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -17048,8 +17642,11 @@
       <c r="X198">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y198" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>220</v>
       </c>
@@ -17119,8 +17716,11 @@
       <c r="X199" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y199" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -17193,8 +17793,11 @@
       <c r="X200">
         <v>4</v>
       </c>
-    </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y200" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>222</v>
       </c>
@@ -17264,8 +17867,11 @@
       <c r="X201" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y201" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -17335,8 +17941,11 @@
       <c r="X202">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y202" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>224</v>
       </c>
@@ -17406,8 +18015,11 @@
       <c r="X203" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y203" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -17477,8 +18089,11 @@
       <c r="X204">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y204" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>226</v>
       </c>
@@ -17551,8 +18166,11 @@
       <c r="X205" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y205" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -17622,8 +18240,11 @@
       <c r="X206">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y206" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>228</v>
       </c>
@@ -17693,8 +18314,11 @@
       <c r="X207" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y207" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -17767,8 +18391,11 @@
       <c r="X208">
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y208" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>230</v>
       </c>
@@ -17838,8 +18465,11 @@
       <c r="X209" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="210" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y209" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -17909,8 +18539,11 @@
       <c r="X210">
         <v>3</v>
       </c>
-    </row>
-    <row r="211" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y210" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -17983,8 +18616,11 @@
       <c r="X211" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y211" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>233</v>
       </c>
@@ -18054,8 +18690,11 @@
       <c r="X212" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="213" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y212" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -18125,8 +18764,11 @@
       <c r="X213">
         <v>3</v>
       </c>
-    </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y213" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>235</v>
       </c>
@@ -18196,8 +18838,11 @@
       <c r="X214" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="215" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y214" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>236</v>
       </c>
@@ -18267,8 +18912,11 @@
       <c r="X215">
         <v>3</v>
       </c>
-    </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y215" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>237</v>
       </c>
@@ -18341,8 +18989,11 @@
       <c r="X216" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y216" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>238</v>
       </c>
@@ -18412,8 +19063,11 @@
       <c r="X217">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y217" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>239</v>
       </c>
@@ -18483,8 +19137,11 @@
       <c r="X218" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y218" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -18554,8 +19211,11 @@
       <c r="X219">
         <v>4</v>
       </c>
-    </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y219" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>241</v>
       </c>
@@ -18625,8 +19285,11 @@
       <c r="X220" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="221" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y220" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -18696,8 +19359,11 @@
       <c r="X221">
         <v>4</v>
       </c>
-    </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y221" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>243</v>
       </c>
@@ -18767,8 +19433,11 @@
       <c r="X222" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="223" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y222" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -18841,8 +19510,11 @@
       <c r="X223">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y223" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>245</v>
       </c>
@@ -18912,8 +19584,11 @@
       <c r="X224" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="225" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y224" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -18986,8 +19661,11 @@
       <c r="X225">
         <v>4</v>
       </c>
-    </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y225" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>247</v>
       </c>
@@ -19057,8 +19735,11 @@
       <c r="X226" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y226" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -19128,8 +19809,11 @@
       <c r="X227">
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>249</v>
       </c>
@@ -19199,8 +19883,11 @@
       <c r="X228" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="229" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y228" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -19270,8 +19957,11 @@
       <c r="X229" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>251</v>
       </c>
@@ -19341,8 +20031,11 @@
       <c r="X230" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y230" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -19412,8 +20105,11 @@
       <c r="X231" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y231" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>253</v>
       </c>
@@ -19483,8 +20179,11 @@
       <c r="X232" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="233" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y232" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -19554,8 +20253,11 @@
       <c r="X233" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y233" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>255</v>
       </c>
@@ -19625,8 +20327,11 @@
       <c r="X234" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y234" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -19696,8 +20401,11 @@
       <c r="X235" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y235" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>257</v>
       </c>
@@ -19767,8 +20475,11 @@
       <c r="X236" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="237" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y236" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -19838,8 +20549,11 @@
       <c r="X237">
         <v>4</v>
       </c>
-    </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y237" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>259</v>
       </c>
@@ -19909,8 +20623,11 @@
       <c r="X238" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="239" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y238" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -19980,8 +20697,11 @@
       <c r="X239" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y239" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>261</v>
       </c>
@@ -20051,8 +20771,11 @@
       <c r="X240" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y240" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -20122,8 +20845,11 @@
       <c r="X241" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y241" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>263</v>
       </c>
@@ -20193,8 +20919,11 @@
       <c r="X242" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="243" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y242" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -20264,8 +20993,11 @@
       <c r="X243">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>265</v>
       </c>
@@ -20335,8 +21067,11 @@
       <c r="X244" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="245" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y244" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -20406,8 +21141,11 @@
       <c r="X245">
         <v>4</v>
       </c>
-    </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>267</v>
       </c>
@@ -20477,8 +21215,11 @@
       <c r="X246" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="247" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y246" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -20548,8 +21289,11 @@
       <c r="X247" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y247" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>269</v>
       </c>
@@ -20619,8 +21363,11 @@
       <c r="X248" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="249" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y248" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -20690,8 +21437,11 @@
       <c r="X249" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y249" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>271</v>
       </c>
@@ -20761,8 +21511,11 @@
       <c r="X250" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="251" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y250" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>272</v>
       </c>
@@ -20832,8 +21585,11 @@
       <c r="X251">
         <v>4</v>
       </c>
-    </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>273</v>
       </c>
@@ -20903,8 +21659,11 @@
       <c r="X252" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="253" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y252" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -20974,8 +21733,11 @@
       <c r="X253" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y253" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>275</v>
       </c>
@@ -21045,8 +21807,11 @@
       <c r="X254" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="255" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y254" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -21116,8 +21881,11 @@
       <c r="X255" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y255" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>277</v>
       </c>
@@ -21187,8 +21955,11 @@
       <c r="X256" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="257" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y256" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -21258,8 +22029,11 @@
       <c r="X257">
         <v>4</v>
       </c>
-    </row>
-    <row r="258" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>279</v>
       </c>
@@ -21329,8 +22103,11 @@
       <c r="X258">
         <v>4</v>
       </c>
-    </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y258" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>280</v>
       </c>
@@ -21400,8 +22177,11 @@
       <c r="X259" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="260" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y259" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>281</v>
       </c>
@@ -21471,8 +22251,11 @@
       <c r="X260" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y260" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>282</v>
       </c>
@@ -21542,8 +22325,11 @@
       <c r="X261" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="262" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y261" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>283</v>
       </c>
@@ -21613,8 +22399,11 @@
       <c r="X262" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y262" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>284</v>
       </c>
@@ -21684,8 +22473,11 @@
       <c r="X263" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="264" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y263" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>285</v>
       </c>
@@ -21755,8 +22547,11 @@
       <c r="X264" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y264" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>286</v>
       </c>
@@ -21826,8 +22621,11 @@
       <c r="X265" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="266" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y265" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -21897,8 +22695,11 @@
       <c r="X266" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y266" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>288</v>
       </c>
@@ -21968,8 +22769,11 @@
       <c r="X267" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="268" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y267" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -22039,8 +22843,11 @@
       <c r="X268" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y268" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>290</v>
       </c>
@@ -22110,8 +22917,11 @@
       <c r="X269" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="270" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y269" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -22181,8 +22991,11 @@
       <c r="X270" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y270" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>292</v>
       </c>
@@ -22252,8 +23065,11 @@
       <c r="X271" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="272" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y271" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -22323,8 +23139,11 @@
       <c r="X272">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>296</v>
       </c>
@@ -22394,8 +23213,11 @@
       <c r="X273" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="274" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y273" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -22465,8 +23287,11 @@
       <c r="X274" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y274" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>298</v>
       </c>
@@ -22536,8 +23361,11 @@
       <c r="X275" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y275" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -22607,8 +23435,11 @@
       <c r="X276" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y276" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>300</v>
       </c>
@@ -22678,8 +23509,11 @@
       <c r="X277" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="278" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y277" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -22749,8 +23583,11 @@
       <c r="X278" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y278" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>302</v>
       </c>
@@ -22823,8 +23660,11 @@
       <c r="X279" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="280" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y279" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="280" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -22894,8 +23734,11 @@
       <c r="X280" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="281" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y280" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -22965,8 +23808,11 @@
       <c r="X281" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y281" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>305</v>
       </c>
@@ -23036,8 +23882,11 @@
       <c r="X282" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="283" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y282" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -23110,8 +23959,11 @@
       <c r="X283" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y283" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>309</v>
       </c>
@@ -23181,8 +24033,11 @@
       <c r="X284" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="285" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y284" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -23252,8 +24107,11 @@
       <c r="X285" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y285" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>311</v>
       </c>
@@ -23323,8 +24181,11 @@
       <c r="X286" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="287" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y286" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -23394,8 +24255,11 @@
       <c r="X287">
         <v>4</v>
       </c>
-    </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>313</v>
       </c>
@@ -23465,8 +24329,11 @@
       <c r="X288" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="289" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y288" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -23536,8 +24403,11 @@
       <c r="X289" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y289" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>315</v>
       </c>
@@ -23607,8 +24477,11 @@
       <c r="X290" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="291" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y290" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -23678,8 +24551,11 @@
       <c r="X291" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y291" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>317</v>
       </c>
@@ -23749,8 +24625,11 @@
       <c r="X292" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="293" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y292" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -23820,8 +24699,11 @@
       <c r="X293" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y293" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>319</v>
       </c>
@@ -23894,8 +24776,11 @@
       <c r="X294" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="295" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y294" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -23965,8 +24850,11 @@
       <c r="X295" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y295" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>322</v>
       </c>
@@ -24036,8 +24924,11 @@
       <c r="X296" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="297" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y296" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>323</v>
       </c>
@@ -24107,8 +24998,11 @@
       <c r="X297">
         <v>4</v>
       </c>
-    </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>324</v>
       </c>
@@ -24178,8 +25072,11 @@
       <c r="X298" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="299" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y298" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>325</v>
       </c>
@@ -24249,8 +25146,11 @@
       <c r="X299" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y299" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>326</v>
       </c>
@@ -24320,8 +25220,11 @@
       <c r="X300" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="301" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y300" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>327</v>
       </c>
@@ -24391,8 +25294,11 @@
       <c r="X301" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y301" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>328</v>
       </c>
@@ -24462,8 +25368,11 @@
       <c r="X302" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="303" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y302" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>329</v>
       </c>
@@ -24533,8 +25442,11 @@
       <c r="X303" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y303" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>330</v>
       </c>
@@ -24604,8 +25516,11 @@
       <c r="X304" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="305" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y304" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>331</v>
       </c>
@@ -24675,8 +25590,11 @@
       <c r="X305" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y305" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>332</v>
       </c>
@@ -24746,8 +25664,11 @@
       <c r="X306" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="307" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y306" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>333</v>
       </c>
@@ -24817,8 +25738,11 @@
       <c r="X307">
         <v>4</v>
       </c>
-    </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>334</v>
       </c>
@@ -24888,8 +25812,11 @@
       <c r="X308" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="309" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y308" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>335</v>
       </c>
@@ -24959,8 +25886,11 @@
       <c r="X309" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y309" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>336</v>
       </c>
@@ -25030,8 +25960,11 @@
       <c r="X310" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="311" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y310" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -25101,8 +26034,11 @@
       <c r="X311" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y311" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>338</v>
       </c>
@@ -25172,8 +26108,11 @@
       <c r="X312" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="313" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y312" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -25243,8 +26182,11 @@
       <c r="X313" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y313" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>340</v>
       </c>
@@ -25314,8 +26256,11 @@
       <c r="X314" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="315" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y314" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -25385,8 +26330,11 @@
       <c r="X315" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y315" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>342</v>
       </c>
@@ -25456,8 +26404,11 @@
       <c r="X316" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="317" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y316" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -25527,8 +26478,11 @@
       <c r="X317">
         <v>4</v>
       </c>
-    </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>344</v>
       </c>
@@ -25598,8 +26552,11 @@
       <c r="X318" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="319" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y318" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -25669,8 +26626,11 @@
       <c r="X319" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y319" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>346</v>
       </c>
@@ -25740,8 +26700,11 @@
       <c r="X320" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="321" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y320" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -25811,8 +26774,11 @@
       <c r="X321" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y321" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>348</v>
       </c>
@@ -25885,8 +26851,11 @@
       <c r="X322" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="323" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y322" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="323" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>350</v>
       </c>
@@ -25956,8 +26925,11 @@
       <c r="X323">
         <v>4</v>
       </c>
-    </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>351</v>
       </c>
@@ -26030,8 +27002,11 @@
       <c r="X324" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="325" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y324" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="325" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>353</v>
       </c>
@@ -26101,8 +27076,11 @@
       <c r="X325">
         <v>4</v>
       </c>
-    </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>354</v>
       </c>
@@ -26172,8 +27150,11 @@
       <c r="X326" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="327" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y326" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>355</v>
       </c>
@@ -26243,8 +27224,11 @@
       <c r="X327">
         <v>4</v>
       </c>
-    </row>
-    <row r="328" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y327">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>356</v>
       </c>
@@ -26314,8 +27298,11 @@
       <c r="X328" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y328" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>357</v>
       </c>
@@ -26385,8 +27372,11 @@
       <c r="X329" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="330" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y329" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>358</v>
       </c>
@@ -26456,8 +27446,11 @@
       <c r="X330" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y330" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>359</v>
       </c>
@@ -26527,8 +27520,11 @@
       <c r="X331" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="332" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y331" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>360</v>
       </c>
@@ -26598,8 +27594,11 @@
       <c r="X332" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y332" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>361</v>
       </c>
@@ -26669,8 +27668,11 @@
       <c r="X333" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="334" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y333" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>362</v>
       </c>
@@ -26740,8 +27742,11 @@
       <c r="X334" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y334" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>363</v>
       </c>
@@ -26811,8 +27816,11 @@
       <c r="X335" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="336" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y335" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>364</v>
       </c>
@@ -26882,8 +27890,11 @@
       <c r="X336" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y336" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>365</v>
       </c>
@@ -26953,8 +27964,11 @@
       <c r="X337" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="338" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y337" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>366</v>
       </c>
@@ -27024,8 +28038,11 @@
       <c r="X338" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y338" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>367</v>
       </c>
@@ -27095,8 +28112,11 @@
       <c r="X339" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="340" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y339" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>368</v>
       </c>
@@ -27166,8 +28186,11 @@
       <c r="X340" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y340" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>369</v>
       </c>
@@ -27237,8 +28260,11 @@
       <c r="X341" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="342" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y341" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>370</v>
       </c>
@@ -27308,8 +28334,11 @@
       <c r="X342">
         <v>4</v>
       </c>
-    </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y342">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>371</v>
       </c>
@@ -27379,8 +28408,11 @@
       <c r="X343" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="344" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y343" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>372</v>
       </c>
@@ -27450,8 +28482,11 @@
       <c r="X344" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y344" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>373</v>
       </c>
@@ -27521,8 +28556,11 @@
       <c r="X345" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="346" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y345" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>374</v>
       </c>
@@ -27592,8 +28630,11 @@
       <c r="X346" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y346" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>375</v>
       </c>
@@ -27663,8 +28704,11 @@
       <c r="X347" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y347" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>376</v>
       </c>
@@ -27734,8 +28778,11 @@
       <c r="X348">
         <v>3</v>
       </c>
-    </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>377</v>
       </c>
@@ -27805,8 +28852,11 @@
       <c r="X349" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="350" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y349" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>378</v>
       </c>
@@ -27876,8 +28926,11 @@
       <c r="X350">
         <v>4</v>
       </c>
-    </row>
-    <row r="351" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y350">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>379</v>
       </c>
@@ -27947,8 +29000,11 @@
       <c r="X351" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y351" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>380</v>
       </c>
@@ -28018,8 +29074,11 @@
       <c r="X352" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="353" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y352" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>381</v>
       </c>
@@ -28089,8 +29148,11 @@
       <c r="X353" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y353" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>382</v>
       </c>
@@ -28160,8 +29222,11 @@
       <c r="X354" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="355" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y354" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>383</v>
       </c>
@@ -28234,8 +29299,11 @@
       <c r="X355" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y355" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="356" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>384</v>
       </c>
@@ -28305,8 +29373,11 @@
       <c r="X356" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="357" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y356" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>385</v>
       </c>
@@ -28376,8 +29447,11 @@
       <c r="X357">
         <v>4</v>
       </c>
-    </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>386</v>
       </c>
@@ -28447,8 +29521,11 @@
       <c r="X358" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="359" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y358" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>387</v>
       </c>
@@ -28518,8 +29595,11 @@
       <c r="X359" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y359" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>388</v>
       </c>
@@ -28589,8 +29669,11 @@
       <c r="X360" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="361" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y360" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>389</v>
       </c>
@@ -28660,8 +29743,11 @@
       <c r="X361" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y361" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>390</v>
       </c>
@@ -28731,8 +29817,11 @@
       <c r="X362" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="363" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y362" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -28802,8 +29891,11 @@
       <c r="X363" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y363" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>394</v>
       </c>
@@ -28873,8 +29965,11 @@
       <c r="X364" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y364" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -28944,8 +30039,11 @@
       <c r="X365" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y365" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>396</v>
       </c>
@@ -29015,8 +30113,11 @@
       <c r="X366" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="367" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y366" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -29086,8 +30187,11 @@
       <c r="X367">
         <v>4</v>
       </c>
-    </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>398</v>
       </c>
@@ -29157,8 +30261,11 @@
       <c r="X368" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="369" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y368" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -29231,8 +30338,11 @@
       <c r="X369" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y369" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>400</v>
       </c>
@@ -29302,8 +30412,11 @@
       <c r="X370" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="371" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y370" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -29373,8 +30486,11 @@
       <c r="X371" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y371" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>402</v>
       </c>
@@ -29444,8 +30560,11 @@
       <c r="X372" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="373" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y372" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -29515,8 +30634,11 @@
       <c r="X373" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y373" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>404</v>
       </c>
@@ -29586,8 +30708,11 @@
       <c r="X374" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="375" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y374" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -29657,8 +30782,11 @@
       <c r="X375" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y375" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>406</v>
       </c>
@@ -29728,8 +30856,11 @@
       <c r="X376" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="377" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y376" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -29799,8 +30930,11 @@
       <c r="X377">
         <v>4</v>
       </c>
-    </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y377">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>408</v>
       </c>
@@ -29870,8 +31004,11 @@
       <c r="X378" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="379" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y378" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -29941,8 +31078,11 @@
       <c r="X379" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y379" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>410</v>
       </c>
@@ -30015,8 +31155,11 @@
       <c r="X380" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y380" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -30086,8 +31229,11 @@
       <c r="X381" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y381" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>413</v>
       </c>
@@ -30157,8 +31303,11 @@
       <c r="X382" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="383" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y382" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -30228,8 +31377,11 @@
       <c r="X383" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y383" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>415</v>
       </c>
@@ -30299,8 +31451,11 @@
       <c r="X384" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="385" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y384" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -30370,8 +31525,11 @@
       <c r="X385" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y385" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>417</v>
       </c>
@@ -30444,8 +31602,11 @@
       <c r="X386" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="387" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y386" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -30515,8 +31676,11 @@
       <c r="X387">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y387">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>419</v>
       </c>
@@ -30586,8 +31750,11 @@
       <c r="X388" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y388" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -30657,8 +31824,11 @@
       <c r="X389" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y389" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>421</v>
       </c>
@@ -30728,8 +31898,11 @@
       <c r="X390" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="391" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y390" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -30802,8 +31975,11 @@
       <c r="X391" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y391" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>424</v>
       </c>
@@ -30876,8 +32052,11 @@
       <c r="X392" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="393" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y392" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="393" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -30947,8 +32126,11 @@
       <c r="X393">
         <v>4</v>
       </c>
-    </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y393">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>427</v>
       </c>
@@ -31018,8 +32200,11 @@
       <c r="X394" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="395" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y394" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -31089,8 +32274,11 @@
       <c r="X395" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y395" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>429</v>
       </c>
@@ -31160,8 +32348,11 @@
       <c r="X396" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="397" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y396" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -31231,8 +32422,11 @@
       <c r="X397" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="398" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y397" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -31302,8 +32496,11 @@
       <c r="X398">
         <v>4</v>
       </c>
-    </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y398">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>432</v>
       </c>
@@ -31376,8 +32573,11 @@
       <c r="X399" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="400" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y399" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>433</v>
       </c>
@@ -31447,8 +32647,11 @@
       <c r="X400" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y400" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>434</v>
       </c>
@@ -31518,8 +32721,11 @@
       <c r="X401" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="402" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y401" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>435</v>
       </c>
@@ -31592,8 +32798,11 @@
       <c r="X402" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y402" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="403" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>436</v>
       </c>
@@ -31663,8 +32872,11 @@
       <c r="X403" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="404" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y403" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>437</v>
       </c>
@@ -31737,8 +32949,11 @@
       <c r="X404" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y404" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>439</v>
       </c>
@@ -31808,8 +33023,11 @@
       <c r="X405" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="406" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y405" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -31879,8 +33097,11 @@
       <c r="X406" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y406" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>441</v>
       </c>
@@ -31950,8 +33171,11 @@
       <c r="X407" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="408" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y407" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>442</v>
       </c>
@@ -32021,8 +33245,11 @@
       <c r="X408" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y408" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>443</v>
       </c>
@@ -32092,8 +33319,11 @@
       <c r="X409" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="410" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y409" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>444</v>
       </c>
@@ -32163,8 +33393,11 @@
       <c r="X410" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y410" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>445</v>
       </c>
@@ -32234,8 +33467,11 @@
       <c r="X411" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="412" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y411" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>446</v>
       </c>
@@ -32305,8 +33541,11 @@
       <c r="X412">
         <v>4</v>
       </c>
-    </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y412">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>447</v>
       </c>
@@ -32376,8 +33615,11 @@
       <c r="X413" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="414" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y413" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>448</v>
       </c>
@@ -32447,8 +33689,11 @@
       <c r="X414" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y414" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>449</v>
       </c>
@@ -32518,8 +33763,11 @@
       <c r="X415" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="416" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y415" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>450</v>
       </c>
@@ -32589,8 +33837,11 @@
       <c r="X416" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y416" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="417" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>451</v>
       </c>
@@ -32663,8 +33914,11 @@
       <c r="X417" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="418" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y417" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>452</v>
       </c>
@@ -32734,8 +33988,11 @@
       <c r="X418" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y418" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>453</v>
       </c>
@@ -32805,8 +34062,11 @@
       <c r="X419" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="420" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y419" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>454</v>
       </c>
@@ -32876,8 +34136,11 @@
       <c r="X420" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="421" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y420" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>455</v>
       </c>
@@ -32950,8 +34213,11 @@
       <c r="X421" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y421" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>456</v>
       </c>
@@ -33021,8 +34287,11 @@
       <c r="X422" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="423" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y422" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>457</v>
       </c>
@@ -33095,8 +34364,11 @@
       <c r="X423" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y423" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="424" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>459</v>
       </c>
@@ -33166,8 +34438,11 @@
       <c r="X424" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="425" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y424" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>460</v>
       </c>
@@ -33237,8 +34512,11 @@
       <c r="X425" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y425" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>461</v>
       </c>
@@ -33308,8 +34586,11 @@
       <c r="X426" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="427" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y426" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>462</v>
       </c>
@@ -33379,8 +34660,11 @@
       <c r="X427">
         <v>4</v>
       </c>
-    </row>
-    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y427">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>463</v>
       </c>
@@ -33450,8 +34734,11 @@
       <c r="X428" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="429" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y428" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>464</v>
       </c>
@@ -33524,8 +34811,11 @@
       <c r="X429" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y429" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>466</v>
       </c>
@@ -33595,8 +34885,11 @@
       <c r="X430" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="431" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y430" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>467</v>
       </c>
@@ -33666,8 +34959,11 @@
       <c r="X431" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y431" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>468</v>
       </c>
@@ -33737,8 +35033,11 @@
       <c r="X432" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="433" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y432" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>469</v>
       </c>
@@ -33808,8 +35107,11 @@
       <c r="X433" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y433" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>470</v>
       </c>
@@ -33879,8 +35181,11 @@
       <c r="X434" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="435" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y434" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>471</v>
       </c>
@@ -33950,8 +35255,11 @@
       <c r="X435" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y435" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>472</v>
       </c>
@@ -34021,8 +35329,11 @@
       <c r="X436" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="437" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y436" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>473</v>
       </c>
@@ -34092,8 +35403,11 @@
       <c r="X437">
         <v>4</v>
       </c>
-    </row>
-    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>474</v>
       </c>
@@ -34160,8 +35474,11 @@
       <c r="X438" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="439" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y438" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>475</v>
       </c>
@@ -34231,8 +35548,11 @@
       <c r="X439" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y439" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>476</v>
       </c>
@@ -34302,8 +35622,11 @@
       <c r="X440" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="441" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y440" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>477</v>
       </c>
@@ -34373,8 +35696,11 @@
       <c r="X441" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y441" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>478</v>
       </c>
@@ -34447,8 +35773,11 @@
       <c r="X442" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="443" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y442" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="443" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>480</v>
       </c>
@@ -34518,8 +35847,11 @@
       <c r="X443" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y443" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>481</v>
       </c>
@@ -34592,8 +35924,11 @@
       <c r="X444" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="445" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y444" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>482</v>
       </c>
@@ -34663,8 +35998,11 @@
       <c r="X445" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y445" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="446" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>483</v>
       </c>
@@ -34734,8 +36072,11 @@
       <c r="X446" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="447" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y446" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>484</v>
       </c>
@@ -34805,8 +36146,11 @@
       <c r="X447">
         <v>4</v>
       </c>
-    </row>
-    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y447">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>485</v>
       </c>
@@ -34876,8 +36220,11 @@
       <c r="X448" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="449" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y448" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>486</v>
       </c>
@@ -34947,8 +36294,11 @@
       <c r="X449" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y449" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>487</v>
       </c>
@@ -35018,8 +36368,11 @@
       <c r="X450" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="451" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y450" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>488</v>
       </c>
@@ -35089,8 +36442,11 @@
       <c r="X451" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y451" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>489</v>
       </c>
@@ -35160,8 +36516,11 @@
       <c r="X452" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="453" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y452" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>492</v>
       </c>
@@ -35231,8 +36590,11 @@
       <c r="X453" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y453" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>493</v>
       </c>
@@ -35302,8 +36664,11 @@
       <c r="X454" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="455" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y454" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>494</v>
       </c>
@@ -35373,8 +36738,11 @@
       <c r="X455" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y455" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>495</v>
       </c>
@@ -35444,8 +36812,11 @@
       <c r="X456" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="457" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y456" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>496</v>
       </c>
@@ -35518,8 +36889,11 @@
       <c r="X457" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y457" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>497</v>
       </c>
@@ -35589,8 +36963,11 @@
       <c r="X458" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="459" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y458" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>498</v>
       </c>
@@ -35660,8 +37037,11 @@
       <c r="X459" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y459" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>499</v>
       </c>
@@ -35731,8 +37111,11 @@
       <c r="X460" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="461" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y460" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>500</v>
       </c>
@@ -35802,8 +37185,11 @@
       <c r="X461" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y461" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>501</v>
       </c>
@@ -35873,8 +37259,11 @@
       <c r="X462" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="463" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y462" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>502</v>
       </c>
@@ -35944,8 +37333,11 @@
       <c r="X463" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y463" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>503</v>
       </c>
@@ -36015,8 +37407,11 @@
       <c r="X464" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="465" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y464" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>504</v>
       </c>
@@ -36086,8 +37481,11 @@
       <c r="X465" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="466" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y465" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>505</v>
       </c>
@@ -36157,8 +37555,11 @@
       <c r="X466" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y466" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>506</v>
       </c>
@@ -36228,8 +37629,11 @@
       <c r="X467" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="468" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y467" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>507</v>
       </c>
@@ -36302,8 +37706,11 @@
       <c r="X468">
         <v>4</v>
       </c>
-    </row>
-    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y468" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>508</v>
       </c>
@@ -36376,8 +37783,11 @@
       <c r="X469" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="470" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y469" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>509</v>
       </c>
@@ -36447,8 +37857,11 @@
       <c r="X470">
         <v>4</v>
       </c>
-    </row>
-    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y470" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>510</v>
       </c>
@@ -36518,8 +37931,11 @@
       <c r="X471" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="472" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y471" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>511</v>
       </c>
@@ -36589,8 +38005,11 @@
       <c r="X472">
         <v>4</v>
       </c>
-    </row>
-    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y472" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>512</v>
       </c>
@@ -36660,8 +38079,11 @@
       <c r="X473" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="474" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y473" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>513</v>
       </c>
@@ -36731,8 +38153,11 @@
       <c r="X474">
         <v>3</v>
       </c>
-    </row>
-    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y474" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="475" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>514</v>
       </c>
@@ -36805,8 +38230,11 @@
       <c r="X475" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="476" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y475" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>515</v>
       </c>
@@ -36876,8 +38304,11 @@
       <c r="X476">
         <v>4</v>
       </c>
-    </row>
-    <row r="477" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y476" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>516</v>
       </c>
@@ -36947,8 +38378,11 @@
       <c r="X477" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="478" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y477" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>517</v>
       </c>
@@ -37018,8 +38452,11 @@
       <c r="X478" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="479" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y478" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>518</v>
       </c>
@@ -37089,8 +38526,11 @@
       <c r="X479" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="480" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y479" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>519</v>
       </c>
@@ -37160,8 +38600,11 @@
       <c r="X480" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y480" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>520</v>
       </c>
@@ -37231,8 +38674,11 @@
       <c r="X481" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="482" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y481" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>521</v>
       </c>
@@ -37302,8 +38748,11 @@
       <c r="X482" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y482" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>522</v>
       </c>
@@ -37373,8 +38822,11 @@
       <c r="X483" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="484" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y483" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>523</v>
       </c>
@@ -37444,8 +38896,11 @@
       <c r="X484" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y484" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>524</v>
       </c>
@@ -37515,8 +38970,11 @@
       <c r="X485" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="486" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y485" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>525</v>
       </c>
@@ -37586,8 +39044,11 @@
       <c r="X486">
         <v>4</v>
       </c>
-    </row>
-    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y486">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>526</v>
       </c>
@@ -37657,8 +39118,11 @@
       <c r="X487" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="488" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y487" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>527</v>
       </c>
@@ -37731,8 +39195,11 @@
       <c r="X488">
         <v>4</v>
       </c>
-    </row>
-    <row r="489" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y488">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>528</v>
       </c>
@@ -37802,8 +39269,11 @@
       <c r="X489">
         <v>4</v>
       </c>
-    </row>
-    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y489" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>529</v>
       </c>
@@ -37873,8 +39343,11 @@
       <c r="X490" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="491" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y490" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="491" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>530</v>
       </c>
@@ -37944,8 +39417,11 @@
       <c r="X491">
         <v>4</v>
       </c>
-    </row>
-    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y491" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>531</v>
       </c>
@@ -38015,8 +39491,11 @@
       <c r="X492" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="493" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y492" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>532</v>
       </c>
@@ -38086,8 +39565,11 @@
       <c r="X493" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y493" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>533</v>
       </c>
@@ -38157,8 +39639,11 @@
       <c r="X494" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="495" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y494" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>534</v>
       </c>
@@ -38231,8 +39716,11 @@
       <c r="X495" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y495" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="496" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>536</v>
       </c>
@@ -38302,8 +39790,11 @@
       <c r="X496" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="497" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y496" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>537</v>
       </c>
@@ -38373,8 +39864,11 @@
       <c r="X497" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="498" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y497" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>538</v>
       </c>
@@ -38444,8 +39938,11 @@
       <c r="X498" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="499" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y498" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>539</v>
       </c>
@@ -38515,8 +40012,11 @@
       <c r="X499" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="500" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y499" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>540</v>
       </c>
@@ -38586,8 +40086,11 @@
       <c r="X500" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="501" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y500" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>541</v>
       </c>
@@ -38657,8 +40160,11 @@
       <c r="X501" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="502" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y501" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>542</v>
       </c>
@@ -38728,8 +40234,11 @@
       <c r="X502" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="503" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y502" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>543</v>
       </c>
@@ -38799,8 +40308,11 @@
       <c r="X503" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="504" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y503" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>544</v>
       </c>
@@ -38870,8 +40382,11 @@
       <c r="X504" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="505" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y504" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>545</v>
       </c>
@@ -38941,8 +40456,11 @@
       <c r="X505" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="506" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y505" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>546</v>
       </c>
@@ -39012,8 +40530,11 @@
       <c r="X506" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="507" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y506" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>547</v>
       </c>
@@ -39083,8 +40604,11 @@
       <c r="X507" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="508" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y507" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>548</v>
       </c>
@@ -39154,8 +40678,11 @@
       <c r="X508" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="509" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y508" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>549</v>
       </c>
@@ -39225,8 +40752,11 @@
       <c r="X509" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="510" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y509" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>550</v>
       </c>
@@ -39296,8 +40826,11 @@
       <c r="X510" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="511" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y510" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>551</v>
       </c>
@@ -39367,8 +40900,11 @@
       <c r="X511" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="512" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y511" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>552</v>
       </c>
@@ -39438,8 +40974,11 @@
       <c r="X512" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="513" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y512" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>553</v>
       </c>
@@ -39509,8 +41048,11 @@
       <c r="X513" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="514" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y513" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>554</v>
       </c>
@@ -39580,8 +41122,11 @@
       <c r="X514" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="515" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y514" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>555</v>
       </c>
@@ -39651,8 +41196,11 @@
       <c r="X515" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="516" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y515" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>556</v>
       </c>
@@ -39722,8 +41270,11 @@
       <c r="X516" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="517" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y516" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>557</v>
       </c>
@@ -39796,8 +41347,11 @@
       <c r="X517">
         <v>1</v>
       </c>
-    </row>
-    <row r="518" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>558</v>
       </c>
@@ -39870,8 +41424,11 @@
       <c r="X518" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="519" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y518" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>560</v>
       </c>
@@ -39941,8 +41498,11 @@
       <c r="X519">
         <v>4</v>
       </c>
-    </row>
-    <row r="520" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y519" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>561</v>
       </c>
@@ -40012,8 +41572,11 @@
       <c r="X520" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="521" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y520" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>562</v>
       </c>
@@ -40083,8 +41646,11 @@
       <c r="X521">
         <v>4</v>
       </c>
-    </row>
-    <row r="522" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y521" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>563</v>
       </c>
@@ -40154,8 +41720,11 @@
       <c r="X522" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="523" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y522" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>564</v>
       </c>
@@ -40225,8 +41794,11 @@
       <c r="X523" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="524" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y523" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>565</v>
       </c>
@@ -40296,8 +41868,11 @@
       <c r="X524" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="525" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y524" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>566</v>
       </c>
@@ -40367,8 +41942,11 @@
       <c r="X525" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="526" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y525" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>567</v>
       </c>
@@ -40438,8 +42016,11 @@
       <c r="X526" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="527" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y526" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>568</v>
       </c>
@@ -40509,8 +42090,11 @@
       <c r="X527" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="528" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y527" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>569</v>
       </c>
@@ -40583,8 +42167,11 @@
       <c r="X528" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="529" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y528" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>570</v>
       </c>
@@ -40654,8 +42241,11 @@
       <c r="X529" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="530" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y529" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>571</v>
       </c>
@@ -40725,8 +42315,11 @@
       <c r="X530" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="531" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y530" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>572</v>
       </c>
@@ -40796,8 +42389,11 @@
       <c r="X531" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="532" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y531" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>573</v>
       </c>
@@ -40870,8 +42466,11 @@
       <c r="X532" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="533" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y532" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>574</v>
       </c>
@@ -40941,8 +42540,11 @@
       <c r="X533" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="534" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y533" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>575</v>
       </c>
@@ -41012,8 +42614,11 @@
       <c r="X534" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="535" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y534" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>576</v>
       </c>
@@ -41083,8 +42688,11 @@
       <c r="X535" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="536" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y535" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>577</v>
       </c>
@@ -41154,8 +42762,11 @@
       <c r="X536" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="537" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y536" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>578</v>
       </c>
@@ -41225,8 +42836,11 @@
       <c r="X537" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="538" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y537" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>579</v>
       </c>
@@ -41296,8 +42910,11 @@
       <c r="X538" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="539" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y538" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>580</v>
       </c>
@@ -41367,8 +42984,11 @@
       <c r="X539" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="540" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y539" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>581</v>
       </c>
@@ -41438,8 +43058,11 @@
       <c r="X540" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="541" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y540" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>582</v>
       </c>
@@ -41509,8 +43132,11 @@
       <c r="X541" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="542" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y541" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>583</v>
       </c>
@@ -41580,8 +43206,11 @@
       <c r="X542">
         <v>1</v>
       </c>
-    </row>
-    <row r="543" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>586</v>
       </c>
@@ -41651,8 +43280,11 @@
       <c r="X543" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="544" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y543" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>587</v>
       </c>
@@ -41722,8 +43354,11 @@
       <c r="X544">
         <v>1</v>
       </c>
-    </row>
-    <row r="545" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>588</v>
       </c>
@@ -41793,8 +43428,11 @@
       <c r="X545" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="546" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y545" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>589</v>
       </c>
@@ -41864,8 +43502,11 @@
       <c r="X546">
         <v>1</v>
       </c>
-    </row>
-    <row r="547" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>590</v>
       </c>
@@ -41935,8 +43576,11 @@
       <c r="X547" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="548" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y547" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>591</v>
       </c>
@@ -42006,8 +43650,11 @@
       <c r="X548" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="549" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y548" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>592</v>
       </c>
@@ -42077,8 +43724,11 @@
       <c r="X549" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="550" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y549" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>593</v>
       </c>
@@ -42148,8 +43798,11 @@
       <c r="X550" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="551" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y550" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>594</v>
       </c>
@@ -42219,8 +43872,11 @@
       <c r="X551" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="552" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y551" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>595</v>
       </c>
@@ -42290,8 +43946,11 @@
       <c r="X552" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="553" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y552" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="553" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>596</v>
       </c>
@@ -42361,8 +44020,11 @@
       <c r="X553" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="554" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y553" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>597</v>
       </c>
@@ -42432,8 +44094,11 @@
       <c r="X554" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="555" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y554" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>598</v>
       </c>
@@ -42503,8 +44168,11 @@
       <c r="X555" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="556" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y555" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>599</v>
       </c>
@@ -42574,8 +44242,11 @@
       <c r="X556" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="557" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y556" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>600</v>
       </c>
@@ -42645,8 +44316,11 @@
       <c r="X557" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="558" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y557" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>601</v>
       </c>
@@ -42716,8 +44390,11 @@
       <c r="X558">
         <v>1</v>
       </c>
-    </row>
-    <row r="559" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>602</v>
       </c>
@@ -42787,8 +44464,11 @@
       <c r="X559">
         <v>1</v>
       </c>
-    </row>
-    <row r="560" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y559" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>603</v>
       </c>
@@ -42858,8 +44538,11 @@
       <c r="X560" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="561" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y560" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>604</v>
       </c>
@@ -42929,8 +44612,11 @@
       <c r="X561">
         <v>1</v>
       </c>
-    </row>
-    <row r="562" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y561" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>605</v>
       </c>
@@ -43000,8 +44686,11 @@
       <c r="X562" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="563" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y562" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>606</v>
       </c>
@@ -43071,8 +44760,11 @@
       <c r="X563">
         <v>1</v>
       </c>
-    </row>
-    <row r="564" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>607</v>
       </c>
@@ -43142,8 +44834,11 @@
       <c r="X564" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="565" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y564" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>608</v>
       </c>
@@ -43213,8 +44908,11 @@
       <c r="X565">
         <v>1</v>
       </c>
-    </row>
-    <row r="566" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>609</v>
       </c>
@@ -43284,8 +44982,11 @@
       <c r="X566" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="567" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y566" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>610</v>
       </c>
@@ -43355,8 +45056,11 @@
       <c r="X567">
         <v>2</v>
       </c>
-    </row>
-    <row r="568" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>611</v>
       </c>
@@ -43426,8 +45130,11 @@
       <c r="X568" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="569" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y568" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>612</v>
       </c>
@@ -43497,8 +45204,11 @@
       <c r="X569">
         <v>2</v>
       </c>
-    </row>
-    <row r="570" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>613</v>
       </c>
@@ -43568,8 +45278,11 @@
       <c r="X570" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="571" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y570" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>614</v>
       </c>
@@ -43639,8 +45352,11 @@
       <c r="X571">
         <v>1</v>
       </c>
-    </row>
-    <row r="572" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>615</v>
       </c>
@@ -43710,8 +45426,11 @@
       <c r="X572" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="573" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y572" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>616</v>
       </c>
@@ -43781,8 +45500,11 @@
       <c r="X573">
         <v>1</v>
       </c>
-    </row>
-    <row r="574" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>617</v>
       </c>
@@ -43852,8 +45574,11 @@
       <c r="X574" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="575" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y574" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="575" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>618</v>
       </c>
@@ -43923,8 +45648,11 @@
       <c r="X575">
         <v>1</v>
       </c>
-    </row>
-    <row r="576" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>619</v>
       </c>
@@ -43994,8 +45722,11 @@
       <c r="X576" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="577" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y576" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>620</v>
       </c>
@@ -44065,8 +45796,11 @@
       <c r="X577">
         <v>1</v>
       </c>
-    </row>
-    <row r="578" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>621</v>
       </c>
@@ -44136,8 +45870,11 @@
       <c r="X578" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="579" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y578" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>622</v>
       </c>
@@ -44207,8 +45944,11 @@
       <c r="X579" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="580" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y579">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>623</v>
       </c>
@@ -44278,8 +46018,11 @@
       <c r="X580" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="581" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y580" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>624</v>
       </c>
@@ -44349,8 +46092,11 @@
       <c r="X581">
         <v>1</v>
       </c>
-    </row>
-    <row r="582" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>625</v>
       </c>
@@ -44420,8 +46166,11 @@
       <c r="X582" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="583" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y582" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>626</v>
       </c>
@@ -44491,8 +46240,11 @@
       <c r="X583">
         <v>1</v>
       </c>
-    </row>
-    <row r="584" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>627</v>
       </c>
@@ -44562,8 +46314,11 @@
       <c r="X584" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="585" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y584" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>628</v>
       </c>
@@ -44633,8 +46388,11 @@
       <c r="X585">
         <v>2</v>
       </c>
-    </row>
-    <row r="586" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y585">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>629</v>
       </c>
@@ -44704,8 +46462,11 @@
       <c r="X586" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="587" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y586" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>630</v>
       </c>
@@ -44775,8 +46536,11 @@
       <c r="X587">
         <v>2</v>
       </c>
-    </row>
-    <row r="588" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y587">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>631</v>
       </c>
@@ -44846,8 +46610,11 @@
       <c r="X588" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="589" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y588" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="589" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>632</v>
       </c>
@@ -44917,8 +46684,11 @@
       <c r="X589" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="590" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y589" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="590" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>633</v>
       </c>
@@ -44988,8 +46758,11 @@
       <c r="X590" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="591" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y590" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>634</v>
       </c>
@@ -45059,8 +46832,11 @@
       <c r="X591">
         <v>1</v>
       </c>
-    </row>
-    <row r="592" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>635</v>
       </c>
@@ -45130,8 +46906,11 @@
       <c r="X592" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="593" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y592" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>636</v>
       </c>
@@ -45201,8 +46980,11 @@
       <c r="X593">
         <v>3</v>
       </c>
-    </row>
-    <row r="594" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y593">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>637</v>
       </c>
@@ -45272,8 +47054,11 @@
       <c r="X594" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="595" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y594" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>638</v>
       </c>
@@ -45343,8 +47128,11 @@
       <c r="X595">
         <v>2</v>
       </c>
-    </row>
-    <row r="596" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y595">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>639</v>
       </c>
@@ -45414,8 +47202,11 @@
       <c r="X596" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="597" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y596" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>640</v>
       </c>
@@ -45485,8 +47276,11 @@
       <c r="X597">
         <v>2</v>
       </c>
-    </row>
-    <row r="598" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>641</v>
       </c>
@@ -45556,8 +47350,11 @@
       <c r="X598" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="599" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y598" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>642</v>
       </c>
@@ -45627,8 +47424,11 @@
       <c r="X599">
         <v>2</v>
       </c>
-    </row>
-    <row r="600" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y599">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>643</v>
       </c>
@@ -45698,8 +47498,11 @@
       <c r="X600" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="601" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y600" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>644</v>
       </c>
@@ -45769,8 +47572,11 @@
       <c r="X601">
         <v>0</v>
       </c>
-    </row>
-    <row r="602" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>645</v>
       </c>
@@ -45840,8 +47646,11 @@
       <c r="X602" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="603" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y602" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>646</v>
       </c>
@@ -45911,8 +47720,11 @@
       <c r="X603" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="604" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y603" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="604" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>647</v>
       </c>
@@ -45982,8 +47794,11 @@
       <c r="X604" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="605" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y604" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="605" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>648</v>
       </c>
@@ -46053,8 +47868,11 @@
       <c r="X605" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="606" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y605" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="606" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>649</v>
       </c>
@@ -46124,8 +47942,11 @@
       <c r="X606" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="607" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y606" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>650</v>
       </c>
@@ -46195,8 +48016,11 @@
       <c r="X607" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="608" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y607" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>651</v>
       </c>
@@ -46266,8 +48090,11 @@
       <c r="X608" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="609" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y608" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>652</v>
       </c>
@@ -46337,8 +48164,11 @@
       <c r="X609" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="610" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y609" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>653</v>
       </c>
@@ -46408,8 +48238,11 @@
       <c r="X610" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="611" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y610" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>654</v>
       </c>
@@ -46479,8 +48312,11 @@
       <c r="X611" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="612" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y611" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>655</v>
       </c>
@@ -46550,8 +48386,11 @@
       <c r="X612" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="613" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y612" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="613" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>656</v>
       </c>
@@ -46621,8 +48460,11 @@
       <c r="X613" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="614" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y613" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>657</v>
       </c>
@@ -46692,8 +48534,11 @@
       <c r="X614" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="615" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y614" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>658</v>
       </c>
@@ -46763,8 +48608,11 @@
       <c r="X615" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="616" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y615" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>659</v>
       </c>
@@ -46834,8 +48682,11 @@
       <c r="X616" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="617" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y616" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>660</v>
       </c>
@@ -46905,8 +48756,11 @@
       <c r="X617" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="618" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y617" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>661</v>
       </c>
@@ -46976,8 +48830,11 @@
       <c r="X618">
         <v>2</v>
       </c>
-    </row>
-    <row r="619" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y618">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>662</v>
       </c>
@@ -47047,8 +48904,11 @@
       <c r="X619" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="620" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y619" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>663</v>
       </c>
@@ -47064,6 +48924,9 @@
       <c r="E620" t="s">
         <v>585</v>
       </c>
+      <c r="F620" t="s">
+        <v>678</v>
+      </c>
       <c r="G620" t="s">
         <v>10</v>
       </c>
@@ -47118,8 +48981,11 @@
       <c r="X620">
         <v>1</v>
       </c>
-    </row>
-    <row r="621" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y620" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="621" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>664</v>
       </c>
@@ -47189,8 +49055,11 @@
       <c r="X621" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="622" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y621" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>665</v>
       </c>
@@ -47260,8 +49129,11 @@
       <c r="X622">
         <v>2</v>
       </c>
-    </row>
-    <row r="623" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y622">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="623" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>666</v>
       </c>
@@ -47331,8 +49203,11 @@
       <c r="X623" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="624" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y623" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>667</v>
       </c>
@@ -47402,8 +49277,11 @@
       <c r="X624">
         <v>2</v>
       </c>
-    </row>
-    <row r="625" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y624">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="625" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>668</v>
       </c>
@@ -47473,8 +49351,11 @@
       <c r="X625" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="626" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y625" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>669</v>
       </c>
@@ -47544,8 +49425,11 @@
       <c r="X626">
         <v>2</v>
       </c>
-    </row>
-    <row r="627" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y626">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>670</v>
       </c>
@@ -47615,8 +49499,11 @@
       <c r="X627" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="628" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y627" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>671</v>
       </c>
@@ -47686,8 +49573,11 @@
       <c r="X628">
         <v>2</v>
       </c>
-    </row>
-    <row r="629" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y628">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
         <v>672</v>
       </c>
@@ -47757,8 +49647,11 @@
       <c r="X629" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="630" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y629" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>673</v>
       </c>
@@ -47828,8 +49721,11 @@
       <c r="X630">
         <v>3</v>
       </c>
-    </row>
-    <row r="631" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y630">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>674</v>
       </c>
@@ -47897,6 +49793,9 @@
         <v>2</v>
       </c>
       <c r="X631" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y631" s="1">
         <v>2</v>
       </c>
     </row>

--- a/data/phenological_monitoring.xlsx
+++ b/data/phenological_monitoring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\Fuelinex\fuelinex\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EACEC21-F37F-624F-A57D-3CF3C726DCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E67982F-C99E-4F92-B7A8-23807ED9A934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3928" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="680">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2073,38 +2073,42 @@
   </si>
   <si>
     <t>doy162:dead</t>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2112,7 +2116,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2120,7 +2124,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2128,14 +2132,14 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2143,7 +2147,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2151,7 +2155,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2159,28 +2163,28 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2188,14 +2192,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Aptos Display"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <charset val="1"/>
       <scheme val="major"/>
@@ -2204,22 +2208,29 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2957,20 +2968,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y631"/>
+  <dimension ref="A1:Z631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A561" zoomScale="132" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z574" sqref="Z574"/>
+    <sheetView tabSelected="1" topLeftCell="A610" zoomScale="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA616" sqref="AA616"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3046,8 +3057,11 @@
       <c r="Y1" s="1">
         <v>162</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3120,8 +3134,11 @@
       <c r="Y2" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3194,8 +3211,11 @@
       <c r="Y3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3268,8 +3288,11 @@
       <c r="Y4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3342,8 +3365,11 @@
       <c r="Y5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3416,8 +3442,11 @@
       <c r="Y6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3490,8 +3519,11 @@
       <c r="Y7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3564,8 +3596,11 @@
       <c r="Y8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3638,8 +3673,11 @@
       <c r="Y9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3712,8 +3750,11 @@
       <c r="Y10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3786,8 +3827,11 @@
       <c r="Y11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -3860,8 +3904,11 @@
       <c r="Y12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3934,8 +3981,11 @@
       <c r="Y13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -4008,8 +4058,11 @@
       <c r="Y14" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4082,8 +4135,11 @@
       <c r="Y15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -4156,8 +4212,11 @@
       <c r="Y16" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4230,8 +4289,11 @@
       <c r="Y17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -4304,8 +4366,11 @@
       <c r="Y18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4378,8 +4443,11 @@
       <c r="Y19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -4452,8 +4520,11 @@
       <c r="Y20" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4526,8 +4597,11 @@
       <c r="Y21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -4600,8 +4674,11 @@
       <c r="Y22" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -4674,8 +4751,11 @@
       <c r="Y23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -4748,8 +4828,11 @@
       <c r="Y24" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -4822,8 +4905,11 @@
       <c r="Y25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -4896,8 +4982,11 @@
       <c r="Y26" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -4970,8 +5059,11 @@
       <c r="Y27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -5044,8 +5136,11 @@
       <c r="Y28" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -5118,8 +5213,11 @@
       <c r="Y29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -5192,8 +5290,11 @@
       <c r="Y30" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -5266,8 +5367,11 @@
       <c r="Y31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -5340,8 +5444,11 @@
       <c r="Y32" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -5414,8 +5521,11 @@
       <c r="Y33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -5488,8 +5598,11 @@
       <c r="Y34" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -5562,8 +5675,11 @@
       <c r="Y35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -5636,8 +5752,11 @@
       <c r="Y36" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -5710,8 +5829,11 @@
       <c r="Y37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -5784,8 +5906,11 @@
       <c r="Y38" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -5858,8 +5983,11 @@
       <c r="Y39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -5932,8 +6060,11 @@
       <c r="Y40" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -6006,8 +6137,11 @@
       <c r="Y41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -6080,8 +6214,11 @@
       <c r="Y42" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -6154,8 +6291,11 @@
       <c r="Y43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -6228,8 +6368,11 @@
       <c r="Y44" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -6302,8 +6445,11 @@
       <c r="Y45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -6376,8 +6522,11 @@
       <c r="Y46" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -6450,8 +6599,11 @@
       <c r="Y47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z47" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -6524,8 +6676,11 @@
       <c r="Y48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -6598,8 +6753,11 @@
       <c r="Y49" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -6672,8 +6830,11 @@
       <c r="Y50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -6746,8 +6907,11 @@
       <c r="Y51" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -6820,8 +6984,11 @@
       <c r="Y52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -6894,8 +7061,11 @@
       <c r="Y53" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -6968,8 +7138,11 @@
       <c r="Y54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -7042,8 +7215,11 @@
       <c r="Y55" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z55" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -7116,8 +7292,11 @@
       <c r="Y56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -7190,8 +7369,11 @@
       <c r="Y57" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -7264,8 +7446,11 @@
       <c r="Y58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -7338,8 +7523,11 @@
       <c r="Y59" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z59" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -7412,8 +7600,11 @@
       <c r="Y60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -7486,8 +7677,11 @@
       <c r="Y61" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z61" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -7560,8 +7754,11 @@
       <c r="Y62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -7634,8 +7831,11 @@
       <c r="Y63" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -7708,8 +7908,11 @@
       <c r="Y64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -7782,8 +7985,11 @@
       <c r="Y65" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z65" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -7856,8 +8062,11 @@
       <c r="Y66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -7930,8 +8139,11 @@
       <c r="Y67" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z67" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -8004,8 +8216,11 @@
       <c r="Y68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -8078,8 +8293,11 @@
       <c r="Y69" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z69" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -8152,8 +8370,11 @@
       <c r="Y70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z70" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -8226,8 +8447,11 @@
       <c r="Y71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -8300,8 +8524,11 @@
       <c r="Y72" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z72" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -8374,8 +8601,11 @@
       <c r="Y73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
@@ -8448,8 +8678,11 @@
       <c r="Y74" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -8522,8 +8755,11 @@
       <c r="Y75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -8596,8 +8832,11 @@
       <c r="Y76" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -8670,8 +8909,11 @@
       <c r="Y77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
@@ -8744,8 +8986,11 @@
       <c r="Y78" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z78" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -8818,8 +9063,11 @@
       <c r="Y79">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z79" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>93</v>
       </c>
@@ -8892,8 +9140,11 @@
       <c r="Y80" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z80" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -8966,8 +9217,11 @@
       <c r="Y81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>95</v>
       </c>
@@ -9040,8 +9294,11 @@
       <c r="Y82" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z82" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -9114,8 +9371,11 @@
       <c r="Y83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>97</v>
       </c>
@@ -9188,8 +9448,11 @@
       <c r="Y84" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z84" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -9262,8 +9525,11 @@
       <c r="Y85">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
@@ -9336,8 +9602,11 @@
       <c r="Y86" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z86" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -9410,8 +9679,11 @@
       <c r="Y87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>101</v>
       </c>
@@ -9484,8 +9756,11 @@
       <c r="Y88" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z88" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -9558,8 +9833,11 @@
       <c r="Y89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>103</v>
       </c>
@@ -9632,8 +9910,11 @@
       <c r="Y90" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z90" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -9706,8 +9987,11 @@
       <c r="Y91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>105</v>
       </c>
@@ -9780,8 +10064,11 @@
       <c r="Y92" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z92" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -9854,8 +10141,11 @@
       <c r="Y93">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>109</v>
       </c>
@@ -9928,8 +10218,11 @@
       <c r="Y94" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z94" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -10005,8 +10298,11 @@
       <c r="Y95">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>112</v>
       </c>
@@ -10079,8 +10375,11 @@
       <c r="Y96" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z96" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -10153,8 +10452,11 @@
       <c r="Y97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>114</v>
       </c>
@@ -10227,8 +10529,11 @@
       <c r="Y98" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z98" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -10301,8 +10606,11 @@
       <c r="Y99">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>116</v>
       </c>
@@ -10375,8 +10683,11 @@
       <c r="Y100" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z100" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -10449,8 +10760,11 @@
       <c r="Y101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>118</v>
       </c>
@@ -10523,8 +10837,11 @@
       <c r="Y102" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z102" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -10597,8 +10914,11 @@
       <c r="Y103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z103" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>120</v>
       </c>
@@ -10671,8 +10991,11 @@
       <c r="Y104" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z104" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -10745,8 +11068,11 @@
       <c r="Y105">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z105" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -10819,8 +11145,11 @@
       <c r="Y106" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z106" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -10893,8 +11222,11 @@
       <c r="Y107">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z107" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -10967,8 +11299,11 @@
       <c r="Y108" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z108" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -11044,8 +11379,11 @@
       <c r="Y109">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z109" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -11118,8 +11456,11 @@
       <c r="Y110" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z110" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -11192,8 +11533,11 @@
       <c r="Y111">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z111" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -11266,8 +11610,11 @@
       <c r="Y112" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z112" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -11340,8 +11687,11 @@
       <c r="Y113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z113" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>130</v>
       </c>
@@ -11414,8 +11764,11 @@
       <c r="Y114" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z114" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -11488,8 +11841,11 @@
       <c r="Y115">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z115" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>132</v>
       </c>
@@ -11562,8 +11918,11 @@
       <c r="Y116" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z116" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -11636,8 +11995,11 @@
       <c r="Y117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z117" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -11710,8 +12072,11 @@
       <c r="Y118">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z118" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>135</v>
       </c>
@@ -11784,8 +12149,11 @@
       <c r="Y119" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z119" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -11858,8 +12226,11 @@
       <c r="Y120">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z120" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>137</v>
       </c>
@@ -11935,8 +12306,11 @@
       <c r="Y121" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z121" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -12009,8 +12383,11 @@
       <c r="Y122">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z122" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>139</v>
       </c>
@@ -12083,8 +12460,11 @@
       <c r="Y123" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z123" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -12157,8 +12537,11 @@
       <c r="Y124">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z124" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>141</v>
       </c>
@@ -12231,8 +12614,11 @@
       <c r="Y125" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z125" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -12305,8 +12691,11 @@
       <c r="Y126">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z126" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>143</v>
       </c>
@@ -12379,8 +12768,11 @@
       <c r="Y127" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z127" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -12453,8 +12845,11 @@
       <c r="Y128">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z128" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>145</v>
       </c>
@@ -12527,8 +12922,11 @@
       <c r="Y129" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z129" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -12601,8 +12999,11 @@
       <c r="Y130">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z130" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>147</v>
       </c>
@@ -12675,8 +13076,11 @@
       <c r="Y131" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z131" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -12749,8 +13153,11 @@
       <c r="Y132">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z132" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>149</v>
       </c>
@@ -12823,8 +13230,11 @@
       <c r="Y133" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z133" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -12897,8 +13307,11 @@
       <c r="Y134">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z134" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>151</v>
       </c>
@@ -12971,8 +13384,11 @@
       <c r="Y135" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z135" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -13045,8 +13461,11 @@
       <c r="Y136">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z136" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>153</v>
       </c>
@@ -13119,8 +13538,11 @@
       <c r="Y137" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z137" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -13193,8 +13615,11 @@
       <c r="Y138">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z138" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>155</v>
       </c>
@@ -13267,8 +13692,11 @@
       <c r="Y139" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z139" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>156</v>
       </c>
@@ -13341,8 +13769,11 @@
       <c r="Y140">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z140" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -13415,8 +13846,11 @@
       <c r="Y141">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z141" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>158</v>
       </c>
@@ -13489,8 +13923,11 @@
       <c r="Y142" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z142" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -13563,8 +14000,11 @@
       <c r="Y143">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z143" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>160</v>
       </c>
@@ -13637,8 +14077,11 @@
       <c r="Y144" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z144" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -13711,8 +14154,11 @@
       <c r="Y145">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z145" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>162</v>
       </c>
@@ -13785,8 +14231,11 @@
       <c r="Y146" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z146" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -13859,8 +14308,11 @@
       <c r="Y147">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z147" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>164</v>
       </c>
@@ -13933,8 +14385,11 @@
       <c r="Y148" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z148" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -14007,8 +14462,11 @@
       <c r="Y149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z149" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>166</v>
       </c>
@@ -14081,8 +14539,11 @@
       <c r="Y150" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z150" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -14155,8 +14616,11 @@
       <c r="Y151">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z151" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>168</v>
       </c>
@@ -14229,8 +14693,11 @@
       <c r="Y152" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z152" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>169</v>
       </c>
@@ -14303,8 +14770,11 @@
       <c r="Y153">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z153" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>170</v>
       </c>
@@ -14377,8 +14847,11 @@
       <c r="Y154" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z154" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>171</v>
       </c>
@@ -14451,8 +14924,11 @@
       <c r="Y155">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z155" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>172</v>
       </c>
@@ -14525,8 +15001,11 @@
       <c r="Y156" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z156" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -14599,8 +15078,11 @@
       <c r="Y157">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z157" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>174</v>
       </c>
@@ -14673,8 +15155,11 @@
       <c r="Y158" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z158" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>175</v>
       </c>
@@ -14747,8 +15232,11 @@
       <c r="Y159">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z159" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>176</v>
       </c>
@@ -14821,8 +15309,11 @@
       <c r="Y160" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z160" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -14895,8 +15386,11 @@
       <c r="Y161">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z161" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>178</v>
       </c>
@@ -14969,8 +15463,11 @@
       <c r="Y162" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z162" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>179</v>
       </c>
@@ -15043,8 +15540,11 @@
       <c r="Y163">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z163" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>180</v>
       </c>
@@ -15117,8 +15617,11 @@
       <c r="Y164" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z164" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -15191,8 +15694,11 @@
       <c r="Y165">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z165" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>182</v>
       </c>
@@ -15265,8 +15771,11 @@
       <c r="Y166" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z166" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -15339,8 +15848,11 @@
       <c r="Y167">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z167" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>184</v>
       </c>
@@ -15413,8 +15925,11 @@
       <c r="Y168" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z168" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -15487,8 +16002,11 @@
       <c r="Y169">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z169" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>186</v>
       </c>
@@ -15561,8 +16079,11 @@
       <c r="Y170" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z170" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -15635,8 +16156,11 @@
       <c r="Y171">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z171" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>188</v>
       </c>
@@ -15709,8 +16233,11 @@
       <c r="Y172" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z172" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>189</v>
       </c>
@@ -15783,8 +16310,11 @@
       <c r="Y173">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z173" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>190</v>
       </c>
@@ -15857,8 +16387,11 @@
       <c r="Y174" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="175" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z174" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -15931,8 +16464,11 @@
       <c r="Y175">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z175" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>192</v>
       </c>
@@ -16005,8 +16541,11 @@
       <c r="Y176" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="177" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z176" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>193</v>
       </c>
@@ -16079,8 +16618,11 @@
       <c r="Y177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z177" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>194</v>
       </c>
@@ -16153,8 +16695,11 @@
       <c r="Y178" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z178" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>195</v>
       </c>
@@ -16227,8 +16772,11 @@
       <c r="Y179">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z179" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>196</v>
       </c>
@@ -16301,8 +16849,11 @@
       <c r="Y180" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z180" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>197</v>
       </c>
@@ -16375,8 +16926,11 @@
       <c r="Y181">
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z181" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>198</v>
       </c>
@@ -16449,8 +17003,11 @@
       <c r="Y182" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z182" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -16523,8 +17080,11 @@
       <c r="Y183">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z183" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>202</v>
       </c>
@@ -16597,8 +17157,11 @@
       <c r="Y184" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="185" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z184" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -16671,8 +17234,11 @@
       <c r="Y185">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z185" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>204</v>
       </c>
@@ -16748,8 +17314,11 @@
       <c r="Y186" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="187" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z186" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -16822,8 +17391,11 @@
       <c r="Y187">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z187" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -16896,8 +17468,11 @@
       <c r="Y188" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z188" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>208</v>
       </c>
@@ -16970,8 +17545,11 @@
       <c r="Y189" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z189" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -17047,8 +17625,11 @@
       <c r="Y190" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z190" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>210</v>
       </c>
@@ -17121,8 +17702,11 @@
       <c r="Y191" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z191" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -17195,8 +17779,11 @@
       <c r="Y192" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z192" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>212</v>
       </c>
@@ -17269,8 +17856,11 @@
       <c r="Y193" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z193" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -17346,8 +17936,11 @@
       <c r="Y194" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z194" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>215</v>
       </c>
@@ -17420,8 +18013,11 @@
       <c r="Y195" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z195" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -17494,8 +18090,11 @@
       <c r="Y196" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z196" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>217</v>
       </c>
@@ -17568,8 +18167,11 @@
       <c r="Y197" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z197" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -17645,8 +18247,11 @@
       <c r="Y198" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z198" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>220</v>
       </c>
@@ -17719,8 +18324,11 @@
       <c r="Y199" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z199" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -17796,8 +18404,11 @@
       <c r="Y200" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z200" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>222</v>
       </c>
@@ -17870,8 +18481,11 @@
       <c r="Y201" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z201" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -17944,8 +18558,11 @@
       <c r="Y202" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z202" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>224</v>
       </c>
@@ -18018,8 +18635,11 @@
       <c r="Y203" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z203" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -18092,8 +18712,11 @@
       <c r="Y204" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z204" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>226</v>
       </c>
@@ -18169,8 +18792,11 @@
       <c r="Y205" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="206" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z205" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -18243,8 +18869,11 @@
       <c r="Y206" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z206" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>228</v>
       </c>
@@ -18317,8 +18946,11 @@
       <c r="Y207" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z207" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -18394,8 +19026,11 @@
       <c r="Y208" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z208" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>230</v>
       </c>
@@ -18468,8 +19103,11 @@
       <c r="Y209" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="210" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z209" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -18542,8 +19180,11 @@
       <c r="Y210" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z210" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -18619,8 +19260,11 @@
       <c r="Y211" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z211" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>233</v>
       </c>
@@ -18693,8 +19337,11 @@
       <c r="Y212" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="213" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z212" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -18767,8 +19414,11 @@
       <c r="Y213" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z213" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>235</v>
       </c>
@@ -18841,8 +19491,11 @@
       <c r="Y214" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="215" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z214" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>236</v>
       </c>
@@ -18915,8 +19568,11 @@
       <c r="Y215" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z215" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>237</v>
       </c>
@@ -18992,8 +19648,11 @@
       <c r="Y216" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z216" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>238</v>
       </c>
@@ -19066,8 +19725,11 @@
       <c r="Y217" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z217" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>239</v>
       </c>
@@ -19140,8 +19802,11 @@
       <c r="Y218" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z218" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -19214,8 +19879,11 @@
       <c r="Y219" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z219" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>241</v>
       </c>
@@ -19288,8 +19956,11 @@
       <c r="Y220" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="221" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z220" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -19362,8 +20033,11 @@
       <c r="Y221" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z221" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>243</v>
       </c>
@@ -19436,8 +20110,11 @@
       <c r="Y222" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="223" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z222" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -19513,8 +20190,11 @@
       <c r="Y223" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z223" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>245</v>
       </c>
@@ -19587,8 +20267,11 @@
       <c r="Y224" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="225" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z224" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -19664,8 +20347,11 @@
       <c r="Y225" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z225" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>247</v>
       </c>
@@ -19738,8 +20424,11 @@
       <c r="Y226" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="227" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z226" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -19812,8 +20501,11 @@
       <c r="Y227">
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z227" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>249</v>
       </c>
@@ -19886,8 +20578,11 @@
       <c r="Y228" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="229" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z228" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -19960,8 +20655,11 @@
       <c r="Y229">
         <v>4</v>
       </c>
-    </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z229" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>251</v>
       </c>
@@ -20034,8 +20732,11 @@
       <c r="Y230" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z230" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -20108,8 +20809,11 @@
       <c r="Y231" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z231" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>253</v>
       </c>
@@ -20182,8 +20886,11 @@
       <c r="Y232" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="233" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z232" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -20256,8 +20963,11 @@
       <c r="Y233" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z233" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>255</v>
       </c>
@@ -20330,8 +21040,11 @@
       <c r="Y234" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z234" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -20404,8 +21117,11 @@
       <c r="Y235" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z235" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>257</v>
       </c>
@@ -20478,8 +21194,11 @@
       <c r="Y236" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="237" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z236" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -20552,8 +21271,11 @@
       <c r="Y237" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z237" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>259</v>
       </c>
@@ -20626,8 +21348,11 @@
       <c r="Y238" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="239" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z238" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -20700,8 +21425,11 @@
       <c r="Y239" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z239" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>261</v>
       </c>
@@ -20774,8 +21502,11 @@
       <c r="Y240" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z240" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -20848,8 +21579,11 @@
       <c r="Y241" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z241" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>263</v>
       </c>
@@ -20922,8 +21656,11 @@
       <c r="Y242" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="243" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z242" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -20996,8 +21733,11 @@
       <c r="Y243">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z243" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>265</v>
       </c>
@@ -21070,8 +21810,11 @@
       <c r="Y244" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="245" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z244" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -21144,8 +21887,11 @@
       <c r="Y245">
         <v>4</v>
       </c>
-    </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z245" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>267</v>
       </c>
@@ -21218,8 +21964,11 @@
       <c r="Y246" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="247" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z246" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -21292,8 +22041,11 @@
       <c r="Y247" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z247" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>269</v>
       </c>
@@ -21366,8 +22118,11 @@
       <c r="Y248" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="249" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z248" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -21440,8 +22195,11 @@
       <c r="Y249" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z249" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>271</v>
       </c>
@@ -21514,8 +22272,11 @@
       <c r="Y250" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="251" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z250" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>272</v>
       </c>
@@ -21588,8 +22349,11 @@
       <c r="Y251">
         <v>4</v>
       </c>
-    </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z251" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>273</v>
       </c>
@@ -21662,8 +22426,11 @@
       <c r="Y252" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="253" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z252" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -21736,8 +22503,11 @@
       <c r="Y253" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z253" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>275</v>
       </c>
@@ -21810,8 +22580,11 @@
       <c r="Y254" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="255" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z254" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -21884,8 +22657,11 @@
       <c r="Y255" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z255" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>277</v>
       </c>
@@ -21958,8 +22734,11 @@
       <c r="Y256" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="257" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z256" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -22032,8 +22811,11 @@
       <c r="Y257">
         <v>4</v>
       </c>
-    </row>
-    <row r="258" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z257" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>279</v>
       </c>
@@ -22106,8 +22888,11 @@
       <c r="Y258" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z258" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>280</v>
       </c>
@@ -22180,8 +22965,11 @@
       <c r="Y259" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="260" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z259" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>281</v>
       </c>
@@ -22254,8 +23042,11 @@
       <c r="Y260" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z260" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>282</v>
       </c>
@@ -22328,8 +23119,11 @@
       <c r="Y261" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="262" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z261" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>283</v>
       </c>
@@ -22402,8 +23196,11 @@
       <c r="Y262" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z262" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>284</v>
       </c>
@@ -22476,8 +23273,11 @@
       <c r="Y263" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="264" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z263" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>285</v>
       </c>
@@ -22550,8 +23350,11 @@
       <c r="Y264" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z264" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>286</v>
       </c>
@@ -22624,8 +23427,11 @@
       <c r="Y265" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="266" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z265" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -22698,8 +23504,11 @@
       <c r="Y266" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z266" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>288</v>
       </c>
@@ -22772,8 +23581,11 @@
       <c r="Y267" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="268" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z267" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -22846,8 +23658,11 @@
       <c r="Y268" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z268" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>290</v>
       </c>
@@ -22920,8 +23735,11 @@
       <c r="Y269" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="270" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z269" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -22994,8 +23812,11 @@
       <c r="Y270" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z270" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>292</v>
       </c>
@@ -23068,8 +23889,11 @@
       <c r="Y271" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="272" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z271" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -23142,8 +23966,11 @@
       <c r="Y272">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z272" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>296</v>
       </c>
@@ -23216,8 +24043,11 @@
       <c r="Y273" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="274" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z273" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -23290,8 +24120,11 @@
       <c r="Y274" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z274" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>298</v>
       </c>
@@ -23364,8 +24197,11 @@
       <c r="Y275" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z275" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -23438,8 +24274,11 @@
       <c r="Y276" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z276" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>300</v>
       </c>
@@ -23512,8 +24351,11 @@
       <c r="Y277" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="278" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z277" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -23586,8 +24428,11 @@
       <c r="Y278" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z278" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>302</v>
       </c>
@@ -23663,8 +24508,11 @@
       <c r="Y279" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="280" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z279" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="280" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -23737,8 +24585,11 @@
       <c r="Y280" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="281" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z280" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -23811,8 +24662,11 @@
       <c r="Y281" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z281" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>305</v>
       </c>
@@ -23885,8 +24739,11 @@
       <c r="Y282" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="283" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z282" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -23962,8 +24819,11 @@
       <c r="Y283" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z283" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>309</v>
       </c>
@@ -24036,8 +24896,11 @@
       <c r="Y284" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="285" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z284" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -24110,8 +24973,11 @@
       <c r="Y285" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z285" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>311</v>
       </c>
@@ -24184,8 +25050,11 @@
       <c r="Y286" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="287" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z286" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -24258,8 +25127,11 @@
       <c r="Y287">
         <v>4</v>
       </c>
-    </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z287" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>313</v>
       </c>
@@ -24332,8 +25204,11 @@
       <c r="Y288" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="289" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z288" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -24406,8 +25281,11 @@
       <c r="Y289" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z289" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>315</v>
       </c>
@@ -24480,8 +25358,11 @@
       <c r="Y290" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="291" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z290" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -24554,8 +25435,11 @@
       <c r="Y291" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z291" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>317</v>
       </c>
@@ -24628,8 +25512,11 @@
       <c r="Y292" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="293" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z292" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -24702,8 +25589,11 @@
       <c r="Y293" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z293" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>319</v>
       </c>
@@ -24779,8 +25669,11 @@
       <c r="Y294" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="295" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z294" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -24853,8 +25746,11 @@
       <c r="Y295" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z295" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>322</v>
       </c>
@@ -24927,8 +25823,11 @@
       <c r="Y296" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="297" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z296" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>323</v>
       </c>
@@ -25001,8 +25900,11 @@
       <c r="Y297">
         <v>4</v>
       </c>
-    </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z297" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>324</v>
       </c>
@@ -25075,8 +25977,11 @@
       <c r="Y298" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="299" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z298" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>325</v>
       </c>
@@ -25149,8 +26054,11 @@
       <c r="Y299" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z299" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>326</v>
       </c>
@@ -25223,8 +26131,11 @@
       <c r="Y300" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="301" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z300" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>327</v>
       </c>
@@ -25297,8 +26208,11 @@
       <c r="Y301" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z301" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>328</v>
       </c>
@@ -25371,8 +26285,11 @@
       <c r="Y302" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="303" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z302" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>329</v>
       </c>
@@ -25445,8 +26362,11 @@
       <c r="Y303" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z303" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>330</v>
       </c>
@@ -25519,8 +26439,11 @@
       <c r="Y304" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="305" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z304" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>331</v>
       </c>
@@ -25593,8 +26516,11 @@
       <c r="Y305" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z305" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>332</v>
       </c>
@@ -25667,8 +26593,11 @@
       <c r="Y306" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="307" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z306" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>333</v>
       </c>
@@ -25741,8 +26670,11 @@
       <c r="Y307">
         <v>4</v>
       </c>
-    </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z307" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>334</v>
       </c>
@@ -25815,8 +26747,11 @@
       <c r="Y308" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="309" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z308" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>335</v>
       </c>
@@ -25889,8 +26824,11 @@
       <c r="Y309" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z309" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>336</v>
       </c>
@@ -25963,8 +26901,11 @@
       <c r="Y310" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="311" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z310" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -26037,8 +26978,11 @@
       <c r="Y311" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z311" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>338</v>
       </c>
@@ -26111,8 +27055,11 @@
       <c r="Y312" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="313" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z312" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -26185,8 +27132,11 @@
       <c r="Y313" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z313" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>340</v>
       </c>
@@ -26259,8 +27209,11 @@
       <c r="Y314" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="315" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z314" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -26333,8 +27286,11 @@
       <c r="Y315" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z315" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>342</v>
       </c>
@@ -26407,8 +27363,11 @@
       <c r="Y316" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="317" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z316" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -26481,8 +27440,11 @@
       <c r="Y317">
         <v>4</v>
       </c>
-    </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z317" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>344</v>
       </c>
@@ -26555,8 +27517,11 @@
       <c r="Y318" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="319" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z318" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -26629,8 +27594,11 @@
       <c r="Y319" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z319" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>346</v>
       </c>
@@ -26703,8 +27671,11 @@
       <c r="Y320" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="321" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z320" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -26777,8 +27748,11 @@
       <c r="Y321" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z321" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>348</v>
       </c>
@@ -26854,8 +27828,11 @@
       <c r="Y322" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="323" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z322" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="323" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>350</v>
       </c>
@@ -26928,8 +27905,11 @@
       <c r="Y323">
         <v>4</v>
       </c>
-    </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z323" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>351</v>
       </c>
@@ -27005,8 +27985,11 @@
       <c r="Y324" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="325" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z324" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="325" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>353</v>
       </c>
@@ -27079,8 +28062,11 @@
       <c r="Y325">
         <v>4</v>
       </c>
-    </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z325" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>354</v>
       </c>
@@ -27153,8 +28139,11 @@
       <c r="Y326" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="327" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z326" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>355</v>
       </c>
@@ -27227,8 +28216,11 @@
       <c r="Y327">
         <v>4</v>
       </c>
-    </row>
-    <row r="328" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z327" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>356</v>
       </c>
@@ -27301,8 +28293,11 @@
       <c r="Y328" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z328" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>357</v>
       </c>
@@ -27375,8 +28370,11 @@
       <c r="Y329" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="330" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z329" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>358</v>
       </c>
@@ -27449,8 +28447,11 @@
       <c r="Y330" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z330" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>359</v>
       </c>
@@ -27523,8 +28524,11 @@
       <c r="Y331" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="332" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z331" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>360</v>
       </c>
@@ -27597,8 +28601,11 @@
       <c r="Y332" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z332" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>361</v>
       </c>
@@ -27671,8 +28678,11 @@
       <c r="Y333" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="334" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z333" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>362</v>
       </c>
@@ -27745,8 +28755,11 @@
       <c r="Y334" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z334" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>363</v>
       </c>
@@ -27819,8 +28832,11 @@
       <c r="Y335" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="336" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z335" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>364</v>
       </c>
@@ -27893,8 +28909,11 @@
       <c r="Y336" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z336" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>365</v>
       </c>
@@ -27967,8 +28986,11 @@
       <c r="Y337" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="338" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z337" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>366</v>
       </c>
@@ -28041,8 +29063,11 @@
       <c r="Y338" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z338" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>367</v>
       </c>
@@ -28115,8 +29140,11 @@
       <c r="Y339" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="340" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z339" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>368</v>
       </c>
@@ -28189,8 +29217,11 @@
       <c r="Y340" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z340" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>369</v>
       </c>
@@ -28263,8 +29294,11 @@
       <c r="Y341" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="342" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z341" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>370</v>
       </c>
@@ -28337,8 +29371,11 @@
       <c r="Y342">
         <v>4</v>
       </c>
-    </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z342" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>371</v>
       </c>
@@ -28411,8 +29448,11 @@
       <c r="Y343" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="344" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z343" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>372</v>
       </c>
@@ -28485,8 +29525,11 @@
       <c r="Y344" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z344" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>373</v>
       </c>
@@ -28559,8 +29602,11 @@
       <c r="Y345" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="346" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z345" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>374</v>
       </c>
@@ -28633,8 +29679,11 @@
       <c r="Y346" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z346" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>375</v>
       </c>
@@ -28707,8 +29756,11 @@
       <c r="Y347" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z347" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>376</v>
       </c>
@@ -28781,8 +29833,11 @@
       <c r="Y348">
         <v>3</v>
       </c>
-    </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z348" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>377</v>
       </c>
@@ -28855,8 +29910,11 @@
       <c r="Y349" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="350" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z349" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>378</v>
       </c>
@@ -28929,8 +29987,11 @@
       <c r="Y350">
         <v>4</v>
       </c>
-    </row>
-    <row r="351" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z350" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>379</v>
       </c>
@@ -29003,8 +30064,11 @@
       <c r="Y351" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z351" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>380</v>
       </c>
@@ -29077,8 +30141,11 @@
       <c r="Y352" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="353" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z352" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>381</v>
       </c>
@@ -29151,8 +30218,11 @@
       <c r="Y353" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="354" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z353" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>382</v>
       </c>
@@ -29225,8 +30295,11 @@
       <c r="Y354" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="355" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z354" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>383</v>
       </c>
@@ -29302,8 +30375,11 @@
       <c r="Y355" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z355" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="356" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>384</v>
       </c>
@@ -29376,8 +30452,11 @@
       <c r="Y356" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="357" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z356" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>385</v>
       </c>
@@ -29450,8 +30529,11 @@
       <c r="Y357">
         <v>4</v>
       </c>
-    </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z357" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>386</v>
       </c>
@@ -29524,8 +30606,11 @@
       <c r="Y358" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="359" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z358" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>387</v>
       </c>
@@ -29598,8 +30683,11 @@
       <c r="Y359" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z359" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>388</v>
       </c>
@@ -29672,8 +30760,11 @@
       <c r="Y360" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="361" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z360" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>389</v>
       </c>
@@ -29746,8 +30837,11 @@
       <c r="Y361" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="362" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z361" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>390</v>
       </c>
@@ -29820,8 +30914,11 @@
       <c r="Y362" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="363" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z362" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -29894,8 +30991,11 @@
       <c r="Y363" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z363" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>394</v>
       </c>
@@ -29968,8 +31068,11 @@
       <c r="Y364" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z364" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -30042,8 +31145,11 @@
       <c r="Y365" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z365" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>396</v>
       </c>
@@ -30116,8 +31222,11 @@
       <c r="Y366" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="367" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z366" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -30190,8 +31299,11 @@
       <c r="Y367">
         <v>4</v>
       </c>
-    </row>
-    <row r="368" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z367" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>398</v>
       </c>
@@ -30264,8 +31376,11 @@
       <c r="Y368" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="369" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z368" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -30341,8 +31456,11 @@
       <c r="Y369" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z369" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>400</v>
       </c>
@@ -30415,8 +31533,11 @@
       <c r="Y370" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="371" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z370" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -30489,8 +31610,11 @@
       <c r="Y371" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z371" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>402</v>
       </c>
@@ -30563,8 +31687,11 @@
       <c r="Y372" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="373" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z372" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -30637,8 +31764,11 @@
       <c r="Y373" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z373" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>404</v>
       </c>
@@ -30711,8 +31841,11 @@
       <c r="Y374" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="375" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z374" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -30785,8 +31918,11 @@
       <c r="Y375" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z375" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>406</v>
       </c>
@@ -30859,8 +31995,11 @@
       <c r="Y376" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="377" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z376" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -30933,8 +32072,11 @@
       <c r="Y377">
         <v>4</v>
       </c>
-    </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z377" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>408</v>
       </c>
@@ -31007,8 +32149,11 @@
       <c r="Y378" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="379" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z378" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -31081,8 +32226,11 @@
       <c r="Y379" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z379" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>410</v>
       </c>
@@ -31158,8 +32306,11 @@
       <c r="Y380" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z380" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -31232,8 +32383,11 @@
       <c r="Y381" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z381" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>413</v>
       </c>
@@ -31306,8 +32460,11 @@
       <c r="Y382" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="383" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z382" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -31380,8 +32537,11 @@
       <c r="Y383" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z383" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>415</v>
       </c>
@@ -31454,8 +32614,11 @@
       <c r="Y384" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="385" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z384" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -31528,8 +32691,11 @@
       <c r="Y385" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z385" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>417</v>
       </c>
@@ -31605,8 +32771,11 @@
       <c r="Y386" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="387" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z386" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -31679,8 +32848,11 @@
       <c r="Y387">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z387" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>419</v>
       </c>
@@ -31753,8 +32925,11 @@
       <c r="Y388" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z388" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -31827,8 +33002,11 @@
       <c r="Y389" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="390" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z389" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>421</v>
       </c>
@@ -31901,8 +33079,11 @@
       <c r="Y390" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="391" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z390" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -31978,8 +33159,11 @@
       <c r="Y391" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="392" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z391" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>424</v>
       </c>
@@ -32055,8 +33239,11 @@
       <c r="Y392" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="393" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z392" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="393" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -32129,8 +33316,11 @@
       <c r="Y393">
         <v>4</v>
       </c>
-    </row>
-    <row r="394" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z393" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>427</v>
       </c>
@@ -32203,8 +33393,11 @@
       <c r="Y394" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="395" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z394" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -32277,8 +33470,11 @@
       <c r="Y395" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="396" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z395" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>429</v>
       </c>
@@ -32351,8 +33547,11 @@
       <c r="Y396" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="397" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z396" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -32425,8 +33624,11 @@
       <c r="Y397" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="398" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z397" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -32499,8 +33701,11 @@
       <c r="Y398">
         <v>4</v>
       </c>
-    </row>
-    <row r="399" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z398" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>432</v>
       </c>
@@ -32576,8 +33781,11 @@
       <c r="Y399" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="400" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z399" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>433</v>
       </c>
@@ -32650,8 +33858,11 @@
       <c r="Y400" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="401" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z400" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>434</v>
       </c>
@@ -32724,8 +33935,11 @@
       <c r="Y401" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="402" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z401" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>435</v>
       </c>
@@ -32801,8 +34015,11 @@
       <c r="Y402" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="403" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z402" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="403" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>436</v>
       </c>
@@ -32875,8 +34092,11 @@
       <c r="Y403" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="404" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z403" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>437</v>
       </c>
@@ -32952,8 +34172,11 @@
       <c r="Y404" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="405" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z404" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>439</v>
       </c>
@@ -33026,8 +34249,11 @@
       <c r="Y405" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="406" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z405" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -33100,8 +34326,11 @@
       <c r="Y406" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="407" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z406" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>441</v>
       </c>
@@ -33174,8 +34403,11 @@
       <c r="Y407" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="408" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z407" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>442</v>
       </c>
@@ -33248,8 +34480,11 @@
       <c r="Y408" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="409" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z408" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>443</v>
       </c>
@@ -33322,8 +34557,11 @@
       <c r="Y409" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="410" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z409" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>444</v>
       </c>
@@ -33396,8 +34634,11 @@
       <c r="Y410" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="411" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z410" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>445</v>
       </c>
@@ -33470,8 +34711,11 @@
       <c r="Y411" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="412" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z411" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>446</v>
       </c>
@@ -33544,8 +34788,11 @@
       <c r="Y412">
         <v>4</v>
       </c>
-    </row>
-    <row r="413" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z412" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>447</v>
       </c>
@@ -33618,8 +34865,11 @@
       <c r="Y413" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="414" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z413" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>448</v>
       </c>
@@ -33692,8 +34942,11 @@
       <c r="Y414" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="415" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z414" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>449</v>
       </c>
@@ -33766,8 +35019,11 @@
       <c r="Y415" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="416" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z415" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>450</v>
       </c>
@@ -33840,8 +35096,11 @@
       <c r="Y416" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="417" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z416" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="417" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>451</v>
       </c>
@@ -33917,8 +35176,11 @@
       <c r="Y417" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="418" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z417" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>452</v>
       </c>
@@ -33991,8 +35253,11 @@
       <c r="Y418" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="419" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z418" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>453</v>
       </c>
@@ -34065,8 +35330,11 @@
       <c r="Y419" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="420" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z419" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>454</v>
       </c>
@@ -34139,8 +35407,11 @@
       <c r="Y420" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="421" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z420" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>455</v>
       </c>
@@ -34216,8 +35487,11 @@
       <c r="Y421" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="422" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z421" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>456</v>
       </c>
@@ -34290,8 +35564,11 @@
       <c r="Y422" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="423" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z422" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>457</v>
       </c>
@@ -34367,8 +35644,11 @@
       <c r="Y423" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="424" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z423" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="424" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>459</v>
       </c>
@@ -34441,8 +35721,11 @@
       <c r="Y424" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="425" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z424" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>460</v>
       </c>
@@ -34515,8 +35798,11 @@
       <c r="Y425" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="426" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z425" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>461</v>
       </c>
@@ -34589,8 +35875,11 @@
       <c r="Y426" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="427" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z426" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>462</v>
       </c>
@@ -34663,8 +35952,11 @@
       <c r="Y427">
         <v>4</v>
       </c>
-    </row>
-    <row r="428" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z427" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>463</v>
       </c>
@@ -34737,8 +36029,11 @@
       <c r="Y428" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="429" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z428" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>464</v>
       </c>
@@ -34814,8 +36109,11 @@
       <c r="Y429" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="430" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z429" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>466</v>
       </c>
@@ -34888,8 +36186,11 @@
       <c r="Y430" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="431" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z430" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>467</v>
       </c>
@@ -34962,8 +36263,11 @@
       <c r="Y431" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="432" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z431" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>468</v>
       </c>
@@ -35036,8 +36340,11 @@
       <c r="Y432" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="433" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z432" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>469</v>
       </c>
@@ -35110,8 +36417,11 @@
       <c r="Y433" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="434" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z433" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>470</v>
       </c>
@@ -35184,8 +36494,11 @@
       <c r="Y434" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="435" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z434" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>471</v>
       </c>
@@ -35258,8 +36571,11 @@
       <c r="Y435" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="436" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z435" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>472</v>
       </c>
@@ -35332,8 +36648,11 @@
       <c r="Y436" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="437" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z436" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>473</v>
       </c>
@@ -35406,8 +36725,11 @@
       <c r="Y437">
         <v>4</v>
       </c>
-    </row>
-    <row r="438" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z437" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>474</v>
       </c>
@@ -35477,8 +36799,11 @@
       <c r="Y438" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="439" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z438" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>475</v>
       </c>
@@ -35551,8 +36876,11 @@
       <c r="Y439" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="440" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z439" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>476</v>
       </c>
@@ -35625,8 +36953,11 @@
       <c r="Y440" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="441" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z440" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>477</v>
       </c>
@@ -35699,8 +37030,11 @@
       <c r="Y441" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="442" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z441" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>478</v>
       </c>
@@ -35776,8 +37110,11 @@
       <c r="Y442" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="443" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z442" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="443" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>480</v>
       </c>
@@ -35850,8 +37187,11 @@
       <c r="Y443" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="444" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z443" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>481</v>
       </c>
@@ -35927,8 +37267,11 @@
       <c r="Y444" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="445" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z444" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>482</v>
       </c>
@@ -36001,8 +37344,11 @@
       <c r="Y445" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="446" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z445" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="446" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>483</v>
       </c>
@@ -36075,8 +37421,11 @@
       <c r="Y446" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="447" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z446" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>484</v>
       </c>
@@ -36149,8 +37498,11 @@
       <c r="Y447">
         <v>4</v>
       </c>
-    </row>
-    <row r="448" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z447" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>485</v>
       </c>
@@ -36223,8 +37575,11 @@
       <c r="Y448" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="449" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z448" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>486</v>
       </c>
@@ -36297,8 +37652,11 @@
       <c r="Y449" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="450" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z449" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>487</v>
       </c>
@@ -36371,8 +37729,11 @@
       <c r="Y450" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="451" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z450" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>488</v>
       </c>
@@ -36445,8 +37806,11 @@
       <c r="Y451" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="452" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z451" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>489</v>
       </c>
@@ -36519,8 +37883,11 @@
       <c r="Y452" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="453" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z452" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>492</v>
       </c>
@@ -36593,8 +37960,11 @@
       <c r="Y453" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="454" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z453" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>493</v>
       </c>
@@ -36667,8 +38037,11 @@
       <c r="Y454" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="455" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z454" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>494</v>
       </c>
@@ -36741,8 +38114,11 @@
       <c r="Y455" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="456" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z455" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>495</v>
       </c>
@@ -36815,8 +38191,11 @@
       <c r="Y456" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="457" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z456" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>496</v>
       </c>
@@ -36892,8 +38271,11 @@
       <c r="Y457" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="458" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z457" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>497</v>
       </c>
@@ -36966,8 +38348,11 @@
       <c r="Y458" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="459" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z458" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>498</v>
       </c>
@@ -37040,8 +38425,11 @@
       <c r="Y459" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="460" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z459" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>499</v>
       </c>
@@ -37114,8 +38502,11 @@
       <c r="Y460" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="461" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z460" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>500</v>
       </c>
@@ -37188,8 +38579,11 @@
       <c r="Y461" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="462" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z461" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>501</v>
       </c>
@@ -37262,8 +38656,11 @@
       <c r="Y462" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="463" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z462" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>502</v>
       </c>
@@ -37336,8 +38733,11 @@
       <c r="Y463" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="464" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z463" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>503</v>
       </c>
@@ -37410,8 +38810,11 @@
       <c r="Y464" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="465" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z464" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>504</v>
       </c>
@@ -37484,8 +38887,11 @@
       <c r="Y465" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="466" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z465" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>505</v>
       </c>
@@ -37558,8 +38964,11 @@
       <c r="Y466" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="467" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z466" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>506</v>
       </c>
@@ -37632,8 +39041,11 @@
       <c r="Y467" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="468" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z467" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>507</v>
       </c>
@@ -37709,8 +39121,11 @@
       <c r="Y468" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="469" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z468" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>508</v>
       </c>
@@ -37786,8 +39201,11 @@
       <c r="Y469" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="470" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z469" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>509</v>
       </c>
@@ -37860,8 +39278,11 @@
       <c r="Y470" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="471" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z470" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>510</v>
       </c>
@@ -37934,8 +39355,11 @@
       <c r="Y471" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="472" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z471" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>511</v>
       </c>
@@ -38008,8 +39432,11 @@
       <c r="Y472" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="473" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z472" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>512</v>
       </c>
@@ -38082,8 +39509,11 @@
       <c r="Y473" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="474" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z473" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>513</v>
       </c>
@@ -38156,8 +39586,11 @@
       <c r="Y474" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="475" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z474" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="475" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>514</v>
       </c>
@@ -38233,8 +39666,11 @@
       <c r="Y475" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="476" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z475" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>515</v>
       </c>
@@ -38307,8 +39743,11 @@
       <c r="Y476" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="477" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z476" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>516</v>
       </c>
@@ -38381,8 +39820,11 @@
       <c r="Y477" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="478" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z477" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>517</v>
       </c>
@@ -38455,8 +39897,11 @@
       <c r="Y478" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="479" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z478" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>518</v>
       </c>
@@ -38529,8 +39974,11 @@
       <c r="Y479" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="480" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z479" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>519</v>
       </c>
@@ -38603,8 +40051,11 @@
       <c r="Y480" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="481" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z480" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>520</v>
       </c>
@@ -38677,8 +40128,11 @@
       <c r="Y481" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="482" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z481" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>521</v>
       </c>
@@ -38751,8 +40205,11 @@
       <c r="Y482" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="483" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z482" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>522</v>
       </c>
@@ -38825,8 +40282,11 @@
       <c r="Y483" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="484" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z483" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>523</v>
       </c>
@@ -38899,8 +40359,11 @@
       <c r="Y484" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="485" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z484" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>524</v>
       </c>
@@ -38973,8 +40436,11 @@
       <c r="Y485" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="486" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z485" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>525</v>
       </c>
@@ -39047,8 +40513,11 @@
       <c r="Y486">
         <v>4</v>
       </c>
-    </row>
-    <row r="487" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z486" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>526</v>
       </c>
@@ -39121,8 +40590,11 @@
       <c r="Y487" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="488" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z487" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>527</v>
       </c>
@@ -39198,8 +40670,11 @@
       <c r="Y488">
         <v>4</v>
       </c>
-    </row>
-    <row r="489" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z488" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>528</v>
       </c>
@@ -39272,8 +40747,11 @@
       <c r="Y489" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="490" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z489" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>529</v>
       </c>
@@ -39346,8 +40824,11 @@
       <c r="Y490" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="491" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z490" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="491" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>530</v>
       </c>
@@ -39420,8 +40901,11 @@
       <c r="Y491" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="492" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z491" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>531</v>
       </c>
@@ -39494,8 +40978,11 @@
       <c r="Y492" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="493" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z492" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>532</v>
       </c>
@@ -39568,8 +41055,11 @@
       <c r="Y493" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="494" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z493" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>533</v>
       </c>
@@ -39642,8 +41132,11 @@
       <c r="Y494" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="495" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z494" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>534</v>
       </c>
@@ -39719,8 +41212,11 @@
       <c r="Y495" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="496" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z495" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="496" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>536</v>
       </c>
@@ -39793,8 +41289,11 @@
       <c r="Y496" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="497" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z496" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>537</v>
       </c>
@@ -39867,8 +41366,11 @@
       <c r="Y497" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="498" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z497" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>538</v>
       </c>
@@ -39941,8 +41443,11 @@
       <c r="Y498" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="499" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z498" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>539</v>
       </c>
@@ -40015,8 +41520,11 @@
       <c r="Y499" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="500" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z499" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>540</v>
       </c>
@@ -40089,8 +41597,11 @@
       <c r="Y500" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="501" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z500" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>541</v>
       </c>
@@ -40163,8 +41674,11 @@
       <c r="Y501" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="502" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z501" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>542</v>
       </c>
@@ -40237,8 +41751,11 @@
       <c r="Y502" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="503" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z502" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>543</v>
       </c>
@@ -40311,8 +41828,11 @@
       <c r="Y503" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="504" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z503" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>544</v>
       </c>
@@ -40385,8 +41905,11 @@
       <c r="Y504" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="505" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z504" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>545</v>
       </c>
@@ -40459,8 +41982,11 @@
       <c r="Y505" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="506" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z505" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>546</v>
       </c>
@@ -40533,8 +42059,11 @@
       <c r="Y506" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="507" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z506" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>547</v>
       </c>
@@ -40607,8 +42136,11 @@
       <c r="Y507" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="508" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z507" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>548</v>
       </c>
@@ -40681,8 +42213,11 @@
       <c r="Y508" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="509" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z508" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>549</v>
       </c>
@@ -40755,8 +42290,11 @@
       <c r="Y509" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="510" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z509" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>550</v>
       </c>
@@ -40829,8 +42367,11 @@
       <c r="Y510" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="511" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z510" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>551</v>
       </c>
@@ -40903,8 +42444,11 @@
       <c r="Y511" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="512" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z511" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>552</v>
       </c>
@@ -40977,8 +42521,11 @@
       <c r="Y512" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="513" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z512" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>553</v>
       </c>
@@ -41051,8 +42598,11 @@
       <c r="Y513" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="514" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z513" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>554</v>
       </c>
@@ -41125,8 +42675,11 @@
       <c r="Y514" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="515" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z514" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>555</v>
       </c>
@@ -41199,8 +42752,11 @@
       <c r="Y515" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="516" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z515" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>556</v>
       </c>
@@ -41273,8 +42829,11 @@
       <c r="Y516" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="517" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z516" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>557</v>
       </c>
@@ -41350,8 +42909,11 @@
       <c r="Y517">
         <v>2</v>
       </c>
-    </row>
-    <row r="518" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z517" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="518" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>558</v>
       </c>
@@ -41427,8 +42989,11 @@
       <c r="Y518" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="519" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z518" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>560</v>
       </c>
@@ -41501,8 +43066,11 @@
       <c r="Y519" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="520" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z519" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>561</v>
       </c>
@@ -41575,8 +43143,11 @@
       <c r="Y520" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="521" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z520" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>562</v>
       </c>
@@ -41649,8 +43220,11 @@
       <c r="Y521" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="522" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z521" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>563</v>
       </c>
@@ -41723,8 +43297,11 @@
       <c r="Y522" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="523" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z522" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>564</v>
       </c>
@@ -41797,8 +43374,11 @@
       <c r="Y523" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="524" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z523" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>565</v>
       </c>
@@ -41871,8 +43451,11 @@
       <c r="Y524" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="525" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z524" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>566</v>
       </c>
@@ -41945,8 +43528,11 @@
       <c r="Y525" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="526" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z525" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>567</v>
       </c>
@@ -42019,8 +43605,11 @@
       <c r="Y526" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="527" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z526" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>568</v>
       </c>
@@ -42093,8 +43682,11 @@
       <c r="Y527" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="528" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z527" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>569</v>
       </c>
@@ -42170,8 +43762,11 @@
       <c r="Y528" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="529" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z528" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>570</v>
       </c>
@@ -42244,8 +43839,11 @@
       <c r="Y529" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="530" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z529" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>571</v>
       </c>
@@ -42318,8 +43916,11 @@
       <c r="Y530" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="531" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z530" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>572</v>
       </c>
@@ -42392,8 +43993,11 @@
       <c r="Y531" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="532" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z531" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>573</v>
       </c>
@@ -42469,8 +44073,11 @@
       <c r="Y532" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="533" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z532" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>574</v>
       </c>
@@ -42543,8 +44150,11 @@
       <c r="Y533" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="534" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z533" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>575</v>
       </c>
@@ -42617,8 +44227,11 @@
       <c r="Y534" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="535" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z534" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>576</v>
       </c>
@@ -42691,8 +44304,11 @@
       <c r="Y535" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="536" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z535" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>577</v>
       </c>
@@ -42765,8 +44381,11 @@
       <c r="Y536" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="537" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z536" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>578</v>
       </c>
@@ -42839,8 +44458,11 @@
       <c r="Y537" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="538" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z537" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>579</v>
       </c>
@@ -42913,8 +44535,11 @@
       <c r="Y538" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="539" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z538" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>580</v>
       </c>
@@ -42987,8 +44612,11 @@
       <c r="Y539" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="540" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z539" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>581</v>
       </c>
@@ -43061,8 +44689,11 @@
       <c r="Y540" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="541" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z540" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>582</v>
       </c>
@@ -43135,8 +44766,11 @@
       <c r="Y541" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="542" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z541" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>583</v>
       </c>
@@ -43209,8 +44843,11 @@
       <c r="Y542">
         <v>1</v>
       </c>
-    </row>
-    <row r="543" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z542" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>586</v>
       </c>
@@ -43283,8 +44920,11 @@
       <c r="Y543" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="544" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z543" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>587</v>
       </c>
@@ -43357,8 +44997,11 @@
       <c r="Y544">
         <v>1</v>
       </c>
-    </row>
-    <row r="545" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z544" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>588</v>
       </c>
@@ -43431,8 +45074,11 @@
       <c r="Y545" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="546" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z545" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>589</v>
       </c>
@@ -43505,8 +45151,11 @@
       <c r="Y546">
         <v>1</v>
       </c>
-    </row>
-    <row r="547" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z546" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>590</v>
       </c>
@@ -43579,8 +45228,11 @@
       <c r="Y547" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="548" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z547" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>591</v>
       </c>
@@ -43653,8 +45305,11 @@
       <c r="Y548" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="549" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z548" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>592</v>
       </c>
@@ -43727,8 +45382,11 @@
       <c r="Y549" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="550" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z549" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>593</v>
       </c>
@@ -43801,8 +45459,11 @@
       <c r="Y550" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="551" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z550" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>594</v>
       </c>
@@ -43875,8 +45536,11 @@
       <c r="Y551" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="552" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z551" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>595</v>
       </c>
@@ -43949,8 +45613,11 @@
       <c r="Y552" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="553" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z552" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="553" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>596</v>
       </c>
@@ -44023,8 +45690,11 @@
       <c r="Y553" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="554" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z553" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>597</v>
       </c>
@@ -44097,8 +45767,11 @@
       <c r="Y554" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="555" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z554" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>598</v>
       </c>
@@ -44171,8 +45844,11 @@
       <c r="Y555" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="556" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z555" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>599</v>
       </c>
@@ -44245,8 +45921,11 @@
       <c r="Y556" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="557" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z556" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>600</v>
       </c>
@@ -44319,8 +45998,11 @@
       <c r="Y557" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="558" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z557" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="558" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>601</v>
       </c>
@@ -44393,8 +46075,11 @@
       <c r="Y558">
         <v>1</v>
       </c>
-    </row>
-    <row r="559" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>602</v>
       </c>
@@ -44467,8 +46152,11 @@
       <c r="Y559" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="560" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z559">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>603</v>
       </c>
@@ -44541,8 +46229,11 @@
       <c r="Y560" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="561" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z560" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>604</v>
       </c>
@@ -44615,8 +46306,11 @@
       <c r="Y561" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="562" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>605</v>
       </c>
@@ -44689,8 +46383,11 @@
       <c r="Y562" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="563" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z562" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>606</v>
       </c>
@@ -44763,8 +46460,11 @@
       <c r="Y563">
         <v>1</v>
       </c>
-    </row>
-    <row r="564" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z563">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>607</v>
       </c>
@@ -44837,8 +46537,11 @@
       <c r="Y564" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="565" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z564" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>608</v>
       </c>
@@ -44911,8 +46614,11 @@
       <c r="Y565">
         <v>1</v>
       </c>
-    </row>
-    <row r="566" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>609</v>
       </c>
@@ -44985,8 +46691,11 @@
       <c r="Y566" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="567" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z566" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="567" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>610</v>
       </c>
@@ -45059,8 +46768,11 @@
       <c r="Y567">
         <v>2</v>
       </c>
-    </row>
-    <row r="568" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>611</v>
       </c>
@@ -45133,8 +46845,11 @@
       <c r="Y568" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="569" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z568" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>612</v>
       </c>
@@ -45207,8 +46922,11 @@
       <c r="Y569">
         <v>2</v>
       </c>
-    </row>
-    <row r="570" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z569">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>613</v>
       </c>
@@ -45281,8 +46999,11 @@
       <c r="Y570" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="571" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z570" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>614</v>
       </c>
@@ -45355,8 +47076,11 @@
       <c r="Y571">
         <v>1</v>
       </c>
-    </row>
-    <row r="572" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>615</v>
       </c>
@@ -45429,8 +47153,11 @@
       <c r="Y572" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="573" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z572" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>616</v>
       </c>
@@ -45503,8 +47230,11 @@
       <c r="Y573">
         <v>1</v>
       </c>
-    </row>
-    <row r="574" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>617</v>
       </c>
@@ -45577,8 +47307,11 @@
       <c r="Y574" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="575" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z574" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="575" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>618</v>
       </c>
@@ -45651,8 +47384,11 @@
       <c r="Y575">
         <v>1</v>
       </c>
-    </row>
-    <row r="576" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z575" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="576" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>619</v>
       </c>
@@ -45725,8 +47461,11 @@
       <c r="Y576" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="577" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z576" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="577" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>620</v>
       </c>
@@ -45799,8 +47538,11 @@
       <c r="Y577">
         <v>1</v>
       </c>
-    </row>
-    <row r="578" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>621</v>
       </c>
@@ -45873,8 +47615,11 @@
       <c r="Y578" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="579" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z578" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>622</v>
       </c>
@@ -45947,8 +47692,11 @@
       <c r="Y579">
         <v>2</v>
       </c>
-    </row>
-    <row r="580" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z579">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>623</v>
       </c>
@@ -46021,8 +47769,11 @@
       <c r="Y580" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="581" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z580" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>624</v>
       </c>
@@ -46095,8 +47846,11 @@
       <c r="Y581">
         <v>1</v>
       </c>
-    </row>
-    <row r="582" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>625</v>
       </c>
@@ -46169,8 +47923,11 @@
       <c r="Y582" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="583" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z582" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>626</v>
       </c>
@@ -46243,8 +48000,11 @@
       <c r="Y583">
         <v>1</v>
       </c>
-    </row>
-    <row r="584" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z583" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="584" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>627</v>
       </c>
@@ -46317,8 +48077,11 @@
       <c r="Y584" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="585" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z584" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>628</v>
       </c>
@@ -46391,8 +48154,11 @@
       <c r="Y585">
         <v>2</v>
       </c>
-    </row>
-    <row r="586" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z585">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>629</v>
       </c>
@@ -46465,8 +48231,11 @@
       <c r="Y586" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="587" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z586" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>630</v>
       </c>
@@ -46539,8 +48308,11 @@
       <c r="Y587">
         <v>2</v>
       </c>
-    </row>
-    <row r="588" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z587">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>631</v>
       </c>
@@ -46613,8 +48385,11 @@
       <c r="Y588" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="589" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z588" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="589" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>632</v>
       </c>
@@ -46687,8 +48462,11 @@
       <c r="Y589" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="590" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z589" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="590" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>633</v>
       </c>
@@ -46761,8 +48539,11 @@
       <c r="Y590" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="591" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z590" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>634</v>
       </c>
@@ -46835,8 +48616,11 @@
       <c r="Y591">
         <v>1</v>
       </c>
-    </row>
-    <row r="592" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z591">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>635</v>
       </c>
@@ -46909,8 +48693,11 @@
       <c r="Y592" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="593" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z592" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>636</v>
       </c>
@@ -46983,8 +48770,11 @@
       <c r="Y593">
         <v>3</v>
       </c>
-    </row>
-    <row r="594" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z593">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>637</v>
       </c>
@@ -47057,8 +48847,11 @@
       <c r="Y594" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="595" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z594" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>638</v>
       </c>
@@ -47131,8 +48924,11 @@
       <c r="Y595">
         <v>2</v>
       </c>
-    </row>
-    <row r="596" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z595">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>639</v>
       </c>
@@ -47205,8 +49001,11 @@
       <c r="Y596" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="597" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z596" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>640</v>
       </c>
@@ -47279,8 +49078,11 @@
       <c r="Y597">
         <v>2</v>
       </c>
-    </row>
-    <row r="598" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z597">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>641</v>
       </c>
@@ -47353,8 +49155,11 @@
       <c r="Y598" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="599" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z598" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>642</v>
       </c>
@@ -47427,8 +49232,11 @@
       <c r="Y599">
         <v>2</v>
       </c>
-    </row>
-    <row r="600" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z599">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>643</v>
       </c>
@@ -47501,8 +49309,11 @@
       <c r="Y600" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="601" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z600" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>644</v>
       </c>
@@ -47575,8 +49386,11 @@
       <c r="Y601">
         <v>0</v>
       </c>
-    </row>
-    <row r="602" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z601" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="602" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>645</v>
       </c>
@@ -47649,8 +49463,11 @@
       <c r="Y602" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="603" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z602" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>646</v>
       </c>
@@ -47723,8 +49540,11 @@
       <c r="Y603" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="604" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z603" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="604" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>647</v>
       </c>
@@ -47797,8 +49617,11 @@
       <c r="Y604" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="605" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z604" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="605" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>648</v>
       </c>
@@ -47871,8 +49694,11 @@
       <c r="Y605" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="606" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z605" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="606" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>649</v>
       </c>
@@ -47945,8 +49771,11 @@
       <c r="Y606" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="607" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z606" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>650</v>
       </c>
@@ -48019,8 +49848,11 @@
       <c r="Y607" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="608" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z607" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>651</v>
       </c>
@@ -48093,8 +49925,11 @@
       <c r="Y608" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="609" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z608" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>652</v>
       </c>
@@ -48167,8 +50002,11 @@
       <c r="Y609" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="610" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z609" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>653</v>
       </c>
@@ -48241,8 +50079,11 @@
       <c r="Y610" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="611" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z610" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>654</v>
       </c>
@@ -48315,8 +50156,11 @@
       <c r="Y611" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="612" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z611" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>655</v>
       </c>
@@ -48389,8 +50233,11 @@
       <c r="Y612" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="613" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z612" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="613" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>656</v>
       </c>
@@ -48463,8 +50310,11 @@
       <c r="Y613" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="614" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z613" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>657</v>
       </c>
@@ -48537,8 +50387,11 @@
       <c r="Y614" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="615" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z614" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>658</v>
       </c>
@@ -48611,8 +50464,11 @@
       <c r="Y615" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="616" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z615" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>659</v>
       </c>
@@ -48685,8 +50541,11 @@
       <c r="Y616" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="617" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z616" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>660</v>
       </c>
@@ -48759,8 +50618,11 @@
       <c r="Y617" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="618" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z617" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>661</v>
       </c>
@@ -48833,8 +50695,11 @@
       <c r="Y618">
         <v>2</v>
       </c>
-    </row>
-    <row r="619" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z618">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>662</v>
       </c>
@@ -48907,8 +50772,11 @@
       <c r="Y619" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="620" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z619" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>663</v>
       </c>
@@ -48984,8 +50852,11 @@
       <c r="Y620" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="621" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z620" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="621" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>664</v>
       </c>
@@ -49058,8 +50929,11 @@
       <c r="Y621" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="622" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z621" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="622" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>665</v>
       </c>
@@ -49132,8 +51006,11 @@
       <c r="Y622">
         <v>3</v>
       </c>
-    </row>
-    <row r="623" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z622">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="623" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>666</v>
       </c>
@@ -49206,8 +51083,11 @@
       <c r="Y623" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="624" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z623" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="624" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>667</v>
       </c>
@@ -49280,8 +51160,11 @@
       <c r="Y624">
         <v>3</v>
       </c>
-    </row>
-    <row r="625" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z624">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="625" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>668</v>
       </c>
@@ -49354,8 +51237,11 @@
       <c r="Y625" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="626" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z625" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>669</v>
       </c>
@@ -49428,8 +51314,11 @@
       <c r="Y626">
         <v>2</v>
       </c>
-    </row>
-    <row r="627" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z626">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="627" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>670</v>
       </c>
@@ -49502,8 +51391,11 @@
       <c r="Y627" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="628" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z627" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>671</v>
       </c>
@@ -49576,8 +51468,11 @@
       <c r="Y628">
         <v>2</v>
       </c>
-    </row>
-    <row r="629" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z628">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>672</v>
       </c>
@@ -49650,8 +51545,11 @@
       <c r="Y629" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="630" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z629" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="630" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>673</v>
       </c>
@@ -49724,8 +51622,11 @@
       <c r="Y630">
         <v>3</v>
       </c>
-    </row>
-    <row r="631" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z630">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>674</v>
       </c>
@@ -49798,8 +51699,12 @@
       <c r="Y631" s="1">
         <v>2</v>
       </c>
+      <c r="Z631" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/phenological_monitoring.xlsx
+++ b/data/phenological_monitoring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\Fuelinex\fuelinex\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E67982F-C99E-4F92-B7A8-23807ED9A934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A33E51-090A-0444-8CF2-F98F77598DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3972" uniqueCount="681">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2077,6 +2077,9 @@
   <si>
     <t>na</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>doy171: dead</t>
   </si>
 </sst>
 </file>
@@ -2087,28 +2090,28 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2116,7 +2119,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2124,7 +2127,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2132,14 +2135,14 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2147,7 +2150,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2155,7 +2158,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2163,28 +2166,28 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2192,14 +2195,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <charset val="1"/>
       <scheme val="major"/>
@@ -2208,27 +2211,27 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2968,20 +2971,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z631"/>
+  <dimension ref="A1:AA631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A610" zoomScale="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A602" zoomScale="191" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA616" sqref="AA616"/>
+      <selection pane="topRight" activeCell="AC616" sqref="AC616"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3060,8 +3063,11 @@
       <c r="Z1" s="1">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA1" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3138,7 +3144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3215,7 +3221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3292,7 +3298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3369,7 +3375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3600,7 +3606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3677,7 +3683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3754,7 +3760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3831,7 +3837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -3908,7 +3914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3985,7 +3991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -4062,7 +4068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4139,7 +4145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -4216,7 +4222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4293,7 +4299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -4370,7 +4376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4447,7 +4453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -4524,7 +4530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4601,7 +4607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -4678,7 +4684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -4755,7 +4761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -4832,7 +4838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -4909,7 +4915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -4986,7 +4992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -5063,7 +5069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -5140,7 +5146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -5217,7 +5223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -5294,7 +5300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -5371,7 +5377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -5448,7 +5454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -5525,7 +5531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -5602,7 +5608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -5679,7 +5685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -5756,7 +5762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -5833,7 +5839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -5910,7 +5916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -5987,7 +5993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -6064,7 +6070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -6141,7 +6147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -6218,7 +6224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -6295,7 +6301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -6372,7 +6378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -6449,7 +6455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -6526,7 +6532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -6603,7 +6609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -6680,7 +6686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -6757,7 +6763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -6834,7 +6840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -6911,7 +6917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -6988,7 +6994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -7065,7 +7071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -7142,7 +7148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -7219,7 +7225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -7296,7 +7302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -7373,7 +7379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -7450,7 +7456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -7527,7 +7533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -7604,7 +7610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -7681,7 +7687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -7758,7 +7764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -7835,7 +7841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -7912,7 +7918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -7989,7 +7995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -8066,7 +8072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -8143,7 +8149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -8220,7 +8226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -8297,7 +8303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -8374,7 +8380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -8451,7 +8457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -8528,7 +8534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -8605,7 +8611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
@@ -8682,7 +8688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -8759,7 +8765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -8836,7 +8842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -8913,7 +8919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
@@ -8990,7 +8996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -9067,7 +9073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>93</v>
       </c>
@@ -9144,7 +9150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -9221,7 +9227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>95</v>
       </c>
@@ -9298,7 +9304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -9375,7 +9381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>97</v>
       </c>
@@ -9452,7 +9458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -9529,7 +9535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
@@ -9606,7 +9612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -9683,7 +9689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>101</v>
       </c>
@@ -9760,7 +9766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -9837,7 +9843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>103</v>
       </c>
@@ -9914,7 +9920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -9991,7 +9997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>105</v>
       </c>
@@ -10068,7 +10074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -10145,7 +10151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>109</v>
       </c>
@@ -10222,7 +10228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -10302,7 +10308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>112</v>
       </c>
@@ -10379,7 +10385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -10456,7 +10462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>114</v>
       </c>
@@ -10533,7 +10539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -10610,7 +10616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>116</v>
       </c>
@@ -10687,7 +10693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -10764,7 +10770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>118</v>
       </c>
@@ -10841,7 +10847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -10918,7 +10924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>120</v>
       </c>
@@ -10995,7 +11001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -11072,7 +11078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -11149,7 +11155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -11226,7 +11232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -11303,7 +11309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -11383,7 +11389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -11460,7 +11466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -11537,7 +11543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -11614,7 +11620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -11691,7 +11697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>130</v>
       </c>
@@ -11768,7 +11774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -11845,7 +11851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>132</v>
       </c>
@@ -11922,7 +11928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -11999,7 +12005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -12076,7 +12082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>135</v>
       </c>
@@ -12153,7 +12159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -12230,7 +12236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>137</v>
       </c>
@@ -12310,7 +12316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -12387,7 +12393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>139</v>
       </c>
@@ -12464,7 +12470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -12541,7 +12547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>141</v>
       </c>
@@ -12618,7 +12624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -12695,7 +12701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>143</v>
       </c>
@@ -12772,7 +12778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -12849,7 +12855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>145</v>
       </c>
@@ -12926,7 +12932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -13003,7 +13009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>147</v>
       </c>
@@ -13080,7 +13086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -13157,7 +13163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>149</v>
       </c>
@@ -13234,7 +13240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -13311,7 +13317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>151</v>
       </c>
@@ -13388,7 +13394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -13465,7 +13471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>153</v>
       </c>
@@ -13542,7 +13548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -13619,7 +13625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>155</v>
       </c>
@@ -13696,7 +13702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>156</v>
       </c>
@@ -13773,7 +13779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -13850,7 +13856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>158</v>
       </c>
@@ -13927,7 +13933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -14004,7 +14010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>160</v>
       </c>
@@ -14081,7 +14087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -14158,7 +14164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>162</v>
       </c>
@@ -14235,7 +14241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -14312,7 +14318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>164</v>
       </c>
@@ -14389,7 +14395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -14466,7 +14472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>166</v>
       </c>
@@ -14543,7 +14549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -14620,7 +14626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>168</v>
       </c>
@@ -14697,7 +14703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>169</v>
       </c>
@@ -14774,7 +14780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>170</v>
       </c>
@@ -14851,7 +14857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>171</v>
       </c>
@@ -14928,7 +14934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>172</v>
       </c>
@@ -15005,7 +15011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -15082,7 +15088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>174</v>
       </c>
@@ -15159,7 +15165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>175</v>
       </c>
@@ -15236,7 +15242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>176</v>
       </c>
@@ -15313,7 +15319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -15390,7 +15396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>178</v>
       </c>
@@ -15467,7 +15473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>179</v>
       </c>
@@ -15544,7 +15550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>180</v>
       </c>
@@ -15621,7 +15627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -15698,7 +15704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>182</v>
       </c>
@@ -15775,7 +15781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -15852,7 +15858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>184</v>
       </c>
@@ -15929,7 +15935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -16006,7 +16012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>186</v>
       </c>
@@ -16083,7 +16089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -16160,7 +16166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>188</v>
       </c>
@@ -16237,7 +16243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>189</v>
       </c>
@@ -16314,7 +16320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>190</v>
       </c>
@@ -16391,7 +16397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -16468,7 +16474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>192</v>
       </c>
@@ -16545,7 +16551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>193</v>
       </c>
@@ -16622,7 +16628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>194</v>
       </c>
@@ -16699,7 +16705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>195</v>
       </c>
@@ -16776,7 +16782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>196</v>
       </c>
@@ -16853,7 +16859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>197</v>
       </c>
@@ -16930,7 +16936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>198</v>
       </c>
@@ -17007,7 +17013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -17084,7 +17090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>202</v>
       </c>
@@ -17161,7 +17167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -17238,7 +17244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>204</v>
       </c>
@@ -17318,7 +17324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -17395,7 +17401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -17472,7 +17478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>208</v>
       </c>
@@ -17549,7 +17555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -17629,7 +17635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>210</v>
       </c>
@@ -17706,7 +17712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -17783,7 +17789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>212</v>
       </c>
@@ -17860,7 +17866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -17940,7 +17946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>215</v>
       </c>
@@ -18017,7 +18023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -18094,7 +18100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>217</v>
       </c>
@@ -18171,7 +18177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -18251,7 +18257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>220</v>
       </c>
@@ -18328,7 +18334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -18408,7 +18414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>222</v>
       </c>
@@ -18485,7 +18491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -18562,7 +18568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>224</v>
       </c>
@@ -18639,7 +18645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -18716,7 +18722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>226</v>
       </c>
@@ -18796,7 +18802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -18873,7 +18879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>228</v>
       </c>
@@ -18950,7 +18956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -19030,7 +19036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>230</v>
       </c>
@@ -19107,7 +19113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -19184,7 +19190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -19264,7 +19270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>233</v>
       </c>
@@ -19341,7 +19347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -19418,7 +19424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>235</v>
       </c>
@@ -19495,7 +19501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>236</v>
       </c>
@@ -19572,7 +19578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>237</v>
       </c>
@@ -19652,7 +19658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>238</v>
       </c>
@@ -19729,7 +19735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>239</v>
       </c>
@@ -19806,7 +19812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -19883,7 +19889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>241</v>
       </c>
@@ -19960,7 +19966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -20037,7 +20043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>243</v>
       </c>
@@ -20114,7 +20120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -20194,7 +20200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>245</v>
       </c>
@@ -20271,7 +20277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -20351,7 +20357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>247</v>
       </c>
@@ -20428,7 +20434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -20505,7 +20511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>249</v>
       </c>
@@ -20582,7 +20588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -20659,7 +20665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>251</v>
       </c>
@@ -20736,7 +20742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -20813,7 +20819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>253</v>
       </c>
@@ -20890,7 +20896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -20967,7 +20973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>255</v>
       </c>
@@ -21044,7 +21050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -21121,7 +21127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>257</v>
       </c>
@@ -21198,7 +21204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -21275,7 +21281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>259</v>
       </c>
@@ -21352,7 +21358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -21429,7 +21435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>261</v>
       </c>
@@ -21506,7 +21512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -21583,7 +21589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>263</v>
       </c>
@@ -21660,7 +21666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -21737,7 +21743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>265</v>
       </c>
@@ -21814,7 +21820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -21891,7 +21897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>267</v>
       </c>
@@ -21968,7 +21974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -22045,7 +22051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>269</v>
       </c>
@@ -22122,7 +22128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -22199,7 +22205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>271</v>
       </c>
@@ -22276,7 +22282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>272</v>
       </c>
@@ -22353,7 +22359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>273</v>
       </c>
@@ -22430,7 +22436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -22507,7 +22513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>275</v>
       </c>
@@ -22584,7 +22590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -22661,7 +22667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>277</v>
       </c>
@@ -22738,7 +22744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -22815,7 +22821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>279</v>
       </c>
@@ -22892,7 +22898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>280</v>
       </c>
@@ -22969,7 +22975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>281</v>
       </c>
@@ -23046,7 +23052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>282</v>
       </c>
@@ -23123,7 +23129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>283</v>
       </c>
@@ -23200,7 +23206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>284</v>
       </c>
@@ -23277,7 +23283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>285</v>
       </c>
@@ -23354,7 +23360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>286</v>
       </c>
@@ -23431,7 +23437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -23508,7 +23514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>288</v>
       </c>
@@ -23585,7 +23591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -23662,7 +23668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>290</v>
       </c>
@@ -23739,7 +23745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -23816,7 +23822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>292</v>
       </c>
@@ -23893,7 +23899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -23970,7 +23976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>296</v>
       </c>
@@ -24047,7 +24053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -24124,7 +24130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>298</v>
       </c>
@@ -24201,7 +24207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -24278,7 +24284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>300</v>
       </c>
@@ -24355,7 +24361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -24432,7 +24438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>302</v>
       </c>
@@ -24512,7 +24518,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="280" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -24589,7 +24595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -24666,7 +24672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>305</v>
       </c>
@@ -24743,7 +24749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -24823,7 +24829,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>309</v>
       </c>
@@ -24900,7 +24906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -24977,7 +24983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>311</v>
       </c>
@@ -25054,7 +25060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -25131,7 +25137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>313</v>
       </c>
@@ -25208,7 +25214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -25285,7 +25291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>315</v>
       </c>
@@ -25362,7 +25368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -25439,7 +25445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>317</v>
       </c>
@@ -25516,7 +25522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -25593,7 +25599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>319</v>
       </c>
@@ -25673,7 +25679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -25750,7 +25756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>322</v>
       </c>
@@ -25827,7 +25833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>323</v>
       </c>
@@ -25904,7 +25910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>324</v>
       </c>
@@ -25981,7 +25987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>325</v>
       </c>
@@ -26058,7 +26064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>326</v>
       </c>
@@ -26135,7 +26141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>327</v>
       </c>
@@ -26212,7 +26218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>328</v>
       </c>
@@ -26289,7 +26295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>329</v>
       </c>
@@ -26366,7 +26372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>330</v>
       </c>
@@ -26443,7 +26449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>331</v>
       </c>
@@ -26520,7 +26526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>332</v>
       </c>
@@ -26597,7 +26603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>333</v>
       </c>
@@ -26674,7 +26680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>334</v>
       </c>
@@ -26751,7 +26757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>335</v>
       </c>
@@ -26828,7 +26834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>336</v>
       </c>
@@ -26905,7 +26911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -26982,7 +26988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>338</v>
       </c>
@@ -27059,7 +27065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -27136,7 +27142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>340</v>
       </c>
@@ -27213,7 +27219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -27290,7 +27296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>342</v>
       </c>
@@ -27367,7 +27373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -27444,7 +27450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>344</v>
       </c>
@@ -27521,7 +27527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -27598,7 +27604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>346</v>
       </c>
@@ -27675,7 +27681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -27752,7 +27758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>348</v>
       </c>
@@ -27832,7 +27838,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="323" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>350</v>
       </c>
@@ -27909,7 +27915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>351</v>
       </c>
@@ -27989,7 +27995,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="325" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>353</v>
       </c>
@@ -28066,7 +28072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>354</v>
       </c>
@@ -28143,7 +28149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>355</v>
       </c>
@@ -28220,7 +28226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>356</v>
       </c>
@@ -28297,7 +28303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>357</v>
       </c>
@@ -28374,7 +28380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>358</v>
       </c>
@@ -28451,7 +28457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>359</v>
       </c>
@@ -28528,7 +28534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>360</v>
       </c>
@@ -28605,7 +28611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>361</v>
       </c>
@@ -28682,7 +28688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>362</v>
       </c>
@@ -28759,7 +28765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>363</v>
       </c>
@@ -28836,7 +28842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>364</v>
       </c>
@@ -28913,7 +28919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>365</v>
       </c>
@@ -28990,7 +28996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>366</v>
       </c>
@@ -29067,7 +29073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>367</v>
       </c>
@@ -29144,7 +29150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>368</v>
       </c>
@@ -29221,7 +29227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>369</v>
       </c>
@@ -29298,7 +29304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>370</v>
       </c>
@@ -29375,7 +29381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>371</v>
       </c>
@@ -29452,7 +29458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>372</v>
       </c>
@@ -29529,7 +29535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>373</v>
       </c>
@@ -29606,7 +29612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>374</v>
       </c>
@@ -29683,7 +29689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>375</v>
       </c>
@@ -29760,7 +29766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>376</v>
       </c>
@@ -29837,7 +29843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>377</v>
       </c>
@@ -29914,7 +29920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>378</v>
       </c>
@@ -29991,7 +29997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>379</v>
       </c>
@@ -30068,7 +30074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>380</v>
       </c>
@@ -30145,7 +30151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>381</v>
       </c>
@@ -30222,7 +30228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>382</v>
       </c>
@@ -30299,7 +30305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>383</v>
       </c>
@@ -30379,7 +30385,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="356" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>384</v>
       </c>
@@ -30456,7 +30462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>385</v>
       </c>
@@ -30533,7 +30539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>386</v>
       </c>
@@ -30610,7 +30616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>387</v>
       </c>
@@ -30687,7 +30693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>388</v>
       </c>
@@ -30764,7 +30770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>389</v>
       </c>
@@ -30841,7 +30847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>390</v>
       </c>
@@ -30918,7 +30924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -30995,7 +31001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>394</v>
       </c>
@@ -31072,7 +31078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -31149,7 +31155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>396</v>
       </c>
@@ -31226,7 +31232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -31303,7 +31309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>398</v>
       </c>
@@ -31380,7 +31386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -31460,7 +31466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>400</v>
       </c>
@@ -31537,7 +31543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -31614,7 +31620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>402</v>
       </c>
@@ -31691,7 +31697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -31768,7 +31774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>404</v>
       </c>
@@ -31845,7 +31851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -31922,7 +31928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>406</v>
       </c>
@@ -31999,7 +32005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -32076,7 +32082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>408</v>
       </c>
@@ -32153,7 +32159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -32230,7 +32236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>410</v>
       </c>
@@ -32310,7 +32316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -32387,7 +32393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>413</v>
       </c>
@@ -32464,7 +32470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -32541,7 +32547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>415</v>
       </c>
@@ -32618,7 +32624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -32695,7 +32701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>417</v>
       </c>
@@ -32775,7 +32781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -32852,7 +32858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>419</v>
       </c>
@@ -32929,7 +32935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -33006,7 +33012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>421</v>
       </c>
@@ -33083,7 +33089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -33163,7 +33169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>424</v>
       </c>
@@ -33243,7 +33249,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="393" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -33320,7 +33326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>427</v>
       </c>
@@ -33397,7 +33403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -33474,7 +33480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>429</v>
       </c>
@@ -33551,7 +33557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -33628,7 +33634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -33705,7 +33711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>432</v>
       </c>
@@ -33785,7 +33791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>433</v>
       </c>
@@ -33862,7 +33868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>434</v>
       </c>
@@ -33939,7 +33945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>435</v>
       </c>
@@ -34019,7 +34025,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="403" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>436</v>
       </c>
@@ -34096,7 +34102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>437</v>
       </c>
@@ -34176,7 +34182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>439</v>
       </c>
@@ -34253,7 +34259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -34330,7 +34336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>441</v>
       </c>
@@ -34407,7 +34413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>442</v>
       </c>
@@ -34484,7 +34490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>443</v>
       </c>
@@ -34561,7 +34567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>444</v>
       </c>
@@ -34638,7 +34644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>445</v>
       </c>
@@ -34715,7 +34721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>446</v>
       </c>
@@ -34792,7 +34798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>447</v>
       </c>
@@ -34869,7 +34875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>448</v>
       </c>
@@ -34946,7 +34952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>449</v>
       </c>
@@ -35023,7 +35029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>450</v>
       </c>
@@ -35100,7 +35106,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="417" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>451</v>
       </c>
@@ -35180,7 +35186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>452</v>
       </c>
@@ -35257,7 +35263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>453</v>
       </c>
@@ -35334,7 +35340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>454</v>
       </c>
@@ -35411,7 +35417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>455</v>
       </c>
@@ -35491,7 +35497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>456</v>
       </c>
@@ -35568,7 +35574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>457</v>
       </c>
@@ -35648,7 +35654,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="424" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>459</v>
       </c>
@@ -35725,7 +35731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>460</v>
       </c>
@@ -35802,7 +35808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>461</v>
       </c>
@@ -35879,7 +35885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>462</v>
       </c>
@@ -35956,7 +35962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>463</v>
       </c>
@@ -36033,7 +36039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>464</v>
       </c>
@@ -36113,7 +36119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>466</v>
       </c>
@@ -36190,7 +36196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>467</v>
       </c>
@@ -36267,7 +36273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>468</v>
       </c>
@@ -36344,7 +36350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>469</v>
       </c>
@@ -36421,7 +36427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>470</v>
       </c>
@@ -36498,7 +36504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>471</v>
       </c>
@@ -36575,7 +36581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>472</v>
       </c>
@@ -36652,7 +36658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>473</v>
       </c>
@@ -36729,7 +36735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>474</v>
       </c>
@@ -36803,7 +36809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>475</v>
       </c>
@@ -36880,7 +36886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>476</v>
       </c>
@@ -36957,7 +36963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>477</v>
       </c>
@@ -37034,7 +37040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>478</v>
       </c>
@@ -37114,7 +37120,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="443" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>480</v>
       </c>
@@ -37191,7 +37197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>481</v>
       </c>
@@ -37271,7 +37277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>482</v>
       </c>
@@ -37348,7 +37354,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="446" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>483</v>
       </c>
@@ -37425,7 +37431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>484</v>
       </c>
@@ -37502,7 +37508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>485</v>
       </c>
@@ -37579,7 +37585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>486</v>
       </c>
@@ -37656,7 +37662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>487</v>
       </c>
@@ -37733,7 +37739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>488</v>
       </c>
@@ -37810,7 +37816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>489</v>
       </c>
@@ -37887,7 +37893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="453" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>492</v>
       </c>
@@ -37964,7 +37970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>493</v>
       </c>
@@ -38041,7 +38047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="455" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>494</v>
       </c>
@@ -38118,7 +38124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>495</v>
       </c>
@@ -38195,7 +38201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>496</v>
       </c>
@@ -38275,7 +38281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>497</v>
       </c>
@@ -38352,7 +38358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>498</v>
       </c>
@@ -38429,7 +38435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>499</v>
       </c>
@@ -38506,7 +38512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>500</v>
       </c>
@@ -38583,7 +38589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>501</v>
       </c>
@@ -38660,7 +38666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>502</v>
       </c>
@@ -38737,7 +38743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>503</v>
       </c>
@@ -38814,7 +38820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>504</v>
       </c>
@@ -38891,7 +38897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>505</v>
       </c>
@@ -38968,7 +38974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>506</v>
       </c>
@@ -39045,7 +39051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>507</v>
       </c>
@@ -39125,7 +39131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>508</v>
       </c>
@@ -39205,7 +39211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>509</v>
       </c>
@@ -39282,7 +39288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>510</v>
       </c>
@@ -39359,7 +39365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="472" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>511</v>
       </c>
@@ -39436,7 +39442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="473" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>512</v>
       </c>
@@ -39513,7 +39519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>513</v>
       </c>
@@ -39590,7 +39596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>514</v>
       </c>
@@ -39670,7 +39676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>515</v>
       </c>
@@ -39747,7 +39753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>516</v>
       </c>
@@ -39824,7 +39830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>517</v>
       </c>
@@ -39901,7 +39907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>518</v>
       </c>
@@ -39978,7 +39984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>519</v>
       </c>
@@ -40055,7 +40061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="481" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>520</v>
       </c>
@@ -40132,7 +40138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="482" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>521</v>
       </c>
@@ -40209,7 +40215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="483" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>522</v>
       </c>
@@ -40286,7 +40292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="484" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>523</v>
       </c>
@@ -40363,7 +40369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="485" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>524</v>
       </c>
@@ -40440,7 +40446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>525</v>
       </c>
@@ -40517,7 +40523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>526</v>
       </c>
@@ -40594,7 +40600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="488" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>527</v>
       </c>
@@ -40674,7 +40680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="489" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>528</v>
       </c>
@@ -40751,7 +40757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="490" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>529</v>
       </c>
@@ -40828,7 +40834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="491" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>530</v>
       </c>
@@ -40905,7 +40911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="492" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>531</v>
       </c>
@@ -40982,7 +40988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="493" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>532</v>
       </c>
@@ -41059,7 +41065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="494" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>533</v>
       </c>
@@ -41136,7 +41142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="495" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>534</v>
       </c>
@@ -41216,7 +41222,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="496" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>536</v>
       </c>
@@ -41293,7 +41299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="497" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>537</v>
       </c>
@@ -41370,7 +41376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>538</v>
       </c>
@@ -41447,7 +41453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="499" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>539</v>
       </c>
@@ -41524,7 +41530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="500" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>540</v>
       </c>
@@ -41601,7 +41607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>541</v>
       </c>
@@ -41678,7 +41684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>542</v>
       </c>
@@ -41755,7 +41761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="503" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>543</v>
       </c>
@@ -41832,7 +41838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="504" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>544</v>
       </c>
@@ -41909,7 +41915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="505" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>545</v>
       </c>
@@ -41986,7 +41992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="506" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>546</v>
       </c>
@@ -42063,7 +42069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="507" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>547</v>
       </c>
@@ -42140,7 +42146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="508" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>548</v>
       </c>
@@ -42217,7 +42223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="509" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>549</v>
       </c>
@@ -42294,7 +42300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="510" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>550</v>
       </c>
@@ -42371,7 +42377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="511" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>551</v>
       </c>
@@ -42448,7 +42454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="512" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>552</v>
       </c>
@@ -42525,7 +42531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="513" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>553</v>
       </c>
@@ -42602,7 +42608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="514" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>554</v>
       </c>
@@ -42679,7 +42685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="515" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>555</v>
       </c>
@@ -42756,7 +42762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="516" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>556</v>
       </c>
@@ -42833,7 +42839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="517" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>557</v>
       </c>
@@ -42913,7 +42919,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="518" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>558</v>
       </c>
@@ -42993,7 +42999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="519" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>560</v>
       </c>
@@ -43070,7 +43076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="520" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>561</v>
       </c>
@@ -43147,7 +43153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="521" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>562</v>
       </c>
@@ -43224,7 +43230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="522" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>563</v>
       </c>
@@ -43301,7 +43307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="523" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>564</v>
       </c>
@@ -43378,7 +43384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="524" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>565</v>
       </c>
@@ -43455,7 +43461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="525" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>566</v>
       </c>
@@ -43532,7 +43538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="526" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>567</v>
       </c>
@@ -43609,7 +43615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="527" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>568</v>
       </c>
@@ -43686,7 +43692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="528" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>569</v>
       </c>
@@ -43766,7 +43772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="529" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>570</v>
       </c>
@@ -43843,7 +43849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="530" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>571</v>
       </c>
@@ -43920,7 +43926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="531" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>572</v>
       </c>
@@ -43997,7 +44003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>573</v>
       </c>
@@ -44077,7 +44083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="533" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>574</v>
       </c>
@@ -44154,7 +44160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="534" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>575</v>
       </c>
@@ -44231,7 +44237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="535" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>576</v>
       </c>
@@ -44308,7 +44314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="536" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>577</v>
       </c>
@@ -44385,7 +44391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="537" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>578</v>
       </c>
@@ -44462,7 +44468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="538" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>579</v>
       </c>
@@ -44539,7 +44545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="539" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>580</v>
       </c>
@@ -44616,7 +44622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>581</v>
       </c>
@@ -44693,7 +44699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="541" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>582</v>
       </c>
@@ -44770,7 +44776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="542" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>583</v>
       </c>
@@ -44846,8 +44852,11 @@
       <c r="Z542" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="543" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>586</v>
       </c>
@@ -44923,8 +44932,11 @@
       <c r="Z543" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="544" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA543" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>587</v>
       </c>
@@ -45000,8 +45012,11 @@
       <c r="Z544" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="545" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>588</v>
       </c>
@@ -45077,8 +45092,11 @@
       <c r="Z545" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="546" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA545" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>589</v>
       </c>
@@ -45154,8 +45172,11 @@
       <c r="Z546" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="547" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>590</v>
       </c>
@@ -45231,8 +45252,11 @@
       <c r="Z547" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="548" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA547" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>591</v>
       </c>
@@ -45308,8 +45332,11 @@
       <c r="Z548" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="549" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA548" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>592</v>
       </c>
@@ -45385,8 +45412,11 @@
       <c r="Z549" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="550" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA549" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>593</v>
       </c>
@@ -45462,8 +45492,11 @@
       <c r="Z550" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="551" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA550" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>594</v>
       </c>
@@ -45539,8 +45572,11 @@
       <c r="Z551" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="552" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA551" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>595</v>
       </c>
@@ -45616,8 +45652,11 @@
       <c r="Z552" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="553" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA552" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="553" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>596</v>
       </c>
@@ -45693,8 +45732,11 @@
       <c r="Z553" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="554" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA553" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>597</v>
       </c>
@@ -45770,8 +45812,11 @@
       <c r="Z554" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="555" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA554" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>598</v>
       </c>
@@ -45847,8 +45892,11 @@
       <c r="Z555" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="556" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA555" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>599</v>
       </c>
@@ -45924,8 +45972,11 @@
       <c r="Z556" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="557" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA556" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>600</v>
       </c>
@@ -46001,8 +46052,11 @@
       <c r="Z557" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="558" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA557" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="558" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>601</v>
       </c>
@@ -46078,8 +46132,11 @@
       <c r="Z558">
         <v>1</v>
       </c>
-    </row>
-    <row r="559" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>602</v>
       </c>
@@ -46155,8 +46212,11 @@
       <c r="Z559">
         <v>2</v>
       </c>
-    </row>
-    <row r="560" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA559">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>603</v>
       </c>
@@ -46232,8 +46292,11 @@
       <c r="Z560" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="561" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA560" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>604</v>
       </c>
@@ -46309,8 +46372,11 @@
       <c r="Z561">
         <v>1</v>
       </c>
-    </row>
-    <row r="562" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>605</v>
       </c>
@@ -46386,8 +46452,11 @@
       <c r="Z562" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="563" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA562" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>606</v>
       </c>
@@ -46463,8 +46532,11 @@
       <c r="Z563">
         <v>2</v>
       </c>
-    </row>
-    <row r="564" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA563">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>607</v>
       </c>
@@ -46540,8 +46612,11 @@
       <c r="Z564" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="565" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA564" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>608</v>
       </c>
@@ -46617,8 +46692,11 @@
       <c r="Z565">
         <v>1</v>
       </c>
-    </row>
-    <row r="566" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>609</v>
       </c>
@@ -46694,8 +46772,11 @@
       <c r="Z566" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="567" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA566" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="567" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>610</v>
       </c>
@@ -46771,8 +46852,11 @@
       <c r="Z567">
         <v>2</v>
       </c>
-    </row>
-    <row r="568" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA567">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>611</v>
       </c>
@@ -46848,8 +46932,11 @@
       <c r="Z568" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="569" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA568" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>612</v>
       </c>
@@ -46925,8 +47012,11 @@
       <c r="Z569">
         <v>3</v>
       </c>
-    </row>
-    <row r="570" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA569">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>613</v>
       </c>
@@ -47002,8 +47092,11 @@
       <c r="Z570" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="571" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA570" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>614</v>
       </c>
@@ -47079,8 +47172,11 @@
       <c r="Z571">
         <v>1</v>
       </c>
-    </row>
-    <row r="572" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>615</v>
       </c>
@@ -47156,8 +47252,11 @@
       <c r="Z572" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="573" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA572" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>616</v>
       </c>
@@ -47233,8 +47332,11 @@
       <c r="Z573">
         <v>1</v>
       </c>
-    </row>
-    <row r="574" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>617</v>
       </c>
@@ -47310,8 +47412,11 @@
       <c r="Z574" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="575" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA574" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="575" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>618</v>
       </c>
@@ -47387,8 +47492,11 @@
       <c r="Z575" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="576" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA575" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="576" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>619</v>
       </c>
@@ -47464,8 +47572,11 @@
       <c r="Z576" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="577" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA576" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="577" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>620</v>
       </c>
@@ -47526,23 +47637,26 @@
       <c r="U577">
         <v>1</v>
       </c>
-      <c r="V577">
-        <v>1</v>
-      </c>
-      <c r="W577">
-        <v>1</v>
-      </c>
-      <c r="X577">
-        <v>1</v>
-      </c>
-      <c r="Y577">
-        <v>1</v>
-      </c>
-      <c r="Z577">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="578" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V577" s="1">
+        <v>1</v>
+      </c>
+      <c r="W577" s="4">
+        <v>1</v>
+      </c>
+      <c r="X577" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y577" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z577" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA577" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>621</v>
       </c>
@@ -47618,8 +47732,11 @@
       <c r="Z578" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="579" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA578" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>622</v>
       </c>
@@ -47695,8 +47812,11 @@
       <c r="Z579">
         <v>2</v>
       </c>
-    </row>
-    <row r="580" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA579">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>623</v>
       </c>
@@ -47757,23 +47877,26 @@
       <c r="U580" s="1">
         <v>1</v>
       </c>
-      <c r="V580" s="1">
-        <v>1</v>
-      </c>
-      <c r="W580" s="4">
-        <v>1</v>
-      </c>
-      <c r="X580" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y580" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z580" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="581" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V580">
+        <v>1</v>
+      </c>
+      <c r="W580">
+        <v>1</v>
+      </c>
+      <c r="X580">
+        <v>1</v>
+      </c>
+      <c r="Y580">
+        <v>1</v>
+      </c>
+      <c r="Z580">
+        <v>1</v>
+      </c>
+      <c r="AA580" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>624</v>
       </c>
@@ -47849,8 +47972,11 @@
       <c r="Z581">
         <v>1</v>
       </c>
-    </row>
-    <row r="582" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA581" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>625</v>
       </c>
@@ -47926,8 +48052,11 @@
       <c r="Z582" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="583" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA582" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>626</v>
       </c>
@@ -48003,8 +48132,11 @@
       <c r="Z583" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="584" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA583" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>627</v>
       </c>
@@ -48080,8 +48212,11 @@
       <c r="Z584" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="585" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA584" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>628</v>
       </c>
@@ -48157,8 +48292,11 @@
       <c r="Z585">
         <v>2</v>
       </c>
-    </row>
-    <row r="586" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA585" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>629</v>
       </c>
@@ -48234,8 +48372,11 @@
       <c r="Z586" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="587" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA586" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>630</v>
       </c>
@@ -48311,8 +48452,11 @@
       <c r="Z587">
         <v>2</v>
       </c>
-    </row>
-    <row r="588" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA587">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>631</v>
       </c>
@@ -48388,8 +48532,11 @@
       <c r="Z588" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="589" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA588" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="589" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>632</v>
       </c>
@@ -48465,8 +48612,11 @@
       <c r="Z589" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="590" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA589" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="590" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>633</v>
       </c>
@@ -48542,8 +48692,11 @@
       <c r="Z590" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="591" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA590" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>634</v>
       </c>
@@ -48619,8 +48772,11 @@
       <c r="Z591">
         <v>2</v>
       </c>
-    </row>
-    <row r="592" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA591">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>635</v>
       </c>
@@ -48696,8 +48852,11 @@
       <c r="Z592" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="593" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA592" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>636</v>
       </c>
@@ -48773,8 +48932,11 @@
       <c r="Z593">
         <v>3</v>
       </c>
-    </row>
-    <row r="594" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA593">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>637</v>
       </c>
@@ -48850,8 +49012,11 @@
       <c r="Z594" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="595" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA594" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>638</v>
       </c>
@@ -48927,8 +49092,11 @@
       <c r="Z595">
         <v>3</v>
       </c>
-    </row>
-    <row r="596" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA595">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>639</v>
       </c>
@@ -49004,8 +49172,11 @@
       <c r="Z596" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="597" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA596" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>640</v>
       </c>
@@ -49081,8 +49252,11 @@
       <c r="Z597">
         <v>3</v>
       </c>
-    </row>
-    <row r="598" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA597">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>641</v>
       </c>
@@ -49158,8 +49332,11 @@
       <c r="Z598" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="599" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA598" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>642</v>
       </c>
@@ -49235,8 +49412,11 @@
       <c r="Z599">
         <v>3</v>
       </c>
-    </row>
-    <row r="600" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA599">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>643</v>
       </c>
@@ -49312,8 +49492,11 @@
       <c r="Z600" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="601" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA600" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>644</v>
       </c>
@@ -49389,8 +49572,11 @@
       <c r="Z601" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="602" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA601" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="602" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>645</v>
       </c>
@@ -49466,8 +49652,11 @@
       <c r="Z602" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="603" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA602" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>646</v>
       </c>
@@ -49543,8 +49732,11 @@
       <c r="Z603" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="604" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA603" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="604" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>647</v>
       </c>
@@ -49620,8 +49812,11 @@
       <c r="Z604" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="605" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA604" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="605" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>648</v>
       </c>
@@ -49697,8 +49892,11 @@
       <c r="Z605" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="606" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA605" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="606" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>649</v>
       </c>
@@ -49774,8 +49972,11 @@
       <c r="Z606" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="607" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA606" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>650</v>
       </c>
@@ -49851,8 +50052,11 @@
       <c r="Z607" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="608" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA607" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>651</v>
       </c>
@@ -49928,8 +50132,11 @@
       <c r="Z608" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="609" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA608" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>652</v>
       </c>
@@ -49945,6 +50152,9 @@
       <c r="E609" s="1" t="s">
         <v>585</v>
       </c>
+      <c r="F609" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="G609" s="1" t="s">
         <v>10</v>
       </c>
@@ -50005,8 +50215,11 @@
       <c r="Z609" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="610" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA609" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="610" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>653</v>
       </c>
@@ -50082,8 +50295,11 @@
       <c r="Z610" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="611" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA610" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>654</v>
       </c>
@@ -50159,8 +50375,11 @@
       <c r="Z611" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="612" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA611" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>655</v>
       </c>
@@ -50236,8 +50455,11 @@
       <c r="Z612" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="613" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA612" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="613" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>656</v>
       </c>
@@ -50313,8 +50535,11 @@
       <c r="Z613" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="614" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA613" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>657</v>
       </c>
@@ -50390,8 +50615,11 @@
       <c r="Z614" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="615" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA614" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>658</v>
       </c>
@@ -50467,8 +50695,11 @@
       <c r="Z615" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="616" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA615" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>659</v>
       </c>
@@ -50544,8 +50775,11 @@
       <c r="Z616" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="617" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA616" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>660</v>
       </c>
@@ -50621,8 +50855,11 @@
       <c r="Z617" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="618" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA617" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>661</v>
       </c>
@@ -50698,8 +50935,11 @@
       <c r="Z618">
         <v>2</v>
       </c>
-    </row>
-    <row r="619" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA618">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>662</v>
       </c>
@@ -50775,8 +51015,11 @@
       <c r="Z619" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="620" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA619" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>663</v>
       </c>
@@ -50855,8 +51098,11 @@
       <c r="Z620" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="621" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA620" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="621" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>664</v>
       </c>
@@ -50932,8 +51178,11 @@
       <c r="Z621" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="622" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA621" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="622" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>665</v>
       </c>
@@ -51009,8 +51258,11 @@
       <c r="Z622">
         <v>3</v>
       </c>
-    </row>
-    <row r="623" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA622">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="623" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>666</v>
       </c>
@@ -51086,8 +51338,11 @@
       <c r="Z623" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="624" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA623" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="624" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>667</v>
       </c>
@@ -51163,8 +51418,11 @@
       <c r="Z624">
         <v>3</v>
       </c>
-    </row>
-    <row r="625" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA624">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="625" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>668</v>
       </c>
@@ -51240,8 +51498,11 @@
       <c r="Z625" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="626" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA625" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>669</v>
       </c>
@@ -51317,8 +51578,11 @@
       <c r="Z626">
         <v>3</v>
       </c>
-    </row>
-    <row r="627" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA626">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="627" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>670</v>
       </c>
@@ -51394,8 +51658,11 @@
       <c r="Z627" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="628" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA627" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>671</v>
       </c>
@@ -51471,8 +51738,11 @@
       <c r="Z628">
         <v>2</v>
       </c>
-    </row>
-    <row r="629" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA628">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
         <v>672</v>
       </c>
@@ -51548,8 +51818,11 @@
       <c r="Z629" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="630" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA629" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="630" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>673</v>
       </c>
@@ -51625,8 +51898,11 @@
       <c r="Z630">
         <v>3</v>
       </c>
-    </row>
-    <row r="631" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA630">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>674</v>
       </c>
@@ -51700,6 +51976,9 @@
         <v>2</v>
       </c>
       <c r="Z631" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA631" s="1">
         <v>3</v>
       </c>
     </row>

--- a/data/phenological_monitoring.xlsx
+++ b/data/phenological_monitoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A33E51-090A-0444-8CF2-F98F77598DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F5167D-AB1F-F74F-A52E-41383DD71704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-3740" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3972" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="681">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2973,9 +2973,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A602" zoomScale="191" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A553" zoomScale="191" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC616" sqref="AC616"/>
+      <selection pane="topRight" activeCell="AB494" sqref="AB494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3143,6 +3143,9 @@
       <c r="Z2" s="1">
         <v>4</v>
       </c>
+      <c r="AA2" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -3220,6 +3223,9 @@
       <c r="Z3">
         <v>4</v>
       </c>
+      <c r="AA3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3297,6 +3303,9 @@
       <c r="Z4" s="1">
         <v>4</v>
       </c>
+      <c r="AA4" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3374,6 +3383,9 @@
       <c r="Z5" s="1">
         <v>4</v>
       </c>
+      <c r="AA5" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -3451,6 +3463,9 @@
       <c r="Z6" s="1">
         <v>4</v>
       </c>
+      <c r="AA6" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3528,6 +3543,9 @@
       <c r="Z7" s="1">
         <v>4</v>
       </c>
+      <c r="AA7" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -3605,6 +3623,9 @@
       <c r="Z8" s="1">
         <v>4</v>
       </c>
+      <c r="AA8" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3682,6 +3703,9 @@
       <c r="Z9" s="1">
         <v>4</v>
       </c>
+      <c r="AA9" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -3759,6 +3783,9 @@
       <c r="Z10" s="1">
         <v>4</v>
       </c>
+      <c r="AA10" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -3836,6 +3863,9 @@
       <c r="Z11" s="1">
         <v>4</v>
       </c>
+      <c r="AA11" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -3913,6 +3943,9 @@
       <c r="Z12" s="1">
         <v>4</v>
       </c>
+      <c r="AA12" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -3990,6 +4023,9 @@
       <c r="Z13" s="1">
         <v>4</v>
       </c>
+      <c r="AA13" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -4067,6 +4103,9 @@
       <c r="Z14" s="1">
         <v>4</v>
       </c>
+      <c r="AA14" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4144,6 +4183,9 @@
       <c r="Z15" s="1">
         <v>4</v>
       </c>
+      <c r="AA15" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -4221,8 +4263,11 @@
       <c r="Z16" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4298,8 +4343,11 @@
       <c r="Z17" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -4375,8 +4423,11 @@
       <c r="Z18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4452,8 +4503,11 @@
       <c r="Z19" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -4529,8 +4583,11 @@
       <c r="Z20" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4606,8 +4663,11 @@
       <c r="Z21" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -4683,8 +4743,11 @@
       <c r="Z22" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -4760,8 +4823,11 @@
       <c r="Z23" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -4837,8 +4903,11 @@
       <c r="Z24" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -4914,8 +4983,11 @@
       <c r="Z25" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -4991,8 +5063,11 @@
       <c r="Z26" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -5068,8 +5143,11 @@
       <c r="Z27" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -5145,8 +5223,11 @@
       <c r="Z28" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -5222,8 +5303,11 @@
       <c r="Z29" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -5299,8 +5383,11 @@
       <c r="Z30" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -5376,8 +5463,11 @@
       <c r="Z31" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -5453,8 +5543,11 @@
       <c r="Z32" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -5530,8 +5623,11 @@
       <c r="Z33" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -5607,8 +5703,11 @@
       <c r="Z34" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -5684,8 +5783,11 @@
       <c r="Z35" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -5761,8 +5863,11 @@
       <c r="Z36" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -5838,8 +5943,11 @@
       <c r="Z37" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -5915,8 +6023,11 @@
       <c r="Z38" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -5992,8 +6103,11 @@
       <c r="Z39" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -6069,8 +6183,11 @@
       <c r="Z40" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -6146,8 +6263,11 @@
       <c r="Z41" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -6223,8 +6343,11 @@
       <c r="Z42" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -6300,8 +6423,11 @@
       <c r="Z43" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -6377,8 +6503,11 @@
       <c r="Z44" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -6454,8 +6583,11 @@
       <c r="Z45" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -6531,8 +6663,11 @@
       <c r="Z46" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -6608,8 +6743,11 @@
       <c r="Z47" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA47" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -6685,8 +6823,11 @@
       <c r="Z48" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -6762,8 +6903,11 @@
       <c r="Z49" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -6839,8 +6983,11 @@
       <c r="Z50" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -6916,8 +7063,11 @@
       <c r="Z51" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -6993,8 +7143,11 @@
       <c r="Z52" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -7070,8 +7223,11 @@
       <c r="Z53" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -7147,8 +7303,11 @@
       <c r="Z54" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -7224,8 +7383,11 @@
       <c r="Z55" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA55" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -7301,8 +7463,11 @@
       <c r="Z56" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -7378,8 +7543,11 @@
       <c r="Z57" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -7455,8 +7623,11 @@
       <c r="Z58" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -7532,8 +7703,11 @@
       <c r="Z59" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA59" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -7609,8 +7783,11 @@
       <c r="Z60" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -7686,8 +7863,11 @@
       <c r="Z61" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA61" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -7763,8 +7943,11 @@
       <c r="Z62" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -7840,8 +8023,11 @@
       <c r="Z63" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -7917,8 +8103,11 @@
       <c r="Z64" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -7994,8 +8183,11 @@
       <c r="Z65" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA65" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -8071,8 +8263,11 @@
       <c r="Z66" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -8148,8 +8343,11 @@
       <c r="Z67" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA67" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -8225,8 +8423,11 @@
       <c r="Z68" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -8302,8 +8503,11 @@
       <c r="Z69" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA69" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -8379,8 +8583,11 @@
       <c r="Z70" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA70" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -8456,8 +8663,11 @@
       <c r="Z71" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -8533,8 +8743,11 @@
       <c r="Z72" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA72" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -8610,8 +8823,11 @@
       <c r="Z73" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
@@ -8687,8 +8903,11 @@
       <c r="Z74" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -8764,8 +8983,11 @@
       <c r="Z75" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -8841,8 +9063,11 @@
       <c r="Z76" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -8918,8 +9143,11 @@
       <c r="Z77" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
@@ -8995,8 +9223,11 @@
       <c r="Z78" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA78" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -9072,8 +9303,11 @@
       <c r="Z79" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA79" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>93</v>
       </c>
@@ -9149,8 +9383,11 @@
       <c r="Z80" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA80" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -9226,8 +9463,11 @@
       <c r="Z81" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>95</v>
       </c>
@@ -9303,8 +9543,11 @@
       <c r="Z82" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA82" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -9380,8 +9623,11 @@
       <c r="Z83" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>97</v>
       </c>
@@ -9457,8 +9703,11 @@
       <c r="Z84" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA84" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -9534,8 +9783,11 @@
       <c r="Z85" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
@@ -9611,8 +9863,11 @@
       <c r="Z86" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA86" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -9688,8 +9943,11 @@
       <c r="Z87" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>101</v>
       </c>
@@ -9765,8 +10023,11 @@
       <c r="Z88" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA88" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -9842,8 +10103,11 @@
       <c r="Z89" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>103</v>
       </c>
@@ -9919,8 +10183,11 @@
       <c r="Z90" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA90" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -9996,8 +10263,11 @@
       <c r="Z91" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>105</v>
       </c>
@@ -10073,8 +10343,11 @@
       <c r="Z92" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA92" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -10150,8 +10423,11 @@
       <c r="Z93" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>109</v>
       </c>
@@ -10227,8 +10503,11 @@
       <c r="Z94" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA94" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -10307,8 +10586,11 @@
       <c r="Z95" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>112</v>
       </c>
@@ -10384,8 +10666,11 @@
       <c r="Z96" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA96" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -10461,8 +10746,11 @@
       <c r="Z97" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>114</v>
       </c>
@@ -10538,8 +10826,11 @@
       <c r="Z98" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA98" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -10615,8 +10906,11 @@
       <c r="Z99" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>116</v>
       </c>
@@ -10692,8 +10986,11 @@
       <c r="Z100" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA100" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -10769,8 +11066,11 @@
       <c r="Z101" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>118</v>
       </c>
@@ -10846,8 +11146,11 @@
       <c r="Z102" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA102" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -10923,8 +11226,11 @@
       <c r="Z103" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA103" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>120</v>
       </c>
@@ -11000,8 +11306,11 @@
       <c r="Z104" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA104" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -11077,8 +11386,11 @@
       <c r="Z105" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA105" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -11154,8 +11466,11 @@
       <c r="Z106" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA106" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -11231,8 +11546,11 @@
       <c r="Z107" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA107" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -11308,8 +11626,11 @@
       <c r="Z108" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA108" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -11388,8 +11709,11 @@
       <c r="Z109" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA109" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -11465,8 +11789,11 @@
       <c r="Z110" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA110" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -11542,8 +11869,11 @@
       <c r="Z111" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA111" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -11619,8 +11949,11 @@
       <c r="Z112" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA112" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -11696,8 +12029,11 @@
       <c r="Z113" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA113" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>130</v>
       </c>
@@ -11773,8 +12109,11 @@
       <c r="Z114" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA114" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -11850,8 +12189,11 @@
       <c r="Z115" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA115" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>132</v>
       </c>
@@ -11927,8 +12269,11 @@
       <c r="Z116" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA116" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -12004,8 +12349,11 @@
       <c r="Z117" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA117" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -12081,8 +12429,11 @@
       <c r="Z118" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA118" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>135</v>
       </c>
@@ -12158,8 +12509,11 @@
       <c r="Z119" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA119" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -12235,8 +12589,11 @@
       <c r="Z120" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA120" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>137</v>
       </c>
@@ -12315,8 +12672,11 @@
       <c r="Z121" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA121" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -12392,8 +12752,11 @@
       <c r="Z122" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA122" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>139</v>
       </c>
@@ -12469,8 +12832,11 @@
       <c r="Z123" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA123" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -12546,8 +12912,11 @@
       <c r="Z124" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA124" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>141</v>
       </c>
@@ -12623,8 +12992,11 @@
       <c r="Z125" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA125" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -12700,8 +13072,11 @@
       <c r="Z126" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA126" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>143</v>
       </c>
@@ -12777,8 +13152,11 @@
       <c r="Z127" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA127" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -12854,8 +13232,11 @@
       <c r="Z128" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA128" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>145</v>
       </c>
@@ -12931,8 +13312,11 @@
       <c r="Z129" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA129" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -13008,8 +13392,11 @@
       <c r="Z130" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA130" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>147</v>
       </c>
@@ -13085,8 +13472,11 @@
       <c r="Z131" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA131" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -13162,8 +13552,11 @@
       <c r="Z132" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA132" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>149</v>
       </c>
@@ -13239,8 +13632,11 @@
       <c r="Z133" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA133" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -13316,8 +13712,11 @@
       <c r="Z134" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA134" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>151</v>
       </c>
@@ -13393,8 +13792,11 @@
       <c r="Z135" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA135" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -13470,8 +13872,11 @@
       <c r="Z136" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA136" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>153</v>
       </c>
@@ -13547,8 +13952,11 @@
       <c r="Z137" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA137" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -13624,8 +14032,11 @@
       <c r="Z138" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA138" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>155</v>
       </c>
@@ -13701,8 +14112,11 @@
       <c r="Z139" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA139" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>156</v>
       </c>
@@ -13778,8 +14192,11 @@
       <c r="Z140" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA140" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -13855,8 +14272,11 @@
       <c r="Z141" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA141" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>158</v>
       </c>
@@ -13932,8 +14352,11 @@
       <c r="Z142" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA142" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -14009,8 +14432,11 @@
       <c r="Z143" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA143" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>160</v>
       </c>
@@ -14086,8 +14512,11 @@
       <c r="Z144" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA144" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -14163,8 +14592,11 @@
       <c r="Z145" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA145" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>162</v>
       </c>
@@ -14240,8 +14672,11 @@
       <c r="Z146" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA146" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -14317,8 +14752,11 @@
       <c r="Z147" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA147" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>164</v>
       </c>
@@ -14394,8 +14832,11 @@
       <c r="Z148" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA148" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -14471,8 +14912,11 @@
       <c r="Z149" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA149" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>166</v>
       </c>
@@ -14548,8 +14992,11 @@
       <c r="Z150" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA150" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -14625,8 +15072,11 @@
       <c r="Z151" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA151" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>168</v>
       </c>
@@ -14702,8 +15152,11 @@
       <c r="Z152" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA152" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>169</v>
       </c>
@@ -14779,8 +15232,11 @@
       <c r="Z153" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA153" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>170</v>
       </c>
@@ -14856,8 +15312,11 @@
       <c r="Z154" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA154" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>171</v>
       </c>
@@ -14933,8 +15392,11 @@
       <c r="Z155" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA155" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>172</v>
       </c>
@@ -15010,8 +15472,11 @@
       <c r="Z156" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA156" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -15087,8 +15552,11 @@
       <c r="Z157" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA157" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>174</v>
       </c>
@@ -15164,8 +15632,11 @@
       <c r="Z158" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA158" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>175</v>
       </c>
@@ -15241,8 +15712,11 @@
       <c r="Z159" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA159" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>176</v>
       </c>
@@ -15318,8 +15792,11 @@
       <c r="Z160" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA160" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -15395,8 +15872,11 @@
       <c r="Z161" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA161" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>178</v>
       </c>
@@ -15472,8 +15952,11 @@
       <c r="Z162" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA162" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>179</v>
       </c>
@@ -15549,8 +16032,11 @@
       <c r="Z163" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA163" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>180</v>
       </c>
@@ -15626,8 +16112,11 @@
       <c r="Z164" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA164" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -15703,8 +16192,11 @@
       <c r="Z165" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA165" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>182</v>
       </c>
@@ -15780,8 +16272,11 @@
       <c r="Z166" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA166" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -15857,8 +16352,11 @@
       <c r="Z167" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA167" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>184</v>
       </c>
@@ -15934,8 +16432,11 @@
       <c r="Z168" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA168" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -16011,8 +16512,11 @@
       <c r="Z169" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA169" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>186</v>
       </c>
@@ -16088,8 +16592,11 @@
       <c r="Z170" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA170" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -16165,8 +16672,11 @@
       <c r="Z171" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA171" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>188</v>
       </c>
@@ -16242,8 +16752,11 @@
       <c r="Z172" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA172" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>189</v>
       </c>
@@ -16319,8 +16832,11 @@
       <c r="Z173" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA173" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>190</v>
       </c>
@@ -16396,8 +16912,11 @@
       <c r="Z174" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="175" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA174" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -16473,8 +16992,11 @@
       <c r="Z175" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA175" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>192</v>
       </c>
@@ -16550,8 +17072,11 @@
       <c r="Z176" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="177" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA176" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>193</v>
       </c>
@@ -16627,8 +17152,11 @@
       <c r="Z177" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA177" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>194</v>
       </c>
@@ -16704,8 +17232,11 @@
       <c r="Z178" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA178" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>195</v>
       </c>
@@ -16781,8 +17312,11 @@
       <c r="Z179" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA179" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>196</v>
       </c>
@@ -16858,8 +17392,11 @@
       <c r="Z180" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA180" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>197</v>
       </c>
@@ -16935,8 +17472,11 @@
       <c r="Z181" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA181" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>198</v>
       </c>
@@ -17012,8 +17552,11 @@
       <c r="Z182" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA182" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -17089,8 +17632,11 @@
       <c r="Z183" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA183" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>202</v>
       </c>
@@ -17166,8 +17712,11 @@
       <c r="Z184" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="185" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA184" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -17243,8 +17792,11 @@
       <c r="Z185" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA185" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>204</v>
       </c>
@@ -17323,8 +17875,11 @@
       <c r="Z186" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="187" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA186" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -17400,8 +17955,11 @@
       <c r="Z187" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA187" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -17477,8 +18035,11 @@
       <c r="Z188" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA188" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>208</v>
       </c>
@@ -17554,8 +18115,11 @@
       <c r="Z189" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA189" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -17634,8 +18198,11 @@
       <c r="Z190" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA190" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>210</v>
       </c>
@@ -17711,8 +18278,11 @@
       <c r="Z191" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA191" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -17788,8 +18358,11 @@
       <c r="Z192" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA192" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>212</v>
       </c>
@@ -17865,8 +18438,11 @@
       <c r="Z193" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA193" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -17945,8 +18521,11 @@
       <c r="Z194" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA194" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>215</v>
       </c>
@@ -18022,8 +18601,11 @@
       <c r="Z195" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA195" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -18099,8 +18681,11 @@
       <c r="Z196" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA196" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>217</v>
       </c>
@@ -18176,8 +18761,11 @@
       <c r="Z197" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA197" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -18256,8 +18844,11 @@
       <c r="Z198" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA198" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>220</v>
       </c>
@@ -18333,8 +18924,11 @@
       <c r="Z199" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA199" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -18413,8 +19007,11 @@
       <c r="Z200" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA200" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>222</v>
       </c>
@@ -18490,8 +19087,11 @@
       <c r="Z201" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA201" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -18567,8 +19167,11 @@
       <c r="Z202" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA202" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>224</v>
       </c>
@@ -18644,8 +19247,11 @@
       <c r="Z203" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA203" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -18721,8 +19327,11 @@
       <c r="Z204" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA204" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>226</v>
       </c>
@@ -18801,8 +19410,11 @@
       <c r="Z205" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="206" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA205" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -18878,8 +19490,11 @@
       <c r="Z206" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA206" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>228</v>
       </c>
@@ -18955,8 +19570,11 @@
       <c r="Z207" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA207" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -19035,8 +19653,11 @@
       <c r="Z208" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA208" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>230</v>
       </c>
@@ -19112,8 +19733,11 @@
       <c r="Z209" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="210" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA209" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -19189,8 +19813,11 @@
       <c r="Z210" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA210" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -19269,8 +19896,11 @@
       <c r="Z211" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA211" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>233</v>
       </c>
@@ -19346,8 +19976,11 @@
       <c r="Z212" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="213" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA212" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -19423,8 +20056,11 @@
       <c r="Z213" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA213" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>235</v>
       </c>
@@ -19500,8 +20136,11 @@
       <c r="Z214" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="215" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA214" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>236</v>
       </c>
@@ -19577,8 +20216,11 @@
       <c r="Z215" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA215" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>237</v>
       </c>
@@ -19657,8 +20299,11 @@
       <c r="Z216" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA216" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>238</v>
       </c>
@@ -19734,8 +20379,11 @@
       <c r="Z217" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA217" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>239</v>
       </c>
@@ -19811,8 +20459,11 @@
       <c r="Z218" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA218" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -19888,8 +20539,11 @@
       <c r="Z219" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA219" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>241</v>
       </c>
@@ -19965,8 +20619,11 @@
       <c r="Z220" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="221" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA220" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -20042,8 +20699,11 @@
       <c r="Z221" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA221" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>243</v>
       </c>
@@ -20119,8 +20779,11 @@
       <c r="Z222" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="223" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA222" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -20199,8 +20862,11 @@
       <c r="Z223" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA223" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>245</v>
       </c>
@@ -20276,8 +20942,11 @@
       <c r="Z224" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="225" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA224" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -20356,8 +21025,11 @@
       <c r="Z225" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA225" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>247</v>
       </c>
@@ -20433,8 +21105,11 @@
       <c r="Z226" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="227" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA226" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -20510,8 +21185,11 @@
       <c r="Z227" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA227" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>249</v>
       </c>
@@ -20587,8 +21265,11 @@
       <c r="Z228" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="229" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA228" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -20664,8 +21345,11 @@
       <c r="Z229" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA229" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>251</v>
       </c>
@@ -20741,8 +21425,11 @@
       <c r="Z230" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA230" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -20818,8 +21505,11 @@
       <c r="Z231" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA231" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>253</v>
       </c>
@@ -20895,8 +21585,11 @@
       <c r="Z232" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="233" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA232" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -20972,8 +21665,11 @@
       <c r="Z233" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA233" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>255</v>
       </c>
@@ -21049,8 +21745,11 @@
       <c r="Z234" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA234" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -21126,8 +21825,11 @@
       <c r="Z235" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA235" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>257</v>
       </c>
@@ -21203,8 +21905,11 @@
       <c r="Z236" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="237" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA236" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -21280,8 +21985,11 @@
       <c r="Z237" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA237" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>259</v>
       </c>
@@ -21357,8 +22065,11 @@
       <c r="Z238" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="239" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA238" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -21434,8 +22145,11 @@
       <c r="Z239" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA239" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>261</v>
       </c>
@@ -21511,8 +22225,11 @@
       <c r="Z240" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA240" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -21588,8 +22305,11 @@
       <c r="Z241" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA241" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>263</v>
       </c>
@@ -21665,8 +22385,11 @@
       <c r="Z242" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="243" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA242" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -21742,8 +22465,11 @@
       <c r="Z243" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA243" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>265</v>
       </c>
@@ -21819,8 +22545,11 @@
       <c r="Z244" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="245" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA244" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -21896,8 +22625,11 @@
       <c r="Z245" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA245" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>267</v>
       </c>
@@ -21973,8 +22705,11 @@
       <c r="Z246" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="247" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA246" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -22050,8 +22785,11 @@
       <c r="Z247" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA247" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>269</v>
       </c>
@@ -22127,8 +22865,11 @@
       <c r="Z248" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="249" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA248" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -22204,8 +22945,11 @@
       <c r="Z249" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA249" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>271</v>
       </c>
@@ -22281,8 +23025,11 @@
       <c r="Z250" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="251" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA250" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>272</v>
       </c>
@@ -22358,8 +23105,11 @@
       <c r="Z251" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA251" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>273</v>
       </c>
@@ -22435,8 +23185,11 @@
       <c r="Z252" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="253" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA252" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -22512,8 +23265,11 @@
       <c r="Z253" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA253" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>275</v>
       </c>
@@ -22589,8 +23345,11 @@
       <c r="Z254" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="255" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA254" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -22666,8 +23425,11 @@
       <c r="Z255" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA255" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>277</v>
       </c>
@@ -22743,8 +23505,11 @@
       <c r="Z256" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="257" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA256" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -22820,8 +23585,11 @@
       <c r="Z257" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="258" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA257" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>279</v>
       </c>
@@ -22897,8 +23665,11 @@
       <c r="Z258" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA258" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>280</v>
       </c>
@@ -22974,8 +23745,11 @@
       <c r="Z259" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="260" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA259" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>281</v>
       </c>
@@ -23051,8 +23825,11 @@
       <c r="Z260" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA260" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>282</v>
       </c>
@@ -23128,8 +23905,11 @@
       <c r="Z261" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="262" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA261" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>283</v>
       </c>
@@ -23205,8 +23985,11 @@
       <c r="Z262" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA262" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>284</v>
       </c>
@@ -23282,8 +24065,11 @@
       <c r="Z263" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="264" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA263" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>285</v>
       </c>
@@ -23359,8 +24145,11 @@
       <c r="Z264" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA264" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>286</v>
       </c>
@@ -23436,8 +24225,11 @@
       <c r="Z265" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="266" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA265" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -23513,8 +24305,11 @@
       <c r="Z266" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA266" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>288</v>
       </c>
@@ -23590,8 +24385,11 @@
       <c r="Z267" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="268" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA267" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -23667,8 +24465,11 @@
       <c r="Z268" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA268" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>290</v>
       </c>
@@ -23744,8 +24545,11 @@
       <c r="Z269" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="270" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA269" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -23821,8 +24625,11 @@
       <c r="Z270" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA270" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>292</v>
       </c>
@@ -23898,8 +24705,11 @@
       <c r="Z271" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="272" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA271" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -23975,8 +24785,11 @@
       <c r="Z272" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA272" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>296</v>
       </c>
@@ -24052,8 +24865,11 @@
       <c r="Z273" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="274" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA273" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -24129,8 +24945,11 @@
       <c r="Z274" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA274" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>298</v>
       </c>
@@ -24206,8 +25025,11 @@
       <c r="Z275" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA275" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -24283,8 +25105,11 @@
       <c r="Z276" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA276" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>300</v>
       </c>
@@ -24360,8 +25185,11 @@
       <c r="Z277" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="278" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA277" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -24437,8 +25265,11 @@
       <c r="Z278" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA278" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>302</v>
       </c>
@@ -24517,8 +25348,11 @@
       <c r="Z279" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="280" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA279" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="280" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -24594,8 +25428,11 @@
       <c r="Z280" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="281" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA280" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -24671,8 +25508,11 @@
       <c r="Z281" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA281" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>305</v>
       </c>
@@ -24748,8 +25588,11 @@
       <c r="Z282" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="283" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA282" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -24828,8 +25671,11 @@
       <c r="Z283" s="3" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA283" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>309</v>
       </c>
@@ -24905,8 +25751,11 @@
       <c r="Z284" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="285" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA284" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -24982,8 +25831,11 @@
       <c r="Z285" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA285" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>311</v>
       </c>
@@ -25059,8 +25911,11 @@
       <c r="Z286" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="287" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA286" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -25136,8 +25991,11 @@
       <c r="Z287" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA287" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>313</v>
       </c>
@@ -25213,8 +26071,11 @@
       <c r="Z288" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="289" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA288" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -25290,8 +26151,11 @@
       <c r="Z289" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA289" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>315</v>
       </c>
@@ -25367,8 +26231,11 @@
       <c r="Z290" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="291" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA290" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -25444,8 +26311,11 @@
       <c r="Z291" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA291" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>317</v>
       </c>
@@ -25521,8 +26391,11 @@
       <c r="Z292" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="293" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA292" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -25598,8 +26471,11 @@
       <c r="Z293" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA293" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>319</v>
       </c>
@@ -25678,8 +26554,11 @@
       <c r="Z294" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="295" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA294" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -25755,8 +26634,11 @@
       <c r="Z295" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA295" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>322</v>
       </c>
@@ -25832,8 +26714,11 @@
       <c r="Z296" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="297" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA296" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>323</v>
       </c>
@@ -25909,8 +26794,11 @@
       <c r="Z297" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA297" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>324</v>
       </c>
@@ -25986,8 +26874,11 @@
       <c r="Z298" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="299" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA298" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>325</v>
       </c>
@@ -26063,8 +26954,11 @@
       <c r="Z299" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA299" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>326</v>
       </c>
@@ -26140,8 +27034,11 @@
       <c r="Z300" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="301" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA300" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>327</v>
       </c>
@@ -26217,8 +27114,11 @@
       <c r="Z301" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA301" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>328</v>
       </c>
@@ -26294,8 +27194,11 @@
       <c r="Z302" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="303" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA302" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>329</v>
       </c>
@@ -26371,8 +27274,11 @@
       <c r="Z303" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA303" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>330</v>
       </c>
@@ -26448,8 +27354,11 @@
       <c r="Z304" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="305" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA304" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>331</v>
       </c>
@@ -26525,8 +27434,11 @@
       <c r="Z305" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA305" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>332</v>
       </c>
@@ -26602,8 +27514,11 @@
       <c r="Z306" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="307" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA306" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>333</v>
       </c>
@@ -26679,8 +27594,11 @@
       <c r="Z307" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA307" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>334</v>
       </c>
@@ -26756,8 +27674,11 @@
       <c r="Z308" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="309" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA308" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>335</v>
       </c>
@@ -26833,8 +27754,11 @@
       <c r="Z309" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA309" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>336</v>
       </c>
@@ -26910,8 +27834,11 @@
       <c r="Z310" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="311" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA310" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -26987,8 +27914,11 @@
       <c r="Z311" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA311" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>338</v>
       </c>
@@ -27064,8 +27994,11 @@
       <c r="Z312" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="313" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA312" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -27141,8 +28074,11 @@
       <c r="Z313" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA313" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>340</v>
       </c>
@@ -27218,8 +28154,11 @@
       <c r="Z314" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="315" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA314" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -27295,8 +28234,11 @@
       <c r="Z315" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA315" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>342</v>
       </c>
@@ -27372,8 +28314,11 @@
       <c r="Z316" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="317" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA316" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -27449,8 +28394,11 @@
       <c r="Z317" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA317" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>344</v>
       </c>
@@ -27526,8 +28474,11 @@
       <c r="Z318" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="319" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA318" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -27603,8 +28554,11 @@
       <c r="Z319" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA319" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>346</v>
       </c>
@@ -27680,8 +28634,11 @@
       <c r="Z320" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="321" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA320" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -27757,8 +28714,11 @@
       <c r="Z321" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA321" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>348</v>
       </c>
@@ -27837,8 +28797,11 @@
       <c r="Z322" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="323" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA322" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="323" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>350</v>
       </c>
@@ -27914,8 +28877,11 @@
       <c r="Z323" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA323" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>351</v>
       </c>
@@ -27994,8 +28960,11 @@
       <c r="Z324" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="325" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA324" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="325" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>353</v>
       </c>
@@ -28071,8 +29040,11 @@
       <c r="Z325" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA325" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>354</v>
       </c>
@@ -28148,8 +29120,11 @@
       <c r="Z326" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="327" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA326" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>355</v>
       </c>
@@ -28225,8 +29200,11 @@
       <c r="Z327" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="328" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA327" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>356</v>
       </c>
@@ -28302,8 +29280,11 @@
       <c r="Z328" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA328" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>357</v>
       </c>
@@ -28379,8 +29360,11 @@
       <c r="Z329" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="330" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA329" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>358</v>
       </c>
@@ -28456,8 +29440,11 @@
       <c r="Z330" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA330" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>359</v>
       </c>
@@ -28533,8 +29520,11 @@
       <c r="Z331" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="332" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA331" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>360</v>
       </c>
@@ -28610,8 +29600,11 @@
       <c r="Z332" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA332" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>361</v>
       </c>
@@ -28687,8 +29680,11 @@
       <c r="Z333" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="334" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA333" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>362</v>
       </c>
@@ -28764,8 +29760,11 @@
       <c r="Z334" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA334" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>363</v>
       </c>
@@ -28841,8 +29840,11 @@
       <c r="Z335" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="336" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA335" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>364</v>
       </c>
@@ -28918,8 +29920,11 @@
       <c r="Z336" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA336" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>365</v>
       </c>
@@ -28995,8 +30000,11 @@
       <c r="Z337" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="338" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA337" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>366</v>
       </c>
@@ -29072,8 +30080,11 @@
       <c r="Z338" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA338" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>367</v>
       </c>
@@ -29149,8 +30160,11 @@
       <c r="Z339" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="340" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA339" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>368</v>
       </c>
@@ -29226,8 +30240,11 @@
       <c r="Z340" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA340" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>369</v>
       </c>
@@ -29303,8 +30320,11 @@
       <c r="Z341" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="342" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA341" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>370</v>
       </c>
@@ -29380,8 +30400,11 @@
       <c r="Z342" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA342" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>371</v>
       </c>
@@ -29457,8 +30480,11 @@
       <c r="Z343" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="344" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA343" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>372</v>
       </c>
@@ -29534,8 +30560,11 @@
       <c r="Z344" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA344" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>373</v>
       </c>
@@ -29611,8 +30640,11 @@
       <c r="Z345" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="346" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA345" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>374</v>
       </c>
@@ -29688,8 +30720,11 @@
       <c r="Z346" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA346" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>375</v>
       </c>
@@ -29765,8 +30800,11 @@
       <c r="Z347" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA347" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>376</v>
       </c>
@@ -29842,8 +30880,11 @@
       <c r="Z348" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA348" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>377</v>
       </c>
@@ -29919,8 +30960,11 @@
       <c r="Z349" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="350" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA349" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>378</v>
       </c>
@@ -29996,8 +31040,11 @@
       <c r="Z350" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="351" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA350" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>379</v>
       </c>
@@ -30073,8 +31120,11 @@
       <c r="Z351" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA351" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>380</v>
       </c>
@@ -30150,8 +31200,11 @@
       <c r="Z352" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="353" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA352" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>381</v>
       </c>
@@ -30227,8 +31280,11 @@
       <c r="Z353" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="354" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA353" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>382</v>
       </c>
@@ -30304,8 +31360,11 @@
       <c r="Z354" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="355" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA354" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>383</v>
       </c>
@@ -30384,8 +31443,11 @@
       <c r="Z355" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="356" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA355" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>384</v>
       </c>
@@ -30461,8 +31523,11 @@
       <c r="Z356" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="357" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA356" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>385</v>
       </c>
@@ -30538,8 +31603,11 @@
       <c r="Z357" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="358" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA357" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>386</v>
       </c>
@@ -30615,8 +31683,11 @@
       <c r="Z358" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="359" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA358" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>387</v>
       </c>
@@ -30692,8 +31763,11 @@
       <c r="Z359" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="360" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA359" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>388</v>
       </c>
@@ -30769,8 +31843,11 @@
       <c r="Z360" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="361" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA360" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>389</v>
       </c>
@@ -30846,8 +31923,11 @@
       <c r="Z361" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="362" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA361" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>390</v>
       </c>
@@ -30923,8 +32003,11 @@
       <c r="Z362" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="363" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA362" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -31000,8 +32083,11 @@
       <c r="Z363" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="364" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA363" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>394</v>
       </c>
@@ -31077,8 +32163,11 @@
       <c r="Z364" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA364" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -31154,8 +32243,11 @@
       <c r="Z365" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="366" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA365" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>396</v>
       </c>
@@ -31231,8 +32323,11 @@
       <c r="Z366" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="367" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA366" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -31308,8 +32403,11 @@
       <c r="Z367" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="368" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA367" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>398</v>
       </c>
@@ -31385,8 +32483,11 @@
       <c r="Z368" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="369" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA368" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -31465,8 +32566,11 @@
       <c r="Z369" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="370" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA369" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>400</v>
       </c>
@@ -31542,8 +32646,11 @@
       <c r="Z370" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="371" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA370" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -31619,8 +32726,11 @@
       <c r="Z371" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="372" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA371" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>402</v>
       </c>
@@ -31696,8 +32806,11 @@
       <c r="Z372" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="373" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA372" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -31773,8 +32886,11 @@
       <c r="Z373" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="374" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA373" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>404</v>
       </c>
@@ -31850,8 +32966,11 @@
       <c r="Z374" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="375" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA374" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -31927,8 +33046,11 @@
       <c r="Z375" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="376" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA375" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>406</v>
       </c>
@@ -32004,8 +33126,11 @@
       <c r="Z376" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="377" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA376" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -32081,8 +33206,11 @@
       <c r="Z377" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="378" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA377" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>408</v>
       </c>
@@ -32158,8 +33286,11 @@
       <c r="Z378" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="379" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA378" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -32235,8 +33366,11 @@
       <c r="Z379" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA379" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>410</v>
       </c>
@@ -32315,8 +33449,11 @@
       <c r="Z380" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA380" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -32392,8 +33529,11 @@
       <c r="Z381" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="382" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA381" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>413</v>
       </c>
@@ -32469,8 +33609,11 @@
       <c r="Z382" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="383" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA382" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -32546,8 +33689,11 @@
       <c r="Z383" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="384" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA383" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>415</v>
       </c>
@@ -32623,8 +33769,11 @@
       <c r="Z384" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="385" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA384" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -32700,8 +33849,11 @@
       <c r="Z385" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA385" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>417</v>
       </c>
@@ -32780,8 +33932,11 @@
       <c r="Z386" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="387" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA386" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -32857,8 +34012,11 @@
       <c r="Z387" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA387" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>419</v>
       </c>
@@ -32934,8 +34092,11 @@
       <c r="Z388" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA388" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -33011,8 +34172,11 @@
       <c r="Z389" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="390" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA389" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>421</v>
       </c>
@@ -33088,8 +34252,11 @@
       <c r="Z390" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="391" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA390" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -33168,8 +34335,11 @@
       <c r="Z391" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="392" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA391" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>424</v>
       </c>
@@ -33248,8 +34418,11 @@
       <c r="Z392" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="393" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA392" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="393" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -33325,8 +34498,11 @@
       <c r="Z393" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="394" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA393" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>427</v>
       </c>
@@ -33402,8 +34578,11 @@
       <c r="Z394" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="395" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA394" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -33479,8 +34658,11 @@
       <c r="Z395" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="396" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA395" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>429</v>
       </c>
@@ -33556,8 +34738,11 @@
       <c r="Z396" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="397" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA396" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -33633,8 +34818,11 @@
       <c r="Z397" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="398" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA397" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -33710,8 +34898,11 @@
       <c r="Z398" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="399" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA398" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>432</v>
       </c>
@@ -33790,8 +34981,11 @@
       <c r="Z399" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="400" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA399" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>433</v>
       </c>
@@ -33867,8 +35061,11 @@
       <c r="Z400" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="401" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA400" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>434</v>
       </c>
@@ -33944,8 +35141,11 @@
       <c r="Z401" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="402" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA401" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>435</v>
       </c>
@@ -34024,8 +35224,11 @@
       <c r="Z402" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="403" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA402" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>436</v>
       </c>
@@ -34101,8 +35304,11 @@
       <c r="Z403" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="404" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA403" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>437</v>
       </c>
@@ -34181,8 +35387,11 @@
       <c r="Z404" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="405" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA404" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>439</v>
       </c>
@@ -34258,8 +35467,11 @@
       <c r="Z405" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="406" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA405" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -34335,8 +35547,11 @@
       <c r="Z406" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="407" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA406" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>441</v>
       </c>
@@ -34412,8 +35627,11 @@
       <c r="Z407" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="408" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA407" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>442</v>
       </c>
@@ -34489,8 +35707,11 @@
       <c r="Z408" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="409" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA408" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>443</v>
       </c>
@@ -34566,8 +35787,11 @@
       <c r="Z409" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="410" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA409" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>444</v>
       </c>
@@ -34643,8 +35867,11 @@
       <c r="Z410" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="411" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA410" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>445</v>
       </c>
@@ -34720,8 +35947,11 @@
       <c r="Z411" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="412" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA411" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>446</v>
       </c>
@@ -34797,8 +36027,11 @@
       <c r="Z412" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="413" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA412" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>447</v>
       </c>
@@ -34874,8 +36107,11 @@
       <c r="Z413" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="414" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA413" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>448</v>
       </c>
@@ -34951,8 +36187,11 @@
       <c r="Z414" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="415" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA414" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>449</v>
       </c>
@@ -35028,8 +36267,11 @@
       <c r="Z415" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="416" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA415" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>450</v>
       </c>
@@ -35105,8 +36347,11 @@
       <c r="Z416" s="3" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="417" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA416" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>451</v>
       </c>
@@ -35185,8 +36430,11 @@
       <c r="Z417" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="418" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA417" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>452</v>
       </c>
@@ -35262,8 +36510,11 @@
       <c r="Z418" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="419" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA418" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>453</v>
       </c>
@@ -35339,8 +36590,11 @@
       <c r="Z419" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="420" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA419" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>454</v>
       </c>
@@ -35416,8 +36670,11 @@
       <c r="Z420" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="421" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA420" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>455</v>
       </c>
@@ -35496,8 +36753,11 @@
       <c r="Z421" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="422" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA421" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>456</v>
       </c>
@@ -35573,8 +36833,11 @@
       <c r="Z422" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="423" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA422" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>457</v>
       </c>
@@ -35653,8 +36916,11 @@
       <c r="Z423" s="3" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="424" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA423" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>459</v>
       </c>
@@ -35730,8 +36996,11 @@
       <c r="Z424" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="425" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA424" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>460</v>
       </c>
@@ -35807,8 +37076,11 @@
       <c r="Z425" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="426" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA425" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>461</v>
       </c>
@@ -35884,8 +37156,11 @@
       <c r="Z426" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="427" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA426" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>462</v>
       </c>
@@ -35961,8 +37236,11 @@
       <c r="Z427" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="428" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA427" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>463</v>
       </c>
@@ -36038,8 +37316,11 @@
       <c r="Z428" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="429" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA428" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>464</v>
       </c>
@@ -36118,8 +37399,11 @@
       <c r="Z429" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="430" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA429" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>466</v>
       </c>
@@ -36195,8 +37479,11 @@
       <c r="Z430" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="431" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA430" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>467</v>
       </c>
@@ -36272,8 +37559,11 @@
       <c r="Z431" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="432" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA431" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>468</v>
       </c>
@@ -36349,8 +37639,11 @@
       <c r="Z432" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="433" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA432" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>469</v>
       </c>
@@ -36426,8 +37719,11 @@
       <c r="Z433" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="434" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA433" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>470</v>
       </c>
@@ -36503,8 +37799,11 @@
       <c r="Z434" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="435" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA434" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>471</v>
       </c>
@@ -36580,8 +37879,11 @@
       <c r="Z435" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="436" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA435" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>472</v>
       </c>
@@ -36657,8 +37959,11 @@
       <c r="Z436" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="437" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA436" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>473</v>
       </c>
@@ -36734,8 +38039,11 @@
       <c r="Z437" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="438" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA437" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>474</v>
       </c>
@@ -36808,8 +38116,11 @@
       <c r="Z438" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="439" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA438" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>475</v>
       </c>
@@ -36885,8 +38196,11 @@
       <c r="Z439" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="440" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA439" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>476</v>
       </c>
@@ -36962,8 +38276,11 @@
       <c r="Z440" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="441" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA440" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>477</v>
       </c>
@@ -37039,8 +38356,11 @@
       <c r="Z441" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="442" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA441" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>478</v>
       </c>
@@ -37119,8 +38439,11 @@
       <c r="Z442" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="443" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA442" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="443" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>480</v>
       </c>
@@ -37196,8 +38519,11 @@
       <c r="Z443" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="444" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA443" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>481</v>
       </c>
@@ -37276,8 +38602,11 @@
       <c r="Z444" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="445" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA444" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>482</v>
       </c>
@@ -37353,8 +38682,11 @@
       <c r="Z445" s="3" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="446" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA445" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>483</v>
       </c>
@@ -37430,8 +38762,11 @@
       <c r="Z446" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="447" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA446" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>484</v>
       </c>
@@ -37507,8 +38842,11 @@
       <c r="Z447" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="448" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA447" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>485</v>
       </c>
@@ -37584,8 +38922,11 @@
       <c r="Z448" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="449" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA448" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>486</v>
       </c>
@@ -37661,8 +39002,11 @@
       <c r="Z449" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="450" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA449" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>487</v>
       </c>
@@ -37738,8 +39082,11 @@
       <c r="Z450" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="451" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA450" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>488</v>
       </c>
@@ -37815,8 +39162,11 @@
       <c r="Z451" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="452" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA451" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>489</v>
       </c>
@@ -37892,8 +39242,11 @@
       <c r="Z452" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="453" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA452" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>492</v>
       </c>
@@ -37969,8 +39322,11 @@
       <c r="Z453" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="454" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA453" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>493</v>
       </c>
@@ -38046,8 +39402,11 @@
       <c r="Z454" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="455" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA454" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>494</v>
       </c>
@@ -38123,8 +39482,11 @@
       <c r="Z455" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="456" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA455" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>495</v>
       </c>
@@ -38200,8 +39562,11 @@
       <c r="Z456" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="457" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA456" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>496</v>
       </c>
@@ -38280,8 +39645,11 @@
       <c r="Z457" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="458" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA457" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>497</v>
       </c>
@@ -38357,8 +39725,11 @@
       <c r="Z458" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="459" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA458" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>498</v>
       </c>
@@ -38434,8 +39805,11 @@
       <c r="Z459" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="460" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA459" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>499</v>
       </c>
@@ -38511,8 +39885,11 @@
       <c r="Z460" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="461" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA460" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>500</v>
       </c>
@@ -38588,8 +39965,11 @@
       <c r="Z461" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="462" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA461" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>501</v>
       </c>
@@ -38665,8 +40045,11 @@
       <c r="Z462" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="463" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA462" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>502</v>
       </c>
@@ -38742,8 +40125,11 @@
       <c r="Z463" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="464" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA463" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>503</v>
       </c>
@@ -38819,8 +40205,11 @@
       <c r="Z464" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="465" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA464" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>504</v>
       </c>
@@ -38896,8 +40285,11 @@
       <c r="Z465" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="466" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA465" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>505</v>
       </c>
@@ -38973,8 +40365,11 @@
       <c r="Z466" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="467" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA466" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>506</v>
       </c>
@@ -39050,8 +40445,11 @@
       <c r="Z467" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="468" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA467" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>507</v>
       </c>
@@ -39130,8 +40528,11 @@
       <c r="Z468" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="469" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA468" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>508</v>
       </c>
@@ -39210,8 +40611,11 @@
       <c r="Z469" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="470" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA469" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>509</v>
       </c>
@@ -39287,8 +40691,11 @@
       <c r="Z470" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="471" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA470" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>510</v>
       </c>
@@ -39364,8 +40771,11 @@
       <c r="Z471" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="472" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA471" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>511</v>
       </c>
@@ -39441,8 +40851,11 @@
       <c r="Z472" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="473" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA472" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>512</v>
       </c>
@@ -39518,8 +40931,11 @@
       <c r="Z473" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="474" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA473" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>513</v>
       </c>
@@ -39595,8 +41011,11 @@
       <c r="Z474" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="475" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA474" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>514</v>
       </c>
@@ -39675,8 +41094,11 @@
       <c r="Z475" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="476" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA475" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>515</v>
       </c>
@@ -39752,8 +41174,11 @@
       <c r="Z476" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="477" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA476" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>516</v>
       </c>
@@ -39829,8 +41254,11 @@
       <c r="Z477" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="478" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA477" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>517</v>
       </c>
@@ -39906,8 +41334,11 @@
       <c r="Z478" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="479" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA478" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>518</v>
       </c>
@@ -39983,8 +41414,11 @@
       <c r="Z479" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="480" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA479" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>519</v>
       </c>
@@ -40060,8 +41494,11 @@
       <c r="Z480" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="481" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA480" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>520</v>
       </c>
@@ -40137,8 +41574,11 @@
       <c r="Z481" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="482" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA481" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>521</v>
       </c>
@@ -40214,8 +41654,11 @@
       <c r="Z482" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="483" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA482" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>522</v>
       </c>
@@ -40291,8 +41734,11 @@
       <c r="Z483" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="484" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA483" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>523</v>
       </c>
@@ -40368,8 +41814,11 @@
       <c r="Z484" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="485" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA484" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>524</v>
       </c>
@@ -40445,8 +41894,11 @@
       <c r="Z485" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="486" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA485" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>525</v>
       </c>
@@ -40522,8 +41974,11 @@
       <c r="Z486" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="487" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA486" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>526</v>
       </c>
@@ -40599,8 +42054,11 @@
       <c r="Z487" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="488" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA487" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>527</v>
       </c>
@@ -40679,8 +42137,11 @@
       <c r="Z488" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="489" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA488" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>528</v>
       </c>
@@ -40756,8 +42217,11 @@
       <c r="Z489" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="490" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA489" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>529</v>
       </c>
@@ -40833,8 +42297,11 @@
       <c r="Z490" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="491" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA490" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="491" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>530</v>
       </c>
@@ -40910,8 +42377,11 @@
       <c r="Z491" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="492" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA491" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>531</v>
       </c>
@@ -40987,8 +42457,11 @@
       <c r="Z492" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="493" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA492" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>532</v>
       </c>
@@ -41064,8 +42537,11 @@
       <c r="Z493" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="494" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA493" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>533</v>
       </c>
@@ -41141,8 +42617,11 @@
       <c r="Z494" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="495" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA494" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>534</v>
       </c>
@@ -41221,8 +42700,11 @@
       <c r="Z495" s="3" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="496" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA495" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>536</v>
       </c>
@@ -41298,8 +42780,11 @@
       <c r="Z496" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="497" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA496" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>537</v>
       </c>
@@ -41375,8 +42860,11 @@
       <c r="Z497" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="498" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA497" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>538</v>
       </c>
@@ -41452,8 +42940,11 @@
       <c r="Z498" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="499" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA498" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>539</v>
       </c>
@@ -41529,8 +43020,11 @@
       <c r="Z499" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="500" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA499" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>540</v>
       </c>
@@ -41606,8 +43100,11 @@
       <c r="Z500" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="501" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA500" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>541</v>
       </c>
@@ -41683,8 +43180,11 @@
       <c r="Z501" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="502" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA501" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>542</v>
       </c>
@@ -41760,8 +43260,11 @@
       <c r="Z502" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="503" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA502" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>543</v>
       </c>
@@ -41837,8 +43340,11 @@
       <c r="Z503" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="504" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA503" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>544</v>
       </c>
@@ -41914,8 +43420,11 @@
       <c r="Z504" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="505" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA504" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>545</v>
       </c>
@@ -41991,8 +43500,11 @@
       <c r="Z505" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="506" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA505" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>546</v>
       </c>
@@ -42068,8 +43580,11 @@
       <c r="Z506" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="507" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA506" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>547</v>
       </c>
@@ -42145,8 +43660,11 @@
       <c r="Z507" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="508" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA507" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>548</v>
       </c>
@@ -42222,8 +43740,11 @@
       <c r="Z508" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="509" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA508" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>549</v>
       </c>
@@ -42299,8 +43820,11 @@
       <c r="Z509" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="510" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA509" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>550</v>
       </c>
@@ -42376,8 +43900,11 @@
       <c r="Z510" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="511" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA510" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>551</v>
       </c>
@@ -42453,8 +43980,11 @@
       <c r="Z511" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="512" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA511" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>552</v>
       </c>
@@ -42530,8 +44060,11 @@
       <c r="Z512" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="513" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA512" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>553</v>
       </c>
@@ -42607,8 +44140,11 @@
       <c r="Z513" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="514" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA513" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>554</v>
       </c>
@@ -42684,8 +44220,11 @@
       <c r="Z514" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="515" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA514" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>555</v>
       </c>
@@ -42761,8 +44300,11 @@
       <c r="Z515" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="516" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA515" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>556</v>
       </c>
@@ -42838,8 +44380,11 @@
       <c r="Z516" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="517" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA516" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>557</v>
       </c>
@@ -42918,8 +44463,11 @@
       <c r="Z517" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="518" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA517" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="518" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>558</v>
       </c>
@@ -42998,8 +44546,11 @@
       <c r="Z518" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="519" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA518" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>560</v>
       </c>
@@ -43075,8 +44626,11 @@
       <c r="Z519" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="520" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA519" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>561</v>
       </c>
@@ -43152,8 +44706,11 @@
       <c r="Z520" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="521" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA520" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>562</v>
       </c>
@@ -43229,8 +44786,11 @@
       <c r="Z521" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="522" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA521" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>563</v>
       </c>
@@ -43306,8 +44866,11 @@
       <c r="Z522" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="523" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA522" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>564</v>
       </c>
@@ -43383,8 +44946,11 @@
       <c r="Z523" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="524" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA523" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>565</v>
       </c>
@@ -43460,8 +45026,11 @@
       <c r="Z524" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="525" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA524" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>566</v>
       </c>
@@ -43537,8 +45106,11 @@
       <c r="Z525" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="526" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA525" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>567</v>
       </c>
@@ -43614,8 +45186,11 @@
       <c r="Z526" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="527" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA526" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>568</v>
       </c>
@@ -43691,8 +45266,11 @@
       <c r="Z527" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="528" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA527" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>569</v>
       </c>
@@ -43769,6 +45347,9 @@
         <v>4</v>
       </c>
       <c r="Z528" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA528" s="1">
         <v>4</v>
       </c>
     </row>
@@ -43848,6 +45429,9 @@
       <c r="Z529" s="1">
         <v>4</v>
       </c>
+      <c r="AA529" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="530" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
@@ -43925,6 +45509,9 @@
       <c r="Z530" s="1">
         <v>4</v>
       </c>
+      <c r="AA530" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="531" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
@@ -44002,6 +45589,9 @@
       <c r="Z531" s="1">
         <v>4</v>
       </c>
+      <c r="AA531" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="532" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
@@ -44082,6 +45672,9 @@
       <c r="Z532" s="1">
         <v>4</v>
       </c>
+      <c r="AA532" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="533" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
@@ -44159,6 +45752,9 @@
       <c r="Z533" s="1">
         <v>4</v>
       </c>
+      <c r="AA533" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="534" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
@@ -44236,6 +45832,9 @@
       <c r="Z534" s="1">
         <v>4</v>
       </c>
+      <c r="AA534" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="535" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
@@ -44313,6 +45912,9 @@
       <c r="Z535" s="1">
         <v>4</v>
       </c>
+      <c r="AA535" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="536" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
@@ -44390,6 +45992,9 @@
       <c r="Z536" s="1">
         <v>4</v>
       </c>
+      <c r="AA536" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="537" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
@@ -44467,6 +46072,9 @@
       <c r="Z537" s="1">
         <v>4</v>
       </c>
+      <c r="AA537" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="538" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
@@ -44544,6 +46152,9 @@
       <c r="Z538" s="1">
         <v>4</v>
       </c>
+      <c r="AA538" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="539" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
@@ -44621,6 +46232,9 @@
       <c r="Z539" s="1">
         <v>4</v>
       </c>
+      <c r="AA539" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="540" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
@@ -44698,6 +46312,9 @@
       <c r="Z540" s="1">
         <v>4</v>
       </c>
+      <c r="AA540" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="541" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
@@ -44773,6 +46390,9 @@
         <v>4</v>
       </c>
       <c r="Z541" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA541" s="1">
         <v>4</v>
       </c>
     </row>

--- a/data/phenological_monitoring.xlsx
+++ b/data/phenological_monitoring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\Fuelinex\fuelinex\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89E6E99-C347-4DA4-BF93-7C46FF0365B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA0AC0A-06B7-FC46-B0A7-46B8E56932F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-3740" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4011" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="681">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2090,28 +2090,28 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2119,7 +2119,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2127,7 +2127,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2135,14 +2135,14 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2150,7 +2150,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2158,7 +2158,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2166,28 +2166,28 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2195,14 +2195,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <charset val="1"/>
       <scheme val="major"/>
@@ -2211,27 +2211,27 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2973,18 +2973,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A617" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE627" sqref="AE627"/>
+    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3061,16 +3061,16 @@
         <v>162</v>
       </c>
       <c r="Z1" s="1">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AA1" s="1">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AB1" s="1">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3392,7 +3392,7 @@
       <c r="Y5">
         <v>4</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="1">
         <v>4</v>
       </c>
       <c r="AA5" s="1">
@@ -3402,7 +3402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3558,7 +3558,7 @@
       <c r="Y7">
         <v>4</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="1">
         <v>4</v>
       </c>
       <c r="AA7" s="1">
@@ -3568,7 +3568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3724,7 +3724,7 @@
       <c r="Y9">
         <v>4</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="1">
         <v>4</v>
       </c>
       <c r="AA9" s="1">
@@ -3734,7 +3734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="Y11">
         <v>4</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="1">
         <v>4</v>
       </c>
       <c r="AA11" s="1">
@@ -3900,7 +3900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4056,7 +4056,7 @@
       <c r="Y13">
         <v>4</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="1">
         <v>4</v>
       </c>
       <c r="AA13" s="1">
@@ -4066,7 +4066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4222,7 +4222,7 @@
       <c r="Y15">
         <v>4</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="1">
         <v>4</v>
       </c>
       <c r="AA15" s="1">
@@ -4232,7 +4232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4388,7 +4388,7 @@
       <c r="Y17">
         <v>4</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="1">
         <v>4</v>
       </c>
       <c r="AA17" s="1">
@@ -4398,7 +4398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4554,7 +4554,7 @@
       <c r="Y19">
         <v>4</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="1">
         <v>4</v>
       </c>
       <c r="AA19" s="1">
@@ -4564,7 +4564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4720,7 +4720,7 @@
       <c r="Y21">
         <v>4</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="1">
         <v>4</v>
       </c>
       <c r="AA21" s="1">
@@ -4730,7 +4730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="Y23">
         <v>4</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="1">
         <v>4</v>
       </c>
       <c r="AA23" s="1">
@@ -4896,7 +4896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -5052,7 +5052,7 @@
       <c r="Y25">
         <v>4</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="1">
         <v>4</v>
       </c>
       <c r="AA25" s="1">
@@ -5062,7 +5062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -5218,7 +5218,7 @@
       <c r="Y27">
         <v>4</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="1">
         <v>4</v>
       </c>
       <c r="AA27" s="1">
@@ -5228,7 +5228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -5384,7 +5384,7 @@
       <c r="Y29">
         <v>4</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="1">
         <v>4</v>
       </c>
       <c r="AA29" s="1">
@@ -5394,7 +5394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -5550,7 +5550,7 @@
       <c r="Y31">
         <v>4</v>
       </c>
-      <c r="Z31">
+      <c r="Z31" s="1">
         <v>4</v>
       </c>
       <c r="AA31" s="1">
@@ -5560,7 +5560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -5716,7 +5716,7 @@
       <c r="Y33">
         <v>4</v>
       </c>
-      <c r="Z33">
+      <c r="Z33" s="1">
         <v>4</v>
       </c>
       <c r="AA33" s="1">
@@ -5726,7 +5726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -5882,7 +5882,7 @@
       <c r="Y35">
         <v>4</v>
       </c>
-      <c r="Z35">
+      <c r="Z35" s="1">
         <v>4</v>
       </c>
       <c r="AA35" s="1">
@@ -5892,7 +5892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -6048,7 +6048,7 @@
       <c r="Y37">
         <v>4</v>
       </c>
-      <c r="Z37">
+      <c r="Z37" s="1">
         <v>4</v>
       </c>
       <c r="AA37" s="1">
@@ -6058,7 +6058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -6214,7 +6214,7 @@
       <c r="Y39">
         <v>4</v>
       </c>
-      <c r="Z39">
+      <c r="Z39" s="1">
         <v>4</v>
       </c>
       <c r="AA39" s="1">
@@ -6224,7 +6224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -6380,7 +6380,7 @@
       <c r="Y41">
         <v>4</v>
       </c>
-      <c r="Z41">
+      <c r="Z41" s="1">
         <v>4</v>
       </c>
       <c r="AA41" s="1">
@@ -6390,7 +6390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -6546,7 +6546,7 @@
       <c r="Y43">
         <v>4</v>
       </c>
-      <c r="Z43">
+      <c r="Z43" s="1">
         <v>4</v>
       </c>
       <c r="AA43" s="1">
@@ -6556,7 +6556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -6712,7 +6712,7 @@
       <c r="Y45">
         <v>4</v>
       </c>
-      <c r="Z45">
+      <c r="Z45" s="1">
         <v>4</v>
       </c>
       <c r="AA45" s="1">
@@ -6722,7 +6722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -6878,7 +6878,7 @@
       <c r="Y47">
         <v>4</v>
       </c>
-      <c r="Z47">
+      <c r="Z47" s="1">
         <v>4</v>
       </c>
       <c r="AA47" s="1">
@@ -6888,7 +6888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -7044,7 +7044,7 @@
       <c r="Y49" s="1">
         <v>4</v>
       </c>
-      <c r="Z49">
+      <c r="Z49" s="1">
         <v>4</v>
       </c>
       <c r="AA49" s="1">
@@ -7054,7 +7054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -7210,7 +7210,7 @@
       <c r="Y51" s="1">
         <v>4</v>
       </c>
-      <c r="Z51">
+      <c r="Z51" s="1">
         <v>4</v>
       </c>
       <c r="AA51" s="1">
@@ -7220,7 +7220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -7376,7 +7376,7 @@
       <c r="Y53" s="1">
         <v>4</v>
       </c>
-      <c r="Z53">
+      <c r="Z53" s="1">
         <v>4</v>
       </c>
       <c r="AA53" s="1">
@@ -7386,7 +7386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -7542,7 +7542,7 @@
       <c r="Y55" s="1">
         <v>4</v>
       </c>
-      <c r="Z55">
+      <c r="Z55" s="1">
         <v>4</v>
       </c>
       <c r="AA55" s="1">
@@ -7552,7 +7552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -7708,7 +7708,7 @@
       <c r="Y57" s="1">
         <v>4</v>
       </c>
-      <c r="Z57">
+      <c r="Z57" s="1">
         <v>4</v>
       </c>
       <c r="AA57" s="1">
@@ -7718,7 +7718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -7874,7 +7874,7 @@
       <c r="Y59" s="1">
         <v>4</v>
       </c>
-      <c r="Z59">
+      <c r="Z59" s="1">
         <v>4</v>
       </c>
       <c r="AA59" s="1">
@@ -7884,7 +7884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -8040,7 +8040,7 @@
       <c r="Y61" s="1">
         <v>4</v>
       </c>
-      <c r="Z61">
+      <c r="Z61" s="1">
         <v>4</v>
       </c>
       <c r="AA61" s="1">
@@ -8050,7 +8050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -8206,7 +8206,7 @@
       <c r="Y63" s="1">
         <v>4</v>
       </c>
-      <c r="Z63">
+      <c r="Z63" s="1">
         <v>4</v>
       </c>
       <c r="AA63" s="1">
@@ -8216,7 +8216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -8372,7 +8372,7 @@
       <c r="Y65" s="1">
         <v>4</v>
       </c>
-      <c r="Z65">
+      <c r="Z65" s="1">
         <v>4</v>
       </c>
       <c r="AA65" s="1">
@@ -8382,7 +8382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -8538,7 +8538,7 @@
       <c r="Y67" s="1">
         <v>4</v>
       </c>
-      <c r="Z67">
+      <c r="Z67" s="1">
         <v>4</v>
       </c>
       <c r="AA67" s="1">
@@ -8548,7 +8548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -8704,7 +8704,7 @@
       <c r="Y69" s="1">
         <v>4</v>
       </c>
-      <c r="Z69">
+      <c r="Z69" s="1">
         <v>4</v>
       </c>
       <c r="AA69" s="1">
@@ -8714,7 +8714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -8870,7 +8870,7 @@
       <c r="Y71">
         <v>4</v>
       </c>
-      <c r="Z71">
+      <c r="Z71" s="1">
         <v>4</v>
       </c>
       <c r="AA71" s="1">
@@ -8880,7 +8880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -9036,7 +9036,7 @@
       <c r="Y73">
         <v>4</v>
       </c>
-      <c r="Z73">
+      <c r="Z73" s="1">
         <v>4</v>
       </c>
       <c r="AA73" s="1">
@@ -9046,7 +9046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -9202,7 +9202,7 @@
       <c r="Y75">
         <v>4</v>
       </c>
-      <c r="Z75">
+      <c r="Z75" s="1">
         <v>4</v>
       </c>
       <c r="AA75" s="1">
@@ -9212,7 +9212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -9368,7 +9368,7 @@
       <c r="Y77">
         <v>4</v>
       </c>
-      <c r="Z77">
+      <c r="Z77" s="1">
         <v>4</v>
       </c>
       <c r="AA77" s="1">
@@ -9378,7 +9378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -9534,7 +9534,7 @@
       <c r="Y79">
         <v>4</v>
       </c>
-      <c r="Z79">
+      <c r="Z79" s="1">
         <v>4</v>
       </c>
       <c r="AA79" s="1">
@@ -9544,7 +9544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>93</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -9700,7 +9700,7 @@
       <c r="Y81">
         <v>4</v>
       </c>
-      <c r="Z81">
+      <c r="Z81" s="1">
         <v>4</v>
       </c>
       <c r="AA81" s="1">
@@ -9710,7 +9710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>95</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -9866,7 +9866,7 @@
       <c r="Y83">
         <v>4</v>
       </c>
-      <c r="Z83">
+      <c r="Z83" s="1">
         <v>4</v>
       </c>
       <c r="AA83" s="1">
@@ -9876,7 +9876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>97</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -10032,7 +10032,7 @@
       <c r="Y85">
         <v>4</v>
       </c>
-      <c r="Z85">
+      <c r="Z85" s="1">
         <v>4</v>
       </c>
       <c r="AA85" s="1">
@@ -10042,7 +10042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -10198,7 +10198,7 @@
       <c r="Y87">
         <v>4</v>
       </c>
-      <c r="Z87">
+      <c r="Z87" s="1">
         <v>4</v>
       </c>
       <c r="AA87" s="1">
@@ -10208,7 +10208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>101</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -10364,7 +10364,7 @@
       <c r="Y89">
         <v>4</v>
       </c>
-      <c r="Z89">
+      <c r="Z89" s="1">
         <v>4</v>
       </c>
       <c r="AA89" s="1">
@@ -10374,7 +10374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>103</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -10530,7 +10530,7 @@
       <c r="Y91">
         <v>4</v>
       </c>
-      <c r="Z91">
+      <c r="Z91" s="1">
         <v>4</v>
       </c>
       <c r="AA91" s="1">
@@ -10540,7 +10540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>105</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -10696,7 +10696,7 @@
       <c r="Y93">
         <v>4</v>
       </c>
-      <c r="Z93">
+      <c r="Z93" s="1">
         <v>4</v>
       </c>
       <c r="AA93" s="1">
@@ -10706,7 +10706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>109</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -10865,7 +10865,7 @@
       <c r="Y95">
         <v>4</v>
       </c>
-      <c r="Z95">
+      <c r="Z95" s="1">
         <v>4</v>
       </c>
       <c r="AA95" s="1">
@@ -10875,7 +10875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>112</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -11031,7 +11031,7 @@
       <c r="Y97">
         <v>4</v>
       </c>
-      <c r="Z97">
+      <c r="Z97" s="1">
         <v>4</v>
       </c>
       <c r="AA97" s="1">
@@ -11041,7 +11041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>114</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -11197,7 +11197,7 @@
       <c r="Y99">
         <v>4</v>
       </c>
-      <c r="Z99">
+      <c r="Z99" s="1">
         <v>4</v>
       </c>
       <c r="AA99" s="1">
@@ -11207,7 +11207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>116</v>
       </c>
@@ -11290,7 +11290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -11363,7 +11363,7 @@
       <c r="Y101">
         <v>4</v>
       </c>
-      <c r="Z101">
+      <c r="Z101" s="1">
         <v>4</v>
       </c>
       <c r="AA101" s="1">
@@ -11373,7 +11373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>118</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -11529,7 +11529,7 @@
       <c r="Y103">
         <v>4</v>
       </c>
-      <c r="Z103">
+      <c r="Z103" s="1">
         <v>4</v>
       </c>
       <c r="AA103" s="1">
@@ -11539,7 +11539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>120</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -11695,7 +11695,7 @@
       <c r="Y105">
         <v>4</v>
       </c>
-      <c r="Z105">
+      <c r="Z105" s="1">
         <v>4</v>
       </c>
       <c r="AA105" s="1">
@@ -11705,7 +11705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -11861,7 +11861,7 @@
       <c r="Y107">
         <v>4</v>
       </c>
-      <c r="Z107">
+      <c r="Z107" s="1">
         <v>4</v>
       </c>
       <c r="AA107" s="1">
@@ -11871,7 +11871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -12030,7 +12030,7 @@
       <c r="Y109">
         <v>4</v>
       </c>
-      <c r="Z109">
+      <c r="Z109" s="1">
         <v>4</v>
       </c>
       <c r="AA109" s="1">
@@ -12040,7 +12040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -12196,7 +12196,7 @@
       <c r="Y111">
         <v>4</v>
       </c>
-      <c r="Z111">
+      <c r="Z111" s="1">
         <v>4</v>
       </c>
       <c r="AA111" s="1">
@@ -12206,7 +12206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -12362,7 +12362,7 @@
       <c r="Y113">
         <v>4</v>
       </c>
-      <c r="Z113">
+      <c r="Z113" s="1">
         <v>4</v>
       </c>
       <c r="AA113" s="1">
@@ -12372,7 +12372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>130</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -12528,7 +12528,7 @@
       <c r="Y115">
         <v>4</v>
       </c>
-      <c r="Z115">
+      <c r="Z115" s="1">
         <v>4</v>
       </c>
       <c r="AA115" s="1">
@@ -12538,7 +12538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>132</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -12694,7 +12694,7 @@
       <c r="Y117">
         <v>4</v>
       </c>
-      <c r="Z117">
+      <c r="Z117" s="1">
         <v>4</v>
       </c>
       <c r="AA117" s="1">
@@ -12704,7 +12704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>135</v>
       </c>
@@ -12860,7 +12860,7 @@
       <c r="Y119" s="1">
         <v>4</v>
       </c>
-      <c r="Z119">
+      <c r="Z119" s="1">
         <v>4</v>
       </c>
       <c r="AA119" s="1">
@@ -12870,7 +12870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>137</v>
       </c>
@@ -13029,7 +13029,7 @@
       <c r="Y121" s="1">
         <v>4</v>
       </c>
-      <c r="Z121">
+      <c r="Z121" s="1">
         <v>4</v>
       </c>
       <c r="AA121" s="1">
@@ -13039,7 +13039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>139</v>
       </c>
@@ -13195,7 +13195,7 @@
       <c r="Y123" s="1">
         <v>4</v>
       </c>
-      <c r="Z123">
+      <c r="Z123" s="1">
         <v>4</v>
       </c>
       <c r="AA123" s="1">
@@ -13205,7 +13205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>141</v>
       </c>
@@ -13361,7 +13361,7 @@
       <c r="Y125" s="1">
         <v>4</v>
       </c>
-      <c r="Z125">
+      <c r="Z125" s="1">
         <v>4</v>
       </c>
       <c r="AA125" s="1">
@@ -13371,7 +13371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>143</v>
       </c>
@@ -13527,7 +13527,7 @@
       <c r="Y127" s="1">
         <v>4</v>
       </c>
-      <c r="Z127">
+      <c r="Z127" s="1">
         <v>4</v>
       </c>
       <c r="AA127" s="1">
@@ -13537,7 +13537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -13620,7 +13620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>145</v>
       </c>
@@ -13693,7 +13693,7 @@
       <c r="Y129" s="1">
         <v>4</v>
       </c>
-      <c r="Z129">
+      <c r="Z129" s="1">
         <v>4</v>
       </c>
       <c r="AA129" s="1">
@@ -13703,7 +13703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -13786,7 +13786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>147</v>
       </c>
@@ -13859,7 +13859,7 @@
       <c r="Y131" s="1">
         <v>4</v>
       </c>
-      <c r="Z131">
+      <c r="Z131" s="1">
         <v>4</v>
       </c>
       <c r="AA131" s="1">
@@ -13869,7 +13869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>149</v>
       </c>
@@ -14025,7 +14025,7 @@
       <c r="Y133" s="1">
         <v>4</v>
       </c>
-      <c r="Z133">
+      <c r="Z133" s="1">
         <v>4</v>
       </c>
       <c r="AA133" s="1">
@@ -14035,7 +14035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -14118,7 +14118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>151</v>
       </c>
@@ -14191,7 +14191,7 @@
       <c r="Y135" s="1">
         <v>4</v>
       </c>
-      <c r="Z135">
+      <c r="Z135" s="1">
         <v>4</v>
       </c>
       <c r="AA135" s="1">
@@ -14201,7 +14201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>153</v>
       </c>
@@ -14357,7 +14357,7 @@
       <c r="Y137" s="1">
         <v>4</v>
       </c>
-      <c r="Z137">
+      <c r="Z137" s="1">
         <v>4</v>
       </c>
       <c r="AA137" s="1">
@@ -14367,7 +14367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>155</v>
       </c>
@@ -14523,7 +14523,7 @@
       <c r="Y139" s="1">
         <v>4</v>
       </c>
-      <c r="Z139">
+      <c r="Z139" s="1">
         <v>4</v>
       </c>
       <c r="AA139" s="1">
@@ -14533,7 +14533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>156</v>
       </c>
@@ -14616,7 +14616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -14689,7 +14689,7 @@
       <c r="Y141">
         <v>4</v>
       </c>
-      <c r="Z141">
+      <c r="Z141" s="1">
         <v>4</v>
       </c>
       <c r="AA141" s="1">
@@ -14699,7 +14699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>158</v>
       </c>
@@ -14782,7 +14782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -14855,7 +14855,7 @@
       <c r="Y143">
         <v>4</v>
       </c>
-      <c r="Z143">
+      <c r="Z143" s="1">
         <v>4</v>
       </c>
       <c r="AA143" s="1">
@@ -14865,7 +14865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>160</v>
       </c>
@@ -14948,7 +14948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -15021,7 +15021,7 @@
       <c r="Y145">
         <v>4</v>
       </c>
-      <c r="Z145">
+      <c r="Z145" s="1">
         <v>4</v>
       </c>
       <c r="AA145" s="1">
@@ -15031,7 +15031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>162</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -15187,7 +15187,7 @@
       <c r="Y147">
         <v>4</v>
       </c>
-      <c r="Z147">
+      <c r="Z147" s="1">
         <v>4</v>
       </c>
       <c r="AA147" s="1">
@@ -15197,7 +15197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>164</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -15353,7 +15353,7 @@
       <c r="Y149">
         <v>4</v>
       </c>
-      <c r="Z149">
+      <c r="Z149" s="1">
         <v>4</v>
       </c>
       <c r="AA149" s="1">
@@ -15363,7 +15363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>166</v>
       </c>
@@ -15446,7 +15446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -15519,7 +15519,7 @@
       <c r="Y151">
         <v>4</v>
       </c>
-      <c r="Z151">
+      <c r="Z151" s="1">
         <v>4</v>
       </c>
       <c r="AA151" s="1">
@@ -15529,7 +15529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>168</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>169</v>
       </c>
@@ -15685,7 +15685,7 @@
       <c r="Y153">
         <v>4</v>
       </c>
-      <c r="Z153">
+      <c r="Z153" s="1">
         <v>4</v>
       </c>
       <c r="AA153" s="1">
@@ -15695,7 +15695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>170</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>171</v>
       </c>
@@ -15851,7 +15851,7 @@
       <c r="Y155">
         <v>4</v>
       </c>
-      <c r="Z155">
+      <c r="Z155" s="1">
         <v>4</v>
       </c>
       <c r="AA155" s="1">
@@ -15861,7 +15861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>172</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -16017,7 +16017,7 @@
       <c r="Y157">
         <v>4</v>
       </c>
-      <c r="Z157">
+      <c r="Z157" s="1">
         <v>4</v>
       </c>
       <c r="AA157" s="1">
@@ -16027,7 +16027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>174</v>
       </c>
@@ -16110,7 +16110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>175</v>
       </c>
@@ -16183,7 +16183,7 @@
       <c r="Y159">
         <v>4</v>
       </c>
-      <c r="Z159">
+      <c r="Z159" s="1">
         <v>4</v>
       </c>
       <c r="AA159" s="1">
@@ -16193,7 +16193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>176</v>
       </c>
@@ -16276,7 +16276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -16349,7 +16349,7 @@
       <c r="Y161">
         <v>4</v>
       </c>
-      <c r="Z161">
+      <c r="Z161" s="1">
         <v>4</v>
       </c>
       <c r="AA161" s="1">
@@ -16359,7 +16359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>178</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>179</v>
       </c>
@@ -16515,7 +16515,7 @@
       <c r="Y163">
         <v>4</v>
       </c>
-      <c r="Z163">
+      <c r="Z163" s="1">
         <v>4</v>
       </c>
       <c r="AA163" s="1">
@@ -16525,7 +16525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>180</v>
       </c>
@@ -16608,7 +16608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -16681,7 +16681,7 @@
       <c r="Y165">
         <v>4</v>
       </c>
-      <c r="Z165">
+      <c r="Z165" s="1">
         <v>4</v>
       </c>
       <c r="AA165" s="1">
@@ -16691,7 +16691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>182</v>
       </c>
@@ -16774,7 +16774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -16847,7 +16847,7 @@
       <c r="Y167">
         <v>4</v>
       </c>
-      <c r="Z167">
+      <c r="Z167" s="1">
         <v>4</v>
       </c>
       <c r="AA167" s="1">
@@ -16857,7 +16857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>184</v>
       </c>
@@ -16940,7 +16940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -17013,7 +17013,7 @@
       <c r="Y169">
         <v>4</v>
       </c>
-      <c r="Z169">
+      <c r="Z169" s="1">
         <v>4</v>
       </c>
       <c r="AA169" s="1">
@@ -17023,7 +17023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>186</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -17179,7 +17179,7 @@
       <c r="Y171">
         <v>4</v>
       </c>
-      <c r="Z171">
+      <c r="Z171" s="1">
         <v>4</v>
       </c>
       <c r="AA171" s="1">
@@ -17189,7 +17189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>188</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>189</v>
       </c>
@@ -17345,7 +17345,7 @@
       <c r="Y173">
         <v>4</v>
       </c>
-      <c r="Z173">
+      <c r="Z173" s="1">
         <v>4</v>
       </c>
       <c r="AA173" s="1">
@@ -17355,7 +17355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>190</v>
       </c>
@@ -17438,7 +17438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -17511,7 +17511,7 @@
       <c r="Y175">
         <v>4</v>
       </c>
-      <c r="Z175">
+      <c r="Z175" s="1">
         <v>4</v>
       </c>
       <c r="AA175" s="1">
@@ -17521,7 +17521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>192</v>
       </c>
@@ -17604,7 +17604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>193</v>
       </c>
@@ -17677,7 +17677,7 @@
       <c r="Y177">
         <v>4</v>
       </c>
-      <c r="Z177">
+      <c r="Z177" s="1">
         <v>4</v>
       </c>
       <c r="AA177" s="1">
@@ -17687,7 +17687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>194</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>195</v>
       </c>
@@ -17843,7 +17843,7 @@
       <c r="Y179">
         <v>4</v>
       </c>
-      <c r="Z179">
+      <c r="Z179" s="1">
         <v>4</v>
       </c>
       <c r="AA179" s="1">
@@ -17853,7 +17853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>196</v>
       </c>
@@ -17936,7 +17936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>197</v>
       </c>
@@ -18009,7 +18009,7 @@
       <c r="Y181">
         <v>4</v>
       </c>
-      <c r="Z181">
+      <c r="Z181" s="1">
         <v>4</v>
       </c>
       <c r="AA181" s="1">
@@ -18019,7 +18019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>198</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -18175,7 +18175,7 @@
       <c r="Y183">
         <v>4</v>
       </c>
-      <c r="Z183">
+      <c r="Z183" s="1">
         <v>4</v>
       </c>
       <c r="AA183" s="1">
@@ -18185,7 +18185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>202</v>
       </c>
@@ -18268,7 +18268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -18341,7 +18341,7 @@
       <c r="Y185">
         <v>4</v>
       </c>
-      <c r="Z185">
+      <c r="Z185" s="1">
         <v>4</v>
       </c>
       <c r="AA185" s="1">
@@ -18351,7 +18351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>204</v>
       </c>
@@ -18437,7 +18437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -18510,7 +18510,7 @@
       <c r="Y187">
         <v>4</v>
       </c>
-      <c r="Z187">
+      <c r="Z187" s="1">
         <v>4</v>
       </c>
       <c r="AA187" s="1">
@@ -18520,7 +18520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -18603,7 +18603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>208</v>
       </c>
@@ -18676,7 +18676,7 @@
       <c r="Y189" s="4">
         <v>4</v>
       </c>
-      <c r="Z189">
+      <c r="Z189" s="1">
         <v>4</v>
       </c>
       <c r="AA189" s="1">
@@ -18686,7 +18686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -18772,7 +18772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>210</v>
       </c>
@@ -18845,7 +18845,7 @@
       <c r="Y191" s="4">
         <v>4</v>
       </c>
-      <c r="Z191">
+      <c r="Z191" s="1">
         <v>4</v>
       </c>
       <c r="AA191" s="1">
@@ -18855,7 +18855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>212</v>
       </c>
@@ -19011,7 +19011,7 @@
       <c r="Y193" s="4">
         <v>4</v>
       </c>
-      <c r="Z193">
+      <c r="Z193" s="1">
         <v>4</v>
       </c>
       <c r="AA193" s="1">
@@ -19021,7 +19021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -19107,7 +19107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>215</v>
       </c>
@@ -19180,7 +19180,7 @@
       <c r="Y195" s="4">
         <v>4</v>
       </c>
-      <c r="Z195">
+      <c r="Z195" s="1">
         <v>4</v>
       </c>
       <c r="AA195" s="1">
@@ -19190,7 +19190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -19273,7 +19273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>217</v>
       </c>
@@ -19346,7 +19346,7 @@
       <c r="Y197" s="1">
         <v>4</v>
       </c>
-      <c r="Z197">
+      <c r="Z197" s="1">
         <v>4</v>
       </c>
       <c r="AA197" s="1">
@@ -19356,7 +19356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -19442,7 +19442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>220</v>
       </c>
@@ -19515,7 +19515,7 @@
       <c r="Y199" s="4">
         <v>4</v>
       </c>
-      <c r="Z199">
+      <c r="Z199" s="1">
         <v>4</v>
       </c>
       <c r="AA199" s="1">
@@ -19525,7 +19525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -19611,7 +19611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>222</v>
       </c>
@@ -19684,7 +19684,7 @@
       <c r="Y201" s="4">
         <v>4</v>
       </c>
-      <c r="Z201">
+      <c r="Z201" s="1">
         <v>4</v>
       </c>
       <c r="AA201" s="1">
@@ -19694,7 +19694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -19777,7 +19777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>224</v>
       </c>
@@ -19850,7 +19850,7 @@
       <c r="Y203" s="4">
         <v>4</v>
       </c>
-      <c r="Z203">
+      <c r="Z203" s="1">
         <v>4</v>
       </c>
       <c r="AA203" s="1">
@@ -19860,7 +19860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -19943,7 +19943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>226</v>
       </c>
@@ -20019,7 +20019,7 @@
       <c r="Y205" s="4">
         <v>4</v>
       </c>
-      <c r="Z205">
+      <c r="Z205" s="1">
         <v>4</v>
       </c>
       <c r="AA205" s="1">
@@ -20029,7 +20029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>228</v>
       </c>
@@ -20185,7 +20185,7 @@
       <c r="Y207" s="1">
         <v>4</v>
       </c>
-      <c r="Z207">
+      <c r="Z207" s="1">
         <v>4</v>
       </c>
       <c r="AA207" s="1">
@@ -20195,7 +20195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -20281,7 +20281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>230</v>
       </c>
@@ -20354,7 +20354,7 @@
       <c r="Y209" s="4">
         <v>4</v>
       </c>
-      <c r="Z209">
+      <c r="Z209" s="1">
         <v>4</v>
       </c>
       <c r="AA209" s="1">
@@ -20364,7 +20364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -20447,7 +20447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -20523,7 +20523,7 @@
       <c r="Y211" s="4">
         <v>4</v>
       </c>
-      <c r="Z211">
+      <c r="Z211" s="1">
         <v>4</v>
       </c>
       <c r="AA211" s="1">
@@ -20533,7 +20533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>233</v>
       </c>
@@ -20616,7 +20616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -20689,7 +20689,7 @@
       <c r="Y213" s="3">
         <v>4</v>
       </c>
-      <c r="Z213">
+      <c r="Z213" s="1">
         <v>4</v>
       </c>
       <c r="AA213" s="1">
@@ -20699,7 +20699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>235</v>
       </c>
@@ -20782,7 +20782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>236</v>
       </c>
@@ -20855,7 +20855,7 @@
       <c r="Y215" s="3">
         <v>4</v>
       </c>
-      <c r="Z215">
+      <c r="Z215" s="1">
         <v>4</v>
       </c>
       <c r="AA215" s="1">
@@ -20865,7 +20865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>237</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>238</v>
       </c>
@@ -21024,7 +21024,7 @@
       <c r="Y217" s="3">
         <v>4</v>
       </c>
-      <c r="Z217">
+      <c r="Z217" s="1">
         <v>4</v>
       </c>
       <c r="AA217" s="1">
@@ -21034,7 +21034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>239</v>
       </c>
@@ -21117,7 +21117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -21190,7 +21190,7 @@
       <c r="Y219" s="3">
         <v>4</v>
       </c>
-      <c r="Z219">
+      <c r="Z219" s="1">
         <v>4</v>
       </c>
       <c r="AA219" s="1">
@@ -21200,7 +21200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>241</v>
       </c>
@@ -21283,7 +21283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -21356,7 +21356,7 @@
       <c r="Y221" s="3">
         <v>4</v>
       </c>
-      <c r="Z221">
+      <c r="Z221" s="1">
         <v>4</v>
       </c>
       <c r="AA221" s="1">
@@ -21366,7 +21366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>243</v>
       </c>
@@ -21449,7 +21449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -21525,7 +21525,7 @@
       <c r="Y223" s="3">
         <v>4</v>
       </c>
-      <c r="Z223">
+      <c r="Z223" s="1">
         <v>4</v>
       </c>
       <c r="AA223" s="1">
@@ -21535,7 +21535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>245</v>
       </c>
@@ -21618,7 +21618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -21694,7 +21694,7 @@
       <c r="Y225" s="3">
         <v>4</v>
       </c>
-      <c r="Z225">
+      <c r="Z225" s="1">
         <v>4</v>
       </c>
       <c r="AA225" s="1">
@@ -21704,7 +21704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>247</v>
       </c>
@@ -21787,7 +21787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -21860,7 +21860,7 @@
       <c r="Y227">
         <v>4</v>
       </c>
-      <c r="Z227">
+      <c r="Z227" s="1">
         <v>4</v>
       </c>
       <c r="AA227" s="1">
@@ -21870,7 +21870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>249</v>
       </c>
@@ -21953,7 +21953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -22026,7 +22026,7 @@
       <c r="Y229">
         <v>4</v>
       </c>
-      <c r="Z229">
+      <c r="Z229" s="1">
         <v>4</v>
       </c>
       <c r="AA229" s="1">
@@ -22036,7 +22036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>251</v>
       </c>
@@ -22119,7 +22119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -22192,7 +22192,7 @@
       <c r="Y231" s="3">
         <v>4</v>
       </c>
-      <c r="Z231">
+      <c r="Z231" s="1">
         <v>4</v>
       </c>
       <c r="AA231" s="1">
@@ -22202,7 +22202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>253</v>
       </c>
@@ -22285,7 +22285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -22358,7 +22358,7 @@
       <c r="Y233" s="3">
         <v>4</v>
       </c>
-      <c r="Z233">
+      <c r="Z233" s="1">
         <v>4</v>
       </c>
       <c r="AA233" s="1">
@@ -22368,7 +22368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>255</v>
       </c>
@@ -22451,7 +22451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -22524,7 +22524,7 @@
       <c r="Y235" s="3">
         <v>4</v>
       </c>
-      <c r="Z235">
+      <c r="Z235" s="1">
         <v>4</v>
       </c>
       <c r="AA235" s="1">
@@ -22534,7 +22534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>257</v>
       </c>
@@ -22617,7 +22617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -22690,7 +22690,7 @@
       <c r="Y237" s="3">
         <v>4</v>
       </c>
-      <c r="Z237">
+      <c r="Z237" s="1">
         <v>4</v>
       </c>
       <c r="AA237" s="1">
@@ -22700,7 +22700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>259</v>
       </c>
@@ -22783,7 +22783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -22856,7 +22856,7 @@
       <c r="Y239" s="3">
         <v>4</v>
       </c>
-      <c r="Z239">
+      <c r="Z239" s="1">
         <v>4</v>
       </c>
       <c r="AA239" s="1">
@@ -22866,7 +22866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>261</v>
       </c>
@@ -22949,7 +22949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -23022,7 +23022,7 @@
       <c r="Y241" s="3">
         <v>4</v>
       </c>
-      <c r="Z241">
+      <c r="Z241" s="1">
         <v>4</v>
       </c>
       <c r="AA241" s="1">
@@ -23032,7 +23032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>263</v>
       </c>
@@ -23115,7 +23115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -23188,7 +23188,7 @@
       <c r="Y243">
         <v>4</v>
       </c>
-      <c r="Z243">
+      <c r="Z243" s="1">
         <v>4</v>
       </c>
       <c r="AA243" s="1">
@@ -23198,7 +23198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>265</v>
       </c>
@@ -23281,7 +23281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -23354,7 +23354,7 @@
       <c r="Y245">
         <v>4</v>
       </c>
-      <c r="Z245">
+      <c r="Z245" s="1">
         <v>4</v>
       </c>
       <c r="AA245" s="1">
@@ -23364,7 +23364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>267</v>
       </c>
@@ -23447,7 +23447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -23520,7 +23520,7 @@
       <c r="Y247" s="3">
         <v>4</v>
       </c>
-      <c r="Z247">
+      <c r="Z247" s="1">
         <v>4</v>
       </c>
       <c r="AA247" s="1">
@@ -23530,7 +23530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>269</v>
       </c>
@@ -23613,7 +23613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -23686,7 +23686,7 @@
       <c r="Y249" s="3">
         <v>4</v>
       </c>
-      <c r="Z249">
+      <c r="Z249" s="1">
         <v>4</v>
       </c>
       <c r="AA249" s="1">
@@ -23696,7 +23696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>271</v>
       </c>
@@ -23779,7 +23779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>272</v>
       </c>
@@ -23852,7 +23852,7 @@
       <c r="Y251">
         <v>4</v>
       </c>
-      <c r="Z251">
+      <c r="Z251" s="1">
         <v>4</v>
       </c>
       <c r="AA251" s="1">
@@ -23862,7 +23862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>273</v>
       </c>
@@ -23945,7 +23945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -24018,7 +24018,7 @@
       <c r="Y253" s="3">
         <v>4</v>
       </c>
-      <c r="Z253">
+      <c r="Z253" s="1">
         <v>4</v>
       </c>
       <c r="AA253" s="1">
@@ -24028,7 +24028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>275</v>
       </c>
@@ -24111,7 +24111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -24184,7 +24184,7 @@
       <c r="Y255" s="3">
         <v>4</v>
       </c>
-      <c r="Z255">
+      <c r="Z255" s="1">
         <v>4</v>
       </c>
       <c r="AA255" s="1">
@@ -24194,7 +24194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>277</v>
       </c>
@@ -24277,7 +24277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -24350,7 +24350,7 @@
       <c r="Y257">
         <v>4</v>
       </c>
-      <c r="Z257">
+      <c r="Z257" s="1">
         <v>4</v>
       </c>
       <c r="AA257" s="1">
@@ -24360,7 +24360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>279</v>
       </c>
@@ -24443,7 +24443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>280</v>
       </c>
@@ -24516,7 +24516,7 @@
       <c r="Y259" s="4">
         <v>4</v>
       </c>
-      <c r="Z259">
+      <c r="Z259" s="1">
         <v>4</v>
       </c>
       <c r="AA259" s="1">
@@ -24526,7 +24526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>281</v>
       </c>
@@ -24609,7 +24609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>282</v>
       </c>
@@ -24682,7 +24682,7 @@
       <c r="Y261" s="4">
         <v>4</v>
       </c>
-      <c r="Z261">
+      <c r="Z261" s="1">
         <v>4</v>
       </c>
       <c r="AA261" s="1">
@@ -24692,7 +24692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>283</v>
       </c>
@@ -24775,7 +24775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>284</v>
       </c>
@@ -24848,7 +24848,7 @@
       <c r="Y263" s="4">
         <v>4</v>
       </c>
-      <c r="Z263">
+      <c r="Z263" s="1">
         <v>4</v>
       </c>
       <c r="AA263" s="1">
@@ -24858,7 +24858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>285</v>
       </c>
@@ -24941,7 +24941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>286</v>
       </c>
@@ -25014,7 +25014,7 @@
       <c r="Y265" s="4">
         <v>4</v>
       </c>
-      <c r="Z265">
+      <c r="Z265" s="1">
         <v>4</v>
       </c>
       <c r="AA265" s="1">
@@ -25024,7 +25024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -25107,7 +25107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>288</v>
       </c>
@@ -25180,7 +25180,7 @@
       <c r="Y267" s="4">
         <v>4</v>
       </c>
-      <c r="Z267">
+      <c r="Z267" s="1">
         <v>4</v>
       </c>
       <c r="AA267" s="1">
@@ -25190,7 +25190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -25273,7 +25273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>290</v>
       </c>
@@ -25346,7 +25346,7 @@
       <c r="Y269" s="4">
         <v>4</v>
       </c>
-      <c r="Z269">
+      <c r="Z269" s="1">
         <v>4</v>
       </c>
       <c r="AA269" s="1">
@@ -25356,7 +25356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -25439,7 +25439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>292</v>
       </c>
@@ -25512,7 +25512,7 @@
       <c r="Y271" s="1">
         <v>4</v>
       </c>
-      <c r="Z271">
+      <c r="Z271" s="1">
         <v>4</v>
       </c>
       <c r="AA271" s="1">
@@ -25522,7 +25522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -25605,7 +25605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>296</v>
       </c>
@@ -25678,7 +25678,7 @@
       <c r="Y273" s="4">
         <v>4</v>
       </c>
-      <c r="Z273">
+      <c r="Z273" s="1">
         <v>4</v>
       </c>
       <c r="AA273" s="1">
@@ -25688,7 +25688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -25771,7 +25771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>298</v>
       </c>
@@ -25844,7 +25844,7 @@
       <c r="Y275" s="4">
         <v>4</v>
       </c>
-      <c r="Z275">
+      <c r="Z275" s="1">
         <v>4</v>
       </c>
       <c r="AA275" s="1">
@@ -25854,7 +25854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -25937,7 +25937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>300</v>
       </c>
@@ -26010,7 +26010,7 @@
       <c r="Y277" s="4">
         <v>4</v>
       </c>
-      <c r="Z277">
+      <c r="Z277" s="1">
         <v>4</v>
       </c>
       <c r="AA277" s="1">
@@ -26020,7 +26020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -26103,7 +26103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>302</v>
       </c>
@@ -26179,7 +26179,7 @@
       <c r="Y279" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="Z279" s="4" t="s">
+      <c r="Z279" s="1" t="s">
         <v>679</v>
       </c>
       <c r="AA279" s="1" t="s">
@@ -26189,7 +26189,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="280" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -26262,7 +26262,7 @@
       <c r="Y280" s="3">
         <v>4</v>
       </c>
-      <c r="Z280" s="3">
+      <c r="Z280" s="1">
         <v>4</v>
       </c>
       <c r="AA280" s="1">
@@ -26272,7 +26272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -26345,7 +26345,7 @@
       <c r="Y281" s="4">
         <v>4</v>
       </c>
-      <c r="Z281" s="4">
+      <c r="Z281" s="1">
         <v>4</v>
       </c>
       <c r="AA281" s="1">
@@ -26355,7 +26355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>305</v>
       </c>
@@ -26428,7 +26428,7 @@
       <c r="Y282" s="4">
         <v>4</v>
       </c>
-      <c r="Z282" s="4">
+      <c r="Z282" s="1">
         <v>4</v>
       </c>
       <c r="AA282" s="1">
@@ -26438,7 +26438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -26524,7 +26524,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="284" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>309</v>
       </c>
@@ -26597,7 +26597,7 @@
       <c r="Y284" s="4">
         <v>4</v>
       </c>
-      <c r="Z284" s="4">
+      <c r="Z284" s="1">
         <v>4</v>
       </c>
       <c r="AA284" s="1">
@@ -26607,7 +26607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -26680,7 +26680,7 @@
       <c r="Y285" s="3">
         <v>4</v>
       </c>
-      <c r="Z285" s="3">
+      <c r="Z285" s="1">
         <v>4</v>
       </c>
       <c r="AA285" s="1">
@@ -26690,7 +26690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>311</v>
       </c>
@@ -26763,7 +26763,7 @@
       <c r="Y286" s="1">
         <v>4</v>
       </c>
-      <c r="Z286" s="4">
+      <c r="Z286" s="1">
         <v>4</v>
       </c>
       <c r="AA286" s="1">
@@ -26773,7 +26773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -26846,7 +26846,7 @@
       <c r="Y287">
         <v>4</v>
       </c>
-      <c r="Z287" s="3">
+      <c r="Z287" s="1">
         <v>4</v>
       </c>
       <c r="AA287" s="1">
@@ -26856,7 +26856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>313</v>
       </c>
@@ -26929,7 +26929,7 @@
       <c r="Y288" s="4">
         <v>4</v>
       </c>
-      <c r="Z288" s="4">
+      <c r="Z288" s="1">
         <v>4</v>
       </c>
       <c r="AA288" s="1">
@@ -26939,7 +26939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -27012,7 +27012,7 @@
       <c r="Y289" s="3">
         <v>4</v>
       </c>
-      <c r="Z289" s="3">
+      <c r="Z289" s="1">
         <v>4</v>
       </c>
       <c r="AA289" s="1">
@@ -27022,7 +27022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>315</v>
       </c>
@@ -27095,7 +27095,7 @@
       <c r="Y290" s="4">
         <v>4</v>
       </c>
-      <c r="Z290" s="4">
+      <c r="Z290" s="1">
         <v>4</v>
       </c>
       <c r="AA290" s="1">
@@ -27105,7 +27105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -27178,7 +27178,7 @@
       <c r="Y291" s="3">
         <v>4</v>
       </c>
-      <c r="Z291" s="3">
+      <c r="Z291" s="1">
         <v>4</v>
       </c>
       <c r="AA291" s="1">
@@ -27188,7 +27188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>317</v>
       </c>
@@ -27261,7 +27261,7 @@
       <c r="Y292" s="4">
         <v>4</v>
       </c>
-      <c r="Z292" s="4">
+      <c r="Z292" s="1">
         <v>4</v>
       </c>
       <c r="AA292" s="1">
@@ -27271,7 +27271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -27344,7 +27344,7 @@
       <c r="Y293" s="3">
         <v>4</v>
       </c>
-      <c r="Z293" s="3">
+      <c r="Z293" s="1">
         <v>4</v>
       </c>
       <c r="AA293" s="1">
@@ -27354,7 +27354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>319</v>
       </c>
@@ -27430,7 +27430,7 @@
       <c r="Y294" s="4">
         <v>4</v>
       </c>
-      <c r="Z294" s="4">
+      <c r="Z294" s="1">
         <v>4</v>
       </c>
       <c r="AA294" s="1">
@@ -27440,7 +27440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -27513,7 +27513,7 @@
       <c r="Y295" s="3">
         <v>4</v>
       </c>
-      <c r="Z295" s="3">
+      <c r="Z295" s="1">
         <v>4</v>
       </c>
       <c r="AA295" s="1">
@@ -27523,7 +27523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>322</v>
       </c>
@@ -27596,7 +27596,7 @@
       <c r="Y296" s="1">
         <v>4</v>
       </c>
-      <c r="Z296" s="4">
+      <c r="Z296" s="1">
         <v>4</v>
       </c>
       <c r="AA296" s="1">
@@ -27606,7 +27606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>323</v>
       </c>
@@ -27679,7 +27679,7 @@
       <c r="Y297">
         <v>4</v>
       </c>
-      <c r="Z297" s="3">
+      <c r="Z297" s="1">
         <v>4</v>
       </c>
       <c r="AA297" s="1">
@@ -27689,7 +27689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>324</v>
       </c>
@@ -27762,7 +27762,7 @@
       <c r="Y298" s="4">
         <v>4</v>
       </c>
-      <c r="Z298" s="4">
+      <c r="Z298" s="1">
         <v>4</v>
       </c>
       <c r="AA298" s="1">
@@ -27772,7 +27772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>325</v>
       </c>
@@ -27845,7 +27845,7 @@
       <c r="Y299" s="3">
         <v>4</v>
       </c>
-      <c r="Z299" s="3">
+      <c r="Z299" s="1">
         <v>4</v>
       </c>
       <c r="AA299" s="1">
@@ -27855,7 +27855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>326</v>
       </c>
@@ -27928,7 +27928,7 @@
       <c r="Y300" s="4">
         <v>4</v>
       </c>
-      <c r="Z300" s="4">
+      <c r="Z300" s="1">
         <v>4</v>
       </c>
       <c r="AA300" s="1">
@@ -27938,7 +27938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>327</v>
       </c>
@@ -28011,7 +28011,7 @@
       <c r="Y301" s="3">
         <v>4</v>
       </c>
-      <c r="Z301" s="3">
+      <c r="Z301" s="1">
         <v>4</v>
       </c>
       <c r="AA301" s="1">
@@ -28021,7 +28021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>328</v>
       </c>
@@ -28094,7 +28094,7 @@
       <c r="Y302" s="4">
         <v>4</v>
       </c>
-      <c r="Z302" s="4">
+      <c r="Z302" s="1">
         <v>4</v>
       </c>
       <c r="AA302" s="1">
@@ -28104,7 +28104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>329</v>
       </c>
@@ -28177,7 +28177,7 @@
       <c r="Y303" s="3">
         <v>4</v>
       </c>
-      <c r="Z303" s="3">
+      <c r="Z303" s="1">
         <v>4</v>
       </c>
       <c r="AA303" s="1">
@@ -28187,7 +28187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>330</v>
       </c>
@@ -28260,7 +28260,7 @@
       <c r="Y304" s="4">
         <v>4</v>
       </c>
-      <c r="Z304" s="4">
+      <c r="Z304" s="1">
         <v>4</v>
       </c>
       <c r="AA304" s="1">
@@ -28270,7 +28270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>331</v>
       </c>
@@ -28343,7 +28343,7 @@
       <c r="Y305" s="3">
         <v>4</v>
       </c>
-      <c r="Z305" s="3">
+      <c r="Z305" s="1">
         <v>4</v>
       </c>
       <c r="AA305" s="1">
@@ -28353,7 +28353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>332</v>
       </c>
@@ -28426,7 +28426,7 @@
       <c r="Y306" s="1">
         <v>4</v>
       </c>
-      <c r="Z306" s="4">
+      <c r="Z306" s="1">
         <v>4</v>
       </c>
       <c r="AA306" s="1">
@@ -28436,7 +28436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>333</v>
       </c>
@@ -28509,7 +28509,7 @@
       <c r="Y307">
         <v>4</v>
       </c>
-      <c r="Z307" s="3">
+      <c r="Z307" s="1">
         <v>4</v>
       </c>
       <c r="AA307" s="1">
@@ -28519,7 +28519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>334</v>
       </c>
@@ -28592,7 +28592,7 @@
       <c r="Y308" s="4">
         <v>4</v>
       </c>
-      <c r="Z308" s="4">
+      <c r="Z308" s="1">
         <v>4</v>
       </c>
       <c r="AA308" s="1">
@@ -28602,7 +28602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>335</v>
       </c>
@@ -28675,7 +28675,7 @@
       <c r="Y309" s="3">
         <v>4</v>
       </c>
-      <c r="Z309" s="3">
+      <c r="Z309" s="1">
         <v>4</v>
       </c>
       <c r="AA309" s="1">
@@ -28685,7 +28685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>336</v>
       </c>
@@ -28758,7 +28758,7 @@
       <c r="Y310" s="4">
         <v>4</v>
       </c>
-      <c r="Z310" s="4">
+      <c r="Z310" s="1">
         <v>4</v>
       </c>
       <c r="AA310" s="1">
@@ -28768,7 +28768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -28841,7 +28841,7 @@
       <c r="Y311" s="3">
         <v>4</v>
       </c>
-      <c r="Z311" s="3">
+      <c r="Z311" s="1">
         <v>4</v>
       </c>
       <c r="AA311" s="1">
@@ -28851,7 +28851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>338</v>
       </c>
@@ -28924,7 +28924,7 @@
       <c r="Y312" s="4">
         <v>4</v>
       </c>
-      <c r="Z312" s="4">
+      <c r="Z312" s="1">
         <v>4</v>
       </c>
       <c r="AA312" s="1">
@@ -28934,7 +28934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -29007,7 +29007,7 @@
       <c r="Y313" s="3">
         <v>4</v>
       </c>
-      <c r="Z313" s="3">
+      <c r="Z313" s="1">
         <v>4</v>
       </c>
       <c r="AA313" s="1">
@@ -29017,7 +29017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>340</v>
       </c>
@@ -29090,7 +29090,7 @@
       <c r="Y314" s="4">
         <v>4</v>
       </c>
-      <c r="Z314" s="4">
+      <c r="Z314" s="1">
         <v>4</v>
       </c>
       <c r="AA314" s="1">
@@ -29100,7 +29100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -29173,7 +29173,7 @@
       <c r="Y315" s="3">
         <v>4</v>
       </c>
-      <c r="Z315" s="3">
+      <c r="Z315" s="1">
         <v>4</v>
       </c>
       <c r="AA315" s="1">
@@ -29183,7 +29183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>342</v>
       </c>
@@ -29256,7 +29256,7 @@
       <c r="Y316" s="1">
         <v>4</v>
       </c>
-      <c r="Z316" s="4">
+      <c r="Z316" s="1">
         <v>4</v>
       </c>
       <c r="AA316" s="1">
@@ -29266,7 +29266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -29339,7 +29339,7 @@
       <c r="Y317">
         <v>4</v>
       </c>
-      <c r="Z317" s="3">
+      <c r="Z317" s="1">
         <v>4</v>
       </c>
       <c r="AA317" s="1">
@@ -29349,7 +29349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>344</v>
       </c>
@@ -29422,7 +29422,7 @@
       <c r="Y318" s="4">
         <v>4</v>
       </c>
-      <c r="Z318" s="4">
+      <c r="Z318" s="1">
         <v>4</v>
       </c>
       <c r="AA318" s="1">
@@ -29432,7 +29432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -29505,7 +29505,7 @@
       <c r="Y319" s="3">
         <v>4</v>
       </c>
-      <c r="Z319" s="3">
+      <c r="Z319" s="1">
         <v>4</v>
       </c>
       <c r="AA319" s="1">
@@ -29515,7 +29515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>346</v>
       </c>
@@ -29588,7 +29588,7 @@
       <c r="Y320" s="4">
         <v>4</v>
       </c>
-      <c r="Z320" s="4">
+      <c r="Z320" s="1">
         <v>4</v>
       </c>
       <c r="AA320" s="1">
@@ -29598,7 +29598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -29671,7 +29671,7 @@
       <c r="Y321" s="3">
         <v>4</v>
       </c>
-      <c r="Z321" s="3">
+      <c r="Z321" s="1">
         <v>4</v>
       </c>
       <c r="AA321" s="1">
@@ -29681,7 +29681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>348</v>
       </c>
@@ -29767,7 +29767,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="323" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>350</v>
       </c>
@@ -29840,7 +29840,7 @@
       <c r="Y323">
         <v>4</v>
       </c>
-      <c r="Z323">
+      <c r="Z323" s="1">
         <v>4</v>
       </c>
       <c r="AA323" s="1">
@@ -29850,7 +29850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>351</v>
       </c>
@@ -29936,7 +29936,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="325" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>353</v>
       </c>
@@ -30009,7 +30009,7 @@
       <c r="Y325">
         <v>4</v>
       </c>
-      <c r="Z325">
+      <c r="Z325" s="1">
         <v>4</v>
       </c>
       <c r="AA325" s="1">
@@ -30019,7 +30019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>354</v>
       </c>
@@ -30102,7 +30102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>355</v>
       </c>
@@ -30175,7 +30175,7 @@
       <c r="Y327">
         <v>4</v>
       </c>
-      <c r="Z327">
+      <c r="Z327" s="1">
         <v>4</v>
       </c>
       <c r="AA327" s="1">
@@ -30185,7 +30185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>356</v>
       </c>
@@ -30268,7 +30268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>357</v>
       </c>
@@ -30341,7 +30341,7 @@
       <c r="Y329" s="4">
         <v>4</v>
       </c>
-      <c r="Z329">
+      <c r="Z329" s="1">
         <v>4</v>
       </c>
       <c r="AA329" s="1">
@@ -30351,7 +30351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>358</v>
       </c>
@@ -30434,7 +30434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>359</v>
       </c>
@@ -30507,7 +30507,7 @@
       <c r="Y331" s="4">
         <v>4</v>
       </c>
-      <c r="Z331">
+      <c r="Z331" s="1">
         <v>4</v>
       </c>
       <c r="AA331" s="1">
@@ -30517,7 +30517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>360</v>
       </c>
@@ -30600,7 +30600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>361</v>
       </c>
@@ -30673,7 +30673,7 @@
       <c r="Y333" s="4">
         <v>4</v>
       </c>
-      <c r="Z333">
+      <c r="Z333" s="1">
         <v>4</v>
       </c>
       <c r="AA333" s="1">
@@ -30683,7 +30683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>362</v>
       </c>
@@ -30766,7 +30766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>363</v>
       </c>
@@ -30839,7 +30839,7 @@
       <c r="Y335" s="4">
         <v>4</v>
       </c>
-      <c r="Z335">
+      <c r="Z335" s="1">
         <v>4</v>
       </c>
       <c r="AA335" s="1">
@@ -30849,7 +30849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>364</v>
       </c>
@@ -30932,7 +30932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>365</v>
       </c>
@@ -31005,7 +31005,7 @@
       <c r="Y337" s="4">
         <v>4</v>
       </c>
-      <c r="Z337">
+      <c r="Z337" s="1">
         <v>4</v>
       </c>
       <c r="AA337" s="1">
@@ -31015,7 +31015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>366</v>
       </c>
@@ -31098,7 +31098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>367</v>
       </c>
@@ -31171,7 +31171,7 @@
       <c r="Y339" s="4">
         <v>4</v>
       </c>
-      <c r="Z339">
+      <c r="Z339" s="1">
         <v>4</v>
       </c>
       <c r="AA339" s="1">
@@ -31181,7 +31181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>368</v>
       </c>
@@ -31264,7 +31264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>369</v>
       </c>
@@ -31337,7 +31337,7 @@
       <c r="Y341" s="1">
         <v>4</v>
       </c>
-      <c r="Z341">
+      <c r="Z341" s="1">
         <v>4</v>
       </c>
       <c r="AA341" s="1">
@@ -31347,7 +31347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>370</v>
       </c>
@@ -31430,7 +31430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>371</v>
       </c>
@@ -31503,7 +31503,7 @@
       <c r="Y343" s="4">
         <v>4</v>
       </c>
-      <c r="Z343">
+      <c r="Z343" s="1">
         <v>4</v>
       </c>
       <c r="AA343" s="1">
@@ -31513,7 +31513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>372</v>
       </c>
@@ -31596,7 +31596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>373</v>
       </c>
@@ -31669,7 +31669,7 @@
       <c r="Y345" s="4">
         <v>4</v>
       </c>
-      <c r="Z345">
+      <c r="Z345" s="1">
         <v>4</v>
       </c>
       <c r="AA345" s="1">
@@ -31679,7 +31679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>374</v>
       </c>
@@ -31762,7 +31762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>375</v>
       </c>
@@ -31835,7 +31835,7 @@
       <c r="Y347" s="1">
         <v>4</v>
       </c>
-      <c r="Z347">
+      <c r="Z347" s="1">
         <v>4</v>
       </c>
       <c r="AA347" s="1">
@@ -31845,7 +31845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>376</v>
       </c>
@@ -31919,7 +31919,7 @@
         <v>3</v>
       </c>
       <c r="Z348" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA348" s="1">
         <v>4</v>
@@ -31928,7 +31928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>377</v>
       </c>
@@ -32011,7 +32011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>378</v>
       </c>
@@ -32094,7 +32094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>379</v>
       </c>
@@ -32177,7 +32177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>380</v>
       </c>
@@ -32250,7 +32250,7 @@
       <c r="Y352" s="4">
         <v>4</v>
       </c>
-      <c r="Z352" s="4">
+      <c r="Z352" s="1">
         <v>4</v>
       </c>
       <c r="AA352" s="1">
@@ -32260,7 +32260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>381</v>
       </c>
@@ -32333,7 +32333,7 @@
       <c r="Y353" s="3">
         <v>4</v>
       </c>
-      <c r="Z353" s="3">
+      <c r="Z353" s="1">
         <v>4</v>
       </c>
       <c r="AA353" s="1">
@@ -32343,7 +32343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>382</v>
       </c>
@@ -32416,7 +32416,7 @@
       <c r="Y354" s="4">
         <v>4</v>
       </c>
-      <c r="Z354" s="4">
+      <c r="Z354" s="1">
         <v>4</v>
       </c>
       <c r="AA354" s="1">
@@ -32426,7 +32426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>383</v>
       </c>
@@ -32502,7 +32502,7 @@
       <c r="Y355" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="Z355" s="3" t="s">
+      <c r="Z355" s="1" t="s">
         <v>679</v>
       </c>
       <c r="AA355" s="1" t="s">
@@ -32512,7 +32512,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="356" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>384</v>
       </c>
@@ -32595,7 +32595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>385</v>
       </c>
@@ -32668,7 +32668,7 @@
       <c r="Y357">
         <v>4</v>
       </c>
-      <c r="Z357">
+      <c r="Z357" s="1">
         <v>4</v>
       </c>
       <c r="AA357" s="1">
@@ -32678,7 +32678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>386</v>
       </c>
@@ -32761,7 +32761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>387</v>
       </c>
@@ -32834,7 +32834,7 @@
       <c r="Y359" s="3">
         <v>4</v>
       </c>
-      <c r="Z359">
+      <c r="Z359" s="1">
         <v>4</v>
       </c>
       <c r="AA359" s="1">
@@ -32844,7 +32844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>388</v>
       </c>
@@ -32927,7 +32927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>389</v>
       </c>
@@ -33000,7 +33000,7 @@
       <c r="Y361" s="3">
         <v>4</v>
       </c>
-      <c r="Z361">
+      <c r="Z361" s="1">
         <v>4</v>
       </c>
       <c r="AA361" s="1">
@@ -33010,7 +33010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>390</v>
       </c>
@@ -33093,7 +33093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -33166,7 +33166,7 @@
       <c r="Y363" s="3">
         <v>4</v>
       </c>
-      <c r="Z363">
+      <c r="Z363" s="1">
         <v>4</v>
       </c>
       <c r="AA363" s="1">
@@ -33176,7 +33176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>394</v>
       </c>
@@ -33259,7 +33259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -33332,7 +33332,7 @@
       <c r="Y365" s="3">
         <v>4</v>
       </c>
-      <c r="Z365">
+      <c r="Z365" s="1">
         <v>4</v>
       </c>
       <c r="AA365" s="1">
@@ -33342,7 +33342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>396</v>
       </c>
@@ -33425,7 +33425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -33498,7 +33498,7 @@
       <c r="Y367">
         <v>4</v>
       </c>
-      <c r="Z367">
+      <c r="Z367" s="1">
         <v>4</v>
       </c>
       <c r="AA367" s="1">
@@ -33508,7 +33508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>398</v>
       </c>
@@ -33591,7 +33591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -33667,7 +33667,7 @@
       <c r="Y369" s="3">
         <v>4</v>
       </c>
-      <c r="Z369">
+      <c r="Z369" s="1">
         <v>4</v>
       </c>
       <c r="AA369" s="1">
@@ -33677,7 +33677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>400</v>
       </c>
@@ -33760,7 +33760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -33833,7 +33833,7 @@
       <c r="Y371" s="3">
         <v>4</v>
       </c>
-      <c r="Z371">
+      <c r="Z371" s="1">
         <v>4</v>
       </c>
       <c r="AA371" s="1">
@@ -33843,7 +33843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>402</v>
       </c>
@@ -33926,7 +33926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -33999,7 +33999,7 @@
       <c r="Y373" s="3">
         <v>4</v>
       </c>
-      <c r="Z373">
+      <c r="Z373" s="1">
         <v>4</v>
       </c>
       <c r="AA373" s="1">
@@ -34009,7 +34009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>404</v>
       </c>
@@ -34092,7 +34092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -34165,7 +34165,7 @@
       <c r="Y375" s="3">
         <v>4</v>
       </c>
-      <c r="Z375">
+      <c r="Z375" s="1">
         <v>4</v>
       </c>
       <c r="AA375" s="1">
@@ -34175,7 +34175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>406</v>
       </c>
@@ -34258,7 +34258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -34331,7 +34331,7 @@
       <c r="Y377">
         <v>4</v>
       </c>
-      <c r="Z377">
+      <c r="Z377" s="1">
         <v>4</v>
       </c>
       <c r="AA377" s="1">
@@ -34341,7 +34341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>408</v>
       </c>
@@ -34424,7 +34424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -34497,7 +34497,7 @@
       <c r="Y379" s="3">
         <v>4</v>
       </c>
-      <c r="Z379">
+      <c r="Z379" s="1">
         <v>4</v>
       </c>
       <c r="AA379" s="1">
@@ -34507,7 +34507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>410</v>
       </c>
@@ -34593,7 +34593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -34666,7 +34666,7 @@
       <c r="Y381" s="3">
         <v>4</v>
       </c>
-      <c r="Z381">
+      <c r="Z381" s="1">
         <v>4</v>
       </c>
       <c r="AA381" s="1">
@@ -34676,7 +34676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>413</v>
       </c>
@@ -34759,7 +34759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -34832,7 +34832,7 @@
       <c r="Y383" s="3">
         <v>4</v>
       </c>
-      <c r="Z383">
+      <c r="Z383" s="1">
         <v>4</v>
       </c>
       <c r="AA383" s="1">
@@ -34842,7 +34842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>415</v>
       </c>
@@ -34925,7 +34925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -34998,7 +34998,7 @@
       <c r="Y385" s="3">
         <v>4</v>
       </c>
-      <c r="Z385">
+      <c r="Z385" s="1">
         <v>4</v>
       </c>
       <c r="AA385" s="1">
@@ -35008,7 +35008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>417</v>
       </c>
@@ -35094,7 +35094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -35167,7 +35167,7 @@
       <c r="Y387">
         <v>4</v>
       </c>
-      <c r="Z387">
+      <c r="Z387" s="1">
         <v>4</v>
       </c>
       <c r="AA387" s="1">
@@ -35177,7 +35177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>419</v>
       </c>
@@ -35260,7 +35260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -35333,7 +35333,7 @@
       <c r="Y389" s="3">
         <v>4</v>
       </c>
-      <c r="Z389">
+      <c r="Z389" s="1">
         <v>4</v>
       </c>
       <c r="AA389" s="1">
@@ -35343,7 +35343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>421</v>
       </c>
@@ -35426,7 +35426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -35502,7 +35502,7 @@
       <c r="Y391" s="3">
         <v>4</v>
       </c>
-      <c r="Z391">
+      <c r="Z391" s="1">
         <v>4</v>
       </c>
       <c r="AA391" s="1">
@@ -35512,7 +35512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>424</v>
       </c>
@@ -35598,7 +35598,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="393" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -35671,7 +35671,7 @@
       <c r="Y393">
         <v>4</v>
       </c>
-      <c r="Z393">
+      <c r="Z393" s="1">
         <v>4</v>
       </c>
       <c r="AA393" s="1">
@@ -35681,7 +35681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>427</v>
       </c>
@@ -35754,7 +35754,7 @@
       <c r="Y394" s="4">
         <v>4</v>
       </c>
-      <c r="Z394" s="4">
+      <c r="Z394" s="1">
         <v>4</v>
       </c>
       <c r="AA394" s="1">
@@ -35764,7 +35764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -35837,7 +35837,7 @@
       <c r="Y395" s="3">
         <v>4</v>
       </c>
-      <c r="Z395">
+      <c r="Z395" s="1">
         <v>4</v>
       </c>
       <c r="AA395" s="1">
@@ -35847,7 +35847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>429</v>
       </c>
@@ -35920,7 +35920,7 @@
       <c r="Y396" s="4">
         <v>4</v>
       </c>
-      <c r="Z396" s="4">
+      <c r="Z396" s="1">
         <v>4</v>
       </c>
       <c r="AA396" s="1">
@@ -35930,7 +35930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -36003,7 +36003,7 @@
       <c r="Y397" s="3">
         <v>4</v>
       </c>
-      <c r="Z397">
+      <c r="Z397" s="1">
         <v>4</v>
       </c>
       <c r="AA397" s="1">
@@ -36013,7 +36013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -36086,7 +36086,7 @@
       <c r="Y398">
         <v>4</v>
       </c>
-      <c r="Z398" s="4">
+      <c r="Z398" s="1">
         <v>4</v>
       </c>
       <c r="AA398" s="1">
@@ -36096,7 +36096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>432</v>
       </c>
@@ -36172,7 +36172,7 @@
       <c r="Y399" s="4">
         <v>4</v>
       </c>
-      <c r="Z399">
+      <c r="Z399" s="1">
         <v>4</v>
       </c>
       <c r="AA399" s="1">
@@ -36182,7 +36182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>433</v>
       </c>
@@ -36255,7 +36255,7 @@
       <c r="Y400" s="3">
         <v>4</v>
       </c>
-      <c r="Z400" s="4">
+      <c r="Z400" s="1">
         <v>4</v>
       </c>
       <c r="AA400" s="1">
@@ -36265,7 +36265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>434</v>
       </c>
@@ -36338,7 +36338,7 @@
       <c r="Y401" s="4">
         <v>4</v>
       </c>
-      <c r="Z401">
+      <c r="Z401" s="1">
         <v>4</v>
       </c>
       <c r="AA401" s="1">
@@ -36348,7 +36348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>435</v>
       </c>
@@ -36434,7 +36434,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="403" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>436</v>
       </c>
@@ -36507,7 +36507,7 @@
       <c r="Y403" s="4">
         <v>4</v>
       </c>
-      <c r="Z403" s="4">
+      <c r="Z403" s="1">
         <v>4</v>
       </c>
       <c r="AA403" s="1">
@@ -36517,7 +36517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>437</v>
       </c>
@@ -36593,7 +36593,7 @@
       <c r="Y404" s="3">
         <v>4</v>
       </c>
-      <c r="Z404" s="3">
+      <c r="Z404" s="1">
         <v>4</v>
       </c>
       <c r="AA404" s="1">
@@ -36603,7 +36603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>439</v>
       </c>
@@ -36676,7 +36676,7 @@
       <c r="Y405" s="4">
         <v>4</v>
       </c>
-      <c r="Z405" s="4">
+      <c r="Z405" s="1">
         <v>4</v>
       </c>
       <c r="AA405" s="1">
@@ -36686,7 +36686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -36759,7 +36759,7 @@
       <c r="Y406" s="3">
         <v>4</v>
       </c>
-      <c r="Z406" s="3">
+      <c r="Z406" s="1">
         <v>4</v>
       </c>
       <c r="AA406" s="1">
@@ -36769,7 +36769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>441</v>
       </c>
@@ -36842,7 +36842,7 @@
       <c r="Y407" s="4">
         <v>4</v>
       </c>
-      <c r="Z407" s="4">
+      <c r="Z407" s="1">
         <v>4</v>
       </c>
       <c r="AA407" s="1">
@@ -36852,7 +36852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>442</v>
       </c>
@@ -36925,7 +36925,7 @@
       <c r="Y408" s="3">
         <v>4</v>
       </c>
-      <c r="Z408" s="4">
+      <c r="Z408" s="1">
         <v>4</v>
       </c>
       <c r="AA408" s="1">
@@ -36935,7 +36935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>443</v>
       </c>
@@ -37008,7 +37008,7 @@
       <c r="Y409" s="4">
         <v>4</v>
       </c>
-      <c r="Z409" s="3">
+      <c r="Z409" s="1">
         <v>4</v>
       </c>
       <c r="AA409" s="1">
@@ -37018,7 +37018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>444</v>
       </c>
@@ -37091,7 +37091,7 @@
       <c r="Y410" s="3">
         <v>4</v>
       </c>
-      <c r="Z410" s="4">
+      <c r="Z410" s="1">
         <v>4</v>
       </c>
       <c r="AA410" s="1">
@@ -37101,7 +37101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>445</v>
       </c>
@@ -37174,7 +37174,7 @@
       <c r="Y411" s="1">
         <v>4</v>
       </c>
-      <c r="Z411" s="3">
+      <c r="Z411" s="1">
         <v>4</v>
       </c>
       <c r="AA411" s="1">
@@ -37184,7 +37184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>446</v>
       </c>
@@ -37257,7 +37257,7 @@
       <c r="Y412">
         <v>4</v>
       </c>
-      <c r="Z412" s="4">
+      <c r="Z412" s="1">
         <v>4</v>
       </c>
       <c r="AA412" s="1">
@@ -37267,7 +37267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>447</v>
       </c>
@@ -37340,7 +37340,7 @@
       <c r="Y413" s="4">
         <v>4</v>
       </c>
-      <c r="Z413" s="4">
+      <c r="Z413" s="1">
         <v>4</v>
       </c>
       <c r="AA413" s="1">
@@ -37350,7 +37350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>448</v>
       </c>
@@ -37423,7 +37423,7 @@
       <c r="Y414" s="3">
         <v>4</v>
       </c>
-      <c r="Z414" s="3">
+      <c r="Z414" s="1">
         <v>4</v>
       </c>
       <c r="AA414" s="1">
@@ -37433,7 +37433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>449</v>
       </c>
@@ -37506,7 +37506,7 @@
       <c r="Y415" s="4">
         <v>4</v>
       </c>
-      <c r="Z415" s="4">
+      <c r="Z415" s="1">
         <v>4</v>
       </c>
       <c r="AA415" s="1">
@@ -37516,7 +37516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>450</v>
       </c>
@@ -37599,7 +37599,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="417" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>451</v>
       </c>
@@ -37675,7 +37675,7 @@
       <c r="Y417" s="4">
         <v>4</v>
       </c>
-      <c r="Z417" s="4">
+      <c r="Z417" s="1">
         <v>4</v>
       </c>
       <c r="AA417" s="1">
@@ -37685,7 +37685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>452</v>
       </c>
@@ -37758,7 +37758,7 @@
       <c r="Y418" s="3">
         <v>4</v>
       </c>
-      <c r="Z418" s="3">
+      <c r="Z418" s="1">
         <v>4</v>
       </c>
       <c r="AA418" s="1">
@@ -37768,7 +37768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>453</v>
       </c>
@@ -37841,7 +37841,7 @@
       <c r="Y419" s="4">
         <v>4</v>
       </c>
-      <c r="Z419" s="4">
+      <c r="Z419" s="1">
         <v>4</v>
       </c>
       <c r="AA419" s="1">
@@ -37851,7 +37851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>454</v>
       </c>
@@ -37924,7 +37924,7 @@
       <c r="Y420" s="3">
         <v>4</v>
       </c>
-      <c r="Z420" s="3">
+      <c r="Z420" s="1">
         <v>4</v>
       </c>
       <c r="AA420" s="1">
@@ -37934,7 +37934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>455</v>
       </c>
@@ -38010,7 +38010,7 @@
       <c r="Y421" s="4">
         <v>4</v>
       </c>
-      <c r="Z421" s="4">
+      <c r="Z421" s="1">
         <v>4</v>
       </c>
       <c r="AA421" s="1">
@@ -38020,7 +38020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>456</v>
       </c>
@@ -38093,7 +38093,7 @@
       <c r="Y422" s="4">
         <v>4</v>
       </c>
-      <c r="Z422" s="3">
+      <c r="Z422" s="1">
         <v>4</v>
       </c>
       <c r="AA422" s="1">
@@ -38103,7 +38103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>457</v>
       </c>
@@ -38189,7 +38189,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="424" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>459</v>
       </c>
@@ -38262,7 +38262,7 @@
       <c r="Y424" s="4">
         <v>4</v>
       </c>
-      <c r="Z424" s="4">
+      <c r="Z424" s="1">
         <v>4</v>
       </c>
       <c r="AA424" s="1">
@@ -38272,7 +38272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>460</v>
       </c>
@@ -38345,7 +38345,7 @@
       <c r="Y425" s="3">
         <v>4</v>
       </c>
-      <c r="Z425" s="3">
+      <c r="Z425" s="1">
         <v>4</v>
       </c>
       <c r="AA425" s="1">
@@ -38355,7 +38355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>461</v>
       </c>
@@ -38428,7 +38428,7 @@
       <c r="Y426" s="1">
         <v>4</v>
       </c>
-      <c r="Z426" s="4">
+      <c r="Z426" s="1">
         <v>4</v>
       </c>
       <c r="AA426" s="1">
@@ -38438,7 +38438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>462</v>
       </c>
@@ -38511,7 +38511,7 @@
       <c r="Y427">
         <v>4</v>
       </c>
-      <c r="Z427" s="3">
+      <c r="Z427" s="1">
         <v>4</v>
       </c>
       <c r="AA427" s="1">
@@ -38521,7 +38521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>463</v>
       </c>
@@ -38594,7 +38594,7 @@
       <c r="Y428" s="4">
         <v>4</v>
       </c>
-      <c r="Z428" s="4">
+      <c r="Z428" s="1">
         <v>4</v>
       </c>
       <c r="AA428" s="1">
@@ -38604,7 +38604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>464</v>
       </c>
@@ -38680,7 +38680,7 @@
       <c r="Y429" s="3">
         <v>4</v>
       </c>
-      <c r="Z429" s="3">
+      <c r="Z429" s="1">
         <v>4</v>
       </c>
       <c r="AA429" s="1">
@@ -38690,7 +38690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>466</v>
       </c>
@@ -38763,7 +38763,7 @@
       <c r="Y430" s="4">
         <v>4</v>
       </c>
-      <c r="Z430" s="4">
+      <c r="Z430" s="1">
         <v>4</v>
       </c>
       <c r="AA430" s="1">
@@ -38773,7 +38773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>467</v>
       </c>
@@ -38846,7 +38846,7 @@
       <c r="Y431" s="3">
         <v>4</v>
       </c>
-      <c r="Z431" s="3">
+      <c r="Z431" s="1">
         <v>4</v>
       </c>
       <c r="AA431" s="1">
@@ -38856,7 +38856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>468</v>
       </c>
@@ -38929,7 +38929,7 @@
       <c r="Y432" s="4">
         <v>4</v>
       </c>
-      <c r="Z432" s="4">
+      <c r="Z432" s="1">
         <v>4</v>
       </c>
       <c r="AA432" s="1">
@@ -38939,7 +38939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>469</v>
       </c>
@@ -39012,7 +39012,7 @@
       <c r="Y433" s="3">
         <v>4</v>
       </c>
-      <c r="Z433" s="3">
+      <c r="Z433" s="1">
         <v>4</v>
       </c>
       <c r="AA433" s="1">
@@ -39022,7 +39022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>470</v>
       </c>
@@ -39095,7 +39095,7 @@
       <c r="Y434" s="4">
         <v>4</v>
       </c>
-      <c r="Z434" s="4">
+      <c r="Z434" s="1">
         <v>4</v>
       </c>
       <c r="AA434" s="1">
@@ -39105,7 +39105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>471</v>
       </c>
@@ -39178,7 +39178,7 @@
       <c r="Y435" s="3">
         <v>4</v>
       </c>
-      <c r="Z435" s="4">
+      <c r="Z435" s="1">
         <v>4</v>
       </c>
       <c r="AA435" s="1">
@@ -39188,7 +39188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>472</v>
       </c>
@@ -39261,7 +39261,7 @@
       <c r="Y436" s="1">
         <v>4</v>
       </c>
-      <c r="Z436" s="3">
+      <c r="Z436" s="1">
         <v>4</v>
       </c>
       <c r="AA436" s="1">
@@ -39271,7 +39271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>473</v>
       </c>
@@ -39344,7 +39344,7 @@
       <c r="Y437">
         <v>4</v>
       </c>
-      <c r="Z437" s="4">
+      <c r="Z437" s="1">
         <v>4</v>
       </c>
       <c r="AA437" s="1">
@@ -39354,7 +39354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>474</v>
       </c>
@@ -39424,7 +39424,7 @@
       <c r="Y438" s="4">
         <v>4</v>
       </c>
-      <c r="Z438" s="3">
+      <c r="Z438" s="1">
         <v>4</v>
       </c>
       <c r="AA438" s="1">
@@ -39434,7 +39434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>475</v>
       </c>
@@ -39507,7 +39507,7 @@
       <c r="Y439" s="3">
         <v>4</v>
       </c>
-      <c r="Z439" s="4">
+      <c r="Z439" s="1">
         <v>4</v>
       </c>
       <c r="AA439" s="1">
@@ -39517,7 +39517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>476</v>
       </c>
@@ -39590,7 +39590,7 @@
       <c r="Y440" s="4">
         <v>4</v>
       </c>
-      <c r="Z440" s="3">
+      <c r="Z440" s="1">
         <v>4</v>
       </c>
       <c r="AA440" s="1">
@@ -39600,7 +39600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>477</v>
       </c>
@@ -39673,7 +39673,7 @@
       <c r="Y441" s="3">
         <v>4</v>
       </c>
-      <c r="Z441" s="4">
+      <c r="Z441" s="1">
         <v>4</v>
       </c>
       <c r="AA441" s="1">
@@ -39683,7 +39683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>478</v>
       </c>
@@ -39759,7 +39759,7 @@
       <c r="Y442" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="Z442" s="4" t="s">
+      <c r="Z442" s="1" t="s">
         <v>679</v>
       </c>
       <c r="AA442" s="1" t="s">
@@ -39769,7 +39769,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="443" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>480</v>
       </c>
@@ -39842,7 +39842,7 @@
       <c r="Y443" s="3">
         <v>4</v>
       </c>
-      <c r="Z443" s="3">
+      <c r="Z443" s="1">
         <v>4</v>
       </c>
       <c r="AA443" s="1">
@@ -39852,7 +39852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>481</v>
       </c>
@@ -39928,7 +39928,7 @@
       <c r="Y444" s="4">
         <v>4</v>
       </c>
-      <c r="Z444" s="4">
+      <c r="Z444" s="1">
         <v>4</v>
       </c>
       <c r="AA444" s="1">
@@ -39938,7 +39938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>482</v>
       </c>
@@ -40021,7 +40021,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="446" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>483</v>
       </c>
@@ -40104,7 +40104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>484</v>
       </c>
@@ -40177,7 +40177,7 @@
       <c r="Y447">
         <v>4</v>
       </c>
-      <c r="Z447">
+      <c r="Z447" s="1">
         <v>4</v>
       </c>
       <c r="AA447" s="1">
@@ -40187,7 +40187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>485</v>
       </c>
@@ -40270,7 +40270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>486</v>
       </c>
@@ -40343,7 +40343,7 @@
       <c r="Y449" s="3">
         <v>4</v>
       </c>
-      <c r="Z449">
+      <c r="Z449" s="1">
         <v>4</v>
       </c>
       <c r="AA449" s="1">
@@ -40353,7 +40353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>487</v>
       </c>
@@ -40436,7 +40436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>488</v>
       </c>
@@ -40509,7 +40509,7 @@
       <c r="Y451" s="3">
         <v>4</v>
       </c>
-      <c r="Z451">
+      <c r="Z451" s="1">
         <v>4</v>
       </c>
       <c r="AA451" s="1">
@@ -40519,7 +40519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>489</v>
       </c>
@@ -40602,7 +40602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="453" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>492</v>
       </c>
@@ -40675,7 +40675,7 @@
       <c r="Y453" s="3">
         <v>4</v>
       </c>
-      <c r="Z453">
+      <c r="Z453" s="1">
         <v>4</v>
       </c>
       <c r="AA453" s="1">
@@ -40685,7 +40685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>493</v>
       </c>
@@ -40768,7 +40768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="455" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>494</v>
       </c>
@@ -40841,7 +40841,7 @@
       <c r="Y455" s="3">
         <v>4</v>
       </c>
-      <c r="Z455">
+      <c r="Z455" s="1">
         <v>4</v>
       </c>
       <c r="AA455" s="1">
@@ -40851,7 +40851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>495</v>
       </c>
@@ -40934,7 +40934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>496</v>
       </c>
@@ -41010,7 +41010,7 @@
       <c r="Y457" s="3">
         <v>4</v>
       </c>
-      <c r="Z457">
+      <c r="Z457" s="1">
         <v>4</v>
       </c>
       <c r="AA457" s="1">
@@ -41020,7 +41020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>497</v>
       </c>
@@ -41103,7 +41103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>498</v>
       </c>
@@ -41176,7 +41176,7 @@
       <c r="Y459" s="3">
         <v>4</v>
       </c>
-      <c r="Z459">
+      <c r="Z459" s="1">
         <v>4</v>
       </c>
       <c r="AA459" s="1">
@@ -41186,7 +41186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>499</v>
       </c>
@@ -41269,7 +41269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>500</v>
       </c>
@@ -41342,7 +41342,7 @@
       <c r="Y461" s="3">
         <v>4</v>
       </c>
-      <c r="Z461">
+      <c r="Z461" s="1">
         <v>4</v>
       </c>
       <c r="AA461" s="1">
@@ -41352,7 +41352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>501</v>
       </c>
@@ -41435,7 +41435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>502</v>
       </c>
@@ -41508,7 +41508,7 @@
       <c r="Y463" s="3">
         <v>4</v>
       </c>
-      <c r="Z463">
+      <c r="Z463" s="1">
         <v>4</v>
       </c>
       <c r="AA463" s="1">
@@ -41518,7 +41518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>503</v>
       </c>
@@ -41601,7 +41601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>504</v>
       </c>
@@ -41674,7 +41674,7 @@
       <c r="Y465" s="3">
         <v>4</v>
       </c>
-      <c r="Z465">
+      <c r="Z465" s="1">
         <v>4</v>
       </c>
       <c r="AA465" s="1">
@@ -41684,7 +41684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>505</v>
       </c>
@@ -41767,7 +41767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>506</v>
       </c>
@@ -41840,7 +41840,7 @@
       <c r="Y467" s="1">
         <v>4</v>
       </c>
-      <c r="Z467">
+      <c r="Z467" s="1">
         <v>4</v>
       </c>
       <c r="AA467" s="1">
@@ -41850,7 +41850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>507</v>
       </c>
@@ -41936,7 +41936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>508</v>
       </c>
@@ -42012,7 +42012,7 @@
       <c r="Y469" s="4">
         <v>4</v>
       </c>
-      <c r="Z469">
+      <c r="Z469" s="1">
         <v>4</v>
       </c>
       <c r="AA469" s="1">
@@ -42022,7 +42022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>509</v>
       </c>
@@ -42105,7 +42105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>510</v>
       </c>
@@ -42178,7 +42178,7 @@
       <c r="Y471" s="4">
         <v>4</v>
       </c>
-      <c r="Z471">
+      <c r="Z471" s="1">
         <v>4</v>
       </c>
       <c r="AA471" s="1">
@@ -42188,7 +42188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="472" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>511</v>
       </c>
@@ -42271,7 +42271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="473" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>512</v>
       </c>
@@ -42344,7 +42344,7 @@
       <c r="Y473" s="4">
         <v>4</v>
       </c>
-      <c r="Z473">
+      <c r="Z473" s="1">
         <v>4</v>
       </c>
       <c r="AA473" s="1">
@@ -42354,7 +42354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>513</v>
       </c>
@@ -42437,7 +42437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>514</v>
       </c>
@@ -42513,7 +42513,7 @@
       <c r="Y475" s="4">
         <v>4</v>
       </c>
-      <c r="Z475">
+      <c r="Z475" s="1">
         <v>4</v>
       </c>
       <c r="AA475" s="1">
@@ -42523,7 +42523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>515</v>
       </c>
@@ -42606,7 +42606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>516</v>
       </c>
@@ -42679,7 +42679,7 @@
       <c r="Y477" s="1">
         <v>4</v>
       </c>
-      <c r="Z477">
+      <c r="Z477" s="1">
         <v>4</v>
       </c>
       <c r="AA477" s="1">
@@ -42689,7 +42689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>517</v>
       </c>
@@ -42772,7 +42772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>518</v>
       </c>
@@ -42845,7 +42845,7 @@
       <c r="Y479" s="4">
         <v>4</v>
       </c>
-      <c r="Z479">
+      <c r="Z479" s="1">
         <v>4</v>
       </c>
       <c r="AA479" s="1">
@@ -42855,7 +42855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>519</v>
       </c>
@@ -42938,7 +42938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="481" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>520</v>
       </c>
@@ -43011,7 +43011,7 @@
       <c r="Y481" s="4">
         <v>4</v>
       </c>
-      <c r="Z481">
+      <c r="Z481" s="1">
         <v>4</v>
       </c>
       <c r="AA481" s="1">
@@ -43021,7 +43021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="482" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>521</v>
       </c>
@@ -43104,7 +43104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="483" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>522</v>
       </c>
@@ -43177,7 +43177,7 @@
       <c r="Y483" s="4">
         <v>4</v>
       </c>
-      <c r="Z483">
+      <c r="Z483" s="1">
         <v>4</v>
       </c>
       <c r="AA483" s="1">
@@ -43187,7 +43187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="484" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>523</v>
       </c>
@@ -43270,7 +43270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="485" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>524</v>
       </c>
@@ -43343,7 +43343,7 @@
       <c r="Y485" s="4">
         <v>4</v>
       </c>
-      <c r="Z485">
+      <c r="Z485" s="1">
         <v>4</v>
       </c>
       <c r="AA485" s="1">
@@ -43353,7 +43353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>525</v>
       </c>
@@ -43436,7 +43436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>526</v>
       </c>
@@ -43509,7 +43509,7 @@
       <c r="Y487" s="1">
         <v>4</v>
       </c>
-      <c r="Z487">
+      <c r="Z487" s="1">
         <v>4</v>
       </c>
       <c r="AA487" s="1">
@@ -43519,7 +43519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="488" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>527</v>
       </c>
@@ -43605,7 +43605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="489" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>528</v>
       </c>
@@ -43678,7 +43678,7 @@
       <c r="Y489" s="3">
         <v>4</v>
       </c>
-      <c r="Z489">
+      <c r="Z489" s="1">
         <v>4</v>
       </c>
       <c r="AA489" s="1">
@@ -43688,7 +43688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="490" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>529</v>
       </c>
@@ -43771,7 +43771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="491" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>530</v>
       </c>
@@ -43844,7 +43844,7 @@
       <c r="Y491" s="3">
         <v>4</v>
       </c>
-      <c r="Z491">
+      <c r="Z491" s="1">
         <v>4</v>
       </c>
       <c r="AA491" s="1">
@@ -43854,7 +43854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="492" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>531</v>
       </c>
@@ -43937,7 +43937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="493" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>532</v>
       </c>
@@ -44010,7 +44010,7 @@
       <c r="Y493" s="3">
         <v>4</v>
       </c>
-      <c r="Z493">
+      <c r="Z493" s="1">
         <v>4</v>
       </c>
       <c r="AA493" s="1">
@@ -44020,7 +44020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="494" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>533</v>
       </c>
@@ -44103,7 +44103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="495" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>534</v>
       </c>
@@ -44189,7 +44189,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="496" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>536</v>
       </c>
@@ -44262,7 +44262,7 @@
       <c r="Y496" s="4">
         <v>4</v>
       </c>
-      <c r="Z496" s="4">
+      <c r="Z496" s="1">
         <v>4</v>
       </c>
       <c r="AA496" s="1">
@@ -44272,7 +44272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="497" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>537</v>
       </c>
@@ -44345,7 +44345,7 @@
       <c r="Y497" s="3">
         <v>4</v>
       </c>
-      <c r="Z497" s="3">
+      <c r="Z497" s="1">
         <v>4</v>
       </c>
       <c r="AA497" s="1">
@@ -44355,7 +44355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>538</v>
       </c>
@@ -44428,7 +44428,7 @@
       <c r="Y498" s="4">
         <v>4</v>
       </c>
-      <c r="Z498" s="4">
+      <c r="Z498" s="1">
         <v>4</v>
       </c>
       <c r="AA498" s="1">
@@ -44438,7 +44438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="499" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>539</v>
       </c>
@@ -44511,7 +44511,7 @@
       <c r="Y499" s="3">
         <v>4</v>
       </c>
-      <c r="Z499" s="3">
+      <c r="Z499" s="1">
         <v>4</v>
       </c>
       <c r="AA499" s="1">
@@ -44521,7 +44521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="500" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>540</v>
       </c>
@@ -44594,7 +44594,7 @@
       <c r="Y500" s="4">
         <v>4</v>
       </c>
-      <c r="Z500" s="4">
+      <c r="Z500" s="1">
         <v>4</v>
       </c>
       <c r="AA500" s="1">
@@ -44604,7 +44604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>541</v>
       </c>
@@ -44677,7 +44677,7 @@
       <c r="Y501" s="3">
         <v>4</v>
       </c>
-      <c r="Z501" s="3">
+      <c r="Z501" s="1">
         <v>4</v>
       </c>
       <c r="AA501" s="1">
@@ -44687,7 +44687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>542</v>
       </c>
@@ -44760,7 +44760,7 @@
       <c r="Y502" s="1">
         <v>4</v>
       </c>
-      <c r="Z502" s="4">
+      <c r="Z502" s="1">
         <v>4</v>
       </c>
       <c r="AA502" s="1">
@@ -44770,7 +44770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="503" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>543</v>
       </c>
@@ -44843,7 +44843,7 @@
       <c r="Y503" s="3">
         <v>4</v>
       </c>
-      <c r="Z503" s="3">
+      <c r="Z503" s="1">
         <v>4</v>
       </c>
       <c r="AA503" s="1">
@@ -44853,7 +44853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="504" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>544</v>
       </c>
@@ -44926,7 +44926,7 @@
       <c r="Y504" s="4">
         <v>4</v>
       </c>
-      <c r="Z504" s="4">
+      <c r="Z504" s="1">
         <v>4</v>
       </c>
       <c r="AA504" s="1">
@@ -44936,7 +44936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="505" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>545</v>
       </c>
@@ -45009,7 +45009,7 @@
       <c r="Y505" s="3">
         <v>4</v>
       </c>
-      <c r="Z505" s="3">
+      <c r="Z505" s="1">
         <v>4</v>
       </c>
       <c r="AA505" s="1">
@@ -45019,7 +45019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="506" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>546</v>
       </c>
@@ -45092,7 +45092,7 @@
       <c r="Y506" s="4">
         <v>4</v>
       </c>
-      <c r="Z506" s="4">
+      <c r="Z506" s="1">
         <v>4</v>
       </c>
       <c r="AA506" s="1">
@@ -45102,7 +45102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="507" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>547</v>
       </c>
@@ -45175,7 +45175,7 @@
       <c r="Y507" s="3">
         <v>4</v>
       </c>
-      <c r="Z507" s="3">
+      <c r="Z507" s="1">
         <v>4</v>
       </c>
       <c r="AA507" s="1">
@@ -45185,7 +45185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="508" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>548</v>
       </c>
@@ -45258,7 +45258,7 @@
       <c r="Y508" s="4">
         <v>4</v>
       </c>
-      <c r="Z508" s="4">
+      <c r="Z508" s="1">
         <v>4</v>
       </c>
       <c r="AA508" s="1">
@@ -45268,7 +45268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="509" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>549</v>
       </c>
@@ -45341,7 +45341,7 @@
       <c r="Y509" s="3">
         <v>4</v>
       </c>
-      <c r="Z509" s="3">
+      <c r="Z509" s="1">
         <v>4</v>
       </c>
       <c r="AA509" s="1">
@@ -45351,7 +45351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="510" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>550</v>
       </c>
@@ -45424,7 +45424,7 @@
       <c r="Y510" s="4">
         <v>4</v>
       </c>
-      <c r="Z510" s="4">
+      <c r="Z510" s="1">
         <v>4</v>
       </c>
       <c r="AA510" s="1">
@@ -45434,7 +45434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="511" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>551</v>
       </c>
@@ -45507,7 +45507,7 @@
       <c r="Y511" s="3">
         <v>4</v>
       </c>
-      <c r="Z511" s="3">
+      <c r="Z511" s="1">
         <v>4</v>
       </c>
       <c r="AA511" s="1">
@@ -45517,7 +45517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="512" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>552</v>
       </c>
@@ -45590,7 +45590,7 @@
       <c r="Y512" s="1">
         <v>4</v>
       </c>
-      <c r="Z512" s="4">
+      <c r="Z512" s="1">
         <v>4</v>
       </c>
       <c r="AA512" s="1">
@@ -45600,7 +45600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="513" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>553</v>
       </c>
@@ -45673,7 +45673,7 @@
       <c r="Y513" s="3">
         <v>4</v>
       </c>
-      <c r="Z513" s="3">
+      <c r="Z513" s="1">
         <v>4</v>
       </c>
       <c r="AA513" s="1">
@@ -45683,7 +45683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="514" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>554</v>
       </c>
@@ -45756,7 +45756,7 @@
       <c r="Y514" s="4">
         <v>4</v>
       </c>
-      <c r="Z514" s="4">
+      <c r="Z514" s="1">
         <v>4</v>
       </c>
       <c r="AA514" s="1">
@@ -45766,7 +45766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="515" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>555</v>
       </c>
@@ -45839,7 +45839,7 @@
       <c r="Y515" s="3">
         <v>4</v>
       </c>
-      <c r="Z515" s="4">
+      <c r="Z515" s="1">
         <v>4</v>
       </c>
       <c r="AA515" s="1">
@@ -45849,7 +45849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="516" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>556</v>
       </c>
@@ -45922,7 +45922,7 @@
       <c r="Y516" s="4">
         <v>4</v>
       </c>
-      <c r="Z516" s="3">
+      <c r="Z516" s="1">
         <v>4</v>
       </c>
       <c r="AA516" s="1">
@@ -45932,7 +45932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="517" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>557</v>
       </c>
@@ -46008,7 +46008,7 @@
       <c r="Y517">
         <v>2</v>
       </c>
-      <c r="Z517" t="s">
+      <c r="Z517" s="1" t="s">
         <v>679</v>
       </c>
       <c r="AA517" s="1" t="s">
@@ -46018,7 +46018,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="518" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>558</v>
       </c>
@@ -46095,7 +46095,7 @@
         <v>2</v>
       </c>
       <c r="Z518" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA518" s="1">
         <v>4</v>
@@ -46104,7 +46104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="519" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>560</v>
       </c>
@@ -46177,7 +46177,7 @@
       <c r="Y519" s="3">
         <v>4</v>
       </c>
-      <c r="Z519" s="3">
+      <c r="Z519" s="1">
         <v>4</v>
       </c>
       <c r="AA519" s="1">
@@ -46187,7 +46187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="520" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>561</v>
       </c>
@@ -46260,7 +46260,7 @@
       <c r="Y520" s="4">
         <v>4</v>
       </c>
-      <c r="Z520" s="4">
+      <c r="Z520" s="1">
         <v>4</v>
       </c>
       <c r="AA520" s="1">
@@ -46270,7 +46270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="521" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>562</v>
       </c>
@@ -46343,7 +46343,7 @@
       <c r="Y521" s="3">
         <v>4</v>
       </c>
-      <c r="Z521" s="3">
+      <c r="Z521" s="1">
         <v>4</v>
       </c>
       <c r="AA521" s="1">
@@ -46353,7 +46353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="522" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>563</v>
       </c>
@@ -46426,7 +46426,7 @@
       <c r="Y522" s="4">
         <v>4</v>
       </c>
-      <c r="Z522" s="4">
+      <c r="Z522" s="1">
         <v>4</v>
       </c>
       <c r="AA522" s="1">
@@ -46436,7 +46436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="523" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>564</v>
       </c>
@@ -46509,7 +46509,7 @@
       <c r="Y523" s="3">
         <v>4</v>
       </c>
-      <c r="Z523" s="3">
+      <c r="Z523" s="1">
         <v>4</v>
       </c>
       <c r="AA523" s="1">
@@ -46519,7 +46519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="524" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>565</v>
       </c>
@@ -46592,7 +46592,7 @@
       <c r="Y524" s="4">
         <v>4</v>
       </c>
-      <c r="Z524" s="4">
+      <c r="Z524" s="1">
         <v>4</v>
       </c>
       <c r="AA524" s="1">
@@ -46602,7 +46602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="525" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>566</v>
       </c>
@@ -46675,7 +46675,7 @@
       <c r="Y525" s="3">
         <v>4</v>
       </c>
-      <c r="Z525" s="3">
+      <c r="Z525" s="1">
         <v>4</v>
       </c>
       <c r="AA525" s="1">
@@ -46685,7 +46685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="526" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>567</v>
       </c>
@@ -46758,7 +46758,7 @@
       <c r="Y526" s="4">
         <v>4</v>
       </c>
-      <c r="Z526" s="4">
+      <c r="Z526" s="1">
         <v>4</v>
       </c>
       <c r="AA526" s="1">
@@ -46768,7 +46768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="527" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>568</v>
       </c>
@@ -46841,7 +46841,7 @@
       <c r="Y527" s="3">
         <v>4</v>
       </c>
-      <c r="Z527" s="3">
+      <c r="Z527" s="1">
         <v>4</v>
       </c>
       <c r="AA527" s="1">
@@ -46851,7 +46851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="528" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>569</v>
       </c>
@@ -46927,7 +46927,7 @@
       <c r="Y528" s="4">
         <v>4</v>
       </c>
-      <c r="Z528" s="4">
+      <c r="Z528" s="1">
         <v>4</v>
       </c>
       <c r="AA528" s="1">
@@ -46937,7 +46937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="529" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>570</v>
       </c>
@@ -47010,7 +47010,7 @@
       <c r="Y529" s="3">
         <v>4</v>
       </c>
-      <c r="Z529" s="3">
+      <c r="Z529" s="1">
         <v>4</v>
       </c>
       <c r="AA529" s="1">
@@ -47020,7 +47020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="530" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>571</v>
       </c>
@@ -47093,7 +47093,7 @@
       <c r="Y530" s="4">
         <v>4</v>
       </c>
-      <c r="Z530" s="4">
+      <c r="Z530" s="1">
         <v>4</v>
       </c>
       <c r="AA530" s="1">
@@ -47103,7 +47103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="531" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>572</v>
       </c>
@@ -47176,7 +47176,7 @@
       <c r="Y531" s="3">
         <v>4</v>
       </c>
-      <c r="Z531" s="3">
+      <c r="Z531" s="1">
         <v>4</v>
       </c>
       <c r="AA531" s="1">
@@ -47186,7 +47186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>573</v>
       </c>
@@ -47262,7 +47262,7 @@
       <c r="Y532" s="1">
         <v>4</v>
       </c>
-      <c r="Z532" s="4">
+      <c r="Z532" s="1">
         <v>4</v>
       </c>
       <c r="AA532" s="1">
@@ -47272,7 +47272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="533" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>574</v>
       </c>
@@ -47345,7 +47345,7 @@
       <c r="Y533" s="3">
         <v>4</v>
       </c>
-      <c r="Z533" s="3">
+      <c r="Z533" s="1">
         <v>4</v>
       </c>
       <c r="AA533" s="1">
@@ -47355,7 +47355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="534" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>575</v>
       </c>
@@ -47428,7 +47428,7 @@
       <c r="Y534" s="4">
         <v>4</v>
       </c>
-      <c r="Z534" s="4">
+      <c r="Z534" s="1">
         <v>4</v>
       </c>
       <c r="AA534" s="1">
@@ -47438,7 +47438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="535" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>576</v>
       </c>
@@ -47511,7 +47511,7 @@
       <c r="Y535" s="3">
         <v>4</v>
       </c>
-      <c r="Z535" s="3">
+      <c r="Z535" s="1">
         <v>4</v>
       </c>
       <c r="AA535" s="1">
@@ -47521,7 +47521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="536" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>577</v>
       </c>
@@ -47594,7 +47594,7 @@
       <c r="Y536" s="4">
         <v>4</v>
       </c>
-      <c r="Z536" s="4">
+      <c r="Z536" s="1">
         <v>4</v>
       </c>
       <c r="AA536" s="1">
@@ -47604,7 +47604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="537" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>578</v>
       </c>
@@ -47677,7 +47677,7 @@
       <c r="Y537" s="1">
         <v>4</v>
       </c>
-      <c r="Z537" s="3">
+      <c r="Z537" s="1">
         <v>4</v>
       </c>
       <c r="AA537" s="1">
@@ -47687,7 +47687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="538" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>579</v>
       </c>
@@ -47760,7 +47760,7 @@
       <c r="Y538" s="3">
         <v>4</v>
       </c>
-      <c r="Z538" s="4">
+      <c r="Z538" s="1">
         <v>4</v>
       </c>
       <c r="AA538" s="1">
@@ -47770,7 +47770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="539" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>580</v>
       </c>
@@ -47843,7 +47843,7 @@
       <c r="Y539" s="4">
         <v>4</v>
       </c>
-      <c r="Z539" s="3">
+      <c r="Z539" s="1">
         <v>4</v>
       </c>
       <c r="AA539" s="1">
@@ -47853,7 +47853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>581</v>
       </c>
@@ -47926,7 +47926,7 @@
       <c r="Y540" s="3">
         <v>4</v>
       </c>
-      <c r="Z540" s="4">
+      <c r="Z540" s="1">
         <v>4</v>
       </c>
       <c r="AA540" s="1">
@@ -47936,7 +47936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="541" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>582</v>
       </c>
@@ -48009,7 +48009,7 @@
       <c r="Y541" s="4">
         <v>4</v>
       </c>
-      <c r="Z541" s="3">
+      <c r="Z541" s="1">
         <v>4</v>
       </c>
       <c r="AA541" s="1">
@@ -48019,7 +48019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="542" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>583</v>
       </c>
@@ -48092,17 +48092,14 @@
       <c r="Y542">
         <v>1</v>
       </c>
-      <c r="Z542" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA542" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB542">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z542" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>586</v>
       </c>
@@ -48181,11 +48178,8 @@
       <c r="AA543" s="1">
         <v>1</v>
       </c>
-      <c r="AB543" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="544" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>587</v>
       </c>
@@ -48258,17 +48252,14 @@
       <c r="Y544">
         <v>1</v>
       </c>
-      <c r="Z544">
-        <v>1</v>
-      </c>
-      <c r="AA544" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB544">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z544" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>588</v>
       </c>
@@ -48342,16 +48333,13 @@
         <v>1</v>
       </c>
       <c r="Z545" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA545" s="1">
         <v>2</v>
       </c>
-      <c r="AB545" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="546" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="546" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>589</v>
       </c>
@@ -48424,17 +48412,14 @@
       <c r="Y546">
         <v>1</v>
       </c>
-      <c r="Z546">
-        <v>1</v>
-      </c>
-      <c r="AA546" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB546">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z546" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>590</v>
       </c>
@@ -48508,16 +48493,13 @@
         <v>2</v>
       </c>
       <c r="Z547" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA547" s="1">
         <v>3</v>
       </c>
-      <c r="AB547" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="548" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="548" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>591</v>
       </c>
@@ -48590,17 +48572,14 @@
       <c r="Y548" s="3">
         <v>2</v>
       </c>
-      <c r="Z548" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA548" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB548" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="549" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z548" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA548" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>592</v>
       </c>
@@ -48679,11 +48658,8 @@
       <c r="AA549" s="1">
         <v>1</v>
       </c>
-      <c r="AB549" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="550" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="550" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>593</v>
       </c>
@@ -48762,11 +48738,8 @@
       <c r="AA550" s="1">
         <v>1</v>
       </c>
-      <c r="AB550" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="551" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="551" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>594</v>
       </c>
@@ -48845,11 +48818,8 @@
       <c r="AA551" s="1">
         <v>1</v>
       </c>
-      <c r="AB551" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="552" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>595</v>
       </c>
@@ -48926,13 +48896,10 @@
         <v>679</v>
       </c>
       <c r="AA552" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB552" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="553" spans="1:28" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="553" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>596</v>
       </c>
@@ -49006,16 +48973,13 @@
         <v>1</v>
       </c>
       <c r="Z553" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA553" s="1">
         <v>2</v>
       </c>
-      <c r="AB553" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="554" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="554" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>597</v>
       </c>
@@ -49094,11 +49058,8 @@
       <c r="AA554" s="1">
         <v>1</v>
       </c>
-      <c r="AB554" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="555" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="555" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>598</v>
       </c>
@@ -49177,11 +49138,8 @@
       <c r="AA555" s="1">
         <v>1</v>
       </c>
-      <c r="AB555" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="556" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="556" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>599</v>
       </c>
@@ -49258,13 +49216,10 @@
         <v>1</v>
       </c>
       <c r="AA556" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB556" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="557" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>600</v>
       </c>
@@ -49341,13 +49296,10 @@
         <v>679</v>
       </c>
       <c r="AA557" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB557" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="558" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="558" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>601</v>
       </c>
@@ -49420,17 +49372,14 @@
       <c r="Y558">
         <v>1</v>
       </c>
-      <c r="Z558" s="1">
+      <c r="Z558">
         <v>1</v>
       </c>
       <c r="AA558">
         <v>1</v>
       </c>
-      <c r="AB558">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="559" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="559" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>602</v>
       </c>
@@ -49503,17 +49452,14 @@
       <c r="Y559" s="3">
         <v>1</v>
       </c>
-      <c r="Z559" s="3">
+      <c r="Z559">
         <v>2</v>
       </c>
       <c r="AA559">
         <v>2</v>
       </c>
-      <c r="AB559">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="560" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="560" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>603</v>
       </c>
@@ -49586,17 +49532,14 @@
       <c r="Y560" s="4">
         <v>1</v>
       </c>
-      <c r="Z560" s="4">
+      <c r="Z560" s="1">
         <v>1</v>
       </c>
       <c r="AA560" s="1">
         <v>1</v>
       </c>
-      <c r="AB560" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="561" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="561" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>604</v>
       </c>
@@ -49669,17 +49612,14 @@
       <c r="Y561" s="3">
         <v>1</v>
       </c>
-      <c r="Z561" s="3">
+      <c r="Z561">
         <v>1</v>
       </c>
       <c r="AA561">
         <v>1</v>
       </c>
-      <c r="AB561">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="562" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>605</v>
       </c>
@@ -49752,17 +49692,14 @@
       <c r="Y562" s="4">
         <v>1</v>
       </c>
-      <c r="Z562" s="4">
+      <c r="Z562" s="1">
         <v>1</v>
       </c>
       <c r="AA562" s="1">
         <v>1</v>
       </c>
-      <c r="AB562" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="563" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="563" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>606</v>
       </c>
@@ -49836,16 +49773,13 @@
         <v>1</v>
       </c>
       <c r="Z563">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA563">
-        <v>2</v>
-      </c>
-      <c r="AB563">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="564" spans="1:28" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>607</v>
       </c>
@@ -49919,16 +49853,13 @@
         <v>2</v>
       </c>
       <c r="Z564" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA564" s="1">
         <v>3</v>
       </c>
-      <c r="AB564" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="565" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="565" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>608</v>
       </c>
@@ -50007,11 +49938,8 @@
       <c r="AA565">
         <v>1</v>
       </c>
-      <c r="AB565">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="566" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="566" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>609</v>
       </c>
@@ -50088,13 +50016,10 @@
         <v>679</v>
       </c>
       <c r="AA566" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB566" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="567" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="567" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>610</v>
       </c>
@@ -50171,13 +50096,10 @@
         <v>2</v>
       </c>
       <c r="AA567">
-        <v>2</v>
-      </c>
-      <c r="AB567">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="568" spans="1:28" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>611</v>
       </c>
@@ -50251,16 +50173,13 @@
         <v>1</v>
       </c>
       <c r="Z568" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA568" s="1">
         <v>2</v>
       </c>
-      <c r="AB568" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="569" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="569" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>612</v>
       </c>
@@ -50334,16 +50253,13 @@
         <v>2</v>
       </c>
       <c r="Z569">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA569">
         <v>3</v>
       </c>
-      <c r="AB569">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="570" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="570" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>613</v>
       </c>
@@ -50417,16 +50333,13 @@
         <v>1</v>
       </c>
       <c r="Z570" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA570" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB570" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="571" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>614</v>
       </c>
@@ -50505,11 +50418,8 @@
       <c r="AA571">
         <v>1</v>
       </c>
-      <c r="AB571">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="572" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="572" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>615</v>
       </c>
@@ -50586,13 +50496,10 @@
         <v>1</v>
       </c>
       <c r="AA572" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB572" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="573" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>616</v>
       </c>
@@ -50671,11 +50578,8 @@
       <c r="AA573">
         <v>1</v>
       </c>
-      <c r="AB573">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="574" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="574" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>617</v>
       </c>
@@ -50752,13 +50656,10 @@
         <v>679</v>
       </c>
       <c r="AA574" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB574" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="575" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="575" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>618</v>
       </c>
@@ -50835,13 +50736,10 @@
         <v>679</v>
       </c>
       <c r="AA575" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB575" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="576" spans="1:28" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="576" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>619</v>
       </c>
@@ -50918,13 +50816,10 @@
         <v>679</v>
       </c>
       <c r="AA576" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB576" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="577" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="577" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>620</v>
       </c>
@@ -51001,13 +50896,10 @@
         <v>1</v>
       </c>
       <c r="AA577" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB577" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="578" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>621</v>
       </c>
@@ -51086,11 +50978,8 @@
       <c r="AA578" s="1">
         <v>1</v>
       </c>
-      <c r="AB578" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="579" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="579" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>622</v>
       </c>
@@ -51169,11 +51058,8 @@
       <c r="AA579">
         <v>2</v>
       </c>
-      <c r="AB579">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="580" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="580" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>623</v>
       </c>
@@ -51249,14 +51135,11 @@
       <c r="Z580">
         <v>1</v>
       </c>
-      <c r="AA580">
-        <v>1</v>
-      </c>
-      <c r="AB580" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="581" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA580" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>624</v>
       </c>
@@ -51332,14 +51215,11 @@
       <c r="Z581">
         <v>1</v>
       </c>
-      <c r="AA581">
-        <v>1</v>
-      </c>
-      <c r="AB581" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="582" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA581" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>625</v>
       </c>
@@ -51416,13 +51296,10 @@
         <v>1</v>
       </c>
       <c r="AA582" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB582" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="583" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>626</v>
       </c>
@@ -51495,17 +51372,14 @@
       <c r="Y583">
         <v>1</v>
       </c>
-      <c r="Z583">
-        <v>1</v>
-      </c>
-      <c r="AA583" t="s">
+      <c r="Z583" t="s">
         <v>679</v>
       </c>
-      <c r="AB583" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="584" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA583" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>627</v>
       </c>
@@ -51584,11 +51458,8 @@
       <c r="AA584" s="1">
         <v>2</v>
       </c>
-      <c r="AB584" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="585" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="585" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>628</v>
       </c>
@@ -51664,14 +51535,11 @@
       <c r="Z585">
         <v>2</v>
       </c>
-      <c r="AA585">
-        <v>2</v>
-      </c>
-      <c r="AB585" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="586" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA585" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>629</v>
       </c>
@@ -51745,16 +51613,13 @@
         <v>2</v>
       </c>
       <c r="Z586" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA586" s="1">
         <v>3</v>
       </c>
-      <c r="AB586" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="587" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="587" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>630</v>
       </c>
@@ -51833,11 +51698,8 @@
       <c r="AA587">
         <v>2</v>
       </c>
-      <c r="AB587">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="588" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="588" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>631</v>
       </c>
@@ -51911,16 +51773,13 @@
         <v>308</v>
       </c>
       <c r="Z588" s="1" t="s">
-        <v>308</v>
+        <v>679</v>
       </c>
       <c r="AA588" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB588" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="589" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="589" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>632</v>
       </c>
@@ -51994,16 +51853,13 @@
         <v>308</v>
       </c>
       <c r="Z589" t="s">
-        <v>308</v>
+        <v>679</v>
       </c>
       <c r="AA589" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB589" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="590" spans="1:28" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="590" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>633</v>
       </c>
@@ -52082,11 +51938,8 @@
       <c r="AA590" s="1">
         <v>1</v>
       </c>
-      <c r="AB590" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="591" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="591" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>634</v>
       </c>
@@ -52160,16 +52013,13 @@
         <v>1</v>
       </c>
       <c r="Z591">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA591">
         <v>2</v>
       </c>
-      <c r="AB591">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="592" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="592" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>635</v>
       </c>
@@ -52248,11 +52098,8 @@
       <c r="AA592" s="1">
         <v>3</v>
       </c>
-      <c r="AB592" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="593" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="593" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>636</v>
       </c>
@@ -52331,11 +52178,8 @@
       <c r="AA593">
         <v>3</v>
       </c>
-      <c r="AB593">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="594" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="594" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>637</v>
       </c>
@@ -52414,11 +52258,8 @@
       <c r="AA594" s="1">
         <v>3</v>
       </c>
-      <c r="AB594" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="595" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="595" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>638</v>
       </c>
@@ -52492,16 +52333,13 @@
         <v>2</v>
       </c>
       <c r="Z595">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA595">
         <v>3</v>
       </c>
-      <c r="AB595">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="596" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="596" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>639</v>
       </c>
@@ -52580,11 +52418,8 @@
       <c r="AA596" s="1">
         <v>2</v>
       </c>
-      <c r="AB596" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="597" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="597" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>640</v>
       </c>
@@ -52658,16 +52493,13 @@
         <v>2</v>
       </c>
       <c r="Z597">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA597">
         <v>3</v>
       </c>
-      <c r="AB597">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="598" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="598" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>641</v>
       </c>
@@ -52744,13 +52576,10 @@
         <v>2</v>
       </c>
       <c r="AA598" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB598" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="599" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>642</v>
       </c>
@@ -52824,16 +52653,13 @@
         <v>2</v>
       </c>
       <c r="Z599">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA599">
         <v>3</v>
       </c>
-      <c r="AB599">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="600" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="600" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>643</v>
       </c>
@@ -52907,16 +52733,13 @@
         <v>2</v>
       </c>
       <c r="Z600" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA600" s="1">
         <v>3</v>
       </c>
-      <c r="AB600" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="601" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="601" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>644</v>
       </c>
@@ -52989,17 +52812,14 @@
       <c r="Y601">
         <v>0</v>
       </c>
-      <c r="Z601">
-        <v>0</v>
+      <c r="Z601" t="s">
+        <v>679</v>
       </c>
       <c r="AA601" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB601" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="602" spans="1:28" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="602" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>645</v>
       </c>
@@ -53073,16 +52893,13 @@
         <v>2</v>
       </c>
       <c r="Z602" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA602" s="1">
         <v>3</v>
       </c>
-      <c r="AB602" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="603" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="603" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>646</v>
       </c>
@@ -53156,16 +52973,13 @@
         <v>308</v>
       </c>
       <c r="Z603" t="s">
-        <v>308</v>
+        <v>679</v>
       </c>
       <c r="AA603" t="s">
         <v>679</v>
       </c>
-      <c r="AB603" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="604" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="604" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>647</v>
       </c>
@@ -53239,16 +53053,13 @@
         <v>308</v>
       </c>
       <c r="Z604" s="1" t="s">
-        <v>308</v>
+        <v>679</v>
       </c>
       <c r="AA604" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="AB604" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="605" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="605" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>648</v>
       </c>
@@ -53322,16 +53133,13 @@
         <v>308</v>
       </c>
       <c r="Z605" t="s">
-        <v>308</v>
+        <v>679</v>
       </c>
       <c r="AA605" t="s">
         <v>679</v>
       </c>
-      <c r="AB605" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="606" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="606" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>649</v>
       </c>
@@ -53410,11 +53218,8 @@
       <c r="AA606" s="1">
         <v>1</v>
       </c>
-      <c r="AB606" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="607" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="607" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>650</v>
       </c>
@@ -53493,11 +53298,8 @@
       <c r="AA607" s="1">
         <v>3</v>
       </c>
-      <c r="AB607" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="608" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="608" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>651</v>
       </c>
@@ -53576,11 +53378,8 @@
       <c r="AA608" s="1">
         <v>3</v>
       </c>
-      <c r="AB608" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="609" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="609" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>652</v>
       </c>
@@ -53659,14 +53458,11 @@
       <c r="Z609" s="1">
         <v>1</v>
       </c>
-      <c r="AA609" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB609" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="610" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA609" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="610" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>653</v>
       </c>
@@ -53745,11 +53541,8 @@
       <c r="AA610" s="1">
         <v>1</v>
       </c>
-      <c r="AB610" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="611" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="611" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>654</v>
       </c>
@@ -53828,11 +53621,8 @@
       <c r="AA611" s="1">
         <v>1</v>
       </c>
-      <c r="AB611" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="612" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="612" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>655</v>
       </c>
@@ -53906,16 +53696,13 @@
         <v>308</v>
       </c>
       <c r="Z612" t="s">
-        <v>308</v>
+        <v>679</v>
       </c>
       <c r="AA612" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB612" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="613" spans="1:28" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="613" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>656</v>
       </c>
@@ -53989,16 +53776,13 @@
         <v>2</v>
       </c>
       <c r="Z613" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA613" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB613" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="614" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="AA613" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>657</v>
       </c>
@@ -54074,14 +53858,11 @@
       <c r="Z614" s="1">
         <v>3</v>
       </c>
-      <c r="AA614" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB614" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="615" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA614" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>658</v>
       </c>
@@ -54155,16 +53936,13 @@
         <v>2</v>
       </c>
       <c r="Z615" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA615" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB615" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="616" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="AA615" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>659</v>
       </c>
@@ -54240,14 +54018,11 @@
       <c r="Z616" s="1">
         <v>3</v>
       </c>
-      <c r="AA616" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB616" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="617" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA616" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>660</v>
       </c>
@@ -54326,11 +54101,8 @@
       <c r="AA617" s="1">
         <v>2</v>
       </c>
-      <c r="AB617" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="618" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="618" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>661</v>
       </c>
@@ -54409,11 +54181,8 @@
       <c r="AA618">
         <v>2</v>
       </c>
-      <c r="AB618">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="619" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="619" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>662</v>
       </c>
@@ -54487,16 +54256,13 @@
         <v>2</v>
       </c>
       <c r="Z619" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA619" s="1">
         <v>3</v>
       </c>
-      <c r="AB619" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="620" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="620" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>663</v>
       </c>
@@ -54573,16 +54339,13 @@
         <v>308</v>
       </c>
       <c r="Z620" t="s">
-        <v>308</v>
+        <v>679</v>
       </c>
       <c r="AA620" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB620" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="621" spans="1:28" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="621" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>664</v>
       </c>
@@ -54656,16 +54419,13 @@
         <v>2</v>
       </c>
       <c r="Z621" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA621" s="1">
         <v>3</v>
       </c>
-      <c r="AB621" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="622" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="622" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>665</v>
       </c>
@@ -54744,11 +54504,8 @@
       <c r="AA622">
         <v>3</v>
       </c>
-      <c r="AB622">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="623" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="623" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>666</v>
       </c>
@@ -54822,16 +54579,13 @@
         <v>2</v>
       </c>
       <c r="Z623" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA623" s="1">
         <v>3</v>
       </c>
-      <c r="AB623" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="624" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="624" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>667</v>
       </c>
@@ -54910,11 +54664,8 @@
       <c r="AA624">
         <v>3</v>
       </c>
-      <c r="AB624">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="625" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="625" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>668</v>
       </c>
@@ -54993,11 +54744,8 @@
       <c r="AA625" s="1">
         <v>3</v>
       </c>
-      <c r="AB625" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="626" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="626" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>669</v>
       </c>
@@ -55071,16 +54819,13 @@
         <v>2</v>
       </c>
       <c r="Z626">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA626">
         <v>3</v>
       </c>
-      <c r="AB626">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="627" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="627" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>670</v>
       </c>
@@ -55159,11 +54904,8 @@
       <c r="AA627" s="1">
         <v>3</v>
       </c>
-      <c r="AB627" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="628" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="628" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>671</v>
       </c>
@@ -55242,11 +54984,8 @@
       <c r="AA628">
         <v>2</v>
       </c>
-      <c r="AB628">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="629" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="629" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
         <v>672</v>
       </c>
@@ -55320,16 +55059,13 @@
         <v>2</v>
       </c>
       <c r="Z629" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA629" s="1">
         <v>3</v>
       </c>
-      <c r="AB629" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="630" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="630" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>673</v>
       </c>
@@ -55408,11 +55144,8 @@
       <c r="AA630">
         <v>3</v>
       </c>
-      <c r="AB630">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="631" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="631" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>674</v>
       </c>
@@ -55486,12 +55219,9 @@
         <v>2</v>
       </c>
       <c r="Z631" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA631" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB631" s="1">
         <v>3</v>
       </c>
     </row>

--- a/data/phenological_monitoring.xlsx
+++ b/data/phenological_monitoring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA0AC0A-06B7-FC46-B0A7-46B8E56932F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E945E284-26A6-154A-80C9-D6BB87B9774E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3740" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="682">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2080,6 +2080,9 @@
   </si>
   <si>
     <t>doy171: dead</t>
+  </si>
+  <si>
+    <t>doy179:dead</t>
   </si>
 </sst>
 </file>
@@ -2973,9 +2976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="A601" zoomScale="191" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB617" sqref="AB617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3067,7 +3070,7 @@
         <v>171</v>
       </c>
       <c r="AB1" s="1">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -48098,6 +48101,9 @@
       <c r="AA542">
         <v>1</v>
       </c>
+      <c r="AB542" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="543" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
@@ -48178,6 +48184,9 @@
       <c r="AA543" s="1">
         <v>1</v>
       </c>
+      <c r="AB543" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="544" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
@@ -48258,8 +48267,11 @@
       <c r="AA544">
         <v>1</v>
       </c>
-    </row>
-    <row r="545" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB544" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>588</v>
       </c>
@@ -48338,8 +48350,11 @@
       <c r="AA545" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="546" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB545" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>589</v>
       </c>
@@ -48418,8 +48433,11 @@
       <c r="AA546">
         <v>1</v>
       </c>
-    </row>
-    <row r="547" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB546" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>590</v>
       </c>
@@ -48498,8 +48516,11 @@
       <c r="AA547" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="548" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB547" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>591</v>
       </c>
@@ -48578,8 +48599,11 @@
       <c r="AA548" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="549" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB548" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>592</v>
       </c>
@@ -48658,8 +48682,11 @@
       <c r="AA549" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="550" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB549" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>593</v>
       </c>
@@ -48738,8 +48765,11 @@
       <c r="AA550" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="551" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB550" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>594</v>
       </c>
@@ -48818,8 +48848,11 @@
       <c r="AA551" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="552" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB551" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>595</v>
       </c>
@@ -48898,8 +48931,11 @@
       <c r="AA552" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="553" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB552" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="553" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>596</v>
       </c>
@@ -48978,8 +49014,11 @@
       <c r="AA553" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="554" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB553" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>597</v>
       </c>
@@ -49058,8 +49097,11 @@
       <c r="AA554" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="555" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB554" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>598</v>
       </c>
@@ -49138,8 +49180,11 @@
       <c r="AA555" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="556" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB555" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>599</v>
       </c>
@@ -49218,8 +49263,11 @@
       <c r="AA556" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="557" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB556" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>600</v>
       </c>
@@ -49298,8 +49346,11 @@
       <c r="AA557" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="558" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB557" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="558" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>601</v>
       </c>
@@ -49378,8 +49429,11 @@
       <c r="AA558">
         <v>1</v>
       </c>
-    </row>
-    <row r="559" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB558">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>602</v>
       </c>
@@ -49458,8 +49512,11 @@
       <c r="AA559">
         <v>2</v>
       </c>
-    </row>
-    <row r="560" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB559">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>603</v>
       </c>
@@ -49538,8 +49595,11 @@
       <c r="AA560" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="561" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB560" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>604</v>
       </c>
@@ -49618,8 +49678,11 @@
       <c r="AA561">
         <v>1</v>
       </c>
-    </row>
-    <row r="562" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB561">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>605</v>
       </c>
@@ -49698,8 +49761,11 @@
       <c r="AA562" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="563" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB562" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>606</v>
       </c>
@@ -49778,8 +49844,11 @@
       <c r="AA563">
         <v>3</v>
       </c>
-    </row>
-    <row r="564" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB563">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>607</v>
       </c>
@@ -49858,8 +49927,11 @@
       <c r="AA564" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="565" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB564" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>608</v>
       </c>
@@ -49938,8 +50010,11 @@
       <c r="AA565">
         <v>1</v>
       </c>
-    </row>
-    <row r="566" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>609</v>
       </c>
@@ -50018,8 +50093,11 @@
       <c r="AA566" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="567" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB566" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="567" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>610</v>
       </c>
@@ -50098,8 +50176,11 @@
       <c r="AA567">
         <v>3</v>
       </c>
-    </row>
-    <row r="568" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB567">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>611</v>
       </c>
@@ -50178,8 +50259,11 @@
       <c r="AA568" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="569" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB568" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>612</v>
       </c>
@@ -50258,8 +50342,11 @@
       <c r="AA569">
         <v>3</v>
       </c>
-    </row>
-    <row r="570" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB569">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>613</v>
       </c>
@@ -50338,8 +50425,11 @@
       <c r="AA570" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="571" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB570" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>614</v>
       </c>
@@ -50355,6 +50445,9 @@
       <c r="E571" t="s">
         <v>585</v>
       </c>
+      <c r="F571" t="s">
+        <v>681</v>
+      </c>
       <c r="G571">
         <v>1</v>
       </c>
@@ -50418,8 +50511,11 @@
       <c r="AA571">
         <v>1</v>
       </c>
-    </row>
-    <row r="572" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB571" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="572" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>615</v>
       </c>
@@ -50498,8 +50594,11 @@
       <c r="AA572" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="573" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB572" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>616</v>
       </c>
@@ -50578,8 +50677,11 @@
       <c r="AA573">
         <v>1</v>
       </c>
-    </row>
-    <row r="574" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB573">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>617</v>
       </c>
@@ -50658,8 +50760,11 @@
       <c r="AA574" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="575" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB574" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="575" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>618</v>
       </c>
@@ -50738,8 +50843,11 @@
       <c r="AA575" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="576" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB575" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="576" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>619</v>
       </c>
@@ -50818,8 +50926,11 @@
       <c r="AA576" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="577" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB576" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="577" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>620</v>
       </c>
@@ -50898,8 +51009,11 @@
       <c r="AA577" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="578" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB577" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="578" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>621</v>
       </c>
@@ -50978,8 +51092,11 @@
       <c r="AA578" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="579" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB578" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>622</v>
       </c>
@@ -51058,8 +51175,11 @@
       <c r="AA579">
         <v>2</v>
       </c>
-    </row>
-    <row r="580" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB579">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>623</v>
       </c>
@@ -51138,8 +51258,11 @@
       <c r="AA580" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="581" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB580" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>624</v>
       </c>
@@ -51218,8 +51341,11 @@
       <c r="AA581" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="582" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB581" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>625</v>
       </c>
@@ -51298,8 +51424,11 @@
       <c r="AA582" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="583" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB582" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>626</v>
       </c>
@@ -51378,8 +51507,11 @@
       <c r="AA583" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="584" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB583" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>627</v>
       </c>
@@ -51458,8 +51590,11 @@
       <c r="AA584" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="585" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB584" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>628</v>
       </c>
@@ -51538,8 +51673,11 @@
       <c r="AA585" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="586" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB585" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>629</v>
       </c>
@@ -51618,8 +51756,11 @@
       <c r="AA586" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="587" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB586" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>630</v>
       </c>
@@ -51698,8 +51839,11 @@
       <c r="AA587">
         <v>2</v>
       </c>
-    </row>
-    <row r="588" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB587">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>631</v>
       </c>
@@ -51778,8 +51922,11 @@
       <c r="AA588" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="589" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB588" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="589" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>632</v>
       </c>
@@ -51858,8 +52005,11 @@
       <c r="AA589" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="590" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB589" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="590" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>633</v>
       </c>
@@ -51938,8 +52088,11 @@
       <c r="AA590" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="591" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB590" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>634</v>
       </c>
@@ -52018,8 +52171,11 @@
       <c r="AA591">
         <v>2</v>
       </c>
-    </row>
-    <row r="592" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB591">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>635</v>
       </c>
@@ -52098,8 +52254,11 @@
       <c r="AA592" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="593" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB592" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>636</v>
       </c>
@@ -52178,8 +52337,11 @@
       <c r="AA593">
         <v>3</v>
       </c>
-    </row>
-    <row r="594" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB593">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>637</v>
       </c>
@@ -52258,8 +52420,11 @@
       <c r="AA594" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="595" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB594" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>638</v>
       </c>
@@ -52338,8 +52503,11 @@
       <c r="AA595">
         <v>3</v>
       </c>
-    </row>
-    <row r="596" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB595">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>639</v>
       </c>
@@ -52418,8 +52586,11 @@
       <c r="AA596" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="597" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB596" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>640</v>
       </c>
@@ -52498,8 +52669,11 @@
       <c r="AA597">
         <v>3</v>
       </c>
-    </row>
-    <row r="598" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB597">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>641</v>
       </c>
@@ -52578,8 +52752,11 @@
       <c r="AA598" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="599" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB598" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>642</v>
       </c>
@@ -52658,8 +52835,11 @@
       <c r="AA599">
         <v>3</v>
       </c>
-    </row>
-    <row r="600" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB599">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>643</v>
       </c>
@@ -52738,8 +52918,11 @@
       <c r="AA600" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="601" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB600" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>644</v>
       </c>
@@ -52818,8 +53001,11 @@
       <c r="AA601" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="602" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB601" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="602" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>645</v>
       </c>
@@ -52898,8 +53084,11 @@
       <c r="AA602" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="603" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB602" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>646</v>
       </c>
@@ -52978,8 +53167,11 @@
       <c r="AA603" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="604" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB603" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="604" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>647</v>
       </c>
@@ -53058,8 +53250,11 @@
       <c r="AA604" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="605" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB604" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="605" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>648</v>
       </c>
@@ -53138,8 +53333,11 @@
       <c r="AA605" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="606" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB605" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="606" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>649</v>
       </c>
@@ -53218,8 +53416,11 @@
       <c r="AA606" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="607" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB606" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>650</v>
       </c>
@@ -53298,8 +53499,11 @@
       <c r="AA607" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="608" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB607" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>651</v>
       </c>
@@ -53378,8 +53582,11 @@
       <c r="AA608" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="609" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB608" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>652</v>
       </c>
@@ -53461,8 +53668,11 @@
       <c r="AA609" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="610" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB609" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="610" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>653</v>
       </c>
@@ -53541,8 +53751,11 @@
       <c r="AA610" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="611" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB610" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>654</v>
       </c>
@@ -53621,8 +53834,11 @@
       <c r="AA611" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="612" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB611" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>655</v>
       </c>
@@ -53701,8 +53917,11 @@
       <c r="AA612" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="613" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB612" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="613" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>656</v>
       </c>
@@ -53781,8 +54000,11 @@
       <c r="AA613" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="614" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB613" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>657</v>
       </c>
@@ -53861,8 +54083,11 @@
       <c r="AA614" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="615" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB614" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>658</v>
       </c>
@@ -53941,8 +54166,11 @@
       <c r="AA615" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="616" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB615" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>659</v>
       </c>
@@ -54021,8 +54249,11 @@
       <c r="AA616" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="617" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB616" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>660</v>
       </c>
@@ -54101,8 +54332,11 @@
       <c r="AA617" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="618" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB617" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>661</v>
       </c>
@@ -54181,8 +54415,11 @@
       <c r="AA618">
         <v>2</v>
       </c>
-    </row>
-    <row r="619" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB618">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>662</v>
       </c>
@@ -54261,8 +54498,11 @@
       <c r="AA619" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="620" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB619" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>663</v>
       </c>
@@ -54344,8 +54584,11 @@
       <c r="AA620" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="621" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB620" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="621" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>664</v>
       </c>
@@ -54424,8 +54667,11 @@
       <c r="AA621" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="622" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB621" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="622" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>665</v>
       </c>
@@ -54504,8 +54750,11 @@
       <c r="AA622">
         <v>3</v>
       </c>
-    </row>
-    <row r="623" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB622">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="623" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>666</v>
       </c>
@@ -54584,8 +54833,11 @@
       <c r="AA623" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="624" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB623" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="624" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>667</v>
       </c>
@@ -54664,8 +54916,11 @@
       <c r="AA624">
         <v>3</v>
       </c>
-    </row>
-    <row r="625" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB624">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="625" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>668</v>
       </c>
@@ -54744,8 +54999,11 @@
       <c r="AA625" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="626" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB625" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>669</v>
       </c>
@@ -54824,8 +55082,11 @@
       <c r="AA626">
         <v>3</v>
       </c>
-    </row>
-    <row r="627" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB626">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="627" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>670</v>
       </c>
@@ -54904,8 +55165,11 @@
       <c r="AA627" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="628" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB627" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>671</v>
       </c>
@@ -54984,8 +55248,11 @@
       <c r="AA628">
         <v>2</v>
       </c>
-    </row>
-    <row r="629" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB628">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
         <v>672</v>
       </c>
@@ -55064,8 +55331,11 @@
       <c r="AA629" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="630" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB629" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="630" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>673</v>
       </c>
@@ -55144,8 +55414,11 @@
       <c r="AA630">
         <v>3</v>
       </c>
-    </row>
-    <row r="631" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB630">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>674</v>
       </c>
@@ -55222,6 +55495,9 @@
         <v>3</v>
       </c>
       <c r="AA631" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB631" s="1">
         <v>3</v>
       </c>
     </row>
